--- a/기사데이터/토스/엑셀파일/news(토스, 2021.12.16~2021.12.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2021.12.16~2021.12.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2956,2506 +2956,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2021.12.23.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>"월, 늦게 출근··금, 이른 퇴근" 왜 IT는 근무를 단축하나</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003588888?sid=105</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>핵심요약'주32시간' 선언한 배민, '금요 조기 퇴근제' 정례화한 토스…근로시간 단축 움직임집중도와 생산성 높여…"재택근무에도 생산성 안 떨어졌다"유례 없는 개발자 인력난…"좋은 인센티브 될 것"연합뉴스최근 IT업계에서 근로시간을 줄여 근로 여건을 개선하려는 움직임이 활발해지고 있다.이같은 움직임은 IT 대기업을 중심으로 이뤄지고 있는데, 장기적 성장을 위해서는 노동의 '질적' 측면도 중요하다는 판단이 뒷받침된 것으로 보인다.또 최근 개발자 부족 등 '인재난'이 심해지자, 근로 여건을 개선해 하나의 '인센티브'로 활용하기 위한 것이라는 분석도 나온다.'주32시간' 배민·'금요 조기 퇴근' 토스…근로시간 단축 움직임23일 업계에 따르면 배달의민족을 운영하는 우아한형제들은 전사 송년 행사를 통해 내년 1월부터 주 32시간 근무제를 시행한다고 발표했다.우아한형제들은 지난 2017년부터 일 7.5시간, 주 35시간 근무제를 도입해 운영해왔다. 월요일은 오후 1시 출근, 오후 6시에 퇴근하는 방식이다. 화~금요일은 오전 9시 30분에 출근해서 오후 6시에 퇴근했다.주 32시간제 근무가 시행되면서 우아한형제들 임직원들은 하루 근무시간이 30분~1시간씩 단축된다. 월요일의 경우 오후 1시에 출근해 오후 5시에 퇴근한다. 화~금요일은 오후 5시 30분에 퇴근한다.모바일 금융플랫폼 토스를 운영하는 비바리퍼블리카는 지난달부터 금요일 조기 퇴근제(얼리 프라이데이)를 정식으로 도입해 운영하고 있다. 금요일 조기퇴근제는 앞서 4개월간의 시범 운영 기간을 거쳤다. 이에 따라 토스 임직원들은 오후 2시 퇴근이 가능하다.토스는 여기에 성탄절을 전후해 약 10일간 회사가 모두 쉬는 '겨울방학'도 정례화했다. 고객센터 등 일부 필수 인력을 제외하고 모든 팀원이 쉬는 것을 원칙으로 하며, 사내 메신저도 서로 답변을 요구하지 않는 휴식 상태로 전환한다.카카오게임즈도 지난 4월부터 기존 '놀금(노는 금요일) 제도'를 월 1회에서 격주로 확대했다. 놀금 제도는 지난 2018년 7월부터 카카오게임즈가 도입한 제도로 매월 마지막 주 금요일에 전 직원이 함께 휴일을 즐기는 것을 말한다.근로 시간 단축까진 아니지만 지나친 추가 근로를 제한하려는 움직임도 보인다.엔씨소프트는 지난 4월 최대 근로 시간에 도달한 직원들의 사내 출입을 제한하는 게이트 오프 제도를 정식 도입했다. 월 최대 근로 시간에 도달한 엔씨 직원은 사옥 1층 출입구 '스피드 게이트'에서 출입증을 인식해도 문이 열리지 않는다.네이버도 법정근로시간 최대치에 도달할 경우 시스템 접속을 제한하는 '셧다운'과 사옥 출입을 제한하는 '게이트오프' 도입을 노사 교섭 안건 중의 하나로 정하고 교섭을 진행하고 있다.만족도·생산성 높이고, 인재 영입 '인센티브'로IT기업들이 이렇듯 근로시간 단축에 나서는 이유는 뭘까.먼저 근로시간 단축이 직원들의 집중도와 생산성을 높일 것이라는 판단이 작용한 것으로 보인다.우아한형제들 관계자는 "재택근무를 진행하면서도 오히려 생산성이 떨어지지 않는 것을 확인했다"며 "회사가 강조하는 게 '책임'과 '몰입'인데 자율적인 환경과 근로시간 단축을 통해 일을 더 잘할 수 있는 환경이 조성될 수 있다고 판단했다"고 설명했다.그러면서 "워라밸이 하나의 시대정신이 된 만큼 균형을 맞추는 것이 중요하다고 생각한다"며 "이에 대한 직원들의 만족감도 매우 높은 편"이라고 덧붙였다.토스 관계자는 "얼리 프라이데이를 해도 업무의 지장이 없을뿐더러 업무의 완성도가 높다는 것이 베타 테스트 기간을 거쳐 증명됐다"며 "구성원에게 더 많은 혜택을 주자는 취지로 정식 도입하게 된 것"이라고 설명했다.아울러 업계는 이러한 근로시간 단축이 인재 영입에도 긍정적으로 작용할 것으로 기대하고 있다.최근 IT업계는 전례 없는 개발자 인력난에 시달리고 있다. 블록체인, 메타버스, 대체불가토큰(NFT) 등 신기술이 등장하는데다가 금융·유통 등 전 분야에서 디지털 전환히 급속히 이뤄지고 있기 때문이다. 개발자 수요는 급증하는데, 개발자 공급은 한정돼있는 상황인 셈이다.한 업계 관계자는 "실제로 채용 담당자와 이야기를 나눴는데, 조기 퇴근이나 금요 휴무 등에 대한 반응이 좋다고 하더라"며 "이같은 제도를 보고 지원하겠다고 하는 지원자들도 있다"고 전했다.다만 일각에서는 우려의 목소리도 나온다. 이들 기업의 근로시간 단축엔 '임금 유지'가 전제되어있다. 어느 정도 규모를 갖추고, 재원을 확보한 대기업이 아닌 이상 모두가 이러한 방식을 쫓기는 어렵다는 것이다.한 스타트업 관계자는 "근로 환경 개선이나 유연한 노동시간 등은 좋은 변화"라면서도 "막 성장하려는 스타트업들은 대기업과 같은 환경을 제공하기 어렵다. 오히려 대기업과 중소규모 업체들의 격차가 커질 수도 있다"고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2021.12.31.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>고객정보노출에 서비스 중단…삐걱거리는 마이데이터</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004690442?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>금융위원회마이데이터 서비스가 1월 5일 본격 시행을 앞두고 삐걱거리는 모습을 보이고 있다. 한 고객의 금융 정보가 다른 고객에게 노출되는 사고가 연달아 발생하고, 기존에 제공하던 서비스를 중단해야 하는 등 고객 불편이 생기고 있어서다. 업계에서는 각사별로 제한된 정보만 제공하기로 해 서비스를 제한적으로 운영할 수밖에 없다는 불만도 나오고 있다. 이에 따라 마이데이터 서비스가 본래 고객의 편리함을 늘린다는 취지와 달리 오히려 불편함을 만들고 있다는 지적이 제기된다. 31일 금융업계에 따르면 지난 28일 네이버파이낸셜의 마이데이터 서비스 시작날 고객 자산 정보가 노출되는 사고가 일어났다. 고객 A의 은행, 증권, 카드 등 계좌번호 뿐 아니라 송금·이체내역, 주식거래정보가 또 다른 고객 B씨에게 노출된 것이다. 정보 노출 피해를 입은 고객은 100명에 달하는 것으로 알려졌다.금융당국은 지난 23일 마이데이터 2022년 마이데이터 전면 시행을 앞두고 정보유출, 전산장애 등 문제를 예방하기 위해 정보기술(IT) 리스크 합동훈련을 실시했지만, 사고를 막지 못한 것이다. 정보보안에 대해 우려하는 고객들은 당장 마이데이터 서비스를 가입하는 것을 꺼리고 있다. 마이데이터 사업자들의 불만도 만만찮다. 사업자인 은행, 카드사, 빅테크 등이 각자 핵심 정보를 공유하지 않으려는 태도를 취하고 있기 때문이다. 이에 '내 손안의 금융비서'를 표방한 마이데이터 서비스가 반쪽짜리로 전락하는 것 아니냐는 우려도 나오고 있다. 실제로 이전부터 자산관리 서비스를 제공해 온 빅테크·핀테크의 경우, 마이데이터 본격 시행 후 일부 서비스를 종료해야 하는 처지에 놓였다. 대표적으로 뱅크샐러드, 토스 등에서 카드 전월 실적 확인 서비스가 중단된다. 신용카드별로 혜택을 받기 위한 전월 실적 충족 상황을 한 눈에 볼 수 있어 고객에 유용한 서비스로 꼽혔다. 그런데 카드 실적 관련 정보는 '신용정보'가 아니라 카드사에서 '가공한 정보'로 분류돼 마이데이터 표준 API 제공 항목에서 빠졌다. 기존 스크래핑 방식에서 가능했던 서비스였지만, 오픈 API 방식으로 일괄 바뀌면서 이제는 개별 카드사 앱을 통해서만 전월 실적 충족 상황을 확인할 수 있게 됐다. 마이데이터가 본격 시작되는 1월부터 스크래핑 방식은 금지된다. 기존 금융사들도 빅테크들이 제한적인 정보만 제공한다며 볼멘소리를 하고 있다.마이데이터 사업자들은 고객으로부터 정보제공을 동의받는 절차가 너무 복잡하다고도 토로한다. 고객이 이 서비스를 이용하려면 약관 확인, 동의, 인증 등 10여개 절차를 거쳐야 한다. 자산을 추가로 등록할 때도 등록기관 선택, 개인(신용)정보 수집·이용 동의, 통합인증거래 이용 동의와 인증까지 거쳐야 한다. 이에 업계에서는 꾸준히 인증 절차를 간소화해달라고 금융당국에 요청하기도 했다.이런 상황에서 토스가 일부 사용자에 대해 사용자가 일일이 선택해야 하는 연결기관 선택 기능을 일괄 연결로 제공해 신용정보법 위반 논란도 생겼다.한 마이데이터 사업자는 "당초 마이데이터 서비스로 계획했던 것들이 정작 뚜껑을 열어보니 못하는 것들이 많아 사업을 상당부분 수정했다"며 "서비스 내 응답 지연 사태까지 발생하며 오히려 고객 불편이 가중되는 상황"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2021.12.31.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>스타벅스 충전하고 깜빡한 고객 돈 ‘30억’...5년 지나 스벅이 ‘꿀꺽’</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000784038?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>스타벅스 선불충전금 5년 지나면 사용 못해지난해까지 낙전수입 30억...스타벅스 이익으로 산입유효기간 없는 백화점 상품권과 대조2026년 스타벅스 낙전수입 120억원 이상으로 확대        직장인 강유진(30)씨는 최근 선물받은 스타벅스 카드를 애플리케이션(앱)에 등록하다 과거 사용하던 또 다른 카드가 있다는 사실을 알았다. 1만원을 충전해 아이스 아메리카노 한 잔을 마신 후 5900원의 잔액이 남아있었다.강씨는 매장에 해당 카드 잔액의 우선 사용을 요청했지만, 직원은 이를 거절했다. 유효기간 5년이 지나 사용할 수 없고, 환불도 해줄 수 없다는 이유에서다. 강씨는 “휴대폰을 교체한 후로 잊고 있었다”면서 “분명 내 돈인데 환불조차 받지 못한다는 건 말이 안되는 것 같다”고 했다.스타벅스 사이렌오더로 음료를 주문하는 모습. / 배동주 기자        한국 고객들이 충전 후 깜빡하거나 쓰지 않은 스타벅스 선불충전금(고객이 스타벅스 카드에 미리 충전한 돈)이 30억원을 넘어섰다. 스타벅스는 이 돈을 고객들에게 돌려주지 않고 자사 이익(영업외수익)으로 귀속시켰다.사이렌오더(선불로 돈을 충전해놓고, 원하는 음료를 사전에 주문할 수 있는 시스템)가 인기를 끌며 이런 방식으로 스타벅스가 챙기는 낙전수입이 오는 2026년에는 120억원(누적 기준) 규모로 늘어날 전망이다.스타벅스는 주요 핀테크 기업인 토스나 네이버페이와 달리 고객들이 충전한 선수금을 마음대로 쓸 수 있다. 빚을 갚아도, 주식에 투자해도 된다. 이러한 규제공백을 톡톡히 누리면서도 고객들에게 마땅히 돌려줘야 할 돈까지 챙긴다는 비판이 나온다.31일 유통업계에 따르면 스타벅스코리아는 고객이 깜빡했거나 잊은 채 사용하지 않은 선불충전 카드 잔액으로 지난해까지 약 30억원이 넘는 이익을 거둔 것으로 추정된다.발행된 선불충전 카드 가운데 매년 5~6% 정도가 쓰이지 않은 채 남겨지는데, 5년 전인 2016년 말 스타벅스 선수금잔액이 500억원이었던 것을 고려한 수치다. 스타벅스는 선불충전 카드 잔액을 5년 뒤 선수금에서 잡이익으로 귀속한다.이 돈은 앞으로 더 늘어날 전망이다. 2009년 스타벅스가 국내에 선불카드를 처음 출시했을 때만 해도 선수금은 21억원에 불과했지만 10여년 사이 무려 90배 늘었기 때문이다. 2014년 사이렌오더를 도입한 것이 결정적인 계기가 됐다.그래픽=손민균        올해 고객들이 스타벅스 카드에 충전한 돈이 2000억원을 넘을 것으로 전망됨에 따라 5년후 스타벅스가 챙기는 낙전수입은 120억원 규모로 불어난다.이는 스타벅스의 불공정 약관 때문이다. 스타벅스는 선불충전 카드를 범용성이 없는 금액형 상품권으로 규정하고 5년의 유효기간이 지나면 소멸하거나 회사에 귀속시킨다는 내용을 약관에 넣어놨다. 돈이 아니라 상품권이라는 것이다.반면 선불충전 카드를 운용하는 카카오페이, 네이버페이, 토스 등 핀테크 기업들은 선불충전금에 유효기간을 두지 않고 있다. 고객이 언젠간 찾아갈 돈이라는 판단에서다.대표적인 금액형 상품권인 백화점 상품권도 사실상 유효기간이 없다. 유효기간에 5년이 명시돼 있지만, 백화점들은 발행 일자를 적지 않는 방식으로 언제든지 사용할 수 있도록 하고 있다. 백화점 업계 관계자는 “무상으로 지급한 상품권은 유효기간이 있지만, 고객이 구매한 금액형 상품권은 사실상 유효기간이 없다”고 말했다.전성인 홍익대학교 경제학부 교수는 “은행은 고객이 사용하지 않고 잊은 돈이 아무리 적어도 계좌를 휴면으로 돌릴 뿐 이익으로 산입하지 않는다. 고객 돈이기 때문”이라면서 “소비자 보호 측면에서 부적절한 것 같다”고 지적했다.스타벅스는 공정거래위원회의 표준약관에 따른 것으로 문제가 없다는 입장이다. 스타벅스 관계자는 “공정위가 최종 충전일로부터 5년까지만 고객이 신유형 상품권의 미사용 부분에 대한 반환을 청구할 수 있도록 하고 있어 이후 이 돈을 스타벅스 이익으로 귀속시키는 것이 법적으로 문제가 없다”고 말했다.그러나 이는 스타벅스가 지나치게 약관을 자사에 유리하게 해석하고 있기 때문이라는 지적이 나온다. 공정위 표준약관의 적용이 5년 이후 소멸을 뜻하지 않기 때문이다. 공정위 약관심사과 관계자는 “표준약관 5년은 최소 보장 기간일 뿐”이라면서 “5년 이후 소멸 여부는 상품권 발행 업체가 선택하는 문제”라고 설명했다.오성환 법무법인 바른 변호사는 “금액형 상품권은 일방이 상인일 경우에도 상사채권으로 보아 소멸시효가 5년인 점을 일반 소비자는 모르는 경우가 대부분”이라면서 “최소한 선불충전 시 5년 소멸시효에 대해서 사전 고지라도 해야 했다”고 지적했다.이와 관련 스타벅스 관계자는 “고객이 충전한 카드의 유효기간 5년이 지나면 해당 금액을 회사로 귀속하고 있지만, 고객이 환불을 요청하면 재차 새로운 카드를 발급해 잔액을 보전하는 방안을 마련해 두고 있다”면서 “최근 관련 제도를 매장에 공지했는데 일부 매장에 혼선이 있었던 것 같다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2021.12.23.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>고령층 3차접종 1월부턴 '사전예약제'…접종은 7일 후부터</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010905895?sid=102</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>기사내용 요약연말 집중접종기간 종료되며 전환 잔여백신 당일 예약은 여전히 가능 편의 고려해 대리 예약 등 지원도 [서울=뉴시스]고승민 기자 = 지난 4일 서울 청구성심병원 접종센터를 찾은 시민이 접종 문의를 하고 있다. 2021.12.04. kkssmm99@newsis.com[서울=뉴시스] 김진아 기자 = 연말까지 60세 이상 고령층의 집중 접종 기간이 끝나며 내년 1월부터는 이들 연령도 사전 예약을 통해 코로나19 백신 3차 예방접종을 받을 수 있다.다만 고령층의 편의를 고려해 대리 예약, 주민센터 등을 통한 예약 지원은 가능하다.코로나19 예방접종대응추진단(추진단)은 내년 1월부터는 60세 이상 고령층의 3차 접종을 사전 예약에 기반한 접종으로 전환할 예정이라고 23일 밝혔다.현재 방역 당국은 고령층의 경우 온라인 예약 등에 어려움을 느끼는 점을 감안해 오는 12월 말까지 인플루엔자 접종과 동일하게 사전 예약 없이 의료기관 당일 방문을 통한 접종을 시행하고 있다.그러나 연말 기간 종료와 함께 3차 접종 대상의 대다수가 50대 이하에 집중되는 만큼 고령층에 대해서도 사전 예약을 통한 접종 방식으로 전환키로 했다. 다만 잔여 백신을 예약할 경우 당일 접종도 가능하다.당국은 고령층의 편의를 고려해 온라인 예약을 지원하기 위한 대리 예약, 콜센터·읍면동 주민센터 등을 통한 예약 지원은 계속할 예정이다.아울러 현재는 3차 접종을 서두르기 위해 한시적으로 예약일 2일 후 날짜부터 접종을 허용하고 있으나, 1월부터는 백신 배송기간을 고려해 예약일로부터 7일이 지난 시점부터 접종이 가능하도록 할 계획이다.추진단은 내년 1월3일부터 6개월 유효기간의 방역 패스(접종증명·음성확인제)가 시행되는 점을 감안해 2차 접종 후 6개월이 지난 이들에 대해 3차 접종을 서두를 것을 당부했다.지난 7월6일 이전 2차 접종을 마친 경우 내년 1월3일 0시를 기준으로 유효기간이 일괄적으로 만료된다.현재 2차 접종 후 경과일은 질병관리청 쿠브(COOV) 애플리케이션(앱)에서 확인할 수 있으며, 내년 1월3일부터는 네이버, 카카오, 토스, PASS 앱 등의 전자출입명부 플랫폼에서도 2차 접종 후 경과일 확인이 가능하다.방역 패스 적용과 함께 다중이용시설 이용 시 QR코드 스캔 시 유효한 증명서인 경우 `접종 완료자입니다`라는 음성 안내가 진행된다. 추진단은 유효기간 만료 시 별도 효과음을 통해 시설관리·운영자가 접종상태를 확인할 수 있도록 서비스를 개편할 예정이다.추진단은 "음성 안내 기능을 통해 소규모 시설 또는 사람이 몰리는 시간대에 시설관리, 운영자의 출입명부 운영, 방역 패스 확인에 대한 부담이 완화할 것으로 기대하고 있다"고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2021.12.21.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>부산창조센터, 서울서 스타트업 시장검증 행사</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012814644?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>부산창조경제혁신센터 퀘스천 마켓[부산창조경제혁신센터 제공]    (부산=연합뉴스) 신정훈 기자 = 부산창조경제혁신센터는 최근 서울 연남장에서 스트타업 '퀘스천 마켓'(QUESTION MARKET)을 성공적으로 열었다고 21일 밝혔다.    퀘스천 마켓은 로컬크리에이터와 소셜벤처의 시장 진출에 앞서 소비자와 전문가를 대상으로 사전 검증을 받는 행사이다.    이번 행사는 소비자 브랜드 인식 설문 프로그램인 경험존을 비롯해 소비자와 전문가에게 브랜드를 소개하고 제품을 판매하는 스타트업 페어, 협업의 중요성에 관해 이야기하는 로컬콜라보레이션 토스쇼 등 프로그램으로 진행됐다.    부산창조경제혁신센터가 육성한 로컬크리에이터 7개 사와 소셜벤처 4개 사가 참여해 생산자가 아닌 소비자 관점에서 어떤 인식으로 제품과 서비스를 구매하는지 조사했다.     이를 통해 1천500여 건의 소비자 응답을 받았고, 투자사·유통사·브랜딩 등 분야별 전문가 10인의 시장검증을 거쳤다.    부산창조경제혁신센터 측은 "이번 퀘스천 마켓은 정량적 지표보다는 소비자 인식과 전문가 의견 같은 정성적 지표에 중점을 뒀다"라며 "퀘스천 마켓이 생산자 관점이 아닌 소비자 관점에서 비즈니스를 전개할 수 있는 중요한 전환점이 됐다"라고 밝혔다.    sjh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2021.12.20.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>[해설]구삐, 민간 플랫폼 흡수 확대, 목적은?</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002988847?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>국민비서 서비스는 정부부처에서 발송하는 안내문이나 고지 등 개인에게 필요한 행정정보를 받을 수 있어 국민적 관심이 높다. 백신 접종, 국민지원금, 교통범칙금 등 생활에 필수적인 정보를 제공하는 플랫폼은 고객 유입 확보에서 압도적으로 유리할 수 밖에 없다.새해 본격화할 마이데이터, 공인전자문서중계와 시너지도 기대된다. 종합 금융 플랫폼으로서 입지를 다질 수 있는 절호의 기회다. 빅테크뿐만 아니라 금융사, 이동통신사까지 앞다퉈 뛰어드는 이유다.20일 금융권에 따르면 10여개 기업이 국민비서 서비스 유치를 위해 연초부터 준비해온 것으로 알려졌다.한 은행 관계자는 “은행 애플리케이션(앱)에서 교통범칙금 같은 정부 알림을 제공하면 결제까지 원스톱으로 연결할 수 있다”면서 “향후 마이데이터, 공인전자문서중계, 사설인증서 등과 시너지를 일으킬 수 있다”고 내다봤다. 또 월간 활성 이용자수(MAU)를 대폭 늘려 플랫폼 규모를 키울 수 있다.현재 국민비서 서비스를 제공하는 플랫폼은 네이버·카카오·토스 등 3개사다.코로나19가 장기화하면서 빅테크 영향력은 날로 커졌다. 백신 접종과 국민지원금 지급과정에서 국민들에게 빠르고 쉽게 정보를 전달할 수 있는 창구 역할을 톡톡히 했기 때문이다.그 결과 국민비서 서비스 가입자는 가파르게 성장했다. 현재 가입자 수는 1400만명에 달한다.반면 기존 은행들은 발등에 불이 떨어졌다. 모든 금융사가 플랫폼 기업 전환을 외쳤지만, 빅테크·핀테크와 생존 경쟁에서 뒤떨어져서다.기존 금융사는 억울하단 입장이다. 정부가 올해 초 국민비서 서비스 제공기업을 선정하면서 애초 금융사를 거론하지 않았다는 것이다. 금융권에선 '기울어진 운동장'을 지적해왔다. 금융사는 지금이라도 반드시 국민비서 서비스를 따내겠다는 의지가 강하다.은행권은 하나의 금융앱 플랫폼에서 각종 고지서를 받고 결제까지 원스톱으로 가능한 금융 월렛(지갑) 구축을 목표로 한다.은행이 국민비서 서비스에 뛰어드는 배경엔 데이터 시장 선점을 위한 배수진도 깔려 있다. 국민비서 서비스를 제공하면 내년에 개화할 마이데이터 서비스에 접목할 수 있기 때문이다.신용정보 기반 맞춤형 금융서비스를 제공하면서 동시에 일상생활에서 챙겨야 할 각종 고지서를 알아서 해결해 주는 금융슈퍼앱을 만든다는 복안이다.행안부는 추가 사업자 선정에서 기업 개수를 제한하진 않았다. 다만 대중적인 플랫폼과 기술력을 가진 기업이 유리할 것으로 보인다.특히 금융사들은 국민비서와 함께 생활 밀착형 서비스 확보에 주목하고 있다. 주요 은행들은 음식 배달, 택배, 라이브커머스, 축산물 구매 등 생활 서비스를 자체 모바일 앱에 탑재하는 추세다.궁긍적 목표는 플랫폼 금융으로의 변신이다. 소비자들의 생활 데이터와 결제 정보 등을 활용해 새로운 금융 결합 상품 제공 등을 준비중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2021.12.29.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>[2021 올해의 인물]이승건 비바리퍼블리카(토스) 대표</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002990808?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>이승건 비바리퍼블리카 대표토스 창업자 이승건 비바리퍼블리카 대표는 올해 2월 토스증권, 10월 토스뱅크를 출범시켰다. 토스는 2015년 간편송금 서비스를 출시해 높은 혁신성과 편의성을 바탕으로 단기간 내 다수 고객 확보에 성공했다. 이후 금융업 진출에 박차를 가하며 토스페이먼츠(결제), 토스인슈어런스(보험)에 은행과 증권사까지 확보하면서 금융 슈퍼 애플리케이션 전략을 구체화하는 중이다.올해 토스는 평생 무료 수수료 정책을 선언했다. 기존 10회로 제한됐던 무료 수수료 정책을 과감하게 없앴다. 송금 수수료와 국내외 현금자동입출금기(ATM) 입·출금 수수료는 무제한 무료다.또 모빌리티 스타트업 '타다'를 인수하며 핀테크와 모빌리티를 결합한 혁신을 예고했다. 지난 10월 토스는 쏘카가 보유한 타다 운영사 브이씨엔씨(VCNC) 지분 60% 인수를 결정하고 3사 간 양해각서(MOU)를 체결했다토스는 타다 인수를 통해 토스 결제 등 금융 비즈니스의 외연을 확장하고, 모빌리티 서비스 이용자와 산업 종사자의 선택폭을 넓힘으로써 건전한 성장과 혁신을 이어간다는 전략이다.현재 누적 가입자수는 2100만명이다. 누적 투자금액은 1조 원 이상, 출시 서비스는 50개를 넘어섰다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2021.12.24.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>배달하고 쇼핑하고‥시각 장애인들에겐 먼 APP</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/214/0001168247?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>[뉴스데스크]◀ 앵커 ▶요즘은 스마트폰 하나만 있으면 음식 배달도 시키고 쇼핑도 자유롭게 할 수가 있죠. 코로나로 집에 머무는 시간이 많아지면서 이런 애플리케이션 사용하시는 분들도 그만큼 많아졌는데요. 하지만 모두가 다같이 편리해진 건 아닙니다. 특히 시각 장애인들은 메뉴를 찾는 일부터, 결제를 하는 것까지, 아직까지 너무나 어려운 이야기라고 하는데요. 이유경 기자가 전해드리겠습니다.◀ 리포트 ▶앞이 전혀 보이지 않는 전맹 시각장애인인 이경석 씨가 배달의 민족 앱으로 주문을 하려 합니다.손가락으로 화면을 쓸면 커서가 움직이면서 내는 소리를 들어야 하는데 페이지가 넘어가지 않아 메뉴를 찾을 수 없습니다."자세히, 정보, 자세히, 정보"[이경석/전맹 시각장애인]"여기서 안 넘어가요."요기요와 쿠팡이츠는 간편 결제 기능에 있는 숫자 패드가 읽히지 않아서 결제를 못 합니다."비밀번호 찾기. 비밀번호 찾기"쇼핑을 하기는 더 어렵습니다.쿠팡, G마켓, SSG닷컴 같은 주요 8개 앱에선 제품에 대한 설명 없이 사진 파일 제목만 말해줄 뿐입니다."01 링크, 02 링크, 03 링크, 04 링크"바지인지 치마인지 알 수조차 없다는 말입니다.간편 결제 기능 역시 작동하지 않습니다."비밀번호 재설정, 보안텍스트필드"이런 면에선 새로 출시된 핀테크 앱들이 앞서 있습니다.앱을 개발할 때부터 장애인 사용을 고려했기 때문입니다.[정희연 플랫폼 디자이너/토스]  "(개발자들이) 접근성과 관련된 이슈들을 해결하도록 교육을 드리고 있습니다. 어떻게 하면 더 많은 사람들에게 문턱을 낮춰서 금융 서비스를 제공받을 수 있게 만들지‥"장애인들이 편리하도록 앱을 만드는 건 이미 기술적인 차원에선 전혀 어렵지 않다는 겁니다.미국과 캐나다, 유럽연합은 누구나 인터넷· 모바일 서비스를 이용하는데 제약이 없도록 법으로 의무화했습니다.[최영호 엔지니어/구글 (전맹 시각장애인)]"이 법들을 지키지 않으면 벌금을 물든 아니면 연방 정부에 납품이 안 되든 기업들은 그런 것들이 손해이기 때문에 법을 지켜야 합니다."장애와 나이에 상관없이 누구나 스마트폰을 편하게 쓸 수 있도록 하는 걸 모바일 접근성이라고 합니다.과학기술부가 조사한 국내 주요 앱의 모바일 접근성은 평균 점수 69.2점, D 학점을 받았습니다.MBC뉴스 이유경입니다.영상 취재 : 한재훈 이주혁 / 영상 편집 : 권지은MBC 뉴스는 24시간 여러분의 제보를 기다립니다. ▷ 전화 02-784-4000▷ 이메일 mbcjebo@mbc.co.kr▷ 카카오톡 @mbc제보</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2021.12.28.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>예상 깬 세대 교체…‘만 55세’ 이재근 KB국민은행장 내정자의 과제는</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000059485?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>재무·전략·영업 삼박자 갖춘 실력파…그룹 내 수익 비율 감소, 새로운 성장 동력 절실[비즈니스 포커스]서울 여의도 KB국민은행 빌딩 전경. 사진=KB국민은행 제공KB금융이 이재근 영업그룹 이사부행장을 KB국민은행장에 낙점했다. KB금융지주는 지난 12월 1일 윤종규 회장과 허인 KB국민은행장, 최명희·권선주·정구환 사외이사 등 5명으로 구성된 계열사대표이사후보추천위원회(대추위)를 열고 이 부행장을 차기 KB국민은행장 단독 후보로 추천했다. 새 KB국민은행장은 이달 중 추가로 열리는 은행장후보추천위원회의 심층 인터뷰 등 심사를 거쳐 은행 주주 총회에서 최종 확정된다. 임기는 2022년 1월부터 2년으로 그룹 내 계열사 대표이사 임기 사례와 동일하다. 1966년생인 이 내정자는 5대 시중은행 중 최연소 은행장이다. KB금융은 이번 인사를 통해 본격적인 세대교체를 예고했다.   전문성 갖춘 이재근 내정자‘살림꾼’, ‘파격 인사’, ‘야전 사령관’, ‘전략통’. 이재근 KB국민은행 은행장 후보에게 따라붙는 키워드다. 허인 행장의 바통을 이어받을 이 내정자는 서울고와 서강대 수학과를 졸업하고 서강대 경제학, 카이스트 금융공학 석사를 취득했다. 그는 재무·전략·영업 등 그룹 내 핵심 요직을 두루 거친 실력파다. 1993년 주택은행에 입행한 후 2013년 핵심 영업지역 중 한 곳인 판교테크노밸리지점장을 맡았다. 2015년 윤종규 KB금융그룹 회장의 눈에 띄어 지주 재무기획부장에 발탁됐고 2017년 상무로 승진한 직후 그룹 재무총괄(CFO)로 임명돼 내부 살림꾼 역할을 맡아 왔다. CFO는 회계·투자설명회(IR) 등을 총괄하는 그룹의 프런트맨으로 통하는데, 통상 그룹 CFO 자리를 부사장이 맡아 왔던 점을 고려하면 파격적인 인사였다. 파격 인사는 여기서 끝이 아니었다. 2020년 당시 이 내정자는 6명의 부행장 중 나이는 가장 어린 축에 속했지만 KB국민은행 부행장의 수석 격인 이사부행장으로 승진했다. 부행장들의 의견을 조율해 이사회에서 피력해야 하는 막중한 자리에 오른 것이다. 이와 함께 영업부행장으로 발탁, 1000여 개의 점포 관리를 총괄하는 야전 사령관 역을 맡았다.또 이 내정자는 은행 내 손꼽히는 브레인이다. 경영기획그룹 상무와 전무를 역임했고 2019년엔 KB국민은행 노조 파업 당시 총파업상황반장을 맡아 사태를 해결하기도 했다. 여기에 어윤대 전 KB금융 회장 시절 비서실장을 지내며 정무 감각까지 갖췄다는 평가를 받는다.그래픽=배자영 기자  젊어진 KB사실 KB국민은행 인사 발표 전만 해도 허인 행장의 4연임이 기정사실화되는 분위기였다. 하지만 KB금융은 예상을 깨고 ‘세대교체’를 단행했다. 이재근 내정자는 2021년 만 55세다. 진옥동 신한은행장(만 60세‧1961년생), 권광석 우리은행장(만 58세‧1963년생), 박성호 하나은행장(만 57세‧1964년생)과 비교해 가장 젊다. 이 내정자가 2022년 공식 취임하면 현재 박성호 하나은행장이 차지하고 있는 최연소 시중 은행장 타이틀을 넘겨받게 된다.은행뿐만이 아니다. KB금융은 이번 인사를 통해 본격적인 ‘세대교체’에 나섰다. 카드·생명보험 등 주요 계열사에도 1960년대 중반에 출생한 인사들을 현장에 배치했다.KB국민카드 대표에는 이창권 KB금융지주 전략총괄(CSO)·글로벌전략총괄(CGSO) 부사장이 추천됐다. KB생명보험과 KB저축은행 신임 대표는 이환주 KB금융지주 CFO와 허상철 KB국민은행 스마트고객그룹대표가 각각 내정됐다. 이창권 내정자는 1965년생으로 이동철 현 KB국민카드 사장보다 네 살 어리다. 이환주·허상철 내정자는 각각 1964년생, 1965년생이다. 이환주 내정자는 허정수 현 KB생명 대표보다 네 살 더 젊고 허상철 내정자는 신홍섭 현 KB저축은행 대표보다 세 살 어리다. 삼성이나 네이버처럼 밀레니얼 세대 임원이 뽑히지는 않았지만 조직이 한층 젊어진 셈이다.물론 이들 모두 각 분야의 전문성을 갖춘 인재들이다. 이창권 내정자는 푸르덴셜생명 인수 등 굵직한 인수·합병(M&amp;A)을 성공시킨 전략통으로 통하고 이환주 내정자는 재무·전략·개인고객·외환 등 지주와 은행 내 주요 핵심 직무를 두루 거쳤다. 박정림·김성현 KB증권 각자대표, 이현승 KB자산운용 대표, 황수남 KB캐피탈 대표, 김종필 KB인베스트먼트 대표 등은 연임을 위해 재추천됐다. 이들의 공통점은 전문성을 겸비한 50대 인재란 점이다.추천된 후보는 2021년 12월 각 대추위의 최종 심사와 추천을 거쳐 지주 주주 총회에서 확정된다. 신임 대표 임기는 2년, 재추천된 대표들의 임기는 1년이다. 대추위는 “빅블러(산업 간 경계가 뒤섞이는 현상)의 심화 속에서 리딩 금융그룹으로의 확고한 위상 구축을 위해 시장 지위를 레벨업할 수 있는 역동적인 차세대 리더 그룹 형성에 중점을 두고 대표이사 후보를 선정했다”고 밝혔다.  디지털 전환과 빅테크 위협, 글로벌 진출 그렇다면 이재근 KB국민은행 내정자 앞에 당면한 과제는 무엇일까. KB국민은행은 2019년과 2020년 각 2조4390억원, 2조3195억원의 당기순이익을 올리며 ‘리딩 뱅크’ 자리를 차지했다. 올해 역시 신한은행과의 경쟁에서 리딩 뱅크 자리를 수성할 것으로 보인다. KB국민은행의 올해 3분기 기준 누적 순이익은 2조2003억원으로 사상 최대치다. 1년 전 같은 기간과 비교하면 16.9% 증가했고 신한은행과 비교해선 약 700억원 더 많다.하지만 안팎의 상황은 녹록하지 않다. 금융 당국이 가계 대출 규제에 고삐를 바짝 죄면서 KB국민은행의 강점이었던 리테일(소매 금융) 시장에서 수익성을 기대하기 어려워졌다.점포 수가 줄어들고 있는 것 또한 변수다. 카카오와 토스 등 빅테크가 정보기술(IT)을 무기로 소비의 주측으로 떠오르고 있는 MZ세대(밀레니얼+Z세대)를 홀리면서 경쟁이 격화하고 있다. 그간 KB국민은행은 시중 은행 중 전국 곳곳에 가장 많은 점포망을 보유하며 리테일 시장에서 우위를 점하고 있었는데 금융권의 디지털 전환 가속으로 이점이 사라지고 있는 셈이다. 더구나 은행이 벌어들이는 그룹 내 수익 비율이 낮아지는 추세다. 불과 3년 전만 해도 70%가 넘었던 수익 비율은 현재 50%대로 떨어졌다. 비은행의 비율을 높이려는 그룹 내 전략으로 해석되기도 하지만 빅테크를 비롯한 비은행권의 소매 금융 도전이 거세지는 상황에서 승기를 잡기 위해선 새로운 성장 동력이 필요한 시점이다. 물론 KB국민은행은 수도권 주요 대학과 주거래 계약을 하는 등 기관 영업을 강화하며 수익 구조를 다변화하고 있다. 다만 이 역시도 중소기업 등에 대한 자금 공급 역할을 더 확대해야 한다는 의견이 있다.글로벌 시장도 주목해야 한다. 포화 상태에 이른 한국 금융 시장을 넘어 성장성이 높은 해외 지역에서 ‘제2의 도약’이 필요한 시점이다. 2021년 3분기 기준 KB국민은행은 4대 시중 은행(KB‧신한‧하나‧우리) 중 해외 영업수익이 가장 낮다. 시급한 과제는 인도네시아 부코핀은행의 정상화다. 현재 KB국민은행은 캄보디아와 인도네시아를 중심으로 영토를 넓히고 있다. 그중 부코핀은행은 인도네시아 총 115개 상업은행 중 자산 규모 19위인 대형 은행이다. 하지만 신종 코로나바이러스 감염증(코로나19) 사태로 2020년에 이어 2021년에도 부진한 성적표를 기록 중인데 최근 KB국민은행 출신 경영진을 선임하고 자본 확충을 통한 성장 동력 마련에 나선 상황이다. 디지털 전환 가속, 빅테크 위협, 글로벌 진출 등 산적한 과제 속에서 이 내정자가 어떻게 새로운 전환점을 마련할 수 있을지 귀추가 주목된다. 돋보기‘포스트 윤종규’는 누구?…KB금융 3인 부회장 체제 시동그래픽=배자영 기자그동안 KB금융에서 KB국민은행장은 그룹의 회장직으로 가는 필수 코스였다. 하지만 2020년 말 부회장직이 신설되면서 승계 구도에 변화가 생겼다. 2021년 초 양종희 부회장이 선임된 데 이어 허인 KB국민은행장, 이동철 KB국민카드 사장도 지주 부회장으로 이동하면서 ‘포스트 윤종규’ 체제를 향한 경쟁 구도가 본격화했다는 분석이 나온다. 3인 부회장은 모두 1961년생으로 동갑이다.양 부회장은 기존대로 글로벌과 보험 부문 등을 관할하고 허 부회장과 이 부회장은 디지털을 비롯해 다른 부문을 맡을 것이란 추측이 나온다. 3명의 부회장이 각 부문에서 어떤 성과를 내는지에 따라 윤종규 KB금융그룹 회장의 뒤를 잇는 차기 수장이 결정된다는 게 업계의 중론이다. 윤 회장의 임기는 2023년 11월 만료된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2021.12.31.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>마이데이터 시범운영 삐걱…핀테크 "금융사 연동 원활히 안돼"</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012888596?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>금융사-핀테크 경쟁관계…"직원이 개인 계좌로 연동 시험"[연합뉴스TV 제공]    (서울=연합뉴스) 한혜원 기자 = 본인신용정보관리업(마이데이터) 서비스 시범 운영 기간에 곳곳에서 응답 지연, 정보 유출 등 잡음이 나고 있다.     금융당국이 마이데이터 전면 시행일을 다음 달 1일에서 5일로 나흘 미룬 것도 이런 잡음과 무관치 않다는 관측이 나온다.     31일 핀테크 업계에 따르면 지난 29일 일부 핀테크사는 NH농협은행과 일부 금융사에 요청한 표준 응용프로그램 인터페이스(API) 정보를 제대로 제공받지 못하는 현상을 겪었다.     핀테크 기업 관계자는 "농협은행에 API 정보를 요청해도 응답이 안 오는 상태가 29일 오후 내내 진행돼 저녁에는 관련 서비스를 할 수 없었다"고 말했다.    다른 핀테크 기업 관계자는 "29일 오후 농협은행과 일부 금융기관에서 동일한 장애가 발생해 일단 고객에게 관련 안내를 제공했다"고 했다.     하지만 금융사와 핀테크 기업이 긴밀하게 협력하는 관계는 아닌 터라 어느 쪽도 문제 원인을 정확하게 파악하지 못한 상태다.     농협은행 관계자는 "정보 전송 요청이 일시에 몰렸을 때 응답 지연이 몇 차례 발생한 것으로 파악했다"며 "장시간 오류는 없었으며, 현재는 정상 복구한 상태"라고 설명했다.     다른 은행 관계자는 "이용량이 많았던 일부 핀테크 앱에서 일시적으로 어려웠을 수 있지만 은행 문제는 아니었다"고 밝혔다.     마이데이터는 흩어진 개인 신용정보를 한곳에 모아 보여주고 재무 현황·소비습관을 분석해 금융상품을 추천하는 등 자산관리와 신용관리를 도와주는 서비스다. 금융데이터 (PG)[홍소영 제작] 일러스트    이런 서비스는 핀테크 업계에서는 새로운 분야가 아니다.     토스, 카카오페이, 네이버파이낸셜, NHN페이코, 뱅크샐러드 등 기업들은 '내 손안의 금융비서'와 같은 이 서비스를 이미 수년간 진행해왔다.    다만 기존에는 사업자들이 고객을 대신해 금융사 사이트에 접속하고 화면을 읽어내는 '스크린 스크레이핑'(screen scraping) 방식을 이용했다면, 마이데이터 전면 시행 이후에는 데이터 표준 API를 통해 금융기관 등에 흩어진 정보를 받게 된다.     이는 스크레이핑 방식보다 보안 안전성이 높은 것으로 평가된다.     현재 핀테크 기업들은 기존 자산관리 서비스를 스크레이핑 구조에서 마이데이터 망 구조로 안전하게 이관하고 안정성을 확보하는 것이 과제다.    토스 이용자 800만명 이상이 이미 마이데이터와 비슷한 자산조회 서비스를 쓰고 있고, 카카오페이 이용자는 1천500만명에 달한다.     네이버페이의 '내 자산' 서비스를 마이데이터 기반으로 옮기고 있는 네이버파이낸셜에서는 지난 28일 시스템 오류로 회원 100명의 자산 정보가 다른 이용자에게 노출되는 사고가 났다.     은행, 증권, 카드 등 계좌번호와 송금, 주식거래, 결제 정보 중 일부 내용이 노출됐다.     금융사와 핀테크가 서로 '정보 제공자'이자 '경쟁자'인 상황에서 일부 핀테크사는 서비스 안정화를 효율적으로 진행하지 못하고 있다.     한 핀테크 기업 관계자는 "금융사와 표준 API 연동을 마쳤다고 해도, 실제로 조회 등이 제대로 이뤄지는지 보려면 그 금융사 상품을 가지고 있는 사내 직원을 찾아 개인적으로 시험을 해봐야 하는 상황"이라고 전했다.     금융위원회는 "업계의 요청 등으로 마이데이터 전면 시행일을 새해 첫 주말 후인 내년 1월 5일로 조정한다"고 29일 저녁 밝혔다.     hye1@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2021.12.16.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>일단 사고 결제는 나중에…신한은행, 페이코와 '후불결제' 서비스 진출</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004641494?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>신한은행-NHN페이코 혁신서비스 추진 업무협약은행권 최초 'BNPL' 선구매 후결제 서비스 개발전필환 신한은행 디지털전략그룹장(오른쪽)이 16일 서울 중구 명동 소재 신한 EXPACE(익스페이스)에서 정연훈 NHN페이코 대표이사와 업무협약을 맺었다. 신한은행 제공신한은행이 NHN페이코와 손잡고 은행권 최초로 후불결제 서비스 BNPL(Buy Now Pay Later)을 내놓는다. BNPL은 현금 없이 일단 구매하고 나중에 결제하는 '선구매 후결제' 서비스다. 신용카드 없이도 이용할 수 있어 전자상거래 확산에 따라 글로벌 금융시장의 새로운 트렌드로 떠올랐다.  16일 신한은행은 NHN페이코와 MZ세대(밀레니얼＋Z세대) 고객을 위한 신서비스 발굴 및 생활금융 플랫폼 강화를 위한 업무협약을 체결했다고 밝혔다. 신한은행은 2030세대가 많이 쓰는 페이코의 데이터와 고객 접점을 활용해 '더 쉽고 편안한 새로운 금융' 서비스를 제공하겠다는 목표를 세웠다. 신한은행은 페이코와 협업해 은행권 최초로 BNPL 서비스를 개발하기로 했다. 신용카드를 발급받기 어려운 MZ세대에게도 혁신적인 후불 결제 서비스를 제공하겠다는 계획이다. 현재 국내에서는 네이버파이낸셜과 쿠팡이 후불 결제 서비스를 운영하고 있다. 카카오페이와 토스도 내년 중 소액 후불 결제 서비스 출시를 준비 중이다. 양사는 페이코의 MZ세대 소비자와 제휴 가맹점주를 위한 특화 금융상품도 함께 개발할 예정이다. 또 페이코 플랫폼에서 신한은행 사업자대출과 전세대출 한도 조회가 가능하도록 서비스를 확대한다. 신한은행 관계자는 “신한은행과 NHN페이코의 결합을 통해 기존과는 완전히 다른 혁신적인 생활금융서비스를 제공하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2021.12.16.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>질병청 '쿠브', 올해 가장 많이 설치된 앱…'당근마켓' 2위</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012819115?sid=105</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>모바일인덱스 집계(서울=연합뉴스) 최현석 기자 = 질병관리청의 신종 코로나바이러스 감염증(코로나19) 예방접종 인증앱 '쿠브'(COOV)가 올해 가장 많이 설치된 애플리케이션(앱)으로 파악됐다.     16일 모바일 빅데이터 플랫폼 기업 아이지에이웍스의 모바일인덱스에 따르면 쿠브는 올해 1천679만2천224건 설치돼 신규 설치 건수 1위를 기록했다.     지역생활 커뮤니티 앱 당근마켓이 1천227만4천185건으로 2위를 차지했고 쿠팡이츠(1천135만9천838건), 배달의민족(1천83만7천335건), 업비트(957만220건)가 뒤를 이었다.    인스타그램(942만6천379건), 토스(925만6천944건), 틱톡(903만3천144건), T맵(896만829건), 쿠팡(896만801건) 등도 10위권에 들었다.     월별로 보면 1~5월에는 '국세청 홈택스', '쿠키런: 킹덤', 'T맵', '업비트', '토스' 등 다양한 앱들이 1위에 올랐다.    그러나 코로나19 확진자가 늘어나기 시작한 6월 이후로는 쿠브가 7개월 연속으로 1위를 차지했다.2021 대한민국 모바일 앱 트렌드 신규 설치 TOP10[모바일인덱스 제공]    harrison@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2021.12.30.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>[일문일답]고승범 “가계대출 증가율 4~5%, 인터넷銀은 달리 고려”</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005117049?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>고승범 금융위원장, 30일 출입기자들과 만나 밝혀토스뱅크 케이뱅크 등 인터넷銀은 완화적용 시사[이데일리 김정현 기자] 고승범 금융위원장이 30일 카카오뱅크, 토스뱅크, 케이뱅크 등 인터넷전문은행의 내년도 가계대출 한도를 일반은행보다 완화적으로 적용하겠다고 시사했다.고 위원장은 이날 오후 서울 광화문 정부종합청사 금융위 기자실에서 기자들과 만나 “가계부채 증가율을 내년에 4~5%대에 하겠다고 했고 구체적인 내용은 은행들과 논의 중이다”며 “토스뱅크, 케이뱅크 등 인터넷전문은행은 업권이 조금 달라서 이런 부분을 고려해서 할 것”이라고 밝혔다. 시중은행과 달리 이제 막 영업을 시작하는 인터넷은행이 가계대출 제한을 엄격히 받을 경우 영업이 어려울 수 있다는 우려에 대한 답변이다. 고 위원장은 그러면서 “중저신용자 대출도 충분히 반영되도록 협의 중이다. 곧 협의가 마무리될 것”이라고 덧붙였다.고승범 금융위원회 위원장이 30일 오후 정부서울청사 금융위 기자실을 방문해 기자들의 질문에 답하고 있다. (사진=연합뉴스)다음은 고 위원장과의 일문일답.-최근에 투자자들 사이에서 일부 기업의 물적분할에 의한 피해 예방 정책 도입을 주장하는 여론 확산 중인데.△물적분할 문제는 굉장히 관심의 대상이 되고 있다. 내년 초 국회의원 주재로 토론회도 열리고 거기에도 담당 과장이 참석할 계획이다. 앞으로 이 주제에 대해서는 법적인 것도 여러 측면에서 검토하겠다.-내년도 은행별 가계부채(대출) 증가율을 4~5%선에서 관리한다고 했다. 토스뱅크나 케이뱅크처럼 이제 막 영업 시작하는 곳은 가계부채 (증가율 상한을) 엄격히 적용하면 영업 제한이 많다는 이야기가 많다. 업권별로 다르게 적용할 계획이 있나.△가계부채 증가율을 4~5%대 하겠다고 했다. 구체적인 내용 은행과 논의 중이다. 인터넷전문은행은 업권이 조금 달라 이런 부분 고려해서 할 것이고, 중저신용자 대출도 충분히 반영되도록 협의 중이다. 곧 협의가 마무리될 것이다.-실손보험료율 산정이 늦어지고 있는데, 업계와의 의견조율 때문인가. 올해 안에 마무리되나.△실손보험 문제는 막바지 협의 중이다. 곧 결론을 내려고 한다. 내일 발표가 가능할지 며칠 늦어질지 모르나 금명 간에 발표하려고 한다. 실손보험이 지속가능성이 있어야 하고, 소비자보호 측면에서도 봐야 한다. 종합 고려해서 발표하겠다.-자본시장의 불공정거래행위를 수사하는 특별사법경찰의 경우 그간 금감원의 인원 증원 얘기만 나오다가 금융위에서도 특사경을 만들었는데 계기가 무엇인가.△자본시장 관련해 효율적으로 문제에 대처하기 위해서다. 특사경 확대의 경우 금감원 역할도 강화하고 금융위 기능도 강화하는 쪽으로 하겠다.-미국이 내년도 금리 인상 얘기하고 있고 한국은행도 내년 3차례 금리 인상 가능성이 이야기된다. 이른바 ‘영끌족’ 등 대출자들도 많고 부동산 시장이 크게 하락한다는 얘기도 나오는데 상황을 어떻게 보고 있나. 이런 상황이 벌어졌을 때 대처방안도 마련 중인가.△가계부채 문제와 관련해 부동산 시장에 3분기 전까지 대응해야 한다고 말씀드린 것이 내년 여건 변화에 미리 대응해야 한다는 취지다. 미국이 기준금리를 인상할 때 신흥국이 영향을 받는 경우가 굉장히 많다. 1990년대 중후반 아시아 금융위기나 2008년 금융위기때도 그랬다. 그래서 우리가 빨리 대처해야 한다는 취지로 가계부채 대책을 추진하고 있다. 금리가 상승했을 경우에 대비한 여러 가지 정책을 발표를 한 바 있다. 잘 신경 쓰면서 대응하겠다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2021.12.28.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>집값 꺾이는데...영끌족 어떻게 하나</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010912206?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>기사내용 요약내년 변동형 주담대 금리 상단 연 6% 갈수도 은행들 "고정형 주담대 상품 고려" 조언 금리 인상기 고정형 주담대 매력 높아져...중도상환 반드시 유리하지 않아 [서울=뉴시스] 최선윤 기자 = 은행권이 내년 초 가계대출을 속속 정상화하면서 '대출 절벽' 현상이 다소 해소될 전망이다. 하지만 대출 금리는 역대 최고치를 연일 경신하고 있어 이른바 '영끌족'의 이자부담은 눈덩이처럼 불어날 것으로 보인다. 28일 금융권에 따르면 주요 시중은행들은 연 단위로 적용되는 가계대출 총량규제가 내년 1월3일부터 리셋되는 시점에 맞춰 대출상품 판매 재개를 준비하고 있다.NH농협은행은 지난 8월 중단한 주택담보대출을 내년 1월부터 재개한다. 농협은행은 이달 들어 무주택자를 대상으로 신규 주담대를 재개한 데 이어 새해부터는 주택 관련 대출을 모두 정상화할 계획이다. 최대 2000만원으로 낮췄던 신용대출 한도도 다시 1억원으로 높인다. 모기지신용보험(MCI)·모기지신용보증(MCG) 대출도 재개한다.농협은행 측은 "내년 1월3일자로 전체 가계대출을 정상적으로 재개한다"며 "다만 주택, 주택외 대출, 신용대출의 한도를 부여해 철저한 총량관리를 진행하고 주담대는 가급적 무주택자, 처분 조건의 1주택자 위주로 운영할 것"이라고 밝혔다. 또 "집단대출은 최소물량으로 운영할 예정"이라고 덧붙였다.신규 주담대 판매를 잠정 중단했던 SC제일은행은 내년 대출 재개를 앞두고 이달 20일부터 사전 신규 신청을 받고 있다.인터넷전문은행들도 신규 대출 채비에 나섰다. 출범 9일 만에 대출 한도를 소진해 신규 대출을 중단했던 토스뱅크는 다음달 초 대출 사업을 재개한다. 카카오뱅크는 내년 초 비대면 주담대 상품 출시를 앞두고 있다. 가계대출 우대금리도 복원된다. 우리은행은 내년 1월3일부터 신용대출, 주택담보대출, 전세대출 상품 상당수의 우대금리를 확대한다. 신용대출 대표 상품 '우리 주거래직장인대출'의 우대금리는 기존 0.3%포인트에서 0.9%포인트로, 주담대 중 '우리아파트론'은 우대금리가 최대 0.3%포인트에서 최대 0.8%포인트로 늘어난다. '우리전세론'은 최대 0.2%포인트에서 최대 0.7%포인트로 변경된다. 농협은행도 우대금리 일부 확대를 시행할 계획이다.하지만 내년부터는 대출자마다 소득에서 전체 부채의 원리금상환액을 따지는 총부채원리금상환비율(DSR) 규제가 강화됨에 따라 특히 소득이 상대적으로 적은 20대 이하 청년들과 60대 이상 고령층의 추가 대출이 어려워질 것이라는 전망이 제기되고 있다. DSR 규제 대상이 되면 주택담보대출과 신용대출, 카드론 등 모든 대출을 합쳐 매년 갚아야 할 원금과 이자가 연소득의 40%(은행 대출 기준)를 넘을 수 없다. 연소득에 따라 대출 가능 금액이 정해지기 때문에 소득이 적을수록 추가 대출이 어려워지는 구조다. 여기에 가파른 금리 상승세도 대출 문턱을 더 높이고 있다. KB국민·신한·하나·우리·NH농협 등 5대 시중은행의 지난 9일 기준 변동금리형 주담대 금리는 전날 기준 연 3.59~5.01%로 집계됐다. 상단 기준이 연 5%를 돌파하자 내년 초 주담대 금리 상단은 6%에 근접하게 될 것이라는 것이 금융권 분석이다. 이와함께신용대출 금리와 전세대출 금리 모두 무섭게 오르며 서민들의 이자 부담을 키우고 있다. 내년 한국은행이 기준금리를 두 번 이상 인상할 것이라는 예상이 높아 이러한 대출금리 오름세는 이어질 전망이다. 올해 8월과 11월 두 차례 기준금리를 인상한 한은은 내년에도 기준금리 인상을 예고했다. 이에 따라 대출자들은 당분간 더 큰 이자부담에 짓눌리게 될 것으로 보인다.은행권에서는 내년에도 기준금리가 추가 인상될 것으로 예상되고 있는 만큼 신규 대출을 계획하고 있다면 변동형 주담대 보다 고정형 주담대를 받는 것이 더 유리할 수 있다고 조언하고 있다. 실제로 은행 창구에서는 최근 고정형 주담대 상품에 대한 문의가 부쩍 늘어난 상태다. 한 은행 관계자는 "일부 은행에서는 고정형 주담대 금리가 변동형 주담대 금리보다 낮아졌다"며 "두 상품의 금리차가 크지 않기 때문에 대출 창구에서 주로 고정형 상품을 추천하고 있는 상황"이라고 말했다. 한편, 자신이 추가 대출을 계획하고 있지 않다면 중도상환을 하는 것이 나을 수 있겠지만 그렇지 않다면 현 시점에서 기대출을 중도상환 하지 않는 것이 낫다는 조언도 나왔다. 은행 관계자는 "금리가 계속해서 오르고 있기 때문에 중도상환 후 대출을 새로 받으면 금리 조건이 더 안좋아질 수 밖에 없다"고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2021.12.17.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>채용연계 인턴모집에 2천명 운집…'인재 블랙홀' 인터넷은행</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005017021?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>케뱅 채용연계형 인턴 첫 모집카뱅·토뱅도 대대적 채용 예고채용연계형 인턴모집에 수천명이 몰리는 등 인터넷전문은행이 인재 블랙홀이 되고 있다. 시중은행은 채용을 크게 줄이고 있는 가운데 인터넷은행은 내년부터 본격화 될 3파전에 대비해 인재확보에 총력을 기울이는 모습이다.17일 금융권에 따르면 케이뱅크가 진행 중인 채용연계형 인턴모집에 지원자가 2000여명이 몰린 것으로 알려졌다. 케이뱅크는 이날까지 지원자에 대한 인터뷰를 진행한 이후 수십명의 합격자를 선발할 계획이다.케이뱅크의 채용연계형 인턴 모집은 출범 이후 처음이다. 특히 그간 개발자 중심으로 선발했던 것과 달리 전 직무에 걸쳐 채용에 나선 것이 특징이다. 선발된 합격자들은 인턴 기간 동안 상품과 서비스 기획, IT시스템 개발·운영, 신용평가모형 개발과 리스크관리 등 은행의 핵심 업무를 직접적으로 경험하게 된다. 인턴십 기간 중에도 월 300만원이 급여가 지급되며, 3개월 간의 인턴십 과정을 완료하고 정규전환 심사를 통과하면 내년 4월부터 정규직으로 최종 입사하게 된다.다른 인터넷은행도 내년 대대적인 인재 확보를 예고하고 있다. 윤호영 카카오뱅크 대표는 "카카오뱅크는 경쟁력 강화를 위해 인재 영입에 지속 힘쓰고 있다"며 "가파른 성장기에 있는 만큼 연간 세자리수 이상의 신규 채용이 예상된다"고 전했다.홍민택 토스뱅크 대표도 "토스뱅크는 사업 초기 단계로서, 곧바로 사업에 뛰어들 수 있는 경력직 인재 개발에 초점을 맞추고 있다"며 "특히 개발 인력 채용에 중점을 두고 있으며, 그 수는 제한을 두고 있지 않다"고 밝혔다.반면 시중은행은 희망퇴직을 진행하면서 동시에 공채를 축소하는 등 몸집 줄이기에 한창이다. 배진교 정의당 의원실에 따르면 5대 은행(KB국민·신한·하나·우리·NH농협은행)의 공채는 2018년 2945명에서 올해는 1000명 가량으로 3년 만에 3분의1로 쪼그라들었다.업계에서는 내년부터 본격화되는 인터넷은행의 경쟁도 원인으로 보고 있다. 급성장하는 인터넷은행 특성상 우수한 인재 영입이 경쟁력의 원동력이 되기 때문이다. 한 인터넷은행 관계자는 "최근 파격적인 조건으로 인터넷은행이 영입경쟁에 나서는 이유는 내년부터 본격적인 대결에 들어가기 때문"이라며 "각자 높은 혜택을 내세우고 있어 인재유출이 이뤄질 수 있다는 불안감도 함께 담겨 있다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2021.12.31.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>위메프, '11특가&amp;위메프데이'.. 대규모 특가행사</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004764697?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>위메프는 1월 1일부터 6일까지 ‘11특가&amp;위메프데이’를 열고, 대대적인 할인 행사를 진행한다고 31일 밝혔다.   먼저 내달 1일 ‘11특가’에서는 상품 가격 끝자리를 ‘1원’, ‘11원’ 등에 맞춘 초특가 상품을 선보인다. 특히 0시부터 하루 6번 타임세일에서 시간별 5개씩 총 30개 파격 할인 상품을 공개한다. 11특가 타임세일 상품은 검색 최저가 대비 최대 30% 저렴하게 판매한다.   주요 상품은 △허닭 닭가슴살 스테이크△좋은느낌 순수소프트 슬림날개 △베베숲 소프트 20매 △구룡포 햇 과메기 △언더아머 남성 벨로시티 윈드 러닝화 등이다.   2~6일에는 ‘위메프데이’를 진행한다. 5일간 △패션/뷰티 △디지털/가전 △리빙/가구/E쿠폰 △푸드 △유아동 등 카테고리를 총 망라한 혜택을 선보인다.   행사 기간 모든 고객에게 구매 금액별 쿠폰(최대 20%, 최대 6만원 할인)과 결제 수단별 쿠폰(최대 10%, 국민·농협·신한·비씨·하나·전북은행·카카오페이·토스·차이) 등 특별 쿠폰팩을 지급한다. 무료 멤버십 VIP클럽 회원은 추가 할인과 최대 5% 적립 혜택도 받을 수 있다.   위메프데이 대표 행사인 ‘타임세일’도 더 풍성하게 준비했다. 매일 6번(0시, 9시, 12시, 15시, 18시, 21시) 시간마다 10개씩 오픈해 하루 60개, 행사 기간 총 300개 타임세일 상품을 선보인다.   위메프 관계자는 “2022년 첫 행사는 더욱 풍성한 혜택으로 준비했다”며 “새해에도 트렌드를 반영한 큐레이션과 다양한 프로모션으로 위메프만의 특별한 쇼핑 행사를 선보일 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2021.12.31.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>[진검승부 중금리]④P2P, 특화 신용평가모델로 도전장…"우리는 메기"</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005815964?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>"비교적 규제서 자유로운 P2P, 은행·2금융권 만큼 경쟁력 있어"자체 신용평가모델 고도화…"더 낮은금리로 대출 제공 자신"[편집자주]우리나라 대출시장의 문제점 중 하나는 중금리 시장이 비어있는 금리단층 현상이다. 그러다 보니 중신용자도 저신용자와 같은 고금리 대출에 시달리고 있다. 금융당국이 인터넷은행을 통해 중금리 대출시장을 키워 금리단층 현상을 없애려는 이유다. 내년에도 중·저신용자 대출을 총량규제에서 제외하거나 완화하는 당근책을 내놓기로 했다. 카카오뱅크와 케이뱅크에 이어 토스뱅크까지 가세한 인터넷은행 삼국지 시대를 맞아 중금리대출 진검승부가 예고되고 있다. 여기에 '1.5금융'을 표방하는 온라인투자연계금융(온투업)업계도 도전장을 내밀었다. 인터넷은행 3사와 온투업계의 내년 중금리대출 전략을 들어봤다.© News1 이지원 디자이너(서울=뉴스1) 서상혁 기자 = "은행은 건전성 기준을 유지해야할 의무가 있어 중금리 대출을 늘리기 어렵습니다. 반면 온투업은 건전성 규제를 적용받지 않으며 고도화된 신용평가 모형도 보유하고 있습니다. 온투업은 중신용층에 유연하게 반응하고 포용할 수 있는 강점이 있습니다"시중은행과 인터넷전문은행이 내년 중·저신용자 대출에 드라이브를 걸겠다고 선언한 가운데 온라인투자연계플랫폼(P2P) 업계도 도전장을 냈다. 자체 신용평가모형을 갖춘데다 타 업권과 비교해 규제에서 자유로운 만큼, 중·저신용자 대출의 주된 공급처가 될 수 있다고 자신한다. &lt;뉴스1&gt;은 31일 P2P 업체 피플펀드의 이수환 부대표, 투게더펀딩의 박세진 부대표로부터 내년도 중저신용자 대출 전략을 들어봤다.온라인투자연계금융업(온투업·P2P)이란 투자자와 대출 수요자를 연결해주는 금융업을 말한다. P2P 플랫폼에선 개별 투자자의 투자금을 재원으로 삼아 수요자에게 대출을 공급한다. 투자자에겐 원금과 함께 이자를 준다. 지난 6월 피플펀드를 시작으로 현재까지 36개사가 금융위원회 등록을 마쳤다.그간 P2P업계는 스스로 은행권과 2금융권 사이에 있다는 의미에서 1.5금융을 자처하며 중·저신용자 대출 공급에 대한 자신감을 표출해왔다. 은행권은 건전성 규제 때문에 대출을 늘리는데 한계가 있고, 저축은행을 비롯한 2금융권은 금리대가 높아 P2P업계가 비집고 들어갈 틈이 있다는 것이다. 현재 피플펀드의 신용대출 금리는 연 3.5~18%. 투게더펀딩의 주택담보대출은 5.5~12.4%다. 피플펀드 이 부대표는 "은행은 낮은 금리로 대출을 공급할 수 있는 장점이 있지만 건전성 기준을 맞춰야 할 의무가 있어 중금리 대출을 공격적으로 늘리는 건 쉽지 않다"며 "반면 비은행권 시장은 상환 능력과 관계없이 고금리 대출을 부담하는 경우가 적지 않았다"고 했다. 이어 "반면 P2P는 BIS(국제결제은행) 비율과 같은 건전성 규제를 적용받지 않는다"며 "비은행권과 비교해 고도화된 신용평가모형을 갖고 있어 정교한 상환 예측도 할 수 있다"고 덧붙였다. 배진교 정의당 의원실이 금융감독원으로부터 받은 자료에 따르면 지난 6월말 기준 KB국민·신한·하나·우리·SC제일·씨티·기업은행의 신용대출 계좌 중 고신용자 비중은 72.3%, 인터넷전문은행 카카오뱅크의 경우 85.6%였다. 중신용자(신용점수 701~850점) 비중은 시중은행이 19.9%, 카카오뱅크는 10%에 그쳤다.투게더펀딩 박 부대표는 "내년에도 1금융권이 중금리 대출을 급격히 확대하진 않을 것으로 본다"며 "내년엔 중금리 대출 시장이 10조원대로 커질 예정인데, 인터넷전문은행들이 공격적으로 영업하더라도 시장의 파이를 모두 가져갈 순 없는 만큼, 온투업계의 역할도 자연스레 확대될 것"이라고 했다.이수환 피플펀트 부대표(사진 왼족)와 박세진 투게더펀딩 부대표© 뉴스1(각사 제공)피플펀드는 내년 상반기 월간 취급액 목표치를 700억~800억원으로 설정했다. 월평균 공급액을 750억원으로 가정하면 약 4500억원을 취급하는 셈이다. 투게더펀딩은 내년 누적 대출액 목표치를 2조원으로 잡았다. 11월말 기준 누적 대출액은 1조2796억원이다.이같은 자신감의 배경엔 신용평가모형이 있다. 피플펀드는 지난 2016년 중금리 특화 신용평가시스템을 자체 개발한 후 네 차례의 고도화 작업을 거쳤다. 특히 자체 모델인 만큼 새 변수가 나타날 때마다 모형을 바꾸고 검증할 수 있다는 장점이 있다. 최근 5년간 약 41만명의 중신용자 데이터를 확보했다. 지난 4월엔 '인공지능(AI) 연구소'를 출범시켜 AI 기술을 활용한 신용평가시스템 고도화 방안을 연구 중이다.피플펀드 이 부대표는 "중신용자는 고신용자와 비교해 금융생활 패턴이 복잡해 분석이 쉽지 않았고 그 탓에 높은 금리를 부담해야만 했다"며 "P2P 플랫폼의 고도화된 신용평가를 통하면 중신용자의 리스크 비용이 낮아지기 때문에 그만큼 더 낮은 금리로 대출을 이용할 수 있다"고 말했다. 투게더펀딩도 Δ데이터 마이닝 Δ알고리즘 산출 Δ점수화(스코어링) Δ등급 산출 등으로 구성된 자체 '부동산 대출 평가 시스템'을 구축해 차주의 금리와 대출 한도를 산출하고 있다. 투게더펀딩 박 부대표는 "부동산 담보 상품이 회사의 주력이긴 하지만 부동산 대출을 취급하면서 개인 신용에 대한 평가를 지속적으로 해왔다"며 "신용점수가 231점인 저신용자 차주에게도 담보 대출을 실행한 바 있다"고 했다. 이어 "신용상품을 주력으로하는 업체보다는 미비하지만 신용평가사·은행·저축은행 출신의 신용 분석가 등을 채용해 나갈 것"이라고 말했다.신용평가모형에 마이데이터(본인신용정보관리업)를 결합하면 한층 심층적인 신용 분석을 할 수 있다. 피플펀드는 지난 11월 P2P 업계에서 처음으로 마이데이터 예비 인가를 받았다. 투게더펀딩도 장기적인 관점에서 마이데이터 사업에 진출할 계획이다. 피플펀드 이 부대표는 "기존 신용데이터 외에 자산, 결제 등 다양한 대안 금융 데이터를 확보한다면 학생, 주부 등 정기적인 소득을 보유하고 있지 않은 금융소비자의 신용을 분석할 수 있게 된다"고 설명했다.아직 금융회사로부터 기관투자를 받지 못하고 있다는 점은 과제다. 금융회사가 P2P에 투자할 경우 해당 금융사가 온투법상 규제만 받을지 아니면 금융업법에 속한 규제까지 받을지 모호하기 때문이다. 만약 저축은행이 P2P에 투자하는 상황을 예로 들면 상호저축은행법을 적용할 경우 저축은행은 P2P를 통해 일어나는 대출에 따른 충당금을 쌓아야 하고 건전성 규제도 받아야 한다. 금융업법까지 적용받으면 금융사가 투자할 유인이 떨어진다. 이에 대해 금융당국은 아직 명확한 결론을 내지 않았다.투게더펀딩 박 부대표는 "신생 산업인 만큼 막강한 자금력을 보유한 금융회사로부터 투자 유치가 중요한 시점"이라며 "온투업 발전을 위해 하루 빨리 금융기관들의 P2P 진입을 활성화할 방안이 마련됐으면 한다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2021.12.28.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>혁신 '메기'의 배신…빅테크 전방위 규제 본격화(종합)</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005022249?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>규제 받지 않는 역차별 논란 재점화기울어진 운동장 논란에 빅테크 정조준전전긍긍 빅테크 업계…경영 능력 시험대 올라연말 연시를 맞아 택시 호출이 급증하면서 카카오·우티·타다 등 관련 애플리케이션(앱)의 경쟁도 치열해지고 있다. 이중 타다는 지난 10월 금융서비스 앱 토스를 운영하는 비바리퍼블리카에 인수됐다. 비바리퍼블리카가 ‘전자금융업자’일 뿐 ‘금융산업의 구조개선에 관한 법률(금산법)’의 적용을 받는 ‘금융기관’이 아니기 때문에 가능했다. 반면 국내 은행들은 타다 같은 앱을 인수할 수 없다. 비금융회사 지분 취득이 금산법에 따라 15% 이내로 제한되기 때문이다.혁신을 앞세워 금융시장에서 거침없는 행보를 보여왔던 빅테크(대형 정보기술), 핀테크(금융+기술)에 대한 역차별 논란이 재점화되고 있다. 카드사 가맹점 수수료율 인하 후폭풍으로 규제를 받지 않는 빅테크·핀테크들과의 불공정한 경쟁에 대한 반발이 거세지면서다.시장에서는 혁신을 촉진하는 ‘메기’ 역할을 하라고 금융당국이 빗장을 열어줬더니 독점적 지위남용으로 ‘주객이 전도’됐다는 지적이 끊임없이 제기됐다. 수장이 교체된 금융당국이 취임과 동시에 ‘기울어진 운동장’을 바로잡겠다고 강조한 배경이다. 다만, 갑작스럽고 과도한 규제로 금융혁신이 후퇴할 수 있다는 우려섞인 목소리도 나온다.28일 금융권에 따르면 7개 카드사(신한·KB국민·현대·롯데·하나·우리·BC) 노조로 구성된 카드사노조협의회는 전날 가맹점 수수료 인하 관련 기자회견을 열고 총파업 유예를 발표했다. 노조는 유예 전제조건 중 하나로 ‘빅테크와의 규제 차익 해소’를 내걸었다.네이버페이, 카카오페이 등 빅테크 간편결제 수수료가 카드사 수수료보다 높지만 규제를 전혀 받지 않아서다. 김한정 더불어민주당 의원실에 따르면 올해까지 카드사들이 받는 가맹점 수수료는 0.8%. 네이버페이와 카카오페이는 각각 2.2%, 2.0%의 수수료를 가맹점에 부과하고 있다.규제 차익은 실적으로도 드러난다. 네이버페이의 올해 3분기 결제액은 9조8000억원으로 전년 대비 39% 성장했다. 반면 카드사들은 지난해 1300여억원의 수수료 손실을 냈다.데이터 공유도 금융사들이 지적하는 역차별의 사례다. 플랫폼의 락인(특정 서비스에 갇히는 것)된 고객을 상대로 빅테크가 자신들의 입맛에 맞는 것들 위주로 서비스를 할 수 있다는 주장이다.금융권 관계자는 "공정한 게임을 위해서는 공정한 룰이 필요하다"며 "특정 기업이 ‘규제 차익’을 통해 수혜를 받는 방향 보다는 ‘동일 기능 동일 규제’의 원칙이 지켜져야 한다"고 강조했다.일각에선 빅테크·핀테크 규제를 놓고 우려의 목소리도 나온다. 급작스러운 규제로 인해 소비자편익이 침해되고 금융 혁신이 후퇴할 수 있다는 지적에서다.내년부터 규제 강도 더 세진다…'기울어진 운동장' 정조준"빅테크(대형 정보기술기업)의 금융업 진출은 동일기능·동일규제 원칙이 지켜지는 가운데 이뤄져야 한다."(고승범 금융위원장·12월15일 빅테크 간담회 모두발언)네이버·카카오 등 빅테크에 대한 금융당국의 규제는 올해를 시작으로 내년에 더욱 본격화될 전망이다. 빅테크에 대한 금융당국의 기조가 두 수장 교체 이후 편애 모드에서 ‘규제 강경모드’로 확고해졌기 때문. 금융의 디지털 전환에 있어 더 넓고 높아진 운동장에서 공정하게 경쟁해야 한다는 것이 금융당국의 새로운 스탠스다.금융당국은 빅테크에 대해 그간 ‘규제 완화’로 다양한 사업에서 편의를 봐줬던 것을 원점으로 되돌린다는 방침을 정했다. ‘동일기능·동일규제’를 적용해 더는 빅테크에 대한 편애 논란이 없도록 하겠다는 의미로 풀이된다.빅테크는 그간 금융혁신이라는 명목 아래 은행 등 전통 금융사보다 훨씬 낮은 수준의 규제를 받아왔다. 특혜를 등에 업고 빅테크는 최근 몇년 새 급성장하며 금융시장의 판도를 뒤바꿔놨다. 현재 네이버의 시가총액은 62조원 수준으로 4대 금융지주사 시가총액을 합한 것과 맞먹는 규모다. 최근 상장한 카카오뱅크나 카카오페이도 금융지주사 가치를 훌쩍 뛰어넘었다.하지만 이 같은 빅테크의 급성장은 많은 논란을 빚었다. 대표적인 것이 금융사 미래 먹거리로 불리는 ‘마이데이터’였다. 금융사는 마이데이터 사업자인 빅테크에 금융거래와 관련한 개인 신용정보 등 대부분의 정보를 제공한 반면 빅테크는 ‘주문 내역’ 등 핵심 전자상거래 정보가 개인 신용정보가 아니라는 이유로 제공을 거부했다.금융당국이 올해 핵심사업으로 추진했던 ‘대환대출 플랫폼’도 빅테크에 지나치게 유리한 구조가 문제가 돼 무산됐다. 기존 금융사들이 해당 플랫폼의 주도권이 빅테크에 있다는 점을 들어 참여를 꺼린 것이 원인이 됐다. 높은 수수료를 제공하며 자칫 상품 조달 기능만 제공하는 입장으로 전락할 수 있기 때문이다. 은행권 관계자는 "만약 도입했다면 재주는 곰(은행)이 부리고 돈은 왕서방(빅테크)이 챙겨가는 상황이 벌어졌을 것"이라고 전했다.이에 금융당국은 수장이 교체된 이후 빅테크에 대한 규제를 대폭 강화하고 나섰다. ‘기울어진 운동장’을 더는 좌시하지 않겠다는 것이 현 고승범 금융위원장의 확고한 기조다.금융당국은 고 위원장 취임 직후 빅테크의 맞춤형 금융상품 추천을 ‘금융소비자보호법’ 위반으로 규정했다. 이에 카카오페이 등 일부 빅테크는 서비스를 중단해야만 했다. 또 전자금융거래법 개정을 통해서도 빅테크의 데이터 독점과 편향적 서비스 제공 등 영업행위 규제를 강화하기로 했다. 국회에 제출된 전금법 개정안은 금융플랫폼의 손해 전가나 경제상 이익제공 강요, 경영활동 관여 등 우월적 지위 남용을 금지하는 것이 골자다.전문가들은 금융당국의 ‘동일기능·동일규제’ 원칙이 그간 불거졌던 특혜 시비를 차단할 수 있다는 점에서 긍정적으로 평가한다. 이민환 인하대학교 글로벌금융학과 교수는 "빅테크들의 사업이 금융업과 전혀 차이가 없지만 규제를 받지 않았던 점이 문제의 시작"이라며 "동일기능·동일규제는 소비자 보호 및 기업 간 갈등을 최소화할 수 있는 중요한 원칙이 될 것"이라고 했다.전전긍긍 빅테크…경영능력 시험대 금융당국의 빅테크 규제는 내년에 더욱 강화된다. 금융위는 최근 빅테크 그룹을 대상으로 한 감독체계 도입 검토와 빅테크 발(發) 잠재리스크 점검을 내년도 업무계획으로 밝혔다.삼성·한화 등 지주사가 아닌 금융그룹에 해당하는 ‘금융복합기업집단법’을 빅테크에 도입하는 안이 유력하다. 빅테크 기업이 금융복합기업집단법을 적용받게 되면 플랫폼을 기반으로 한 공격적인 사업 확장에 제동이 걸릴 수밖에 없다. 자본 부담이 늘어나고 계열사 간 내부 거래도 제한된다. 빅테크와 기존 금융사 사이에 존재하는 ‘기울어진 운동장’을 바로잡겠다는 뜻으로 풀이된다.이순호 한국금융연구원 연구위원은 "빅테크의 금융시스템 리스크 차단을 위해 ‘금융그룹감독법’상 복합금융그룹 지정 여부 등을 검토하고 금융·비금융 간 위험전이를 차단하기 위해 선제적 관리 방안을 마련해야 한다"고 주장했다.금감원은 예금자 보호가 안 되는 빅테크의 선불충전금에 대한 소비자 보호 조치 강화를 추진한다. 최근 발생한 이른바 ‘머지포인트 사태’와 유사한 사례가 나오지 않도록 하겠다는 취지다.한편 금융당국의 ‘규제 강경모드’를 두고 빅테크 업권은 전전긍긍하는 분위기다. 특히 금융혁신을 외치며 규제는 오히려 강화하는 점에 강한 우려의 목소리를 내고 있다. 한 빅테크 관계자는 "동일기능·동일규제 원칙이 강조되는데 기존 금융사와 빅테크는 사업 환경이 전혀 다르다는 점이 고려되지 않고 있다"며 "과도한 규제는 오히려 소비자 편익을 침해할 수 있다는 점에서 우려스럽다"고 말했다.美·中·日·EU도 강력 제재…"독과점 막아야"빅테크(대형 정보기술기업)·핀테크(금융+기술)에 대한 금융산업 규제는 우리나라만 국한된 것이 아니다. 미국·중국·일본·유럽연합(EU) 등 글로벌 빅테크도 금융업 진출 후 강력한 제재를 받고 있다. 특히 중국은 내부 정치적인 문제와 결합돼 정부 차원에서 엄청난 압박을 가하는 등 전 세계가 빅테크 기업의 독과점을 막아야 한다는 공통된 과제를 공감하는 분위기다.금융산업이 가장 진보한 나라로 평가받던 중국은 핀테크 분야를 비롯한 기술기업에 대해 엄격한 규제일변도로 전환했다. 이로 인해 지난해 10월 알리바바의 금융그룹인 엔트그룹은 기업공개(IPO)가 중단돼 상장이 좌초되기도 했다. 당시 중국 금융당국은 이에 그치지 않고 엔트그룹의 대출 신용 정보 데이터를 국유회사로 넘기도록 명령해 사실상 국유화했다. 알리바바에서 시작된 압박은 이후 텐센트, 바이두 등 다른 빅테크 기업에도 영향을 미쳤다.글로벌 경제의 주축이라 할 수 있는 미국은 2008년 이후 도입된 ‘도드-프랭크 월가 개혁 및 소비자보호법’으로 핀테크 기업을 규제하고 있다. 이 법안은 버락 오바마행정부 시절 글로벌 금융위기에서 발생한 문제점을 해결하기 위해 제정된 법안이다. 글래스 스티걸법(미국 대공황 이후 상업은행과 투자은행 업무를 분리한 법안) 이래 가장 강력한 금융 규제로 꼽힌다. 아마존 등 빅테크 기업들이 금융사업 진출을 주저하게 만드는 이유다. 실제 간편결제 및 대출, 투자 서비스를 운영하고 있는 아마존은 대출 심사의 경우 기존 은행과 달리 자체 빅테이터를 활용하고 있다.빅테크 자체의 규제를 강화해 이들의 금융사업 진출을 주저하게 만드는 정책도 시행 중이다. 조 바이든행정부는 지난 6월 ‘아마존 저격수’라고 불리는 리나 칸 컬럼비아대 교수를 연방거래위원회(FTC) 위원장에 임명했다. 칸 위원장은 2017년 ‘아마존의 반독점 역설’이라는 논문으로 플랫폼 기업을 적극 규제해야 한다고 주장한 인물이다. 하원 민주·공화당은 아마존·애플·페이스북·구글 등 빅테크 기업을 겨냥한 반독점 패키지 법안을 공동 발의했다.EU도 빅테크 기업을 대상으로 규제 압박을 가하고 있다. EU는 지난해 12월 디지털시장법(DMA)과 디지털서비스법(DSA) 초안을 발표했다. 플랫폼 기업이 알고리즘으로 자사 서비스를 우대하거나 스마트폰에 선탑재된 애플리케이션(앱)을 삭제하는 걸 막는 행위 등을 금지한다. 만약 어기면 매출의 10%를 벌금으로 내거나 강제로 기업을 분할할 수 있는 조항이 포함돼 있다.일본 역시 디지털 플랫폼 거래 투명화법을 통해 빅테크 기업을 옥죄고 있다. 지난 2월 시행된 이 법은 온라인몰을 운영하는 아마존·라쿠텐그룹·야후·구글·애플 등 총 5개사를 특정 디지털 플랫폼 제공자로 지정했다. 거래조건 변경 시 사전통지와 민원처리를 위한 체제정비 등을 의무화했다. 이들은 1년에 한번 보고서를 제출해야 한다.경제전문가들 사이에서는 ‘시장의 붕괴를 막기 위한 노력’과 ‘소비자들의 선택권을 높여야 한다’는 의견이 엇갈린다. 김상봉 한성대학교 경제학과 교수는 "주요국들이 핀테크 기업에 대한 금융 규제를 강화하고 있는 것은 시장이 붕괴될 수 있기 때문"이라며 "금융당국이 다양한 의견을 청취하고 세심하게 관리해야 한다"고 조언했다. 반면 성태윤 연세대학교 경제학부 교수는 "플랫폼은 소비자의 관점에서 모든 것을 봐야 한다"며 "규제를 강화하면 혁신은 일어날 수 없기 때문에 소비자들이 새로운 서비스를 활용·선택할 수 있도록 해야 한다"고 강조했다.정은보 금융감독원장은 최근 개최된 ‘2021 서울국제금융컨퍼런스’에서 "금감원은 금융회사외 빅테크 간의 공정경쟁 이슈에 대한 글로벌 논의에 귀를 기울이겠다"며 "금융회사와 핀테크 기업의 금융혁신과 이를 위한 규제개선을 지속해서 추진하겠다"고 피력했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2021.12.31.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>내년도 넘기 힘든 대출 문턱…숨구멍은 인터넷은행</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005023811?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>총량규제·DSR 강화 등 내년도 은행 대출 문턱 높아인터넷은행, 시중은행 대비 총량규제 완화토스·케이뱅크 등 주목5일 출범 예정인 세 번째 인터넷은행 토스뱅크에 은행권의 관심이 쏠리고 있다. 연 2% 은행권 최대 예금금리와 연 2% 후반 최소 대출금리 등 출범 전부터 파격적인 금리 상품 출시를 밝혀 같은 인터넷은행뿐 아니라 시중은행들까지 긴장하는 모양새다. 특히 금융당국의 가계대출 규제가 더욱 거세지면서 대출 금리 상승, 대출 한도 제한이 이어지는 가운데 최대 한도 2억 7000만 원에 달하는 신용대출을 예고하면서 ‘대출 난민’들의 수요가 몰릴 것이라는 전망도 나온다. 사진은 4일 서울 강남구 토스뱅크 본사 모습./김현민 기자 kimhyun81@직장인 신태현씨(37·가명)의 요즘 최대 고민은 대출이다. 올해 막혔던 은행의 대출 문이 내년부터 열리는 만큼 어느 은행에서 대출을 받아야 하는지 유불리를 따지고 있다. 신 씨는 주변 지인들에게 조언을 구해 토스뱅크에서 대출을 받기로 했다. 신생 은행인 만큼 대출이 다른 곳보다 수월하게 나올 것 같았고, 금리가 연 3%대 초반에 한도가 최대 2억7000만원인 점도 유리하다고 판단했다.내년에도 가계부채 관리가 대폭 강화되며 은행에서 대출받기는 올해 만큼 어려워질 전망이다. 총량규제가 더욱 까다로워지며 대출 문턱이 한층 높아질 것으로 예상되기 때문. 다만 아직 성장단계에 있는 인터넷전문은행은 좀 더 느슨한 규제를 적용받게 돼 내년 대출을 희망하는 소비자라면 주목할 만하다.31일 금융권에 따르면 금융당국과 주요 은행 및 인터넷은행은 가계대출 증가율 목표치를 최종 합의한 것으로 전해졌다. 5대 시중은행의 가계대출 증가율 목표치는 4%대다. 5~6%대였던 올해보다 대폭 강화된 규모다. 특히 내년에는 전세대출이 총량 관리 대상에 다시 포함되는 만큼 시중은행의 대출 문턱은 크게 높아질 것으로 보인다. 올해와 마찬가지로 일부 은행을 중심으로 대출 중단 사태가 재연될 것이란 우려도 나온다.반면 케이뱅크와 토스뱅크 등 이제 막 성장 단계에 있는 인터넷은행은 가계대출 총량규제를 일반 시중은행과 다르게 적용받게 됐다. 개점휴업 상태를 지속하다 올해 영업에 나선 케이뱅크의 가계대출 증가율 목표치는 두자릿 수 수준이 점쳐진다. 지난 10월 초 출범한 토스뱅크는 세자릿 수의 목표치를 부여받은 것으로 알려졌다.이는 주요 시중은행과 인터넷은행의 자산규모가 확실하게 차이가 나는 점을 배려한 조치다. 고승범 금융위원장은 전날 기자들과 만나 "새로 출범하는 인터넷은행 토스뱅크, 케이뱅크 등은 여건이 (시중은행과) 다르다"며 "그런 부분을 고려해 (대출 한도를) 다르게 결정하겠다"고 말했다.특히 토스뱅크의 공격적인 대출 영업이 예상된다. 토스뱅크는 내년 1월1일 11시부터 중단됐던 대출을 재개한다. 대표상품인 ‘토스뱅크 신용대출’은 연 3%대 초반 금리에 최대 2억7000만원의 한도를 설정했다. 주요 은행과 인터넷은행 가운데 가장 낮은 금리이자 높은 한도가 장점이다.케이뱅크, 우리·하나은행 등 다른 은행의 한도는 최대 1억5000만원 수준이다. 금융권 관계자는 "내년에 대출을 받을 소비자는 일반 은행보다 인터넷은행이 더 유리하다"며 "비대면 편리성과 은행보다 낮은 금리와 높은 한도가 소비자 입장에서는 매력적일 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2021.12.20.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>내년 1월 3일부터 ‘방역패스’ 유효기간 6개월...9일까지 계도기간</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003238881?sid=102</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>‘방역패스’ 본격 시행 첫날부터 잇단 접속 장애로 차질이 빚어진 가운데 이틀째인 14일에도 네이버 등 일부 QR체크인이 점심시간 접속장애 현상이 빚어졌다. 이날 인천의 한 음식점에서 쿠브 앱이 정상 작동되는 가운데 시민들이 식사를 기다리고 있다. 2021.12.14 연합뉴스방역당국이 코로나19 방역패스(접종증명·음성확인)에 6개월의 유효기간을 두는 방안을 오는 1월 3일부터 시행한다. 이를 위반할 경우 과태료 부과나 행정처분은 시행 후 일주일의 계도기간이 종료된 이후부터 시작된다. 20일 중앙방역대책본부(방대본)는 정례브리핑을 통해 “방역패스 유효기간 적용시점인 내년 1월 3일부터 9일까지를 계도기간으로 정하고, 시설 이용자와 사업자에게 접종증명 유효기간에 대해 안내하고 지도점검할 것”이라고 밝혔다.내년 1월 3일부터는 기본 접종을 완료했다 하더라도 완료 시점으로부터 6개월 이후 추가접종을 받지 않았다면, 방역패스가 적용되는 다중이용시설이나 감염 취약시설을 사용할 수 없다.3차 접종(부스터샷)은 접종 후 14일을 기다릴 필요 없이 접종 당일부터 바로 접종력이 인정된다.QR코드 확인 등 전자접종예방서로 출입 인증을 할 수 있으며, 안심콜(간편콜체크인)을 사용하고 있다. 이에 QR코드 스캔이 어려우면 종이예방접종증명서나 예방접종스티커를 사용해도 된다.방역당국은 일부 중고거래 플랫폼 등에 접종증명서를 사고파는 행위 등에 대해서는 강력한 형사처벌이 가능하다고 강조했다.방대본은 “예방접종증명서를 위·변조할 경우 형법 225조, 229조에 따라 10년 이하의 징역 등 위중한 처벌을 받을 수 있다”며 “사적 모임에 위·변조한 방역패스를 사용했을 때도 관련법에 따라 징역이나 벌금, 과태료가 추가될 수 있다”고 설명했다.기본접종 완료자는 2차 접종 후 얼마나 지났는지를 질병청 쿠브 (COOV·전자예방접종증명서)앱을 통해 확인할 수 있다.내년 1월 3일 이후로는 쿠브 앱이나 카카오, 네이버, 토스, PASS앱 등 전자출입명부 플랫폼을 통해 유효기간 만료 여부를 볼 수 있다. 종이 예방접종증명서나 예방접종스티커 사용자는 질병관리청 코로나19 예방접종 홈페이지에서 확인하면 된다.접종 대상자에게는 잔여 유효기간이 만료되기 전 세 차례(유효기간 만료 14일·7일·1일 전)에 걸쳐 3차 접종 방법과 관련한 국민비서 알림이 전송된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2021.12.29.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>[부채의 역습]내년에도 꽁꽁 언 돈줄…카드론·저축銀까지 가뭄</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005022641?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>2금융권도 DSR 기준 강황실질 체감 대출 문턱 높아져수요관리 등 근본대책 시급직장인 박명진씨(28·가명)는 2019년 경기도 안양에서 회사와 가까운 서울 마포구에 이사했다. 박 씨는 오피스텔 전세금 1억5000만원을 마련하기 위해 정부의 ‘중소기업 취업 전세보증금 대출’을 이용했다. 주택도시보증공사(HUG)의 100% 보증을 받아 은행에서 1억원, 나머지 금액은 신용대출로 채웠다. 주거비 마련을 위해 무리하게 빚을 낸 박 씨는 최근 근심거리가 생겼다. 내년부터 HUG같은 정부 보증기관의 보증 비율이 축소될 가능성에 갱신을 해도 대출 한도가 줄거나 금리가 오를 수 있기 때문이다. 추가 대출을 받는다고 해도 내년부터는 총부채원리금상환비율(DSR) 규제가 강화되기 때문에 돈을 빌릴 수 있을 지도 알 수 없는 상황이다. 박 씨는 "대출이 안되면 반전세나 월세를 알아봐야 하는데 이 마저도 확신할 수 없어 막막한 상황"라고 토로했다.올해 하반기부터 금융당국의 강력한 규제로 대출 문턱이 높아지면서 실수요자들의 자금줄이 막힌 가운데 내년에도 자금 융통은 쉽지 않을 전망이다. 코로나19 여파와 영끌(영혼까지 끌어모음), 빚투(빚내서 투자)열풍에 가계부채가 폭증하면서 규제 카드로 꺼내든 강화된 총부채원리금상환비율(DSR) 제도가 다음달부터 본격 시행되기 때문이다. 급전 창구로 빌리는 카드론 등 제2금융권 대출도 강화된 규제로 조여질 예정이어서 취약계층의 대출 가뭄은 여전할 것으로 전망된다.29일 금융권에 따르면 주요 시중은행들이 다음달부터 닫아놨던 대출을 일제히 재개한다. NH농협은행은 다음달부터 신용대출과 마이너스통장 한도를 늘린다. 우리은행도 내달 3일부터 10개 신용대출 상품의 4개 주택담보대출의 우대금리를 기존 대비 최대 0.6%포인트까지 올린다. 토스뱅크는 다음달 1일부터 신용대출 상품을 재개한다.당장 내년 1월1일부터 연간 단위로 설정되는 은행별 대출 총량 목표치가 재설정돼 중단된 대출이 재개되면서 다소 숨통이 트일 것으로 전망된다. 하지만 당장 다음달부터 DSR 규제가 시행되면서 실질적으로 체감하는 대출 문턱은 더욱 높아질 수 있다는 우려가 나온다. 내년부터 총대출액 2억원을 초과하는 차주, 7월부터는 1억원을 초과하는 대출자에게 차주 단위 DSR규제가 적용된다. 나이스평가정보가 9월 말 기준으로 금융위에 제출한 가계대출 차주 수는 총 1999만686명이다. 강민국 국민의힘 의원이 금융위원회로부터 받은 자료에 따르면 대출보유금액 2억원 이상 263만9635명이 은행권에서는 DSR 비율 40%까지만 대출을 받을 수 있고 7월부터는 규제 대상자가 595만3694명으로 늘어난다.DSR 40%가 적용되면 연봉이 5000만원인 차주는 연간 원리금 합계 2000만원까지만 은행 대출을 받을 수 있다. 제2금융권까지 눈을 돌려도 2500만원이 한도다. 이미 대출을 많이 받은 차주라면 추가 대출 여력은 그만큼 더 줄어든다.성태윤 연세대학교 경제학과 교수는 "DSR을 강화는 것은 의미가 있다"면서도 "가계부채 증가속도를 옥죄고 단순히 숫자가 늘어나는 것을 막기 위해 실질적인 소득과 신용도가 충분한 차주에게 DSR이 벽이 된다면 바람직하지 못하다"고 지적했다.은행들의 대출 총량 목표치도 줄어들었다. 정부의 가계대출 증가율 억제 압박에 따라 올해(5~6%)보다 낮은 4~5%대에서 관리하게 된다. 은행 대출 공급이 줄어들 것이란 얘기다.은행 문턱을 넘지 못한 서민들이 이용하는 2금융권에서 돈 빌리는 것도 어려워질 전망이다. 내년부터 2금융권의 업권별 평균 DSR기준도 강화되기 때문이다. 특히 서민들의 급전창구인 카드론이 차주별 DSR 규제에 포함되면서 기존에 대출이 있던 차주가 받을 수 있는 한도는 더욱 줄어든다.전문가들은 보다 근본적인 해법이 필요하다고 조언했다. 김상봉 한성대학교 경제학과 교수는 "지금과 같은 가계부채 증가 상황은 금융정책이나 금융규제만으로 억제하는데 한계가 있을 수 밖에 없다"며 “부동산 가격 안정화 등을 통해 추가적인 대출 수요를 관리하고, 자영업 시장에 대한 근본적인 구조조정 등으로 무리하게 빚에 의존하는 여건부터 바로 잡는 노력이 병행돼야 한다"고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2021.12.28.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>IT업계가 쏘아올린 개발자 쟁탈전··· 유통·제조 등 타 분야까지 ‘확전’</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004001785?sid=105</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>[2021 ICT 메가트렌드] &lt;3&gt; DX 급증에 개발자 확보 전쟁네이버 올 900명 채용목표 초과인재유출 막으려 적자기업들 출혈코딩학원 구직자 문전성시 현상도디지털전환 금융사도 영입경쟁 가열자금력 부족 중기 인력난 심화 예상제도권 외 인재양성 코스 다각화 필요[서울경제] 올 한 해 역대급 인력 채용에 나선 정보기술(IT) 업계는 앞다퉈 연봉 인상을 하며 우수 개발자 선점에 열을 올렸다. 게임업계에서 시작된 개발자 쟁탈전은 곧 IT업계 전반으로 퍼졌고, 유통, 금융 등 전통 산업군까지 옮겨 붙으며 더욱 치열해졌다. 출혈 경쟁이 이어지면서 상대적으로 자금력이 부족한 중소기업들은 도태되는 ‘빈익빈 부익부' 현상이 불거지기도 했다. 전문가들은 내년에도 이어질 개발자 부족 문제를 해소하기 위해선 기존 제도권을 통한 인재 양성에만 기대지 말고 민간 기업 자체적으로 IT 인재를 빠르게 양성할 수 있도록 장려해야 한다고 조언한다.◇연봉 파격 인상에 월간 영입까지 등장···IT업계 개발자 입도선매=코로나19로 인해 취업난이 극심한 와중에도 개발자들은 올해 웃음꽃을 피웠다. 업체들이 앞다퉈 연봉 인상 카드를 꺼내며 개발자 구인에 혈안이 됐기 때문이다. 먼저 게임업계가 줄인상의 첫 스타트를 끊었다. 지난 2월 넥슨이 초임을 800만 원 일괄 인상하며 개발자 초봉 5,000만원 시대를 열자 넷마블, 엔씨소프트, 크래프톤, 펄어비스 등 주요 게임사들도 질세라 경쟁적으로 연봉을 올렸다. 베스파, 베이글코드 등 적자 회사들도 인재 유출을 막기 위해 연봉 1,200만~ 2,300만원 인상을 단행하기도 했다.게임업계의 연봉 인상 릴레이는 곧 IT업계 전반으로 퍼졌다. 삼성SDS, LG CNS 등 SI(시스템통합) 업체들은 각각 기본급 최대 6.5%, 연봉 평균 7% 인상을 단행했다. 직방, 당근마켓, 토스 등 자금 여력이 되는 유력 스타트업들도 연봉 경쟁에 가세했다. 특히 토스는 기존 직장 연봉 대비 최대 50% 인상, 스톡옵션 1억 원 상당을 보장하며 ‘토양어선(토스+원양어선)'이라는 신조어를 낳기도 했다. 업무 강도가 높기로 유명하지만 그에 상응하는 보상을 약속한다는 데서 나온 말이다.‘최고 연봉’ 경쟁이 휩쓸고 지나간 자리에는 이내 ‘최대 채용’ 경쟁이 불붙었다. 올해 개발자 900명 채용을 선포한 네이버는 이미 지난 11월 기준 목표치를 초과 달성했다고 밝혔다. 지난해 600명보다 50%나 많은 인원을 충원한 데 성공한 것이다. 이를 위해 네이버는 지난 4월부터 매월 경력 공채를 정례화하는 ‘월간 영입' 프로그램을 도입했다. 카카오도 올해 전년 대비 신규 채용 인원이 약 20% 늘었다. 올해 700명 채용을 선언한 크래프톤도 작년 12월 기준 2,026명이던 직원 규모를 올해 11월 30일 기준 2,604명까지 늘리며 목표를 상당 부분 달성했다.개발자 인기가 절정에 이르자 코딩학원도 문전성시를 이뤘다. 코딩교육 스타트업 ‘코드스테이츠’가 운영하는 가장 대표적인 교육 프로그램인 ‘소프트웨어 엔지니어링 부트캠프’ 지원자수는 올해 1만135명으로 지난해(3,152명)보다 222% 늘었다. 코드스테이츠 관계자는 “개발자 수요가 지속적으로 증가하는 것은 물론, 인력 확보를 위해 처우가 개선됨에 따라 관련 직군에 대한 구직자들의 관심도가 크게 늘어났다”고 설명했다.◇전통 산업군까지 가세···계속되는 인력난=개발자 입도선매는 상반기를 넘어 하반기까지 이어졌다. 특히 최근 디지털 전환이 빠르게 이뤄지고 있는 금융, 증권, 유통 분야도 개발자 유치를 위해 안간힘을 쓰고 있다.최근 가장 개발자 영입에 힘쓰고 있는 건 금융사다. 올해 9월말 기준 5대 은행(KB국민·신한·하나·우리·NH농협은행)의 IT 전문인력 채용 규모는 412명으로 지난 2017년(210명)에 비해 2배 가량 증가했다. 반면 올해 정기공채 규모는 1,382명으로 지난 2019년(2,158명) 대비 절반 수준으로 줄었다. 업계 한 관계자는 “디지털 뱅킹으로의 전환이 빨라지고 있고, 내년부터 시작될 마이데이터 사업에 대비하기 위해 은행들의 디지털 전환 수요가 갈수록 높아지는 상황”이라며 “은행들은 일반 직군 공채는 줄이고, 개발자는 수시채용까지 동원해 유치하고 있다"고 말했다.쿠팡 등 신흥 유통 강자들과 치열하게 경쟁 중인 전통 유통 기업들도 개발자 구인에 한창이다. 롯데온은 최근 세 자릿수 규모로 IT, 사용자경험(UX) 직군 경력 사원을 채용했다. 신세계의 SSG닷컴은 지난 7월 두 자릿수의 개발 경력직을 채용하고, 내년 상장에 앞서 개발자 전원에게 스톡옵션을 부여하기도 했다.개발자 구인난이 산업 전반으로 퍼지며 인력난 문제는 앞으로도 쉽게 풀리지 않을 것으로 보인다. 실제 소프트웨어정책연구소(SPRI)에 따르면 인공지능(AI), 빅데이터 등 주요 IT 분야의 올해 인력 부족 규모는 9,453명이며 내년엔 1만4,514명까지 늘어날 전망이다. 대기업들은 그나마 사정이 낫지만, 자금력이 부족한 중소기업들은 인력난이 더욱 심각하다. 이에 정부도 내년 상반기까지 개발자 5,000명 양성을 목표로 ‘벤처스타트업 아카데미’를 운영하는 등 인력난 해소를 위해 노력하고 있다.다만 정부 노력만으로는 인력 부족 해소가 요원할 것으로 보인다. 한국소프트웨어정책연구소에 따르면 향후 5년간 SW 분야 신규 인력 수요는 35만3,000명으로, 대학을 비롯한 정규 교육과정과 정부 사업을 통해 배출되는 32만4,000명과 비교했을 때 약 3만 명이 부족할 전망이다. 이에 전문가들은 정부가 삼성청년SW아카데미, 우아한테크코스 등 민간 기업에서 주도하는 개발자 양성 프로그램을 적극 지원할 필요가 있다고 강조했다. 김문수 한국소프트웨어산업협회 팀장은 “정부 차원에서 민간 기업이 추진하는 SW 과정에 학위를 부여하는 등의 방법이 있다”며 “다만 국가직무능력표준(NCS)처럼 각 기업별 커리큘럼을 어느 정도 표준화하는 과정을 거쳐야 해 상당한 시간이 필요할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2021.12.28.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>디지털정부, 내년에는 더 섬세해진다</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003402348?sid=100</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>국민비서, 네이버·카카오 등 연동해 인기소상공인 생애주기 맞춘 정책포털도 개설행정안전부는 올해 국민비서 알림 서비스 출범과 함께 정부서비스 통합채널인 ‘정부24’에 원스톱 서비스를 확대했다. 또 지적, 토지, 건물에 관한 정보를 담은 국토교통부 ‘스마트국토정보’ 사이트의 클라우드화를 지원했다. 내년에는 국민권익위원회의 공공기관 콜센터시스템 통합, 중소벤처기업부의 소상공인 생애주기별 맞춤형 공공서비스를 담은 포털 구축 사업을 돕는다. 행안부는 정부 부처의 전자정부화에 필요한 행정·재정·기술적 지원을 한국지능정보사회진흥원(NIA)을 통해 제공하고 있다.깜빡 잊을 일 줄여주는 국민비서 국민비서 서비스를 신청하면 코로나19 백신 접종 안내를 비롯해 상생 국민지원금, 건강검진일, 국가장학금, 운전면허 적성검사 갱신기간, 고령 운전자 교통안전 교육, 교통 범칙금·과태료 등의 안내를 받아볼 수 있다. 네이버·카카오톡·토스 앱으로 신청하면 된다. 알림 서비스는 개통 6개월 만에 가입자가 1300만 명을 넘어서는 등 큰 호응을 받고 있다. ‘정부24’ 원스톱 발급 서비스 확대 취업 때 필요한 증명서를 신청부터 발급, 제출까지 한 번에 처리할 수 있는 ‘취업서류 일괄제출 원스톱 서비스’와 다문화가족의 정착지원을 위한 교육·취업·의료 정보 서비스가 생겼다. 행안부는 정부24 서비스를 모바일 중심으로 개편해 카카오페이나 페이코, PASS 등 다양한 민간인증을 적용했다. 마이데이터 및 전자지갑과 연계해 신청·제출 절차를 간소화해 편의성도 높였다.부동산 관련 정보 정비 국토부의 ‘스마트국토정보’ 사이트를 방문하면 지적, 토지, 건물 등 부동산 관련 정보를 일목요연하게 볼 수 있다. 행안부는 국민들이 이 사이트를 보다 쉽고 편리하게 이용할 수 있도록 사이트 체계를 클라우드 기반 하이브리드 웹으로 전환하는 사업을 지원했다. 국토부는 국가 공간정보 플랫폼인 ‘K-Geo’를 구축 중이다. 내년에 이 플랫폼이 구축되면 행정기관은 특정 지번의 토지정보 변동 사항을 연도별로도 파악할 수 있게 된다. 또 국민들이 보다 쉽게 공간정보를 검색, 활용할 수 있도록 공간정보 목록 등도 정비할 계획이다.공공기관 콜센터 대기시간 줄이기 사업 지원 국민권익위는 내년에 전국 공공기관의 콜센터를 클라우드 기반의 지능형 콜센터로 통합하는 사업을 본격화한다. 행안부는 NIA를 통해 이 사업을 적극 지원할 예정이다. 국민권익위는 내년에 우선 보건복지부 등 15개 중앙행정기관과 소속·산하기관 콜센터 통합을 시작한다. 개별 운영 중이던 공공기관 콜센터가 통합되면 비상상황에서도 보다 원활한 전화상담이 가능할 것으로 전망된다. 소상공인에 맞춤형 정보 제공  중기부는 코로나19와 같은 재난 상황과 산업 변화에 취약한 소상공인들을 신속하게 지원하기 위한 포털 서비스 ‘소상공인24’를 내년에 구축할 계획이다. 600만 소상공인의 창업과 성업, 폐업 등 생애주기별로 필요한 맞춤형 서비스를 제공하는 것이 주목적이다. 행안부의 지원으로 이 사이트가 구축되면 소상공인들은 정책자금과 지원사업, 재난지원금 등 다양한 정보를 한 번에 볼 수 있게 된다. 3차원 입체주소 확대 올해 6월 도로명주소법령이 전면 개정됐다. 국민들이 자주 사용하는 버스나 택시 정류장, 엘리베이터 등에도 주소를 붙일 수 있게 됐다. 행안부는 내년에는 자율주행 같은 첨단기술을 활용한 신산업이 활성화될 수 있도록 주소체계 정보화전략계획(ISP)도 수립할 예정이다. 향후에는 신주소체계를 기반으로 고밀도로 입체화된 도시 건물 어디로도 빠르고 정확하게 물류 배송이 가능해지고, 재난·안전사고에 대한 대응도 빨라질 것으로 전망된다. 서주현 행안부 공공지능정책관은 “전자정부 지원 사업을 통해 국민이 체감할 수 있는 서비스를 더 적극적으로 발굴해 ‘디지털로 여는 좋은 세상’을 앞당기겠다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2021.12.28.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>내년 대출 규제받는 600만명…"돈이 모자라" 당황하지 않으려면</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004688671?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>[하반기 강화된 개별은행 대출제한 내년 1월1일부터 풀려올해 가계대출 4~5%대 총량관리 "실수요·서민대출 예외"DSR 규제에 금리상승, 신규 주담대는 고정금리가 유리대출은 월초에…'한도 규제' 기존 빚 무작정 갚았다간 낭패](서울=뉴스1) 이성철 기자 = 내년 1월부터 강화되는 차주별 총부채원리금상황비율(DSR) 규제 영향권에 약 600만명이 포함될 것으로 전망된다. 21일 국회 정무위 소속 강민국 국민의힘 의원이 금융위로부터 제출받은 자료에 따르면, 내년 차주별 DSR 규제에 해당하는 대출자는 593만명으로 조사됐다. DSR 규제 3단계가 본격화되면 기존 대출액이 1억 원을 넘는 차주 593만 명은 다른 대출을 받을 때 제약이 생긴다. 특히 고정 수입이 다른 연령대보다 적은 20대와 60대는 DSR 규제에 막혀 추가 대출이 어려울 가능성이 있다. 사진은 21일 서울의 한 은행 대출창구. 2021.12.21/뉴스1  은행들이 새해가 시작되는 다음주부터 대출 영업을 사실상 정상화한다. 돈이 풀리더라도 실수요자가 아니라면 올해보다 대출 문턱은 더 높아질 전망이다. 금융당국이 내년에는 더 엄격히 가계대출 총량을 관리하기로 해서다. 차주별 총부채원리금상환비율(DSR) 규제가 연초부터 더 강화되고 하반기엔 강도가 훨씬 세진다. 주택담보대출과 신용대출 금리 역시 1분기 안에 최고 6%를 상회할 것으로 보여 자금계획과 상황에 맞게 전략을 짜는 '대출 리모델링'이 필수다. 27일 은행업계에 따르면, 시중은행과 인터넷전문은행 등 주요 은행들은 다음주부터 내년 가계대출 총량 증가율 목표에 맞춰 월별·분기별 관리 방식의 대출 영업을 시작한다. 금융당국이 제시한 내년 총량 증가율 목표는 4~5%대다. 올해 5~6%대와 비교해 더 빡빡하다. 지난달 말 기준 5대 시중은행의 가계대출 평균 증가율(5.75%)보다 많이 낮다. 5대 은행이 내년 공급할 수 있는 대출액은 올해 42조원 규모에서 35조6000억원 수준으로 15% 가량 쪼그라든다.은행들은 지난 하반기부터 제한했던 일부 대출 규제를 다음주부터 다시 푼다. NH농협은행은 현재 무주택자에게만 열어 준 신규 주담대 판매를 완전히 재개한다. 신용대출 한도도 1억원까지 올린다. 우리은행은 대출 억제를 위해 폐지했던 우대금리를 다음달 3일부터 최대 0.6%포인트 올리기로 했다. SC제일은행도 지난 20일부터 신규 주담대 사전 신청을 받고 있다. 인터넷은행인 토스뱅크 역시 다음달 1일부터 신용대출을 다시 판매하고, 카카오뱅크는 내달 초부터 비대면 주담대를 새로 선보인다. 은행별 대출규제는 완화되지만 DSR 규제는 더 강화된다. 연간 원리금 상환액을 연 소득의 40% 이내로 제한하는 DSR 규제 적용 대상이 내년 1월부터 총대출액 2억원 초과, 내년 7월부터는 대출액 1억 초과 차주로 확대된다. 규제 대상에 새로 편입되는 차주만 약 600만 명이다. 시중은행 관계자는 "DSR 규제 강화로 차주별 대출 한도가 줄어드는 데다 은행들이 분기별로 대출을 관리하다보면 분기말 대출이 갑자기 막히거나 한도가 줄어드는 일이 일어날 수 있다"고 했다. 올해처럼 대출 중단 혹은 제한 사태가 재발할 가능성도 여전히 열려 있다는 것이다. 대출 규제가 더 엄격해지고 부동산 시장 움직임 등 여러 변수가 있는 만큼 대출 수요자라면 자금계획에 맞게 꼼꼼한 전략을 짜는 게 필요하다. 금융당국은 중·저신용자 대출이나 정책서민금융 상품, 전세자금 대출 등 서민·실수요자 대출은 차질없이 공급하겠다는 입장이다. 서민대출과 전세대출은 총량 관리 제외도 검토한다. 정책형 주담대와 서민·실수요 대출은 예외적으로 풀어주겠다는 것이다. 일반 주담대는 신규건 기존 대출이건 금리 방식을 신중히 고민할 필요가 있다. 올해 두 차례 오른 기준금리(1.00%)가 내년 2~3차례 더 오를 가능성이 크기 때문이다. 은행 주담대 변동금리는 시중금리 상승 영향에 최고 연 5%를 넘어 혼합형(5년 고정금리 후 변동금리 전환) 금리(지난 19일 현재 최고 4.91%)를 역전했다.  정성진 KB국민은행 양재PB센터 팀장은 "변동금리와 고정금리가 차이가 크지 않고 변동금리가 더 높은 역전현상이 일어나는 상황에선 신규 주담대시 고정금리를 선택하는 게 좋다"고 했다. 은행 전문가들은 변동금리로 이미 대출을 받은 차주의 경우 상환 만기와 중도상환수수료 및 금리 차이, 대출 한도 등을 꼼꼼히 따져 결정하라고 조언했다. 은행 대출은 가급적 월초나 매 분기 초에 신청하거나 실행하는 게 나아 보인다. 은행들이 월말, 분기말에는 총량 관리를 위해 대출을 조일 가능성이 있어서다. 금리 부담을 조금이라도 덜려면 소득 상승, 승진 등 사정 변경시 금리인하요구권을 적극 행사하는 것도 방법이다. 이자를 줄이려고 자금 계획 없이 무작정 대출을 갚았다간 낭패를 볼 수도 있다. DSR 규제는 시행 대출한 차주엔 소급 적용되지 않지만 대출 상환시 다시 빌리려면 한도가 줄어드는 상황에 직면할 수 있어서다. 주담대를 계획하고 있다면 만기가 짧은 마이너스통장 등 신용대출은 갚는 게 좋다. DSR 규제 탓에 한도가 나오지 않을 가능성이 크기 때문이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2021.12.31.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>[오늘의 유통 단신] 롯데칠성, 임직원 굿사이클링 캠페인 外</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000645590?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>◆ 롯데칠성, 임직원 굿사이클링 캠페인 진행 롯데칠성음료는 연말을 맞아 나눔 문화 확산과 함께하는 기업문화를 추구하기 위해 '임직원 굿사이클링 캠페인'을 진행했다고 31일 밝혔다.(왼쪽부터)정찬우 롯데칠성음료 ESG부문장, 한상욱 밀알복지재단 굿윌본부장이 장애인 고용과 자원순환을 위한 임직원 기증 물품 및 후원금 전달식에서 기념촬영하고 있다. [사진=롯데칠성음료]롯데칠성음료는 이번 캠페인을 위해 지난 22일 임직원들이 자발적으로 기증한 물품으로 바자회를 진행했다.바자회에는 집에서 사용하지는 않지만 재사용이 가능한 의류, 잡화, 가전 등이 기부됐으며, 바자회를 통한 판매수익금과 기부금을 포함 약 570만 원의 성금을 30일 밀알복지재단 '굿윌스토어'에 전달했다. 또 바자회에 기증하지 않고 순수하게 물품 기증을 원하는 직원들의 기부 물품도 이날 함께 전달했다.밀알복지재단 '굿윌스토어'는 개인과 기업으로부터 기부받은 물품을 판매 및 재사용하여 자원순환을 돕는 장애인 일터로 현재 13개 매장에서 273명의 장애인이 근무 중이다. 굿윌스토어는 롯데칠성음료로부터 전달받은 물품을 굿윌스토어 매장에서 판매하고 수익금을 장애인 고용 창출에 사용한다는 계획이다.롯데칠성음료는 이번 임직원 물품 기부 캠페인 외에도 2019년부터 20회에 걸쳐 약 6억 원 상당의 제품을 굿윌스토어에 기증했다. 이를 통해 장애인 13명의 일자리가 지속적으로 이어지는 등 장애인 고용 확대 및 자원 순환을 위한 상호 협력을 지속하고 있다. ◆ 파리바게뜨, 새해 맞이 1월 파바데이 프로모션 진행파리바게뜨가 새해를 맞아 1월의 '파바데이' 프로모션을 진행한다고 31일 밝혔다.'파바데이'는 매월 1일 매장에서 제품 구매 시, 총 구매액이 1만 5천 원 이상일 경우 3천원 혜택을 제공하는 프로모션이다.임인년 새해가 시작되는 1월의 파바데이에는 '복(福)'을 가득 담은 신년 제품과 연계한 혜택을 선보인다. 12월 29일부터 1월 5일까지 카카오프렌즈와 협업해 인기 캐릭터 라이언을 형상화한 '라이언 복돌이' 케이크 구매 시 5천원 혜택을, 복 주머니를 닮은 ‘만월빵’ 구매 시 3천원 혜택 쿠폰을 제공한다.'우유(200ml) 1+1 혜택 쿠폰' 프로모션도 진행한다. 1일 단 하루 참여 가능하며, 쿠폰은 해피앱과 파리바게뜨 공식 카카오톡 플러스친구를 통해 선착순으로 다운로드 받을 수 있다.또 삼성카드 링크(LINK), 신한카드 마이샵(MySHOP)으로 2만원 이상 결제 시 5천원 추가 혜택이 제공되는 제휴사 할인 혜택과 해피앱 신규 가입자 대상으로 '버터 풍미 가득 정통우유식빵 1봉 교환 쿠폰'도 제공한다. ◆ 남양유업, 연말연시 맞아 전국 사업장과 릴레이 '나눔' 활동 펼쳐남양유업이 연말연시를 맞아 전국에 있는 사업장과 함께 릴레이 지역사회 나눔 활동을 진행했다고 31일 밝혔다.남양유업의 릴레이 지역사회 나눔 활동은 영업지점 및 공장이 위치해 있는 전국 각 지역에서 순차적으로 진행됐다.우선, 남양유업 나주공장 임직원들은 직접 생산한 우유와 커피를 포함한 5백만원 상당의 제품과 성금을 전남 장애인 복지관, 나주 계산원, 이화 영아원에 전달했다.충청지점의 임직원들은 관내 중촌사회복지관을 방문해 남양유업의 음료 제품을 전달하고 독거노인을 위한 도시락 포장 봉사 활동을 진행했다. 이 외에도 호남지점, 세종공장 등 전국 각지 사업장의 임직원들이 지역사회 곳곳에서 나눔과 이웃사랑을 실천했다.한편, 남양유업 세종공장은 보건복지부와 한국사회복지협의회가 공동 주관하는 '2021 지역사회공헌 인정제' 인정기업으로 선정되며 꾸준히 지역사회 공헌활동을 펼친 공로를 인정받았다. ◆ 아워홈, 대학생 서포터즈 '판아워홈 10기' 온라인 수료식 개최종합식품기업 아워홈은 아워홈 대학생 서포터즈 ‘판아워홈 10기’ 수료식을 열었다고 31일 밝혔다. 이번 수료식은 코로나19 방역 수칙 준수를 위해 온라인으로 진행됐다.'판아워홈(Pan-Ourhome)'은 아워홈 주요 제품과 서비스를 경험하고, 다양한 아이디어를 접목해 온라인 SNS 채널에 홍보하는 아워홈 공식 대학생 서포터즈다. 2012년 1기를 시작으로 올해 10주년을 맞았으며, 현재까지 대학생 1천여명이 판아워홈으로 활동했다.아워홈 대학생 서포터즈 65명이 참석한 수료식에는 7개월간 판아워홈 활동을 성공적으로 마친 서포터즈들에게 수료증 및 상장을 수여했다. 최우수 활동자 5명에게는 아워홈 입사 지원 시 서류전형 면제 등 채용 특전의 기회가 주어졌으며, 우수 활동자와 팀에게는 아워홈 외식상품권이 증정됐다.이번 '판아워홈 10기' 서포터즈는 지난 5월부터 약 7개월 간 식품업계 트렌드 파악, 신제품 체험 및 평가, 홍보 콘텐츠 제작 등 식품 마케팅 업무 전반을 경험했다. ◆ 이디야커피, 따뜻한 연말 위해 '이디야의 동행' 실천이디야커피는 사랑의 열매 사회복지공동모금회와 청담종합사회복지관에 1억2천만원 상당의 물품을 후원하며 '이디야의 동행'을 진행했다고 31일 밝혔다.이디야커피는 RTE 제품 1천박스, 스틱커피 및 커피믹스 500박스 등 1억원 상당의 물품을 준비했다. 물품은 사회복지공동모금회를 통해 강서구 관내 지역아동센터 및 노인복지관에 전달됐다.지난해 연말 사회공헌활동으로 인연을 맺은 청담종합사회복지관에도 지역 독거노인을 위해 김장김치 315박스와 자사 커피믹스 40박스를 기부했다. 또 복지관 이용자들이 편리하게 교육받을 수 있도록 교육실 환경개선에 필요한 교육비품 등 2천만 원 상당 물품을 전달했다.이디야커피는 올 한 해 메이트 희망기금, 가맹점주 자녀 캠퍼스 희망기금, 굿네이버스와 함께하는 과테말라 코로나19 예방 및 식수위생지원사업 등 사회적 가치 실현을 위한 다양한 기부활동을 펼치고 있다. ◆ 위메프, '11특가&amp;위메프데이'…새해 첫날부터 대규모 특가 행사위메프는 새해를 맞아 오는 1일부터 6일까지 '11특가&amp;위메프데이'를 열고, 대대적인 할인 행사를 진행한다고 31일 밝혔다.내달 1일 '11특가'에서는 상품 가격 끝자리를 '1원', '11원' 등에 맞춘 초특가 상품을 선보인다. 특히 0시부터 하루 6번 타임세일에서 시간별 5개씩 총 30개 파격 할인 상품을 공개한다. 11특가 타임세일 상품은 검색 최저가 대비 최대 30% 저렴하게 판매한다.주요 상품은 ▲허닭 닭가슴살 스테이크 ▲좋은느낌 순수소프트 슬림날개(대형 7매, 2팩) ▲베베숲 소프트 20매(휴대캡 12팩) ▲구룡포 햇 과메기(5마리, 10쪽) ▲언더아머 남성 벨로시티 윈드 러닝화 등이다.2~6일에는 '위메프데이'를 진행한다. 5일간 ▲패션·뷰티 ▲디지털·가전 ▲리빙·가구·E쿠폰 ▲푸드 ▲유아동 등 카테고리를 총 망라한 혜택을 선보인다.행사 기간 모든 고객에게 구매 금액별 쿠폰(최대 20%, 최대 6만원 할인)과 결제 수단별 쿠폰(최대 10%, 국민·농협·신한·비씨·하나·전북은행·카카오페이·토스·차이) 등 특별 쿠폰팩을 지급한다. 무료 멤버십 VIP클럽 회원은 추가 할인과 최대 5% 적립 혜택도 받을 수 있다. ◆ 홈플러스, 'MZ 겨냥' 합정점에 무직타이거 팝업스토어 오픈홈플러스가 MZ세대를 겨냥해 인기 캐릭터 '무직타이거(MUZIKTIGER)'와 협업한 상품을 한데 모은 팝업스토어를 개장한다고 31일 밝혔다.홈플러스는 다음달 26일까지 서울 서교동 홈플러스 합정점 지하 2층 매장입구에 '무직타이거 팝업스토어'를 열고 무직타이거 침구상품을 비롯한 다양한 컬래버 상품 152종을 선보인다.2022년 '호랑이의 해' 임인년(壬寅年)을 앞두고, 호랑이 일러스트 브랜드 '무직타이거'의 라이센싱 업체인 나라홈데코와 손잡고 무직타이거 컬래버 쿠션, 바디필로우 등 각종 침구 상품과 노트북 파우치, 볼펜, 그립톡 등의 상품을 판매한다.'무직타이거'는 '직장을 벗어나 원하는 일을 하는 자유로운 삶을 지향하는 이 시대의 모든 무직(unemployed)을 응원'하는 콘셉트의 브랜드다. 호랑이 '뚱랑이'를 비롯해 '뚱찌', '뚱고미', '포르미' 등의 캐릭터 일러스트로 MZ세대를 중심으로 젊은 층에서 각광받고 있는 인기 캐릭터 브랜드다.홈플러스는 다음달 26일까지 합정점 지하 2층 매장입구에 '무직타이거 팝업스토어'를 열고 다양한 컬래버 상품 152종을 판매한다. [사진=홈플러스] ◆ GS샵, 제주신화월드 메리어트관 단독 판매GS샵은 오는 2일 오후 9시35분부터 '제주신화월드 메리어트관 프리미엄 호캉스 패키지' 방송을 단독 론칭한다고 밝혔다.'제주신화월드'는 여의도 면적의 80%에 달하는 대규모 복합리조트로, 총 4개 호텔 및 리조트를 보유하고 있다. 테마파크, 워터파크, 신세계사이먼 프리미엄 전문점, 40개가 넘는 다양한 식음업장이 있다.GS샵은 '제주신화월드' 내에서도 프리미엄관인 '메리어트관'을 업계 단독으로 선보인다. 1박과 2박 중 택할 수 있으며 론칭 방송 구매 시 2만원 할인, 일시불 결제 시 2만원 추가 할인 혜택이 더해진다.또 조식이 성인 2명, 최대 소인 2명까지 투숙 당 1회 포함되며, 객실 내 미니바도 1회 무료로 제공된다. 모실클럽하우스 모실 수영장에서 따뜻한 온수풀도 이용할 수 있다.제주신화월드 내에서 '빅(Big) 5' 특전도 누릴 수 있다. 스페셜 F&amp;B(음식·음료)로 칵테일 세트 또는 피맥 세트 중 한 가지를 택해 제공받을 수 있으며, 신화테마파크에서 원하는 놀이기구를 이용할 수 있는 '빅3' 이용권도 포함돼 있다.추가로 '가파도' 정기여객선 왕복 승선권(2인 무료)과 제주 최대 규모의 실내 동물원인 '캐니언파크' 입장권(2인)을 제공한다. GS샵 고객들에게는 웰컴 한라봉 세트를 추가로 증정한다. ◆ 이니스프리, '블랙티 앰플 &amp; 트리트먼트 에센스 체험단' 모집이니스프리는 '블랙티 앰플(10mL)'와 신제품 '블랙티 트리트먼트 에센스(25mL)'로 구성된 '블랙티 앰플 &amp; 트리트먼트 에센스 체험단'을 모집한다고 31일 밝혔다.체험단은 다음달 19일 정식 출시를 앞두고 있는 '블랙티 트리트먼트 에센스'를 가장 먼저 사용해 볼 수 있다.1월 1일부터 5일까지 이니스프리 고객이라면 누구나 이니스프리 공식 온라인몰에서 선착순으로 신청할 수 있으며, 배송비만 결제하면 '블랙티 앰플 &amp; 트리트먼트 에센스' 체험 키트를 집으로 배송 받을수 있다. 오프라인 매장 수령을 선택하면 배송비 부담 없이 수령 기간에 맞춰 신청 시 선택한 매장을 방문해 제품을 수령할 수도 있다.지난해 9월 출시 이후 100만병 판매 돌파 기록을 세우며 이니스프리 재구매율 1위를 차지한 '블랙티 앰플'은 일명 '확신의 앰플', '김나영 찐템'이라는 애칭으로 불리며 이니스프리의 대세템으로 자리 잡았다.'블랙티 앰플'은 무너진 탄력을 개선해 5대 피부 노화 징후를 입체적으로 케어하는 항산화 안티에이징 앰플이다. 피부결, 눈가 주름, 뺨·팔자·눈가 수분 등 5가지 피부 노화 징후를 케어하는 제품이다. ◆ 롯데하이마트, 신년맞이 '2022 새단장 SALE' 진행롯데하이마트가 신년을 맞아 1월 한 달간 다양한 온·오프라인 행사를 진행한다고 31일 밝혔다.오프라인 매장에서 행사카드로 구매하면 캐시백이나 장기 무이자 할부 혜택을 준다. 평일(화~목) 행사카드로 구매하면, 구매 금액대에 따라 최대 50만원까지 캐시백 혜택을 준다. 주말(금~월) 구매하면, 금액대에 따라 최대 110만원까지 현금으로 돌려준다. 요일 관계없이 행사카드에 따라 최대 36개월 무이자 할부 혜택도 제공한다.삼성전자, LG전자와 각각 손잡고 브랜드 동시 구매 행사를 펼친다. '삼성전자 세일페스타'는 행사 모델 2개 이상 동시 구매하면, 최대 300만 점까지 엘포인트(L.POINT)를 준다. 품목은 김치냉장고, QLED TV 등 20개다. '사랑해요 LG페스티벌'을 통해서는 행사 모델 2개 이상을 동시 구매하면, 300만원까지 캐시백 혜택을 준다. 품목은 TV, 스타일러 등 15가지다.7일부터는 설 명절 연휴를 앞두고 다양한 기획전을 진행한다. 31일까지 전기레인지, 식기세척기 등 주방가전 행사모델을 구매하면 금액대별로 롯데모바일상품권을 최대 5만원까지 주는 '설 준비 기획전'을 연다. 금요일부터 월요일까지 진행하는 '2022 아카데미:컴온 하이마트' 행사에서는 PC와 휴대폰, 태블릿 등 IT가전 행사상품을 동시 구매하면 최대 11만원까지 캐시백을 준다.온라인쇼핑몰에서는 다음달 9일까지 '빅하트세일'을 연다. 1일부터 3일까지 제휴카드로 구매 시 최대 8%를 20만원까지 청구할인 해주는 'ALL 카드데이' 행사를 연다. 4일부터 9일까지는 행사카드로 행사상품을 구매하면 최대 10%를 25만원까지 청구할인해준다. 10일부터 23일까지는 모바일 앱(APP)으로 가전, 가구 행사모델 동시 구매 시 금액대별로 엘포인트를 최대 100만점까지 주는 '가구 브랜드 연합 페어'를 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2021.12.31.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>"이건 꼭"…"이건 영"…마블 '베스트·워스트' 포인트는</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002991269?sid=105</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>마블 시네마틱 유니버스(MCU) 2021년 개봉작. 사진=월트디즈니컴퍼니(※ 본 기사는 MCU 2021년 개봉작 스포일러를 포함하고 있습니다.)2021년은  ‘마블의 해’라고 해도 과언이 아닐 정도로 어느 때보다 많은 마블 시네마틱 유니버스(MCU) 작품이 개봉했다. 특히 코로나19로 ‘마블 기근’이었던 2020년과는 대조되는 한해였다. ‘블랙위도우’를 시작으로 2021년 최고 흥행작인 ‘스파이더맨: 노 웨이 홈’까지 영화만 4편이 개봉했으며, 온라인 동영상 서비스(OTT) 디즈니+까지 국내 정식 론칭해 총 9개 작품이 국내 팬들을 찾아왔다.2021년 MCU 작품 중 베스트와 워스트는 무엇일까? 주관적인 재미를 기준으로 선정한 베스트 작품은 영화 ‘스파이더맨: 노 웨이 홈’과 드라마 ‘완다비전’, 워스트는 영화 ‘이터널스’와 드라마 ‘로키’다.◇영화 베스트는 ‘스파이더맨: 노 웨이 홈’, 워스트는 ‘이터널스’영화 ‘스파이더맨: 노 웨이 홈’ 스틸컷. 사진=월트디즈니컴퍼니누적 관객 수 536만이라는 흥행 성적으로도 증명이 되는 ‘스파이더맨: 노 웨이 홈’. 트릴로지의 대미를 제대로 장식한 영화다. 미국 비평사이트 ‘로튼토마토’의 신선도지수가 절대적인 척도는 아니지만 마블 영화에 한해서는 신선도지수와 재미가 얼추 비례한다. 스파이더맨: 노 웨이 홈의 신선도지수는 역대 마블 2위인 94% 다.이번 영화는 스파이더맨 전 시리즈를 관통하는 메시지인 ‘큰 힘에는 큰 책임이 따른다’를 MCU 식으로 보여줬다. 강력한 힘을 가졌음에도 ‘친절한 이웃’이라는 포지션을 유지하는 피터 파커의 선한 마음 또한 인상적이다.전 시리즈를 아우르는 등장인물로 소니픽쳐스 스파이더맨을 기억하는 팬들에게는 좋은 추억을, 홈 시리즈만을 본 팬들에게는 새로움을 선사했다. 각 스파이더맨 시리즈가 2007년(스파이더맨3)과 2014년(어메이징 스파이더맨2) 막을 내려서 그런지 너무 우려먹어 지겹다기보다는 반갑게 느껴졌다.다음 마블 영화인 ‘닥터 스트레인지: 대혼돈의 멀티버스’를 위한 발판 역할도 훌륭히 수행했다. 닥터 스트레인지 2편 속 멀티버스가 왜 ‘대혼돈’ 상태인지를 잘 설명했다.영화 ‘이터널스’ 스틸컷. 사진=월트디즈니컴퍼니등장과 동시에 퇴장해버린 이터널. 영화 초반 지구를 관리하는 최상위 능력자인 것처럼 소개하지만 전투와 능력이 허술하게 그려진다. 국내 팬들을 가장 기대하게 만들었던 배우 마동석의 ‘길가메시’는 코믹스 속 캐릭터보다 약하게 그려진 능력으로 실망감을 안겨줬다.  극중에서는 중반부 테나를 지키며 ‘영웅적인’ 면모를 보여준 듯하지만 결국 죽으며 퇴장했다.영화는 '기승전이터널' 식으로 전개됐다. 고대 유물을 준 것도 ‘이터널’, 쟁기를 개발한 것도 ‘이터널’, 신화의 기원이 된 것도 ‘이터널’이다. 특히 히로시마 원폭 당시 흑인 캐릭터 파스토스가 ‘사서 고생’하며 죄책감을 느끼는 장면이 압권이다.이미 10명의 이터널스로도 충분히 많은 캐릭터를 그려냈는데도 불구하고 소개는 끝나지 않는다. 이터널스의 기원 ‘셀레스티얼’ 종족, 이터널스가 맞서 싸우는 ‘데비안츠’, 세르시의 연인 ‘블랙 나이트’, 쿠키 영상에 등장하는 타노스의 동생인 에로스 ‘스타폭스’까지. 한 편에 지나치게 많은 정보를 담아서 다음 편에 대한 기대를 높이기보다는 피로감을 준다.◇드라마 베스트는 ‘완다 비전’, 워스트는 ‘로키’드라마 ‘완다 비전’ 스틸컷. 사진=월트디즈니컴퍼니미국 시트콤의 매력과 MCU가 가진 매력이 완벽하게 섞인 작품이다. 매 화 50~90년대 미국 시트콤을 보는 것 같은 재미를 느낄 수 있다. 무엇보다 '시트콤' 같은 분위기 속에서 위화감을 조성하는 요소들이 섬뜩한 분위기를 연출하는 점이 매력적이다. 흑백 시트콤 가 운데 떨어진 컬러 비행기, 대사가 틀렸다며 완다의 눈치를 보는 웨스트뷰 주민 등이 그렇다.엔드 게임에서 죽은 줄 알았던 비전이 어떻게 생명을 얻게 되었는지도 충분한 설명을 들을 수 있다. 팬들에게는 공공연히 불렸지만, 영화에서는 판권 문제로 단 한번도 언급되지 않은 그 이름 '스칼렛 위치'가 드디어 자신의 자리를 찾은 드라마이기도 하다. 어벤져스에서 다운그레이드됐던 완다의 능력이 '소서러 슈프림'을 능가한다는 대사는 짜릿함을 더했다.‘토르: 다크월드’ 이후 처음 등장한 ‘달시’, ‘앤트맨과 와스프’의 FBI 요원 ‘지미 우’, 먼지가 됐던 5년 후의 혼란을 잘 보여준 ‘모니카 랭보’는 개성이 말살된 텅 빈 눈동자의 웨스트뷰 주민과 대비되며 매력 있게 그려진다. 향후 마블이 제작을 확정한 작품 ‘아가사 하크네스’의 주인공 또한 깊은 인상을 남겼다.드라마 ‘로키 시즌1’ 스틸컷. 사진=월트디즈니컴퍼니MCU 페이즈4의 주제인 ‘다중우주(멀티버스)’의 도입부라는 것을 고려해도 지루하다. 히어로 영화의 가장 큰 매력인 오락성이 낮고 세계관을 설명하려는 대사가 지나치게 방대하다. 멀티버스를 ‘또 다른 세계가 있다’라는 설명으로 끝내는 것이 아니라 모든 설정 요소들을 시청자 들에게 떠먹여주려고 했으나 맛이 없다.주인공 로키는 ‘나르시스트’라는 설정에 맞게 또 다른 자신인 레이디 로키, ‘실비’를 사랑하게 되지만 세계관 설명에 파묻혀 개연성 있는 로맨스라고 느껴지지 않는다. 장난의 신인 로키가 가진 악동같은 매력도 매 화를 거듭할수록 줄어들어 아쉽다.특히 향후 ‘앤트맨3(앤트맨과 와스프 퀀터매니아)’의 메인 빌런이 될 '정복자 캉'의 데뷔 무대임에도 앞부분의 매력이 떨어져 캉이 등장하는 편까지 시청하기가 쉽지 않다. 시리즈 완주를 목표로 한다면 음성을 한국어로 설정하고, 세세한 설정 이해는 나중으로 미룬 채 물 흐르듯 감상하는 것을 추천한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2021.12.22.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>[특징주] 한국전자인증, 토스 몸값 20조 전망… 지분 보유 부각</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000767026?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>금융 플랫폼 '토스' 운영사 비바리퍼블리카가 내년 초 프리IPO(상장 전 투자 유치)에 나선다. 상장 전 마지막 자금 조달을 통해 최대 20조원의 기업가치를 인정받을 것으로 관측된다. 이에 토스 지분을 보유한 한국전자인증의 주가가 강세다. 22일 오전 10시16분 한국전자인증은 전거래일대비 950원(9.09%) 오른 1만1400원에 거래되고 있다. 투자은행(IB)업계에 따르면 비바리퍼블리카 재무 핵심부서인 '코퍼레이트 디벨롭먼트(Corporate Development)팀'은 최근 토스의 투자 유치 계획을 준비 중으로 알려졌다. 확보한 자금은 정보기술(IT) 인프라 및 인력 확충에 사용할 예정이다. 사실상 프리IPO격인 이번 투자 유치의 시기는 내년 초다. 투자 규모는 아직 확정하지 않았다.시장에서는 이번 프리IPO에서 비바리퍼블리카 책정 기업가치가 최대 20조원에 이를 것으로 내다보고 있다. 지난 6월 마지막 투자 유치 당시 약 8조원으로 평가됐던 기업가치가 1년도 채 지나지 않아 2.5배가량 뛰어오르는 셈이다.한편 한국전자인증은 토스의 관계사로 지분 5.67%를 보유 중이다. 이번 소식으로 매수세가 몰리며 주가가 상승하는 것으로 풀이된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2021.12.27.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>은행 대출문 내년 1월 다시 열린다…농협銀도 재개(종합)</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010910632?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>기사내용 요약시중은행들, 내년 초 대출 정상화 속속내년 대출 조건 자체는 더 까다로워져벌써부터 선착순 대출 현상 재현 우려[서울=뉴시스] 최선윤 기자 = 주요 시중은행들과 인터넷은행들이 내년 초 대출을 속속 재개한다. 가계대출에 다소 숨통이 트일 것으로 예상되는 가운데 일각에서는 벌써부터 선착순 대출 현상이 재현될지 모른다는 우려의 목소리가 나오고 있다.27일 금융권에 따르면 은행권은 연 단위로 적용되는 가계대출 총량규제가 내년 1월3일부터 리셋되는 시점에 맞춰 대출상품 판매 재개를 준비 중이다.우선 NH농협은행은 내년 1월부터 신규 주담대 판매를 재개한다. 농협은행은 이달 들어 무주택자를 대상으로 신규 주담대를 재개한 데 이어 새해부터는 주택 관련 대출을 모두 정상화할 계획이다. 최대 2000만원으로 낮췄던 신용대출 한도도 다시 1억원으로 높인다. 모기지신용보험(MCI)·모기지신용보증(MCG) 대출도 재개한다. NH농협은행 측은 "내년 1월3일자로 전체 가계대출을 정상적으로 재개한다"며 "다만 주택, 주택외 대출, 신용대출의 한도를 부여해 철저한 총량관리를 진행하고 주담대는 가급적 무주택자, 처분 조건의 1주택자 위주로 운영할 것"이라고 밝혔다. 또 "집단대출은 최소물량으로 운영할 예정"이라고 덧붙였다. 신규 주담대 판매를 잠정 중단했던 SC제일은행은 내년 대출 재개를 앞두고 이달 20일부터 사전 신규 신청을 받고 있다.인터넷전문은행들도 신규 대출 채비에 나섰다. 출범 9일 만에 대출 한도를 소진해 신규 대출을 중단했던 토스뱅크는 다음달 초 대출 사업을 재개한다. 카카오뱅크는 내년 초 비대면 주담대 상품 출시를 앞두고 있다.가계대출 우대금리도 복원된다. 우리은행은 내년 1월3일부터 신용대출, 주택담보대출, 전세대출 상품 상당수의 우대금리를 확대한다. 신용대출 대표상품 '우리 주거래직장인대출'의 우대금리는 기존 0.3%포인트에서 0.9%포인트로, 주담대 중 '우리아파트론'은 우대금리가 최대 0.3%포인트에서 최대 0.8%포인트로 늘어난다. '우리전세론'은 최대 0.2%포인트에서 최대 0.7%포인트로 변경된다.농협은행도 우대금리 일부 확대를 시행할 계획이다.하지만 내년부터는 총부채원리금상환비율(DSR) 규제에 따라 대출 조건 자체가 더 까다로워지는 만큼 내년에도 '대출 절벽'이 지속될 것이라는 전망이 나온다. 선착순 대출 우려가 쉽게 가시지 않는 이유다.다만 고승범 금융위원장은 내년부터는 분기별로 대출관리가 이뤄져 선착순 대출 현상은 재현되지 않을 것이라고 언급한 바 있다.고 위원장은 지난 10월 말 대출 한도를 분기별로 제한하면 선착순 상황이 일어날 수 있다는 우려에 대해 "금융회사들의 대출 관리 체계를 좀 더 내실화하겠다"며 "금융사에 분기별로 안분을 줘서 대출중단이 없도록 하겠다는 것"이라고 설명했다.그러면서 "이렇게 되면 (선착순 같은) 문제도 자연스럽게 해소가 될 수 있을 것으로 기대한다"며 "앞으로 이러한 방향으로 금융사들과 협의를 해나가도록 하겠다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2021.12.19.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>연말 성과급 받는다면…하루만 맡겨도 연2%, 이 통장 뜬다</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003159914?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>갈 길을 잃은 목돈이 '파킹통장'으로 몰리고 있다. 파킹통장은 잠시 차를 주차하듯이 언제든지 돈을 넣었다가 뺄 수 있는 통장을 가리킨다. 가입 조건은 수시입출금식 통장과 비슷하지만 일반 수시입출금 통장의 금리가 제로에 가까운 것과 달리 하루만 맡기고 통장을 해지해도 연 2%대 금리를 받을 수 있어 인기가 높다.      통장 이미지 [셔터스톡]       19일 한국은행에 따르면 지난 10월 말 기준 은행 수시 입출금 예금 잔액은 354조 8780억원이다. 1년 전인 지난해 10월(286조790억원)보다 24% 늘었다. 저축은행 총수신 잔액은 지난해 10월(74조1830억원)보다 지난 10월 97조4180억원으로 1년 만에 31% 불어 증가 폭이 더 컸다.       올해 하반기 들어 증시가 주춤하며 박스피에 머물자 뭉칫돈이 은행으로 다시 흘러들어오고, 기준금리 인상 기대감이 커지며 수신 잔고가 늘었다는 게 금융권의 설명이다. 연말정산 환급액과 연말 성과급 등 목돈이 생겼을 때 마땅한 투자처를 찾지 못해 일시적으로 돈을 보관해야 한다면 파킹통장 가입을 고려해볼 만하다. 금융권에서도 고금리 특판을 경쟁적으로 출시하고 있다.      은행·저축은행 수신고 얼마나 늘었나. 그래픽=차준홍 기자 cha.junhong@joongang.co.kr      ━   6개월 묵힐 수 있다면 정기예금 유리        은행 중에서 파킹통장으로 고려할 상품은 토스뱅크 상품이다. 토스뱅크 통장은 연 2%의 금리를 제공한다. 지난 10월 출범 당시 '조건 없는 2%'를 내세웠지만 역마진 우려로 다음 달 5일부터 예치금 1억원까지만 2% 금리를 적용하겠다고 입장을 바꿨다. 1억 초과분에는 연 0.1%의 금리가 적용된다.        저축은행도 경쟁적으로 상품을 출시하고 있다. OK저축은행의 '중도해지OK정기예금 369' 금리는 연 2.2%다. 36개월 만기의 정기예금 상품이지만 중도해지 페널티가 없어 사실상 파킹통장이나 다름없다. 최대 30억원까지 가입이 가능하다.      연말을 맞아 저축은행에서 특판 예금을 선보이고 있다. [사진 상상인, 모아저축은행]           상상인 저축은행의 '뱅뱅뱅 파킹통장 369 정기예금'은 예치 기간이 길어질수록 금리가 오른다. 한 달 이상 맡기면 2.01%, 3개월 이상 2.11%, 6개월 이상 2.21%, 9개월 이상 2.31% 금리를 주고 가입 한도는 없다. 중도해지 시에도 예치 기간별 약정금리를 적용한다. 자금을 6개월 이상 묶어둘 예정이라면 파킹통장보다 정기예금 가입이 유리하다. 만기가 정해진 만큼 금리가 더 높기 때문이다. 모아저축은행은 지난달 10일 연 3%의 금리를 주는 '모아삼프로' 특판 정기예금 상품을 내놨다. 1인당 최대 1000만원까지 불입할 수 있으며 계약 기간은 6개월이다. 단 중도해지를 하면 예치 기간에 따라 금리가 0.2~1.5%로 내려갈 수 있어 주의해야 한다.       그 밖에도 만기 6개월인 정기예금 중 금리 조건이 좋은 상품으로 상상인저축은행 뱅뱅뱅 정기예금(2.41%) 등이 꼽힌다.      파킹통장에 가입할 때는 금리 조건뿐 아니라 가입 한도와 우대 조건 여부 등을 꼼꼼히 따져야 한다. 금리 조건이 좋을수록 가입 금액이 소액으로 정해져 있거나 복잡한 조건을 내건 경우가 많아서다. 저축은행중앙회 소비자 포털과 금융감독원의 '금융상품 한눈에' 서비스를 이용하면 은행별 예·적금 금리를 비교할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2021.12.31.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>마이데이터 시범운영 잡음···핀테크 “금융사 연동 원활하지 않아”</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004002882?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>/사진=이미지투데이[서울경제] 마이데이터 서비스 시범 운영 기간 동안 곳곳에서 응답 지연, 정보 유출 등 잡음이 이어지고 있다. 금융당국이 마이데이터 전면 시행일을 다음 달 1일에서 5일로 나흘 미룬 것도 이런 잡음과 무관치 않다는 관측이다.31일 핀테크 업계에 따르면 지난 29일 일부 핀테크사는 NH농협은행과 일부 금융사에 요청한 표준 응용프로그램 인터페이스(API) 정보를 제대로 제공받지 못했다. 핀테크 업계 관계자는 “농협은행에 API 정보를 요청해도 응답이 안 오는 상태가 29일 오후 내내 진행돼 저녁에는 관련 서비스를 할 수 없었다”고 말했다.금융사와 핀테크 기업 양쪽 모두 문제 원인을 정확하게 파악하지 못한 상태다. 농협은행 관계자는 “정보 전송 요청이 일시에 몰렸을 때 응답 지연이 몇 차례 발생한 것으로 파악했다”며 “장시간 오류는 없었으며, 현재는 정상 복구한 상태”라고 설명했다. 마이데이터는 흩어진 개인 신용정보를 한곳에 모아 보여주고 재무 현황·소비습관을 분석해 금융상품을 추천하는 등 자산관리와 신용관리를 도와주는 서비스다. 토스·카카오페이·네이버파이낸셜·NHN페이코·뱅크샐러드 등 핀테크들은 ‘내 손안의 금융비서’와 같은 이 서비스를 이미 수년간 진행해왔다. 다만 기존에는 사업자들이 고객을 대신해 금융사 사이트에 접속하고 화면을 읽어내는 ‘스크린 스크레이핑’(screen scraping) 방식을 이용했다면, 마이데이터 전면 시행 이후에는 데이터 표준 API를 통해 금융기관 등에 흩어진 정보를 받게 된다.이는 스크레이핑 방식보다 보안 안전성이 높은 것으로 평가된다. 현재 핀테크 기업들은 기존 자산관리 서비스를 스크레이핑 구조에서 마이데이터 망 구조로 안전하게 이관하고 안정성을 확보하는 것이 과제다. 토스 이용자 800만명 이상이 이미 마이데이터와 비슷한 자산조회 서비스를 쓰고 있고, 카카오페이 이용자는 1,500만명에 달한다.네이버페이의 ‘내 자산’ 서비스를 마이데이터 기반으로 옮기고 있는 네이버파이낸셜에서는 지난 28일 시스템 오류로 회원 100명의 자산 정보가 다른 이용자에게 노출되는 사고가 났다. 은행, 증권, 카드 등 계좌번호와 송금, 주식거래, 결제 정보 중 일부 내용이 노출됐다.마이데이터 전면 시행일도 변경된 상태다. 금융위원회 측은 “업계의 요청 등으로 마이데이터 전면 시행일을 새해 첫 주말 후인 내년 1월 5일로 조정한다”고 29일 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2021.12.23.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>[기자의 눈]토스는 빅테크가 아니다</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004000219?sid=110</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>유현욱 금융부 기자[서울경제] 지난 15일 어렵사리 성사된 빅테크 기업과 고승범 금융위원장의 간담회는 무성한 뒷말을 낳았다. “민원성 발언이나 건의 사항은 자제하라”며 입단속까지 했다는 한 언론 보도에 금융위는 전혀 사실이 아니며 자유롭게 토론이 이뤄졌다고 반박했다. 누가 맞든 간에 ‘형식이 내용을 지배한다’는 오랜 격언을 따르자면 참석자들에게 드레스 코드로 정장에 넥타이를 요구한 이날 간담회는 결코 편한 자리는 아니었을 것이다.이번 회의에 불려 간 기업은 네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스 운영사), 뱅크샐러드 등 4곳이다. 국내 대표 정보기술(IT) 기업인 네이버·카카오를 등에 업고 있는 두 곳을 향한 우려 섞인 시선은 충분히 이해가 간다. 네이버의 검색 시장 지배력, 카카오의 메신저 시장 장악력을 생각하면 이들의 금융업 진출은 우월적 지위 남용 여부를 철저히 감독해 나갈 필요가 있다. 금융위는 내년에 빅테크그룹 감독 체계 도입 여부를 검토하겠다고 했다.그러나 토스나 뱅크샐러드는 사정이 다르다. 물론 토스의 경우 기업가치가 10조 원 안팎에 달하고 임직원 대부분이 IT 인력이라는 측면에서 사전적 의미의 빅테크임은 분명하다. 인터넷전문은행 자회사 토스뱅크가 피노키오처럼 ‘무조건 2% 이자 지급’ 약속을 깨버려 인가를 내준 금융 당국 책임론을 야기한 데 뿔이 날 법도 하다.하지만 덩치가 커졌다고, 비난의 표적이 됐다고, 토스를 네이버·카카오와 동일 선상에 놓을 수는 없다. 당장 토스뱅크의 카드 혜택 축소는 금융위의 자책골에 해당한다. 은행의 주 수입원인 대출이 정부에 의해 막힌 데 따른 부작용이기 때문이다. 전주용 동국대 교수는 “빅테크로 분류되는 토스는 금융사라 보는 게 맞다”고 지적했다.토스가 올 9월 기준 월 활성 사용자 수(MAU) 1,597만 명을 기록하며 금융 애플리케이션 중 1위 자리에 있지만 여전히 네이버·카카오처럼 생활의 필수 관문(포털) 역할을 하지는 못한다. MAU 역시 대출 중단 사태에 200만 명이 널뛰기하는 처지다. 아직 빅테크보다는 금융 혁신의 총아인 핀테크에 가깝다. 지레 겁먹고 울타리를 쳐 토스의 혁신을 가로막는 대신 풀어놓아야 할 때다. 어울리지 않는 넥타이부터 벗도록 하고 말이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2021.12.16.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>케이뱅크 "3억원까지 1% 금리 드려요"</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002558135?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>토스뱅크와 차별화 전략케이뱅크가 16일 파킹통장 금리를 인상했다. ⓒ케이뱅크[데일리안 = 김민석 기자] 인터넷 전문은행 케이뱅크가 최대 3억원까지 연 1%의 금리를 적용한다. 케이뱅크는 이날부터 파킹통장 '플러스박스'의 금리를 기존의 연 0.8%(세전 기준)에서 0.2%포인트 오른 연 1.0%(세전 기준)의 금리로 인상한다.파킹통장은 짧은 기간 돈을 맡기고 언제든 자유롭게 찾을 수 있지만 수시입출식 통장보다 금리가 훨씬 높다. 이번에 인상된 금리는 보유한 플러스박스 계좌 잔액을 모두 합산해 최대 3억원까지 적용된다. 이는 은행업계 최고 수준 한도다. 단 하루만 맡겨도 예치 금액에 따른 이자를 받을 수 있다.케이뱅크에 따르면 플러스박스는 용도에 따라 통장 쪼개기를 한 뒤 연결계좌에서 입출금이 가능하다. 쪼개기를 통해 '용돈 계좌'나 '비상금 계좌' 등 고객이 정한 용도에 따라 최대 10개의 플러스박스를 만들어 자금 관리를 할 수 있다.앞서 케이뱅크는 예금과 적금 등 수신상품 금리도 일제히 올린 바 있다. '코드K 정기예금' 상품의 금리는 가입 기간별로 1년 이상은 연 1.5%에서 2.0%, 2년 이상은 연 1.55%에서 2.1%, 3년 이상은 1.6%에서 2.2%로 인상됐다. '코드K 자유적금' 금리 역시 인상 이후 연 2.1~2.3%로 적용된다.케이뱅크 관계자는 "고객 혜택 확대를 위해 플러스박스의 금리를 인상했다"며 "지속적으로 경쟁력을 갖춘 상품을 발굴해 고객 혜택을 강화할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2021.12.22.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>방역패스 6개월 지나면 '경고음'···"내가 죄인이냐" 논란</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003999774?sid=102</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>"사업주가 일일이 확인할 필요 없이, 쉽게 확인이 가능할 것""경고음은 재난문자받을 때 울려"지난 13일 서울 강남구 한 카페에 백신패스 적용 안내문이 게시돼 있다./성형주기자[서울경제] 내년 1월 3일부터 식당·카페 등에 들어갈 때 유효기간이 지난 방역패스(접종증명·음성확인제) 스마트폰 QR코드로 인증하면 휴대전화에서 ‘경고음’이 울릴 것으로 보인다. 이 같은 정부 방침에 대해 찬성하는 의견 못지 않게 반대하는 의견도 커지고 있다.중앙방역대책본부(방대본) 고재영 위기소통팀장은 22일 “스마트폰 QR코드를 스캔했을 때 방역패스 유효기간이 만료된 경우에는 경고음을 나가도록 할 방침”이라고 말했다. 내년 1월 3일부터는 기본접종을 완료했더라도 완료 시점으로부터 6개월 이후 추가접종을 받지 않았다면, 방역패스가 적용되는 다중이용시설이나 감염 취약시설을 사용할 수 없다. 3차 접종은 접종 후 14일을 기다릴 필요 없이 접종 당일부터 바로 접종력이 인정된다.고 팀장은 “(경고음을 적용하면) 방역패스의 유효기간이 만료됐는지 (사업주가) 일일이 확인할 필요 없이, 쉽게 확인이 가능할 것”이라고 설명했다. 그는 이어 “내년 1월 3일부터는 카카오 네이버 토스 통신사패스앱 등에서도 2차 접종 후 경과일을 확인할 수 있도록 민간 플랫폼과 협의 중”이라며 “또 스마트폰 QR을 스캔 했을 때 유효기간에 한해 접종완료자라는 음성안내 나가도록 할 것”이라고 말했다.방역패스 유효기간이 지났을 때 경고음이 나오는 조치는 과도하다는 목소리도 나온다. 인천에 거주하는 A(31)씨는 "면역을 위해 3차 접종을 권장하는 것은 이해한다"며 "다만 경고음은 재난문자 수신시에 나오는 수단으로 과도하다. 다중이용시설에서 경고음이 울리면 자신이 죄인처럼 느껴질 것으로 보인다"고 말했다. “편할 것 같다”는 의견도 나오고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2021.12.20.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>급성장한 유통업계, ‘개발인력 모시기’ IT업계에 맞불</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001492587?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>IT업계 ‘최고 대우’로 인재 흡수  시장 급변에 다급해진 유통업계  스톡옵션 등 인센티브로 경쟁이커머스 시장이 급격하게 성장하면서 유통업계의 개발자 채용경쟁이 치열하다. IT업계가 개발 인력을 대거 빨아들이자 유통업체들은 스톡옵션, 사이닝보너스 등의 인센티브를 내놓으면서 맞불을 놓고 있다.19일 통계청에 따르면 지난 10월 온라인쇼핑 거래액은 16조9023억원으로 전년 동월 대비 21.7%(3조180억원)나 증가했다. 관련 통계 작성을 시작한 2001년 이후 최고치다. 코로나19 팬데믹으로 소비의 중심축이 온라인으로 이동하면서 이커머스 시장은 가파르게 성장 중이다. 이 때문에 유통업계는 몸달고 있다. 점점 빨라지는 디지털 전환에 발맞춰 당장 실무에 투입할 수 있는 인력 확보에 열을 올린다.롯데온은 오는 22일까지 IT·UX(사용자경험) 직군 경력사원을 세자릿수 규모로 채용할 예정이다(사진 위). 지난해 4월 출범한 이후 첫 대규모 공개채용이다. 모집 분야는 PM(제품매니저), PD(제품개발자), 데이터, 테크, UX 부문의 25개 직무다. 사실상 롯데온의 IT분야 직군 대부분이다. 롯데온 관계자는 “온·오프라인 쇼핑이 결합된 새로운 쇼핑환경 구현이 중요해졌다. 내년에도 이커머스 시장 성장세가 이어질 것으로 예상돼 발빠르게 IT인재 확보에 나섰다”고 말했다.전통적인 오프라인 유통업체들도 개발자 모시기에 뛰어들었다. GS리테일은 최근 이커머스 전체 사업 영역을 총괄하는 디지털커머스 비즈니스유닛(BU)의 경력사원 공개채용을 진행했다. 채용 인원은 두 자릿수 규모다. 지난 7월 신설된 디지털커머스 사업 규모를 2025년 5조8000억원까지 키우기 위한 투자다. CJ올리브영은 지난 8월에 1999년 창사 이래 최대 규모로 IT인력을 채용했다. 별도 서류전형 없이 코딩 테스트만으로 지원자 역량을 검증했다.유통업계가 개발자 확보에 뛰어들었지만, IT업계는 최고 대우를 보장하며 인력을 흡수하고 있다. 대표 IT기업 ‘네카라쿠배(네이버, 카카오, 라인, 쿠팡, 배달의민족)’에 이어 당근마켓·토스·직방·야놀자가 추가된 ‘네카라쿠배, 당토직야’로 개발자가 몰리고 있다.당근마켓은 지난 6일부터 5주간 100명 이상의 전 직군 채용 캠페인을 벌이고 있다(아래). 일주일에 20명가량을 뽑는 셈이다. 2015년 7월 3명으로 시작해 현재 임직원 수는 250여명이다. 최근 3년간 연평균 채용 규모가 2.7배씩 증가하고 있다. 당근마켓은 전체 인원 중 개발 인력이 65~70%를 차지한다.개발자 몸값이 치솟자 유통업체들은 각종 인센티브를 내걸고 있다. 내년 상장을 앞둔 SSG닷컴은 기술인력 전원에게 주식매수선택권(스톡옵션)을 부여하고 있다. 내부 인력의 IT기업 유출을 막으려는 조치다. 종합 유통물류 브랜드 ‘부릉’을 운영하고 있는 메쉬코리아도 지난 10월에 IT인력 유치를 위해 엔지니어링과 데이터 사이언스 직군 합격자에게 5000만원 사이닝보너스 또는 1억원 상당의 스톡옵션을 지급하기로 했다. 11번가는 지난 5월 개발직군 500만원, 비개발직군 250만원의 정액 임금인상을 단행했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2021.12.23.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 국제표준 정보보호 인증 취득</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012812328?sid=105</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>토스페이먼츠 [토스 제공]    (서울=연합뉴스) 최현석 기자 = 토스는 페이테크(Paytech) 계열사 토스페이먼츠가 국제표준 정보보호 인증인 'ISO/IEC 27001'을 취득했다고 23일 밝혔다.    'ISO/IEC 27001'은 국제표준화기구(ISO) 및 국제전기기술위원회(IEC)에서 운영하는 국제 표준 정보보호 인증이다. 정보보호 정책, 물리적 보안, 정보 접근 통제 등 14개 분야, 114개 관리 기준에 따른 심사를 통과해야 인증이 부여된다.     토스페이먼츠는 작년 8월 출범 당시 2명이던 정보보호 관련 인력을 8명으로 늘리는 등 정보보호 관리체계 운영 능력을 강화했다. 올해 정보보호 예산은 약 24억 원을 책정해 전체 IT 예산 중 비중을 국내 금융권 대비 높은 수준인 18%로 높였다고 회사 측은 설명했다.    harrison@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2021.12.23.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>유효기간 지난 방역패스 찍으면 ‘경고음’…1월 3일 시행</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003239671?sid=102</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>방역패스의 계도기간이 끝나고 의무화가 시작된 13일 서울시내의 한 식당에 예방접종 증명서 제시를 안내하는 안내문이 붙어 있다. 2021.12.13 뉴스1신종 코로나바이러스 감염증(코로나19) 2차 접종 완료자에게 부여된 방역패스(접종증명·음성확인제)의 유효기간이 6개월로 정해졌다.현재 방역패스가 있는 접종 완료자도 방역패스의 유효기간 내에 3차 접종을 하지 않을 경우, 방역패스는 만료된다. 내년 1월 3일부터 식당·카페 등 다중이용시설 입장 시 유효기간이 지난 방역패스를 제시하면 ‘경고음’이 울린다.지난 22일 고재영 중앙방역대책본부(방대본) 위기소통팀장은 기자단 설명회에서 “스마트폰 QR코드를 스캔했을 때 방역패스 유효기간이 만료된 경우에는 경고음을 나가도록 할 방침”이라며 “(방역패스의) 유효기간은 6개월이고, 시행은 1월 3일부터 된다”고 밝혔다.또한 “일반인들이 주로 이용하는 네이버·카카오·토스 등 통신사의 애플리케이션(앱)에서도 경과일을 확인할 수 있도록 민간 플랫폼사와 합의 중”이라면서 ”QR코드 스캔 시 유효기간 내에 한해 접종 완료자라는 음성 안내가 나갈 것”이라고 설명했다.그간 방역패스의 유효기간은 쿠브(COOV) 앱에서만 확인할 수 있었다. 네이버·카카오 등의 앱에서는 만료 14일, 7일, 1일 전 등 잔여 유효기간에 대한 국민비서 알림 서비스만 받을 수 있었다.유효기간 만료 후엔 경고음이 나와서 시설 관리자가 음성 안내로도 유효기간의 만료를 알 수 있게 돼 일일이 확인하는 수고를 덜 수 있을 것으로 예상된다.방역당국은 내년 1월 3일부터 방역패스 유효기간 제도를 시행하고 일주일간의 계도기간을 거친 뒤 과태료 부과 등 행정처분을 내릴 예정이다.하지만 정부의 이같은 방침에 정부가 미접종자를 과도하게 제한한다는 문제 제기도 이어지고 있다. 접종 완료자에게 혜택을 주는 차원을 넘어 미접종자에 대한 또 다른 차별로 이어질 수 있다는 지적이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2021.12.28.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>토스證, 청소년 비대면 계좌개설 일시 중단</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004900634?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>당국, 금융실명법 위배 검토토스증권이 청소년을 대상으로 한 비대면 계좌 개설 서비스를 실시한 지 나흘 만에 중단했다. 앞서 금융당국은 토스증권의 청소년 대상 비대면 계좌 개설 서비스가 금융실명법에 위배될 소지가 있다고 보고 자료를 제출받아 검토하고 있었다.28일 금융투자업계에 따르면 토스증권은 이날 오후 14세 이상 19세 미만 청소년을 위한 비대면 증권 계좌 개설 서비스를 일시 중단했다. 토스 관계자는 "금융당국의 확인을 기다리고 있으며 서비스는 일시 중단한다"고 밝혔다. 토스증권이 나흘 만에 청소년의 비대면 증권계좌 개설 서비스를 중단하게 된 이유는 실명거래 원칙에 반할 수 있다는 일각의 문제제기에 따른 것으로 풀이된다. 토스는 당국의 명확한 해석이 나온 뒤 서비스 재개 여부를 판단할 것으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2021.12.26.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>은행 주담대, 다시 열린다···우대금리도 복원해 금리도 낮춰</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003662173?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>우대금리 복원 등 목표치 재설정, NH농협 등 주담대도 다시 시작							금융 당국의 규제 방침에 따라 가계대출 조이기에 나섰던 은행권이 새해 1월부터 대출 우대금리를 복원하는 등 가계대출 영업을 본격 재개한다. 연간 단위로 설정되는 은행별 대출 총량 목표치가 새해부터 재설정되기 때문이다.26일 금융권에 따르면, 지난 8월 신규 주택담보대출을 전면 중단했던 NH농협은행은 다음 달부터 주담대를 재개한다. 농협은행은 이달 들어 무주택자에게만 부분적으로 신규 주담대 판매를 재개했는데, 새해부터는 모두 정상화한다./연합뉴스서울시내 한 은행 대출창구에서 한 고객이 상담을 하고 있다. 													우리은행은 내년 1월 3일부터 ‘우리 주거래직장인대출’ ‘우리 원(WON)하는 직장인대출’ ‘우리 금융인클럽’ 등 10개 신용대출 상품의 우대금리를 최대 0.6%포인트 인상한다. 우대금리가 높아지면 대출 금리는 낮아지는 효과가 있다.지난 8월부터 신규 주담대 판매를 중단해온 SC제일은행은 지난 20일부터 주력 주담대 상품인 ‘퍼스트홈론’ 신청 고객을 대상으로 사전 접수를 받고 있다. 대출 실행일은 내년 1월 3일부터다. 출범 9일 만에 연간 대출 한도 5000억원을 소진해 대출을 중단한 인터넷전문은행 토스뱅크도 내년 1월 1일부터 대출 영업을 재개한다.다만 은행권 대출 문턱은 올해보다 더 높아질 전망이다. 다음 달부터는 주택담보대출이나 신용대출 등을 합쳐 총 2억원 넘게 대출받는 사람에게는 DSR(총부채원리금상환비율) 40% 규제가 적용된다. 대출받는 사람의 연간 원리금 상환액이 연 소득의 40%를 넘지 못하도록 대출 한도를 제한하는 것이다. 내년 7월에는 DSR 대상 대출금 기준이 1억원 초과로 강화된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2021.12.30.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>“신입사원님, 제발 떠나지 마소서” 회사가 자세를 낮췄다</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003663091?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>[WEEKLY BIZ] 10명 중 8명이 입사 1년 內 이직  “조직에 안착시켜라” 온보딩 활발일러스트= 김영석										올 하반기 국내 유통 대기업 계열사에 입사한 신입 사원 A(25)씨는 입사 100일째를 맞은 날 뜻밖의 경험을 했다. 팀원들이 A씨 자리에 모여 ‘독보적 신입 사원, 입사 100일 축하!’라고 적힌 작은 플래카드를 제작해 걸어주고 축하해주는 자리를 만들어줬다. A씨는 “이 일이 나와 맞나 고민하기 바빴는데, 팀에서 챙겨주니 없던 애사심도 생겼다”고 했다. A씨에 대한 회사의 지원은 여기서 그치지 않았다. 이제 막 기본 직무 교육을 마친 그가 업무에 좀 더 수월하게 적응할 수 있도록 동성(同性)의 멘토링 선배를 배정해 3개월간 밀착 지원했다. 멘토와 친목을 다질 수 있는 시간까지 별도로 배정했다. A씨는 “미리 보고만 하면 업무 시간에도 멘토와 함께 외출해 방탈출 카페나 공방을 다니면서 인간적으로 가까워졌다”고 했다.신규 직원이 조직에 적응하고 안착하도록 돕는 과정을 뜻하는 ‘온보딩(Onboarding)’이 기업 인재 유치의 핵심 전략으로 떠오르고 있다. 비바리퍼블리카(토스)나 카카오뱅크 같은 기업은 아예 온보딩 직무를 전담하는 직원을 따로 뽑을 정도다. 평생 직장 시대가 가고 이직 시대가 도래하면서 쉽게 떠나는 인재를 붙잡으려는 노력이 한층 치열해진 것이다. 구인구직 포털 잡코리아의 직장인 설문조사에 따르면, 작년 기준 1년 차 신입 사원의 이직 경험률은 77.1%에 달했다. 10년 전인 2010년만 해도 이 비율은 37.7%에 불과했다.신종 코로나 팬데믹(대유행)으로 원격 재택근무가 일상이 되면서 온보딩 필요성은 더 부각됐다. 직장 동료와의 소통이 줄고 회사에 대한 소속감이 현저히 떨어지면서 입사 몇 개월 만에 훌쩍 떠나는 직원이 늘어난 것이다. 그러자 기업들도 단순 직무 교육을 넘어 구애 활동을 하는 마음으로 온보딩에 임하고 있다.첫인상 중시하는 기업들							요즘 기업들은 새 입사자에게 좋은 첫인상을 얻으려는 노력이 한창이다. 현대자동차그룹의 경우 입사가 결정됐지만 아직 출근은 시작하지 않은 예비 입사자들을 대상으로 하는 온보딩 사이트 ‘Hello HMG’를 올해 처음 구축해 운영 중이다. 입사 전 체크리스트와 함께 조직 문화와 업무 팁 등을 동영상과 웹툰으로 만들어 소개하는 사이트다. 박지성 선수(현 전북현대모터스 어드바이저) 같은 유명 인사의 환영 인사는 덤이다. 현대차그룹 관계자는 “요즘 취업 준비생들은 여러 곳에 지원하는 만큼 합격했다고 반드시 입사한다는 보장이 없다”며 “합격 발표 후 입사 전 기간은 케어 측면에서 공백기였는데, Hello HMG를 통해 입사 전부터 기업에 대한 긍정적인 정서를 갖게 하려 노력 중”이라고 말했다.신규 입사자에게 기업의 로고나 디자인 등이 담겨 있는 각종 사무용품과 굿즈(기획 디자인 상품)를 담은 선물 상자를 전하기도 한다. 이른바 ‘웰컴키트’다. 삼성전자는 올해 상반기 입사자를 대상으로 금장 명함과 함께 머그잔·마우스패드·무선충전기 등을 선물했다. SK이노베이션·LG화학·카카오·KT·스타벅스코리아·NC소프트·우아한형제들 등도 다양한 웰컴키트를 선물하고 있다. 기업이 굳이 웰컴키트를 만들어 뿌리는 배경에는 신입 사원의 애사심 고취 외에 대외 홍보 효과도 있다. 합격자들이 취업 성공을 알리기 위해 소셜미디어에 웰컴키트 사진을 찍어 올리는 경우가 잦기 때문이다. 당장 인스타그램만 해도 ‘#웰컴키트’를 검색하면 수천 건의 사진이 뜬다.메타버스로 건너간 온보딩							팬데믹은 온보딩 방식에도 큰 변화를 불러일으켰다. 회사를 제대로 다녀보지도 못한 신입 사원들이 원격 근무부터 배우다 보니 온보딩의 필요성과 어려움이 동시에 늘어났다. 기업들이 찾은 돌파구는 차세대 기술로 떠오른 메타버스(3차원 가상 세계)다. 네이버는 작년부터 ‘코드데이’라는 온보딩 프로그램을 자사의 메타버스 서비스 플랫폼 ‘제페토’에서 진행하고 있다. 100명 이상의 신입 사원이 가상공간에 만든 아바타로 5~6명씩 팀을 맺어 다양한 온라인 워크숍을 가졌다. 입사 2년 차 네이버 직원은 “올해는 제페토 내 스키점프 게임을 활용해 팀 간 점수 대결도 벌였는데 사내에 실시간 중계되다 보니 웬만한 스포츠 경기 이상으로 재밌게 봤다”고 했다.넥슨과 삼정회계법인은 입사 후 회사 구경도 제대로 못 한 신입 사원들을 위해 메타버스 사옥을 준비했다. 가상공간에 실제 사무실 모습을 최대한 반영한 사옥을 지어 구경할 수 있게 한 것이다. 메타버스 사옥은 특히 온보딩뿐 아니라 팬데믹 장기화 속에서 각종 대내외 행사나 직원들의 교류 장소로도 활용될 수 있어 많은 기업이 눈독 들이고 있다. 금융투자업계 최초로 메타버스 사옥을 마련했다고 밝힌 트러스톤자산운용은 이달 초 80여 명의 임직원이 메타버스 공간에 모여 송년회를 갖기도 했다.조직 흔드는 신입 이직 막아라							기업들이 온보딩에 적극 투자하는 배경에는 채용 제도의 변화도 있다. 경영 환경이 복잡해지고 신기술 등장 속도가 빨라지면서 기업 역시 필요한 인재만 뽑아 적재적소에 민첩하게 배치할 수 있는 수시 또는 상시 채용 제도를 선호한다. 공채를 했던 10대 그룹만 해도 현재 7곳이 수시 채용으로 전환했다. 문제는 공채가 사라지면서 신입 사원들의 애환을 달래주고 정보 네트워크 역할을 한 동기 문화도 함께 사라졌다는 점이다. 그러다 보니 기업들은 온보딩을 통해 신규 직원들의 정서적 지원을 강화하고 있다. 2019년부터 상시 채용 제도로 전환한 현대차그룹 인사담당자는 “과거 공채 시기에는 회사가 어떤 곳인지 이해시키는 데 집중한 회사 중심의 푸시형 콘텐츠가 많았지만, 지금은 개인의 성장이 곧 회사의 성장이라는 메시지를 중심으로 상호 토론, 자기다움 찾기 등 정서적 측면의 중요성을 강조하는 방식으로 애착 관계를 이끌어낸다”고 말했다.온보딩에 대한 기업의 관심은 앞으로 더욱 높아질 전망이다. 신입 사원의 이탈이 기업에 미치는 영향이 생각보다 크기 때문이다. 박오원 가톨릭대 교수(경영학)는 지난 8월 학술지 ‘조직과 인사관리연구’에 게재한 논문을 통해 신입 직원의 이직이 고참 직원들의 이직에도 영향을 미친다는 분석을 내놓았다. 331개 기업 직장인 8092명을 설문조사 한 결과다. 연구진은 “신입 직원은 외부 노동시장에서 들어온 지 얼마 되지 않아 외부 정보를 잘 알고 있고 조직을 좀 더 객관적으로 본다”며 “이들이 떠나는 걸 본 기존 직원들도 회사에 문제가 있다고 인식하고, 기회가 되면 회사를 떠나는 선택을 하는 것으로 보인다”고 분석했다. 이어 “신입 직원들이 조직에 갖는 불만 사항을 확인하고 개선해 회사 내에서 사회화하는 데 도움을 주는 전략이 효과적일 것”이라고 조언했다.☞온보딩(Onboarding)영어로 ‘배에 탄다’는 뜻으로, 신규 직원이 조직에 빨리 적응해 안착할 수 있도록 조직 문화를 알려주고 업무에 필요한 정보와 기술 등을 교육하는 과정을 뜻한다.WEEKLY BIZ를 이메일로 보내드립니다.Newsletter 구독하기 ☞ https://page.stibee.com/subscriptions/77676</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2021.12.27.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>웰컴금융, 대부업 조기 철수…'선택과 집중'</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000005495?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>애초 계획보다 3년 일찍 대부업 접기로웰컴저축은행 중심 디지털화에 주력할 듯웰컴금융그룹이 대부사업에서 완전히 철수한다. 애초 세웠던 계획인 2024년보다 3년 이른 것이다. 법정최고금리 인하 등으로 인해 대부업의 성장세가 더뎌진 데다가 금융업을 둘러싼 환경이 빠르게 디지털화하고 있다는 판단에서다. 그룹 핵심회사인 웰컴저축은행(대표 김대웅·사진)을 중심으로 '디지털 금융'에 확실하게 집중하기 위한 선택으로 풀이된다.웰컴금융그룹은 27일 대부업 면허(라이선스)를 금융당국에 반납, 대부사업에서 철수한다고 밝혔다. 이에 따라 웰컴금융그룹의 웰컴크레디라인대부와 애니원캐피탈대부는 사업을 종료하며 가지고 있던 대출채권은 매입추심채권추심업(NPL)회사인 웰릭스F&amp;I로 이관된다.웰컴크레디라인대부 관계자는 "모든 대출채권이 웰릭스F&amp;I로 이관되지만 모든 고객에 대한 혜택과 서비스는 그대로 이어서 제공한다"며 "신규 대출을 취급하지 않게 되지만 이용 중인 금융서비스는 불편함 없이 사용 가능하도록 할 계획"이라고 말했다. 웰컴금융그룹은 지난 2014년 예신저축은행과 예솔저축은행을 인수하면서 웰컴저축은행으로 합병, 저축은행업을 본격적으로 시작했다. 당시 금융당국은 예신저축은행과 예솔저축은행의 인수합병을 허가하는 대신 점차 대부업에서 완전히 손을 뗄 것을 주문했다.금융당국은 웰컴금융그룹 뿐만 아니라 예주저축은행과 예나래저축은행을 인수해 OK저축은행을 출범시킨 OK금융그룹에도 같은 조건을 내건 바 있다. 이에 웰컴금융그룹과 아프로금융그룹은 애초 2024년까지 대부업에서 철수하겠다는 방침을 내놨는데, 웰컴금융그룹은 애초 계획보다 3년 빨리 대부업 철수를 한 것이다.여기에는 금융환경의 변화가 적지 않은 영향을 끼친 것으로 분석된다. 대부업 관련 법정최고금리는 지난 2018년 기존 27.2%에서 24%로 인하한 데 이어, 올해에는 20%로 4%포인트 더 낮아졌다. 나아가 내년 대선을 앞두고 법정최고금리를 11.3~15% 선까지 낮춰야 한다는 공약도 거론되고 있다.신용도가 낮은 대출자들에게 자금을 공급해 주는 대신 사실상 모든 대출을 법정최고금리까지 받아온 대부업계 입장에서 법정최고금리 인하는 곧 사업영역이 좁아짐을 의미한다. 금융감독원에 따르면 지난 2018년 말 기준 17조3000억원이던 대부업권 대출 잔액은 지난해 말 14조5000억원으로, 이용자수는 같은 기간 221만3000명에서 138만9000명으로 18.6% 감소했다. 웰컴금융그룹이 제2 금융업권에서 디지털화에 유독 적극적이란 점 역시 이번 대부업 철수를 앞당긴 이유로 꼽힌다. 웰컴금융그룹은 첫번째 인터넷전문은행 출범 공고가 난 이후 당시 인터파크 컨소시엄에 합류해 디지털 금융에 관심을 나타냈다. 당시 인터파크의 인터넷 전문은행은 무산됐지만 이후 출범한 토스뱅크 컨소시엄에 5%의 지분율로 참여했다.아울러 웰컴저축은행은 저축은행업권에서는 유일하게 마이데이터 사업 서비스 라이선스를 획득했다. 따라서 이번 대부업 조기 철수는 회사의 역량을 온전히 웰컴저축은행과 금융의 디지털화에 쏟겠다는 의지를 보인 것이라는 분석이 나온다. 웰컴금융그룹 관계자는 "웰컴저축은행과 웰컴캐피탈을 중심으로 자산운용업 등 다양한 금융사업으로 사업 포트폴리오 확장을 추진할 계획"이라며 "내년 용산으로 신사옥을 이전해  빠르게 개편되고 있는 금융시장에 적응해 나갈 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2021.12.27.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>은행들, 대출 문 다시 연다지만…DSR·금리인상 ‘지뢰밭’</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003161872?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>그동안 닫혔던 은행권의 대출 문이 새해에 다시 열린다. 사진은 26일 서울의 한 은행 영업점에서 내건 대출 안내 현수막. [연합뉴스]           그동안 닫혔던 은행권의 대출 문이 새해를 맞아 다시 열릴 전망이다. 26일 금융권에 따르면 연간 단위로 적용하는 은행별 대출총량 목표치는 내년 1월 1일을 기준으로 다시 설정한다. 지난 8월 주택담보대출을 중단한 NH농협은행은 내년에 재개하기로 했다. 농협은행은 현재 2000만원인 신용대출 한도를 내년에 1억원으로 늘린다.      지난 10월 말 신규 대출을 중단한 SC제일은행도 내년에 대출을 재개한다. 이 은행은 지난 20일부터 고객들의 사전 신청을 받고 있다. 인터넷은행인 토스뱅크는 내년 1월 1일 신용대출을 재개한다. 지난 10월 출범한 토스뱅크는 영업 개시 9일 만에 대출 한도 5000억원을 소진한 뒤 대출을 전면 중단했다. 카카오뱅크는 내년 초에 비대면 주택담보대출 상품을 출시한다.      우리은행은 내년 1월 3일부터 신용대출(10개 상품)과 주택담보대출(4개 상품)의 우대금리(할인금리)를 최고 0.6%포인트 올린다. 대출 우대금리가 높아지면 고객의 실질적인 이자 부담은 줄어들 수 있다. 다른 은행들도 올해 축소했던 대출 우대금리를 내년 초 되돌리는 방안을 고민하고 있다. 익명을 원한 은행권 관계자는 “연초에 대출시장에서 우위를 빼앗기면 연말로 갈수록 만회가 어렵다. 우대금리 복구를 검토할 수밖에 없다”고 말했다.      시중은행 신용대출 평균 금리 및 우대 금리 추이. 그래픽=김현서 kim.hyeonseo12@joongang.co.kr           일부 고객에겐 대출 한도나 금리 등이 올해보다 불리해질 가능성도 있다. ▶정부가 가계대출 규제를 강화하고 ▶한국은행은 기준금리의 추가 인상을 시사하고 있기 때문이다. 내년 1월부터는 가계대출 총액이 2억원을 넘을 때, 내년 7월부터는 가계대출 총액이 1억원을 넘을 때 총부채원리금상환비율(DSR) 규제를 적용한다. 연간 원리금(원금+이자) 상환액이 연 소득의 40%(제2금융권은 50%)를 넘으면 추가로 대출을 받을 수 없다. 금융위원회는 내년 가계대출의 총량 관리 목표치(4~5%대)를 올해(6.99%)보다 낮게 설정했다. 그만큼 은행들이 가계대출을 적극적으로 늘리기는 어려운 상황이다. 내년에는 전세대출도 가계대출 총량 관리 대상에 포함한다.      은행에서 변동금리 주택담보대출을 받을 때 기준이 되는 ‘코픽스’(COFIX)는 오르고 있다. 은행연합회가 지난 15일 공시한 신규 취급액 기준 코픽스(11월 기준)는 연 1.55%였다. 한 달 전과 비교하면 0.26%포인트 상승했다. 은행연합회가 코픽스를 산출하기 시작한 2010년 2월 이후 월간 기준으로는 가장 큰 폭으로 올랐다.      은행연합회는 내년 1월 중순에 새로운 코픽스를 공시한다. 최근 예금금리 상승세와 시장금리 하락세가 복합적으로 영향을 줄 수 있다. 금융투자협회에 따르면 시장금리의 지표가 되는 3년 만기 국고채 수익률은 지난 24일 연 1.798%에 마감했다. 한 달 전(연 2.013%)과 비교하면 0.215%포인트 내렸다.      내년부터 주택금융공사가 보증하는 전세대출의 범위는 넓어진다. 주택금융공사는 내년 1월 3일부터 수도권에서 보증금 7억원 이하 전셋집에 대해 대출 보증을 제공하기로 했다. 전세 보증금이 7억원을 넘으면 SGI서울보증보험에서 전세대출 보증을 신청할 수 있다. 현재 주택금융공사는 수도권에서 보증금 5억원 이하 전세만 대출 보증을 하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2021.12.23.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>[2021 금융권 결산]보험업계, 디지털·ESG경영 잰걸음</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005019878?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>2021년 금융권 결산 ②보험업계코로나 반사이익 누렸다수입보험료 156조…전년비 2.1%↑고승범 금융위원장(앞줄 왼쪽 여섯 번째)이 3일 서울 중구 롯데호텔에서 열린 금융위원장·보험업계 간담회에서 참석자들과 기념촬영하고 있다. 이날 고승범 금융위원장은 보험사 최고경영자(CEO) 및 유관기관 전문가 들과 만나 보험산업 발전 방향 및 주요 현안 등을 논의한다./김현민 기자 kimhyun81@보험업계는 올해 사상 최대 실적을 예고하고 있다. 보험시장 포화로 장기적인 업황 부진에 빠져드는 기로에서 코로나19로 인한 반사효과를 누린 셈이다. 질병과 건강에 대한 관심이 높아졌고 초저금리 시대가 저물면서 안정적인 투자상품으로 다시금 주목을 받는 한 해 였다.하지만 코로나19가 가져온 극심한 경영 환경 변화를 따라가느라 잰걸음을 걸었다. 비대면 확산에 따른 디지털 전환에 속도를 높였고, ESG(환경·사회·지배구조)나 보험의 제조와 판매 분리가 새로운 경영 화두로 떠오르기도 했다.내년에도 보험사에게 혁신을 주문하는 기조가 이어질 것으로 예상된다. 특히 오는 2023년 도입될 예정인 새국제회계기준(IFRS17)과 신지급여력제도(K-ICS)에 대응하기 위한 마무리 작업이 예정된 만큼 더 숨가쁜 일정을 앞두고 있다.코로나가 안겨준 실적 보따리당초 올해 보험시장은 위축될 것이라는 전망이 우세했었다. 보험연구원은 올해 보험산업을 전망하면서 수입보험료가 작년에 비해 1.7% 늘어나는데 그칠 것으로 내다봤다. 생명보험사 수입보험료는 소폭(0.4%)이지만 감소세를 보일 것으로 전망하기도 했다. 하지만 코로나19라는 변수는 미쳐 예상하지 못한 결과를 가져왔다.1월부터 9월까지 보험사 수입보험료는 155조6000억원으로 전년 동기 대비 2.1%나 증가했다. 줄어들 것으로 예상됐던 생보사 수입보험료는 지난해 보다 0.9% 늘었으며, 손해보험사는 무려 3.5%라는 신장세를 달성했다.보험 판매가 늘어나면서 순익도 불어났다. 3분기까지 보험사 당기순이익은 7조6305억원으로 지난해 동기 대비 무려 37.3%나 급증했다. 생보사는 17.8% 늘어난 3조6915억원, 손보사는 3조9390억원으로 증가율이 무려 62.6%에 달했다. 보험업계에서 ‘코로나만 같았으면’하는 얘기가 나오는 이유다.코로나는 보험업계 안팎으로 많은 변화를 촉진했다. 초저금리 시대를 열어 보험사의 투자이익을 얼어붙게 했다. 생·손보사 모두 투자영업이익이 지난해보다 줄거나 소폭늘어나는데 그쳤다. 하지만 재해, 질병에 대한 관심을 높였고 사회적 거리두기 시행과 의료기관 이용을 감소시켜 자동차보험과 같은 주요 상품의 손해율을 극적으로 낮췄다.올들어 수입보험료가 늘어난 상품을 살펴보면 생보사는 변액보험(9.6%)과 보장성보험(2.4%)이, 손보사는 장기보험(5.3%), 자동차보험(3.8%)이 두각을 나타냈다.새 과제로 떠오른 디지털 전환과 ESG코로나19는 보험사에 꽃다발만 안겨주지는 않았다. 대면 대신 비대면을 가속화시키면서 ‘사람’에 의존해온 보험사를 디지털 전환이라는 시험대에 서게 했다.보험사들은 디지털 전환을 위해 관련 부서를 신설, 확대하는 조직개편을 단행해야 했고, IT(정보통신)는 물론 인공지능(AI)이나 빅데이터 전문 인력을 육성, 확보했다. 정적이던 조직 문화가 바뀌면서 실행력을 높인 조직으로 탈바꿈하면서 기존 인력에 대한 구조조정도 불가피했다. 미래에셋생명과 KB손해보험, 교보생명 등이 희망퇴직을 공개적으로 진행했다.디지털 전용 채널이나 상품도 새롭게 선보였다. 손보업계 다이렉트 1위인 삼성화재는 새 브랜드 ‘착’을 선보였으며, 삼성생명이 금융 플랫폼 토스의 운영사 비바리퍼블리카와 업무협약을 체결하는 등 IT기업들과 협업이 활발하게 이뤄졌다. 모두 보험사의 디지털 적응력을 높이기 위한 일환인 셈이다.새로운 경영 화두로 떠오른 ESG를 보험업권에 적용하기 위한 움직임도 분주했다. ESG 관련 조직을 정비하고 석탄 화력발전소에 대한 직접적 투자 및 융자뿐만 아니라 석탄화력발전소 신규 건설 목적의 회사채에도 투자하지 않겠다는 ‘탈석탄’을 선언도 이어졌다. 유엔환경계획 금융이니셔티브(UNEP FI) 지속가능보험원칙(PSI)에 가입한 보험사들도 속속 등장했다.보험 선진국에서 활성화된 ‘보험의 제조와 판매 분리’를 시도하는 보험사들도 늘었다. 자회사형 판매법인(GA) 미래에셋금융서비스, 한화생명금융서비스가 출범했고, 현대해상과 하나손보도 자회사형 GA를 세웠다.내년 보험업은 올해의 연장선이라는 점에서 이러한 화두가 이어질 것이라는 전망이다. 조재린 보험연구원 부원장은 "코로나19의 영향력이 예상보다 적었던 대신 코로나19 이후에 대한 고민이 크다"면서 "새로운 제도적 변화를 대비한 작업도 마무리해야 하는 등 보험업계에는 내년에도 쉽지 않은 한 해가 예상된다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2021.12.28.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>[시험대 오른 빅테크]혁신 '메기'의 배신…전방위 규제 본격화</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005022049?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>카드사 가맹점 수수료율 인하 후폭풍규제 받지 않는 역차별 논란 재점화일부선 금융혁신 후퇴 가능성 우려도연말 연시를 맞아 택시 호출이 급증하면서 카카오·우티·타다 등 관련 애플리케이션(앱)의 경쟁도 치열해지고 있다. 이중 타다는 지난 10월 금융서비스 앱 토스를 운영하는 비바리퍼블리카에 인수됐다. 비바리퍼블리카가 ‘전자금융업자’일 뿐 ‘금융산업의 구조개선에 관한 법률(금산법)’의 적용을 받는 ‘금융기관’이 아니기 때문에 가능했다. 반면 국내 은행들은 타다 같은 앱을 인수할 수 없다. 비금융회사 지분 취득이 금산법에 따라 15% 이내로 제한되기 때문이다.혁신을 앞세워 금융시장에서 거침없는 행보를 보여왔던 빅테크(대형 정보기술), 핀테크(금융+기술)에 대한 역차별 논란이 재점화되고 있다. 카드사 가맹점 수수료율 인하 후폭풍으로 규제를 받지 않는 빅테크·핀테크들과의 불공정한 경쟁에 대한 반발이 거세지면서다.시장에서는 혁신을 촉진하는 ‘메기’ 역할을 하라고 금융당국이 빗장을 열어줬더니 독점적 지위남용으로 ‘주객이 전도’됐다는 지적이 끊임없이 제기됐다. 수장이 교체된 금융당국이 취임과 동시에 ‘기울어진 운동장’을 바로잡겠다고 강조한 배경이다. 다만, 갑작스럽고 과도한 규제로 금융혁신이 후퇴할 수 있다는 우려섞인 목소리도 나온다.28일 금융권에 따르면 7개 카드사(신한·KB국민·현대·롯데·하나·우리·BC) 노조로 구성된 카드사노조협의회는 전날 가맹점 수수료 인하 관련 기자회견을 열고 총파업 유예를 발표했다. 노조는 유예 전제조건 중 하나로 ‘빅테크와의 규제 차익 해소’를 내걸었다.네이버페이, 카카오페이 등 빅테크 간편결제 수수료가 카드사 수수료보다 높지만 규제를 전혀 받지 않아서다. 김한정 더불어민주당 의원실에 따르면 올해까지 카드사들이 받는 가맹점 수수료는 0.8%. 네이버페이와 카카오페이는 각각 2.2%, 2.0%의 수수료를 가맹점에 부과하고 있다.규제 차익은 실적으로도 드러난다. 네이버페이의 올해 3분기 결제액은 9조8000억원으로 전년 대비 39% 성장했다. 반면 카드사들은 지난해 1300여억원의 수수료 손실을 냈다.데이터 공유도 금융사들이 지적하는 역차별의 사례다. 플랫폼의 락인(특정 서비스에 갇히는 것)된 고객을 상대로 빅테크가 자신들의 입맛에 맞는 것들 위주로 서비스를 할 수 있다는 주장이다.금융권 관계자는 "공정한 게임을 위해서는 공정한 룰이 필요하다"며 "특정 기업이 ‘규제 차익’을 통해 수혜를 받는 방향 보다는 ‘동일 기능 동일 규제’의 원칙이 지켜져야 한다"고 강조했다.일각에선 빅테크·핀테크 규제를 놓고 우려의 목소리도 나온다. 급작스러운 규제로 인해 소비자편익이 침해되고 금융 혁신이 후퇴할 수 있다는 지적에서다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2021.12.17.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>'타인과 외식불가' 백신 미접종자…'혼밥' 피하는 유일한 방법</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001132373?sid=102</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>방역패스 의무화가 시작된 13일 오전 서울 시내의 한 식당에 방역패스 적용 안내문이 붙어있다. 오늘부터 식당·카페 등에서 방역패스 확인을 하지 않으면 이용자, 운영자 모두에게 과태료를 물린다. 연합뉴스단계적 일상회복이 멈추고 방역이 강화되면서 코로나19 백신 미접종자는 식당이나 카페에서 '혼밥'만 허용된다. 미접종자가 4인까지 허용되는 사적모임을 가지려면 PCR 음성확인서를 지참해야 한다. 이번 방역수칙은 내년 1월 2일까지다.기존엔 사적모임 인원제한 이내에서 미접종자 1명이 포함될 수 있었지만 18일 0시부터는 백신 미접종자가 포함된 일행은 식당이나 카페 이용이 불가능하다. 백신 미접종자는 식당에서 '혼밥'만 가능하기 때문에 일행이 있어도 따로 앉아야 한다.2차 접종을 마치고 14일이 지나지 않은 접종 미완료자 역시 여럿이서 식당이나 카페를 이용할 수 없다.다만 48시간 이내 발급받은 PCR 음성확인서 소지자는 식당에서 넷까지 모일 수 있다. 음성확인서 유효기간은 결과를 통보받은 시점부터 48시간이 되는 날 자정까지다. 보건소로부터 16일 오후 3시 음성확인 결과를 받았다면, 18일 저녁 모임까지 쓸 수 있다.또한 18세 이하 자녀나 확진 후 완치자, 불가피한 접종 불가자는 예외로 인정된다. 음성확인서 없이 식당과 카페 입장이 가능하다.불가피한 접종 불가자는 접종 후 중대한 이상반응자이거나 건강상의 이유로 의사의 진단서를 받은 경우이다.아나필락시스 등 접종 후 중대한 이상반응자는 쿠브(COOV) 앱 또는 전자출입명부 플랫폼(네이버, 카카오, 토스, PASS앱(SKT, KT, LG))을 통해 발급받을 수 있으며, 본인인증 후 전자증명서를 발급받으면 된다. 기타 건강상의 이유(면역결핍, 항암제·면역치료제 투여)로 예방접종 연기가 필요하면 의료기관에서 진단서 또는 소견서를 발급받은 후 신분증, 진단서 지참 후 보건소를 방문해 '접종증명·음성확인제 예외확인서' 발급이 가능하며, 별도 유효기간은 없다.PCR 음성확인서는 보건소에서 음성 결과를 통보한 문자 메시지를 제시하면 된다. 다만 올해까지 한시적으로 사용할 수 있으며, 내년 1월부터는 PCR 음성 증명 결과를 온라인에서 발급받아 출력하는 방식으로 사용할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2021.12.28.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>알체라 황영규 대표 "3억대 이상 기기에 우리 AI 인증 솔루션 내장"</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002243383?sid=105</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>내년 미국 헬스케어 시장 진출..."전략적 인수합병 계속 나설 것"지난 6월, AI 전문 기업 알체라 홈페이지가 다운된 적이 있다. 세계 AI 4대천왕 중 한명인 스탠포드대 교스 앤드루 응(Andrew Ng)이 알체라를 언급, 어떤 회사인지 궁금한 외국인들이 알체라 홈페이지에 폭발적으로 접속했기 때문이다.27일 경기도 판교 본사에서 만난 황영규 알체라 대표는 이런 사실을 들려주며 "우리는 '현장'에 강하다. 휴대폰, CCTV 등 3억 1000만여대 디바이스에 우리가 개발한 인공지능(AI) 기반 인증 솔루션이 들어가 있다. 금융 등 AI를 기반으로 한 얼굴인식 분야는 우리가 가장 앞서 있다"고 강조했다. 알체라는 인공지능(AI)을 활용한 영상인식 분야 국내 '간판' 기업이다. 회사 이름 '알체라'는 호주 원주민어로 ‘꿈의 시대’라는 뜻이다. 세계 시장에 AI로 꿈의 시대를 만들겠다는 목표를 갖고 2016년 6월 설립됐다.특히 알체라 기술은 미국 산불 감지에 큰 역할을 하고 있다. 캘리포니아 전역에서 산불을 감시하고 있고 있는 PG&amp;E(Pacific Gas and Electric)의 140대 카메라 중 46대에 알체라가 개발한 AI기반 화재감지 솔루션 ‘파이어 스카우트(FireScout)’가 시범적으로 설치, 운영중이다. PG&amp;E는 미국 서부 최대 전력회사로 우리나라의 한국전력 같은 회사다. 최근 PG&amp;E는 알체라 솔루션이 들어간 산불 감지 시스템을 실증하겠다고 밝혔다. 본격 설치에 한발 더 다가선 것이다.알체라는 실증 사업에 맞춰 야간 산불감지 기능을 새로 탑재, 24시간 산불 감지가 가능하게 할 예정이다. 또 지속적 학습 기법(CL, Continual Learning)을 활용해 산불 감지를 방해하는 도시 불빛, 자동차 전조등 등을 추가로 인식하게 할 계획이다. 알체라는 산불 발생 위치 추정 정확성도 높였다. 미국 대형카메라 네트워크의 데이터를 활용해 연기가 솟아오르는 방향을 추정, 지도에 표시해주는 기능을 적용했다. 알체라 시스템이 산불로 인한 연기 발생 방향을 알려주면 미국 소방대가 즉각 출동해 화재를 진압한다.알체라 창업자인 황영규 대표가 회사 로고를 배경으로 활짝 웃고 있다. 알체라는 호주 원어민어로 꿈의 시대라는 뜻이다.미국은 산불로 연간 약 190조원의 피해를 보는 것으로 추정된다. 황 대표는 “AI기술로 산불에 따른 미국 사람들의 안전을 지키고 있다"면서 "산불 관련 빅데이터를 연구하고 영상인식 기술을 고도화해 미주 대륙 전역을 대상으로 사업 확장에 나설 계획”이라고 밝혔다. 이미 알체라는 미국 캘리포니아의 120여 CCTV에 AI기반 이상 상황 감지 솔루션 '파이어 스카우트'를 공급했다. 내년에는 이를 400~700대로 늘릴 예정이다. 황 대표는 "PG&amp;E 대표가 알체라를 언급할 정도로 미국에서 우리가 신뢰를 받고 있다"면서 "미국법인 매출액을 포함해 오는 2024년까지 '파이어 스카우트'로 300억원 이상 매출을 기대하고 있다"고 설명했다. 산불 예방은 이산화탄소 배출을 줄일 뿐 아니라 희귀 동물 사망도 막을 수 있다. 황 대표는 "호주에서 산불로 코알라가 6만마리 죽었다는 통계가 있다"면서 "AI로 환경과 지구를 보호하는 데 기여하고 싶다"고 덧붙였다.알체라는 새해 미국 헬스케어 시장에도 진출한다. 미국 사람들이 코로나 검사를 받았는지 인증할 때 알체라 솔루션을 사용할 전망이다. 황 대표는 "미국 회사와 협력해 미국인들의 원격 PCR 인증에 우리의 AI기반 인증 솔루션이 적용된다. 하루에 3천건 정도를 인증할 수 있다. '아크(ARC)'라는 이름으로 새해 초 공급할 계획"이라고 밝혔다.알체라는 국내 헬스케어 시장에서도 성과를 내고 있다. 지난 10월 국내 메디컬 데이터 플랫폼 기업 제이앤피메디와 비대면 임상시험(DCT, Decentralized Clinical Trial) 솔루션 개발 및 시장 확대를 위한 업무협약(MOU)을 맺었다. 알체라의 AI 영상인식 기술을 탑재한 비대면 임상시험 솔루션 ‘에어시티(AIIR CT, Clinical Trial)’와 제이앤피메디의 메디컬 데이터 플랫폼을 연동, 헬스케어 시장에서 입지를 넓힌다. 알체라가 개발한 '에어시티'는 수기로 진행하는 임상 참여자의 본인 인증과 약물 복용 검증을 AI 영상인식 기술로 자동화, 임상에 사용하는 시간과 비용을 줄여준다. 황 대표는 "을지병원 등에 솔루션을 공급, 매출이 발생하고 있다"면서 "내년에는 더 많은 병원에 공급하겠다"고 말했다. 헬스케어는 알체라가 주력으로 삼는 '4대 분야' 중 하나다.알체라는 핀테크 사업도 정조준하고 있다. 전통 금융 외에 NTF로 주목도가 높아진 블록체인 시장에서도 존재감을 보인다. 금융기관 대상 AI 얼굴인증 솔루션을 공급하는 것에 더해 가장자산 거래소에도 공급하고 컨설팅도 시행한다. 황 대표는 "특금법에 따라 가상자산도 제도권 안으로 들어왔다. 가상자산 사업자들이 사용하는 인증 등에 AI를 적용해 공급하겠다"고 밝혔다. 알체라는 이미 금융권 AI 솔루션 시장에서 성과를 내고 있다. 금융권 고객을 타깃으로 한 AI 기반 인증솔루션 '에어아이디(AIIR ID)'를 토스, 저축은행 등에 공급했다. 특히 알체라는 비대면 본인인증 솔루션 기업 유스비(useB)를 지난 11월 인수, 금융권 시장 입지 확대에 나섰다. 알체라 계열사가 된 '유스비'는 금융권을 비롯해 보안·블록체인·법률 분야 기업 고객을 대상으로 신분증 OCR(광학문자인식), 은행계좌 인증 등의 신원확인(KYC) 서비스를 제공하고 있는 기업이다. 알체라는 유스비의 신원인증(KYC) 서비스에 AI 영상인식 기술을 접목, 가상자산 거래소 등에 공급할 계획이다. 황 대표는 "AI기반 얼굴인식 기반 기술에서 알체라 말고 또 누가 있을까? 한다"면서 "이 분야는 우리가 제일 잘한다"고 강조했다.알체라는 AI 기반 얼굴인식 출입관리 솔루션 '에어패스(AIIR Pass)'도 개발해 공급하고 있다. '에어패스'는 AI를 적용해 출입자를 빠르고 정확하게 가려내 출입자 관리를 돕는다. 지난 9월 경영컨설팅 및 여신금융기업 케이클라비스의 여의도 사무실에 설치했다. 출입을 인증하는 카드는 도난 우려와 출입자가 반드시 카드를 소지해야 하는 불편이 있지만 '에어패스'는 이런 번거러움이 없다. 최근 알체라는 KT와 11억1100만원 규모 경찰청 영상관제시스템 구축 계약도 맺었다. 또 가수 인순이가 운영하는 해밀학교의 기숙사에 AI 관제 솔루션 '에어스카우트'를 공급했다. '에어스카우트'는 별도 설치 없이 기존 CCTV에 알체라 영상인식 AI 서버를 연동, 각종 위험상황에 대비하는 실시간 모니터링 관제 솔루션이다.지난 8월, 알체라는 미국 국립표준기술연구소(NIST)가 시행한 얼굴인식성능테스트(FRVT)에서 출입국심사대 촬영사진 부문과 노화 인식 부문에서 국내 1등을 차지, 다시한번 기술력을 입증했다. 황 대표는 "세계 1등하고 점수 차이가 아주 미세하다. 핸드폰과 CCTV 등 3억대 넘는 단말기에 우리 솔루션이 들어가있다"고 힘줘 말했다.황영규 대표가 판교 본사 사무실에서 알체라의 비즈니스 계획을 설명하고 있다.황 대표는 AI제품 기능을 실증하는데 큰 도움을 받았다면서 정보통신산업진흥원(NIPA)에 감사했다. NIPA가 시행하는 'AI 식별추적시스템 구축 및 실증’ 사업에 2019년부터 올해까지 3년 연속 선정, 참여했다. 사업 참여 기업 중 ‘우수’ 평가를 받은 기업만이 다음해에도 연속 참여할 수 있다. 황 대표는 "실증랩에서 시행한 테스트 때문에 우리 기술 수준을 명확히 알게됐고, 또 해외 시장 진출에도 큰 도움이 됐다"며 고마움을 표시했다. 알체라는 이 사업을 통해 공항 출입국 관리 시스템에 AI 기술을 적용하는 것에 참여했다. AI로 공항 이용자의 안면 인식 뿐 아니라 공항에서 발생하는 특정 이상 행동까지 감지할 수 있다. 황 대표는 최근 일어난 세종정부청사 게이트의 얼굴인식 시스템 오류를 안타까워 하며 "외산 솔루션을 사용하다보니 업그레이드가 제대로 안돼 발생한 사고"라며 "국내 솔루션을 썼으면 문제가 없었을 것"이라고 진단했다.비대면 본인인증 솔루션 기업 유스비를 인수하는 등 전략적 협업을 통한 시장 확대에 공격적 행보를 보여온 알체라는 앞으로도 인수 등을 통해 시너지를 높일 계획이다. 이를 위해 지난 11월 하순 230억원 규모 2회차 전환사채(CB) 발행 계획을 공시했다. CB는 주식으로 전환할 수 있는 사채다. 전환가액은 시세에 맞춰 3만8116원으로 정했다. 전환청구기간은 내년 11월 29일부터 2026년 10월 29일까지다. 지난 9월과 11월 2회에 걸친 CB 발행으로 알체라는 490억원 상당 유동성을 확보했다. 이중 300억원은 운영자금, 나머지 190억원을 인수 등에 사용할 계획이다. 황 대표는 "앞으로 알체라는 AI를 활용한 환경 및 재난재해 보호와 헬스케어, 가상자산과 핀테크를 포함한 금융 등에 주력하겠다"면서 "이들 분야와 시너지가 나고 더 좋은 AI 회사가 된다는 확신이 서면 언제든 전략적 투자나 인수에 나설 것"이라고 밝혔다. 이어 "AI관련 중요 학회에 알체라 이름으로 논문을 발표하고 국내외 AI 구르와 네트워킹도 확대하겠다"고 덧붙였다.국내 AI기업의 '페인포인트'는 매출과 이익이다. 상장사를 포함해 유명 AI기업 대부분이 매출이 크지 않고 이익을 못내고 있다. 황 대표는 알체라의 턴어라운드(흑자전환)에 대해 "AI 얼굴인식 시장이 아직 초기"라며 "마음만 먹으면 언제든 턴어라운드를 할 수 있다. 올해도 정부사업이나 시스템개발(SI) 사업을 마구 했으면 턴어라운드를 했을 것"이라고 밝혔다.국내 대표 AI기업인 알체라는 올해 과기정통부 장관상을 수상하는 등 다수의 수상 경력과 많은 특허 출원 실적을 갖고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2021.12.31.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>[아듀! 2021 금융]⑤네·카·토의 '빅 스텝'</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000005600?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>네이버·카카오·토스, 금융 영토확장 본격화 제도 정비에 P2P·핀테크 기업도 '활짝'2021년 금융권에는 거센 변화의 바람이 불었다. 빅테크·핀테크 기업들이 빠르게 성장해 기존 금융사들을 위협했고, 가상화폐도 시장을 뒤흔들었다. 은행들은 코로나19 한파에도 아랑곳하지 않고 사상 최대 실적 달성을 눈앞에 뒀다. 반면 빚을 낸 대출자들은 기준금리 인상에 허리띠를 더 조여야 한다. 경제 환경의 변화 속에 보험과 카드사들은 새 먹거리를 찾아야 하는 상황이다. 올 한해 금융권의 주요 이슈를 분야별로 정리해본다. [편집자]올해 빅테크와 핀테크 기업 등 정보기술(IT)을 기반으로 하는 금융회사들은 본격적으로 금융 분야에서 존재감을 키웠다.네이버, 카카오, 토스 등으로 대표되는 빅테크 기업들은 종전보다 더 공격적인 영업으로 시장 점유율 확대에 나섰다. 규모가 작은 핀테크 기업들은 온라인투자연계금융업 및 이용자 보호에 관한 법률(온투법)과 마이데이터 서비스 도입 등 규제환경 변화를 디딤돌 삼아 시장에 안착하고 있다. 네·카·토의 진격올해 네이버, 카카오, 토스 등 빅테크 기업들은 금융시장에서 자신의 존재감을 본격적으로 뽐내기 시작했다. 네이버가 2019년 11월 출범시킨 네이버파이낸셜이 선봉장에 섰다. 핵심 사업영역 간편결제 시장에서 위상을 더욱 공고히 했다. 네이버파이낸셜은 간편결제 서비스인 네이버페이를 자체 앱으로 출시하면서 본격적인 결제시장 공략에 나섰다.올해 3분기까지 네이버페이 결제액은 9조8000억원 수준으로 추산된다. 지난해 같은 기간에 비해 39%나 늘었다. 그간 네이버 커머스, 스마트 스토어 등에서 주로 사용되던 네이버페이의 사용처를 오프라인으로까지 확대한 영향이 컸던 것으로 분석된다. 다양한 파트너들과 함께 금융시장 공략에도 본격적으로 나섰다. 우리은행, 미래에셋대우 등과 함께 출시한 대출상품은 출시 10개월 만에 대출잔액이 1000억원을 돌파하는 성과를 냈다. 이 상품이 소상공인들만을 대상으로 하는 대출이라는 점을 고려하면 흥행에 성공했다는 평가다.현대카드와 함께 내놓은 PLCC카드 '네이버 현대카드'도 순항하며 네이버 충성 고객들을 붙잡는 효과를 냈다. ▷관련기사 :네이버페이 실적 고공행진…기업가치는 얼마나?(10월25일)카카오의 경우 주력 금융 계열사 카카오뱅크와 카카오페이가 화려하게 증권시장에 데뷔하며 저력을 과시했다. 지난 8월6일 유가증권시장에 상장한 카카오뱅크는 첫날 6만9800원에 거래를 마쳤다. 시장의 기대를 모았던 '따상'(공모가 2배에 시초가 형성된 후 상한가 기록)에는 실패했지만 상장일 종가는 시초가(5만3700원, 공모가는 3만9000원)보다 29.98% 상승한 가격이었다. 뒤이어 11월3일 상장한 카카오페이는 공모가 9만원보다 2배 이상 높은 19만3000원으로 첫날 장을 마쳤다. 두 회사 모두 증권시장 데뷔 첫날 국내 최대 금융주인 KB금융지주의 시가총액을 앞지르면서 금융 대장주에 오른 것이다. 두 금융계열사의 화려한 데뷔를 바탕으로 카카오그룹 전체 시가총액은 한때 100조원을 넘었다. 삼성그룹과 SK그룹에 이어 국내 3위를 넘보기도 했다. ▷관련기사 :'IPO 3연승' 카카오, 내친김에 시총 3위 넘본다(11월4일)금융권에서의 영향력도 더욱 커졌다. 하반기 들어 고신용자들에 대한 대출 시장이 얼어붙은 가운데 카카오뱅크는 중·저신용자 대출 위주로 대출 사업 포트폴리오를 새로 꾸렸다. 이를 바탕으로 여신 잔액을 크게 키우는 데 성공해 대출 시장에서의 영향력을 더욱 키웠다. 올해 3분기까지 카카오뱅크의 대출잔액은 25조385억원으로 지난해 말 20조3133억원과 비교해 4조7252억원이나 늘었다. 주요 시중은행에 버금가는 성장 규모다.카카오페이는 간편결제 시장에서 올해 연간 결제액이 네이버페이와 함께 10조원을 넘어설 것으로 추산되면서 승승장구를 이어가고 있다. 특히 계열사인 카카오페이 증권을 통한 펀드 투자 누적 금액도 1조원을 달성하는 데 성공하며 사업 다각화에도 성공했다. 내년에는 디지털 손해보험사까지 설립할 예정이어서 비은행 업계에서의 위상이 한층 더 높아질 것으로 보인다.유니콘 기업에서 데카콘 기업으로 성장한 토스는 올해 10월5일 은행업에 진출하며 금융권 핵심에 다가섰다. 토스뱅크는 정부의 가계부채총량관리 규제로 출범 9일 만에 올해 대출 사업에서 손을 떼야 했지만, 출범 첫날 고객 120만명을 유치하는 데 성공하며 내년 은행권에서의 본격적인 경쟁에 참여할 수 있게 됐다. 사업 개시 당일 서버가 마비될 정도로 가입자가 몰려 금융권에 긴장감을 준 카카오뱅크의 첫날 가입자 수 24만명의 5배 가까운 것이다. ▷관련기사 :제3의 인터넷은행 토스뱅크 출항…핵심 키워드는 '1'(10월 5일)핀테크 기업, 제도개선에 본궤도로 규모가 작은 온라인투자연계(P2P)금융회사, 자산관리 전문 핀테크 회사들도 제도가 개선되면서 본격적인 사업을 펼칠 수 있게 됐다. P2P금융회사의 경우 온투법이 시행되면서 제도권으로 본격 편입됐다. P2P금융이 우리나라에서 선보인 후 7년여 만이다. 온투법은 P2P금융업체에 △자기자본 요건 △내부통제장치 △사업계획 △전산·보안·통신·인력 등 물적 요건 △임원·대주주 요건 등 종전보다 까다로운 기준을 요구한다. 대출과 투자를 중개하는 사업자가 갖춰야 할 항목을 강화했다. ▷관련기사 :P2P금융의 변신…부실·사기 이미지 벗을까(7월 5일)종전에 쉬운 사업체 개설로 인한 P2P기업의 난립, 높은 부실률로 금융소비자 신뢰 하락이라는 역풍을 맞으며 설 자리를 잃어가던 P2P금융업체들은 반색했다. 제대로 자격을 갖춘 회사만 영업을 할 수 있게 되는 만큼, 산업규제인 온투법 도입이 오히려 과거의 어두운 이미지를 개선해 사업을 본격적으로 확대할 수 있을 것이란 기대감이 생겼다. P2P업체 관계자는 "온투법 시행 이후 100여개가 넘게 난립하던 P2P금융기업이 33개로 압축됐다"며 "이를 바탕으로 투자자에게는 더욱 안전한 투자환경을 제공하고 중·저신용자들에게는 소외되지 않고 대출을 제공할 수 있게 됐다. 올해는 의미가 큰 한해"라고 설명했다.  뱅크샐러드, 핀크, 핀다 등 자산관리 핀테크 기업은 마이데이터 서비스의 시작으로 좀 더 고도화된 서비스를 제공할 수 있게 됐다. 금융소비자가 마이데이터 서비스 활용에 동의하면 은행으로부터 계좌잔액, 대출 현황, 카드사로부터 결제 내역 등 다양한 정보를 받아올 수 있게 돼서다. 개인 고객에게 맞춤형 좀 더 고도화된 자산관리 서비스를 제공할 수 있게 된 것이다. ▷관련기사 :[마이데이터 리셋]①'내 정보는 내 거'라는 의미는?(12월 9일)업계 관계자는 "마이데이터 서비스로 인해 다양한 정보를 수집할 수 있게 되면서 은행 못지않은 서비스를 핀테크 기업들도 제공할 수 있게 됐다"며 "전통적인 금융회사가 하지 못했던 서비스를 핀테크 기업들은 과감하게 도전한다. 금융산업 전체의 발전에 중소형 핀테크 기업들이 크게 기여할 수 있는 기반이 마련됐다"고 말했다. [시리즈 끝]</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2021.12.16.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>금리인상기에, 예금금리 내리는 OK저축은행</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005107891?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>연 2% 파킹통장 금리, 내달 4일부터 다시 인하OK정기예금 등 수신상품 금리 오는 16일부터 인하[이데일리 황병서 기자] 최근 파킹통장 금리를 연 2.0%까지 올린 OK저축은행이 내달부터 해당 금리를 다시 인하한다. 동시에 16일부터 정기예금 금리까지 내리기로 해 소비자 불만이 커지고 있다. 금융소비자들을 중심으로 “파킹통장 금리를 올린 지 얼마나 됐다고 벌써 내리냐”며 반발하는 목소리가 나오고 있다.16일 저축은행업계 따르면 OK저축은행은 오늘부터 OK정기예금과 OK안심정기예금 상품 금리를 인하한다고 공지했다. 1~3년 기준 OK정기예금은 2.4%에서 2.3%로 1%포인트 내린다. 3년 기준 OK안심정기예금(변동금리)도 2.5%에서 2.4%로 0.1%포인트 인하한다. ISA정기예금의 경우 1~3년 기준 2.56%에서 2.4%로 0.16%포인트 내린다. 앞서 OK저축은행은 다음달 4일부터 OK파킹대박통장 금리를 내린다고 공지한 바 있다. 현재 OK저축은행은 5억 원 이하분에 연 2.0%, 5억 원 초과분에는 연 1.5% 금리를 적용하고 있는데, 내달부터는 2억 원 이하분에 연 1.3%, 2억 원 초과분에 연 0.3%의 금리를 적용한다고 공지했다.특히 OK저축은행은 지난 9일부터 파킹통장 금리를 인상했으나, 불과 며칠 만에 대폭적인 금리 인하를 예고한 것이다. 금융당국의 강도 높은 규제로 대출을 늘리기 어려운 상황에서 높은 금리를 보고 소비자들이 몰려들자 높은 이자를 부담하기 어려웠던 탓으로 풀이된다. OK저축은행이 금리를 높인 후 며칠간 고액 자금을 포함한 신규 자금 유입이 몰렸던 것으로 전해졌다.한국은행이 기준금리를 연이어 올리고 있고, 다른 시중은행이나 저축은행들도 수신금리를 올리고 있는 상황에서 OK저축은행만 예금금리 인하를 결정해 목돈을 안전하게 굴리려는 소비자들을 중심으로 불만이 끓고 있다. 재테크 카페에서는 “OK저축은행은 가급적 거르는 것으로”, “토스뱅크에 있던 예금 옮겨놨더니 다시 옮겨야겠다”, “토스에 그냥 둔 게 다행이다”는 등의 반응이 이어지고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2021.12.30.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>고승범 “금융안정 해치는 과도한 부채 막는 게 금융위원장 책무”</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005815383?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>“새로 출범한 인터넷은행 내년도 대출 한도, 중·저신용자 대출 등 감안”“실손보험 보험료 인상률, 금명간에 발표”고승범 금융위원장이 30일 오후 서울 종로구 정부서울청사 금융위원회 기자실에서 송년 인사말을 하고 있다. 2021.12.30/뉴스1 © News1 송원영 기자(서울=뉴스1) 박기호 기자,서상혁 기자 = 고승범 금융위원장은 “과도한 부채는 금융안정을 해치고 이를 막는 것이 금융위원장으로서의 맡은 책무”라며 내년에도 가계부채 관리 기조를 이어가겠다는 입장을 밝혔다.또 출범한지 얼마 되지 않은 일부 인터넷은행의 내년도 가계대출 한도를 일반은행과 다르게 설정할 것이라고 했다. 아직 결론을 내리지 못하고 있는 실손의료보험(실손보험) 보험료 인상률과 관련해선 “막바지 협의하고 있고 곧 결론을 내서 금명간에 발표할 것”이라고 했다. 고 위원장은 30일 오후 서울 종로구 정부서울청사 금융위원회 기자실에서 기자들과 만나 가계부채 관리의 필요성을 재차 강조했다.지난 8월 문재인 정부의 세 번째 금융위원장으로 취임한 고 위원장은 금융안정을 최우선 과제로 꼽으면서 가계부채 관리에 집중했다. 이를 위해 연소득 기준으로 대출금액을 규제하는 차주별 총부채원리금상환비율(DSR) 단계적 규제를 조기에 도입하고 제2금융권의 DSR 규제도 은행권 수준으로 강화하는 대책을 내놓았다. 금융당국의 가계부채 관리 방침에 대해 정부 정책의 잘못으로 급등한 집값을 잡기 위한 방편이고 실수요자만 피해를 본다는 비판도 나왔지만 고 위원장은 “가게부채 관리 강화는 환영받기 어려운 인기 없는 정책”이라며 기존의 방침을 고수해왔다.고 위원장은 내년에도 가계부채의 안정적인 기조를 이어가겠다는 입장을 재차 밝혔다. 고 위원장은 “금융안정이 기반이 돼야 금융발전도 경제성장도 이룰 수 있다”고 했다. 그는 “대부분의 (경제) 위기는 과도한 신용에 의해 촉발되는 경우가 많다”며 “우리나라 외환위기, 신용카드·저축은행 사태도 과도한 부채와 연결이 돼 있다”고 강조했다. 그러면서 “과도한 부채 문제는 신경을 써야 위기를 막을 수 있다”고 했다.실수요자·서민 보호의 필요성도 언급했다. 고 위원장은 “가계부채를 관리하면서 이들을 보호하는 것은 쉽지 않지만 역할을 해야 한다고 생각하고 여러 대책도 내놨다”며 알프레드 마셜(Alfred Marshall)의 ‘냉철한 머리, 뜨거운 가슴’이라는 발언을 인용했다. 그는 “차가운 머리를 갖고 법과 원칙에 따른 경제정책을 하면서 동시에 따뜻한 가슴으로 경제적 약자에 대한 배려를 해야 하고 이 같은 원칙으로 업무를 해 나가고 있다”고 덧붙였다.고 위원장은 “금융위원장인 저에게 중요한 과제가 금융안정을 위한 안정적인 경제성장의 기반을 마련하는 일”이라며 “이런 인식을 바탕으로 앞으로도 (업무에) 임하려고 한다”고 했다.금융당국은 내년도 가계부채 증가율 목표치로 4~5%를 설정했지만 고 위원장은 케이뱅크, 토스뱅크와 같이 출범한지 얼마 안 된 인터넷은행에 대해선 한도를 다르게 설정할 것이라고 했다. 그는 “케이뱅크, 토스뱅크와 같이 새로 출범한 인터넷은행은 (일반 은행과) 여건이 다르기에 이를 고려해서 (한도를) 정할 것”이라며 “중·저신용자대출 등을 충분히 감안해서 한도를 정해 나가려 하고 곧 협의가 마무리될 것”이라고 했다.고 위원장은 내년에 해결해야 할 주요 과제로 신종 코로나바이러스 감염증(코로나19) 대출 만기연장과 이자상환 유예 조치 정상화 문제를 꼽았다. 그는 “경제와 코로나19 상황과 직결돼 있기에 여건을 봐야겠지만 현상을 잘 분석하면서 면밀하게 대응하도록 하겠다”고 했다.실손보험 보험료 인상률과 관련해선 “지속가능성이 있어야 하고 손해율, 소비자 보호 측면 등을 봐야 하기에 종합적으로 고려해서 정하겠다”며 “금명간에 발표할 것”이라고 했다. 금융당국은 최근 보험료 인상률을 높고 절충안으로 보험사에 1~2세대 실손은 평균 15%, 3세대 실손은 평균 8.9%의 인상안을 제시한 상태다. 금융위는 최대한 연내에 실손보험 보험료 인상률을 확정할 계획이지만 상황에 따라서 내년 1월 초로 미뤄질 가능성도 제기된다. 내년으로 미뤄지면 인상률 적용 시기도 내년 2월로 넘어간다. 상장사들이 알짜 사업부를 떼어내는 물적분할 공시를 쏟아내면서 개인 투자자를 중심으로 제도 개선의 필요성을 제기하고 있는 것과 관련해선 “여러 가지 측면에서 법적인 부분을 검토하려고 한다”고 답했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2021.12.27.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>플라톤 ‘프로타고라스’… 조국·시민만을 생각한 지도자 페리클레스</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002497564?sid=103</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>■ 김헌·김월회의 고전 매트릭스 - ⑩ 대통령의 자질위대한 철학자 스승 모시며열린 마음으로 끝없이 공부도덕 갈고 닦는 수신의 달인아테네 최고 전성기 꽃피워게티이미지뱅크“아테네는 그의 시대에 가장 위대했다.” 서양문명이 학문과 예술, 건축, 정치 등 거의 전방위적인 분야에서 모범으로 삼는 고전을 쏟아냈던 시기에 아테네는 그 중심이었고, 고전기(Classical Age)의 아테네를 이끈 지도자가 페리클레스였다. 그는 아테네 모든 시민이 의회에 나와 자신의 의견을 피력하고, 법정에 나가 판결을 내리며, 시정에도 적극 참여할 수 있도록 길을 열어주면서 아테네 민주정을 급진적으로 발전시켰다. 그러면서도 그의 정치적 카리스마는 독재자의 것에 비해도 손색이 없었다. 역사가 투키디데스는 이렇게 말했다. “그래서 아테네의 정치에는 민주정이라는 이름이 붙었지만, 실제 권력은 제일인자인 페리클레스의 손에 있었다.” 그의 역량은 철저한 공부와 자기관리에서 비롯된 것이었다. 무엇보다도 그는 청렴결백했다. 그리스말로 ‘아도로타토스’라고 표현됐는데, ‘선물에 마음이 가장 흔들리지 않는 자’라는 뜻이다. 그는 이기적 욕망을 버리고, 오직 조국 아테네의 부강과 함께하는 시민들의 풍요로운 삶을 생각하고 행동했던 것이다. 아테네인들은 그의 판단과 정책의 공공성을 의심하지 않았고, 전폭적인 지지를 보냈다. 게다가 그는 아테네 역사상 최고의 연설가이기도 했다. 그의 말에 시민들은 감동했고, 고무돼 한마음 한뜻이 되곤 했다. 그는 자신의 역량을 높이기 위해 탁월한 지식인들을 멘토로 영입했고 열심히 공부했다.철학자 아낙사고라스는 페리클레스의 최고 스승이었다. 플루타르코스의 기록에 따르면, 페리클레스는 그의 숭고한 철학과 고상한 통찰에 심취했고, 그에게 배움으로써 그 영혼은 고결해지고 말은 고상해졌다고 한다. 비천한 사람의 막말이나 천박한 농담은 그에게서 찾을 수 없었다. “조용한 행동과 단정한 옷매무새, 단호하면서도 온화하게 다듬어진 목소리는 군중에게 깊은 인상을 심어줬다.” 그의 장점 가운데 연설가로서의 탁월함은 그의 곁을 지키던 또 다른 스승, 소피스트였던 프로타고라스에게서 온 것이었다. 플라톤 ‘프로타고라스’페리클레스의 초청으로 아테네에 온 프로타고라스가 당시 아테네를 주름잡던 철학자 소크라테스를 만났다. 플라톤의 작품 ‘프로타고라스’는 두 사람의 대화를 담아냈다. 두 사람의 대화를 잠깐 엿보자. “프로타고라스 선생, 당신과 함께 지내면 어떤 일이 생기나요?” “나와 함께 지내게 된 그날, 그전보다 더 나은 사람이 될 겁니다. 그 다음 날도 마찬가지고요. 나날이 더 나은 쪽으로 발전할 겁니다.” “아, 그래요? 무엇에 관해서 나날이 좋아지는 거죠?” “잘 숙고하는 것에서죠. 집안일과 관련해서 어떻게 자기 집안을 가장 잘 경영할 것인지, 또 나랏일과 관련해 어떻게 나랏일들을 가장 유능하게 실천하고 말할 것인지 말입니다.” “그러니까 당신과 함께라면 좋은 시민이 된다는 말씀이군요.” 그 기술은 ‘폴리티케’라고 불렸다. ‘정치의 기술’이라고 옮겨도 되지만, 본래 뜻은 도시국가 폴리스에서 ‘시민으로서 잘 살아가는 기술’이다. 페리클레스가 바로 이 기술에서 프로타고라스의 수제자였다. 그는 한 사람의 시민으로서뿐만 아니라 시민들의 지도자로서 탁월하게 행동하고 말했으니 말이다. 다양한 분야에 열린 마음으로 열심히 공부했고, 도덕적 품격을 갈고 닦아내는 수신(修身)의 달인이었다. 비록 소크라테스는 페리클레스가 도덕적으로나 정치적으로 뛰어났음에도 불구하고 자식들을 직접 교육하지도 않았고, 자기처럼 훌륭하게 키워내지 못했다고 비판하고 있지만, 페리클레스가 그로 인해 정치적 타격을 입진 않았다. 심지어 그가 당대 아테네 사교계의 여인이었던 아스파시아와 깊은 관계를 맺고 혼외자까지 낳았음에도 이 또한 크게 문제가 되지 않았다. 오히려 아스파시아로부터 파르테논 신전 건축을 비롯한 문화정책에 관한 조언을 받아 이룬 성취는 치국(治國)의 측면에서 페리클레스의 또 다른 장점으로 평가되기도 했다.우리 시대를 위대하게 만들 지도자는 누구일까? 우리는 무엇에 주목해 지도자를 선택하고 육성해야 하는가? 정치 지도자는 어떻게 스스로를 만들어나가고, 무엇을 준비해야 할까? 페리클레스를 생각하며 우리의 미래를 위한 답을 헤아려 본다.김헌 서울대 인문학연구원 교수</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2021.12.20.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>[현장연결] 질병청 "주간위험도 전국·수도권 모두 '매우높음'"</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000519476?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>중앙방역대책본부가 코로나19 방역상황과 주간 위험도 평가 브리핑을 진행합니다. 현장 연결해 직접 들어보겠습니다.[이상원 / 중앙방역대책본부 역학조사분석단장]방대본 역학조사분석단장입니다.12월 20일 코로나19 감염병 정례브리핑 시작하겠습니다.우선 지난주 위험도 평가 결과 말씀드리겠습니다.12월 3주차, 즉 12월 12일부터 18일까지 주간 위험도 평가 결과 종합적인 위험도는 전국 수도권, 비수도권 모두 매우 높음으로써 전 전주와 동일합니다.전국 중환자실 병상 가동률은 수도권이 86.5%, 비수도권이 72.6%로 조금 더 악화되었습니다.발생 지표의 경우에 국내 발생 신규 환자는 일평균 6866명으로 전 주 대비 13.2% 증가하였습니다.수도권은 전주 대비 11.3%, 비수도권은 19%가 증가한 것입니다.예방접종 지표의 경우에 60세 이상 연령대의 3차 접종률이 전전주의 32.8%에서 전주에는 54.8%로 크게 증가하였습니다.또한 위중증자 발생에 가장 많은 영향을 주는 60세 이상 확진자 비율이 전전주의 33.5%에서 30.5%로 감소하였습니다.전반적으로는 확진자 증가에도 불구하고 입원환자 수는 전전주 대비 소폭 감소하는 양상입니다.이는 60세 이상 연령층의 3차 접종 효과와 관련이 있는 것이라고 지금 추정하고 있고 예방접종을 받아주신 많은 분들에게 진심으로 감사의 말씀을 드립니다.위중증 지표에 대해서 말씀드리겠습니다.12월 12일부터 12월 18일까지 1주간 일평균 재원 중인 위중증 환자 수는 945명, 사망자 수는 434명입니다.재원 중인 위중증 환자 수를 연령대별로 살펴보면 60대 이상이 803명으로 전체의 85%를 차지하고 있으며 40~50대가 107명,30대 이하가 35명입니다.사망자는 60대 이상이 409명으로 전체의 94.2%를 차지하며 40~50대가 21명, 30대가 4명이었습니다.그리고 최근 5주간 사망자 1,561명 중 절반 이상이 백신 미접종자 또는 1차 접종자이시고 2차 접종자는 46.2%, 3차 접종자는 1.3%로 나타났습니다.전파 그리고 확진자 분포에 대해서도 말씀드리겠습니다.주간 감염재생산지수는 전국 1.15로 전전주의 1.23 대비해서 소폭 감소하였지만 여전히 아직은 확산세로 볼 수 있습니다.수도권은 1.13, 비수도권은 1.20이었습니다.3차 접종률 증가로 인해 70대 및 80대 연령군에서 발생률이 감소세로 전환되었지만 그 외의 대다수 연령군에서는 아직 일평균 발생률이 증가하고 있는 상황입니다.19세 이하와 60대 이상 연령군에서 높은 발생률을 유지하고 있고 특히 12세 이하의 연령군에서 발생률이 빠른 속도로 증가하고 있습니다.변이 바이러스 검출 현황을 살펴보면 국내 감염 그리고 해외 유입 사례 모두 델타형 변이가 다수이나 오미크론형 변이도 91건 추가 확인되었습니다.국내 12월 19일 0시 기준 총 오미크론 누적 확진자는 178명입니다.오미크론 변이는 지금 매우 빠르게 전 세계로 확산되고 있습니다.영국 런던은 신규 확진의 80%, 프랑스의 경우에는 10%를 오미크론 변이로 추정하고 있는 가운데 오미크론 변이는 총 91개국에서 3만 4,085명에게서 확인되고 있습니다.국내에서는 11월 30일 첫 확인 이후에 9개 시도로 빠르게 확산되고 있습니다.오미크론 변이에 대해서 가벼운 증상으로 낙관하시는 것은 위험하며 아직 보다 정확한 중증도 평가가 필요한 시점입니다.정부는 해외 유입 차단과 전파 속도 지연을 위해서 입국 제한 등 현재 상황을 유지하는 한편 신속한 3차 접종을 추진하고 있습니다.다음으로 오미크론 변이의 역학적 특성 분석 결과에 대해서 말씀드리겠습니다.11월 말 이후에 오미크론 변이 해외 유입 사례는 54명이었고 3건의 해외 유입을 통한 지역사회 전파가 134명으로 확인되었습니다.확진자들의 연령 분포는 20대 미만이 26.7%, 20대에서 50대가 66.3%였고 추정 감염 장소는 국외 감염이 28.9%, 국내 감염이 71.1%였습니다.진단시 무증상이 19.8%였으며 유증상의 경우에는 초기 증상은 발열, 인후통, 기침, 증상을 나타냈고 현재 전원 경증의 상태를 유지하고 있습니다.평균 잠복기는 3.6일, 평균 세대기는 3.1일로 분석되어 델타 변이의 평균 잠복기 3 내지 5일. 그리고 평균 세대기 2.9일에서 6.3일보다는 짧았습니다.한편 확진자들의 가족 중 2차 발병률은 44.7%로 델타 변이의 약 20% 수준과 비교해서 2배 이상 높은 것으로 평가되었습니다.다음으로 코로나19 예방접종 효과에 대해서 말씀드리겠습니다.중앙방역대책본부는 국내의 12세 이상 내국인을 대상으로 코로나19 예방접종자의 감염, 위중증 그리고 사망 예방효과를 매주 평가하고 있습니다.12월 2주 기준 미접종군이 코로나19에 감염될 위험은 2차 접종 완료군에 비해서 2.3배 높게 나타났습니다.또한 위중증과 사망 발생 위험은 각각 11배 그리고 9배 높게 나타났습니다.현재 3차 접종 후 확진자는 미접종 확진자에 비해서 중증으로 진행될 위험이 91% 낮은 것으로 나타났습니다.다음은 방역패스 유효기간과 관련해서 말씀드리도록 하겠습니다.지난 12월 16일에 발표드린 바와 같이 당초 오늘 시행하기로 했던 접종증명 유효기간 적용 시점을 내년 1월 3일로 조정합니다.이는 잠시 멈춤, 즉 강화된 사회적 거리두기 조치 시행에 따른 것으로 접종증명 유효기간 시행 시기도 2주 연기하기로 한 결정에 따른 것입니다.접종증명 유효기간 시행 전 잔여 유효기간을 확인하여 주시고 신속히 3차 접종을 받으실 수 있도록 하여주십시오.2차 접종자는 쿠브앱에서 2차 접종 후 경과일을 확인하실 수 있습니다.또한 유효기간 만료 14일, 7일 그리고 1일 전에 잔여기간 그리고 3차 접종 방법에 대해서 국민비서알림을 받으시게 됩니다.또한 내년 1월 3일부터는 쿠브앱 그리고 네이버, 토스 등 전자출입명부 플랫폼에서 유효기간 만료 여부를 확인하실 수 있습니다.사과의 말씀도 드리고자 합니다.지난 토요일 아침에 질병청 선별진료소 전산 시스템 오류로 인해서 아침 일찍 검사를 받으러 나오신 분들께서 대단히 추운 날씨에도 오랜 시간 동안 기다리시는 불편을 겪으시고 또 이런 불편을 겪으신 점에 대해서 깊은 사과의 말씀을 드리겠습니다.시스템 운영의 문제로 방역대응에 그간 몇 차례 혼선을 드린 점에 대해서 책임을 무겁게 느끼고 있습니다.준비에 부족한 점이 없는지 다시 한번 챙기고 차질 없이 시스템을 관리하도록 정비하도록 하겠습니다.우리는 지금 중요한 순간에 있습니다.3차 접종률이 증가하고 있고 사회적 거리두기가 강화되었지만 아직 환자 감소세가 아니고 여전히 병상 가동의 여유도 별로 없습니다.우리가 코로나를 극복하려면 보다 많은 노력과 충실한 방역조치의 이행이 필요합니다.국민 여러분의 적극적인 참여 덕분에 12월 20일 0시 기준 3차 접종을 완료하신 분들이 1,156만 명을 넘어섰습니다.진심으로 감사합니다.그리고 아직 3차 접종을 받지 않으신 분들도 서둘러 참여해 주시기를 부탁드립니다.청소년들과 학부모님들의 참여와 관심 덕분에 12~17세 청소년 접종률도 지속적으로 높아졌습니다.지난 주말 12~17세 연령층의 1차 접종률이 60%를 넘었으며 특히 16~17세는 77.6%로 높게 나타나고 있습니다.예방접종과 관련하여 걱정과 우려가 많으셨음에도 전문가와 방역당국의 설명 그리고 국내외 백신 효과의 데이터를 신뢰해 주시고 접종에 참여해 주신 학생 그리고 학부모님들께 진심으로 감사드립니다.국민께서 보여주신 노력이 헛되지 않도록 그리고 다시 불편함이 없으시도록 더욱 꼼꼼히 노력하고 점검하겠습니다.연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2021.12.21.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>올들어 4.9조원… 한국으로 몰려드는 해외 벤처캐피털</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003660943?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>‘야놀자’에 2조원 투자 등 147곳 스타트업에 넣어							기업 가치를 올리는 데 성공한 토종 스타트업들이 늘어나자 해외 벤처캐피털의 자본 유입도 급증하고 있다. 올 초 쿠팡이 뉴욕 증시에 상장한 데 이어 올해에만 4개의 유니콘이 탄생하면서 한국에서 될성부른 떡잎을 미리 찾자는 것이다. 최근 중국 당국의 테크 기업 규제로 인한 풍선 효과를 한국이 보고 있다는 분석도 있다. 특히 해외 벤처캐피털들은 과거 어느 정도 성장 궤도에 오르거나 기업가치 1000억원 이상의 중후기 스타트업에 주로 투자하던 경향에서 벗어나 초기 스타트업에 대한 투자를 늘리고 있다.스타트업 투자 데이터베이스 더 브이씨에 따르면 올 들어 지난 10월 말까지 해외 벤처캐피털은 국내 147개 스타트업에 모두 4조9561억원을 투자했다. 지난해 연간 투자액 8718억원(128개)의 5배 수준으로 늘어난 수치다. 온라인 숙박 플랫폼 야놀자가 올해 일본 소프트뱅크 비전펀드에서 2조원 규모의 투자를 받은 것이 대표적이다.초기 단계 투자도 1506억원으로 이미 전년(1419억원) 규모를 앞질렀다. 미국계 벤처캐피털 스트롱벤처스는 올해 영양제 분석 플랫폼 ‘필라이즈’(시드·기업 설립 단계 투자)와 미용·생활용품 스타트업 ‘심플리오’(시리즈A·첫 기관투자), 온라인 의류 생산 설루션 ‘팩토리유니콘’(시리즈A)에 투자했다. 공간 큐레이션 플랫폼 서비스를 운영하는 ‘데이트립’(시드)과 메이크업 콘텐츠 기반 쇼핑 플랫폼 ‘발라’(시드)는 굿워터캐피털에서 투자를 유치했다.외국계 투자는 국내 스타트업이 양적·질적으로 성장하는 기회가 되기도 한다. 비바리퍼블리카(토스), 직방, 마켓컬리도 후기투자 단계에서 해외 벤처캐피털로부터 대규모 투자를 유치하며 유니콘에 등극했다. 한 벤처캐피털 관계자는 “글로벌 경쟁에 뛰어들게 된 국내 벤처캐피털이 투자 전략 면에서 달라질 필요가 있다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2021.12.29.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>[아듀! 2021 금융]②은행, 플랫폼으로 진화하다</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000005542?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>은행, 모바일뱅킹 앱 플랫폼화 본격화데이터 범람의 시대…마이데이터 시작2021년 금융권에는 거센 변화의 바람이 불었다. 빅테크·핀테크 기업들이 빠르게 성장해 기존 금융사들을 위협했고, 가상화폐도 시장을 뒤흔들었다. 은행들은 코로나19 한파에도 아랑곳하지 않고 사상 최대 실적 달성을 눈앞에 뒀다. 반면 빚을 낸 대출자들은 기준금리 인상에 허리띠를 더 조여야 한다. 경제 환경의 변화 속에 보험과 카드사들은 새 먹거리를 찾아야 하는 상황이다. 올 한해 금융권의 주요 이슈를 분야별로 정리해본다. [편집자]2021년 은행권을 관통한 키워드는 '플랫폼'이다. 주요 은행들이 앞다퉈 '플랫폼'으로의 진화를 선언하면서다. 최대 고객 접점인 모바일 뱅킹 앱을 금융생활 플랫폼으로 만드는 게 핵심이다. 기본적인 여·수신 업무만 제공하던 것을 넘어 다양한 금융 서비스를 제공하는 생활의 중심으로 진화한다는 것이다.이는 다양한 데이터를 활용할 수 있는 제도적 정비가 앞섰기에 가능했다. 올해부터 본격적으로 시행된 마이데이터 서비스가 주인공이다. 마이데이터 서비스가 도입되면서 금융 정보의 주권은 금융 소비자에게 돌아갔고 은행들은 고객 동의를 바탕으로 이를 활용해 더욱 다양한 서비스를 제공할 수 있게 됐다. 은행 앱, '금융 플랫폼'으로 거듭나다은행들이 디지털로의 대전환을 꾀하면서 개편 과정에서 가장 총력을 기울인 것은 바로 모바일 뱅킹 앱이다. 영업점 창구에서만 할 수 있었던 은행 업무가 모바일 뱅킹에서도 가능해지면서 모바일 뱅킹이 고객 최대 접점으로 자리 잡았기 때문이다. 자연스럽게 은행들은 모바일 뱅킹 앱에서 제공하는 서비스 수를 늘려나갔다. 은행뿐만 아니라 보험, 증권 등 계열사의 서비스도 담기 시작했다. 모바일 뱅킹 앱을 찾는 이용객이 편리한 금융 생활을 영위하도록 하는 것이 은행의 경쟁력 상승으로 이어진다는 판단 아래였다. 그리고 이를 바탕으로 하는 장기적인 전략이 바로 모바일 뱅킹의 '플랫폼화' 였다. 일례로 기능별로 특화된 금융 앱을 운영했던 KB금융지주는 올해 이를 하나로 통합했다. 중심은 주력계열사인 KB국민은행의 모바일 뱅킹 앱 'KB스타뱅킹'이었다. KB스타뱅킹에서 KB금융지주 계열사들의 금융서비스를 제공하도록 했다. 모바일 뱅킹 앱이 계열사의 금융 서비스를 모두 제공할 수 있도록 하는 플랫폼화를 진행한 것이다. ▷관련기사: 싹 바꾼 KB스타뱅킹…1등 금융플랫폼 초석 다진다(10월 27일)일찌감치 통합 모바일 뱅킹 플랫폼 '쏠(SOL)'을 출시했던 신한은행은 금융 플랫폼으로의 경쟁력을 키우기 위해 'SOL' 다시 한번 개편한다. 이를 위한 프로젝트는 올해 말 시작돼 내년까지 진행된다. 투입되는 자금 규모만 200억원에 이른다. ▷관련기사: 은행 슈퍼앱 전쟁 2라운드…KB이어 신한도 속도낸다(11월 1일)플랫폼화를 추구하는 것은 전통적 대형은행의 이야기만은 아니었다. 올해 출범한 토스뱅크는 따로 뱅킹 앱을 출시하지 않고 간편송금 앱인 '토스' 내에서 서비스를 시작했다. 토스에서 모든 금융서비스를 만날 수 있도록 하겠다는, 즉 토스 앱을 금융 플랫폼화하겠다는 전략이었다.카카오뱅크는 기업 정체성 조차 '은행이 아닌 금융 플랫폼'이라고 강조했을 정도다. 윤호영 카카오뱅크 대표가 올해 상장을 앞두고 진행된 기자간담회에서 직접 "카카오뱅크는 금융 플랫폼"이라고 말했다. 은행업을 하지만 금융소비자가 찾는 금융 서비스로 연결하는 게 카카오뱅크의 핵심 역할이라는 이유에서였다. ▷관련기사:윤호영 "카뱅은 금융 플랫폼"…고평가 논란 정면돌파(7월20일)마이데이터 시작, 은행들 맞춤형에 집중은행들이 이처럼 플랫폼으로의 진화를 꾀할 수 있었던 데에는 제도가 개선된 영향이 컸다. 지난 2019년 12월 시행된 오픈뱅킹 서비스에 이어 마이데이터 서비스가 올해 12월 시범 시행되면서 금융회사가 활용할 수 있는 고객 데이터 기반이 더욱 넓어져서다. 마이데이터 서비스가 도입되면서 금융소비자는 하나의 모바일 뱅킹 앱 또는 핀테크 앱에서 내 금융정보를 한눈에 쉽게 확인이 가능해졌다. 다만 금융소비자 입장에서는 큰 변화를 느끼기 힘든 것이 사실이다. 이전에 시행된 오픈뱅킹 서비스를 통해 이미 다른 금융회사에 예치된 내 계좌 잔액 등을 확인해 볼 수 있었기 때문이다. 하지만 은행 입장에서 마이데이터 서비스는 오픈뱅킹 서비스보다 더 큰 기회였다. 오픈뱅킹을 통해 타행의 계좌정보만 받아볼 수 있었다면 마이데이터 서비스 시행으로 인해 고객의 △타행 대출 이력 △카드사 결제 내역 △간편결제 기업 결제 내역 등 받아볼 수 있는 데이터가 많아졌기 때문이다. ▷관련기사:[마이데이터 리셋]①'내 정보는 내 거'라는 의미는?(12월 9일)은행들은 이를 바탕으로 좀 더 다양한 금융서비스 제공할 수 있게 됐다. 개별 고객의 금융 활동에 대한 전반적인 데이터를 활용할 수 있게 되면서 맞춤형 서비스를 제공하는 것이 가능해져서다. 그리고 이를 가장 잘 활용할 수 있는 자산관리 서비스가 고도화하기 시작했다. 은행 관계자는 "오픈뱅킹에 이어 마이데이터 서비스가 시작되면서 개별 고객 돈의 흐름을 좀 더 구체적으로 파악할 수 있게 됐고 맞춤형 금융서비스를 제공할 수 있게 됐다"며 "이를 현재 가장 잘 활용할 수 있는 분야는 개인별 자산관리 분야로 이 부분에 집중하고 있다"고 설명했다. 실제 마이데이터 서비스 시행 이후 신한은행은 '마이버스', 하나은행은 '하나합' 이라는 통합 자산관리 서비스를 출범시킨 바 있다. 이 서비스들은 고객의 자산 현황, 소득, 지출현황 등을 바탕으로 고객의 현재 상황에 맞는 예금과 적금 등 기본적인 수신상품뿐만 아니라 펀드 등 금융투자 상품 등까지도 추천해준다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2021.12.22.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>“카카오·토스, 긴장해”… 은행 ‘금융 슈퍼앱’ 힘 받는다</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000767220?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>[금융위원회 업무보고]금융위원회가 은행들의 슈퍼앱 지원을 내년부터 강화할 예정이다./사진=이미지투데이슈퍼앱을 활용해 핀테크사에 대응하겠다는 은행들의 전략이 내년부터 탄력을 받을 전망이다. 금융위원회는 22일 은행이 하나의 '종합금융앱' 플랫폼으로 은행·보험·증권 등 다양한 서비스를 제공할 수 있도록 제도적 여건을 조성하겠다고 밝혔다. 금융위 관계자는 "현재 제도상 불가능한 것은 아닌데, 신고 절차 등이 복잡하다는 지적이 있어 지원하겠다는 취지"라며 "계열사 서비스를 연결하는 과정에서 수수료문제도 있는데, 관련 가이드라인이 있었으면 좋겠다는 요청이 있었고 검토 중"이라고 밝혔다. 은행권 디지털 전환 촉진을 위해 핀테크업체 투자 제한을 개선해 산업간 융합을 유도하고, 은행의 계열사에 대한 고객 정보 제공행위도 고객 동의 전제 하에 보다 원활하게 이뤄지도록 지원할 예정이다. 금융위는 금융여건 변화를 감안해 금융업권별로 겸영·부수업무 범위 확대를 검토하고 신사업 규제샌드박스 활용도 지원한다. 대표적인 지원 분야는 ▲은행의 플랫폼 ▲보험의 헬스케어 서비스 ▲카드의 종합페이먼트·데이터 업무 등이다. 금융위는 개인 맞춤형 종합금융 플랫폼(마이플랫폼) 도입을 위해 오픈파이낸스 추진방안도 마련한다. 이를 위해 오픈뱅킹 시스템을 개편한다. 오픈뱅킹 참여기관에 보험사 등을 추가하고, 보험정보·대출·종합자산관리계좌(ISA) 정보 등 서비스를 확대한다는 계획이다. 2022년부터 본격적으로 시작되는 본인신용정보관리업(마이데이터) 서비스의 제공 정보를 확대하고 기능을 강화한다. 마이데이터는 은행, 보험사, 카드사 등 기존 금융회사와 관공서, 병원 등에 흩어진 개인신용정보를 기반으로 맞춤형 금융서비스를 제공하는 서비스다. 금융위는 종합지급결제사업자, 지급지시전달업 등을 도입해 다양한 신규사업자가 금융결제망에 참가할 수 있도록 할 계획이다. ━금융위 “고령층 소외되지 않게 접근성 강화할 것” ━금융위는 디지털 금융에 익숙하지 않은 소비자를 위해 오프라인 금융서비스 접근성을 높이겠다고 밝혔다. 은행들이 디지털 전환을 가속화하면서 점포를 통합·폐쇄하는 가운데, 일부 폐쇄 지점에서는 인근 고령층 주민들의 반발 집회도 열렸다. 금융위는 모바일 앱에서 은행 ATM과 점포 위치 정보를 확인할 수 있는 '금융대동여지도'(금융맵) 서비스를 고도화하고 우체국에 대한 은행 업무 위탁을 확대할 계획이다. 또한 편의점과 백화점을 이용한 인출, 거스름돈 입금서비스도 보다 활성화한다. 저축은행에 대해서는 저축은행간 창구공유 '프리뱅킹'을 추진한다. 한 저축은행 창구에서 다른 저축은행의 예금 입·출금 업무도 볼 수 있게 하는 식이다. ━금융위 “빅테크 리스크 감독 방안 마련”━금융위는 빅테크 금융진출 과정에서 빅테크발 잠재 리스크를 점검하고 감독 관리방안을 검토한다.구체적으로 빅테크의 금융서비스 영위형태별로 리스크 기반 행위 규제를 강화하고, 빅테크 그룹의 내·외부 리스크 전이 차단을 위한 빅테크 그룹 감독체계 도입도 검토한다. 아울러 금융회사의 위험관리·내부통제 강화를 통해 빅테크발 제3자 리스크 방지 체계를 구축할 계획이다. 금융위는 금융 보안 규제 체계도 합리화한다. 금융사의 클라우드 서비스 이용에 대한 금융당국 사전 보고를 사후 보고로 완화하고 클라우드사업자에 대한 금융당국의 직접 감독·검사권을 확보하는 방안을 검토 중이다. 망분리 규제도 합리화한다. 금융위는 우리 금융의 특수성을 고려해 금융 보안에 관한 원칙 중심의 규제체계 정립을 전제로 규제 합리화 방안을 마련하겠다고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2021.12.20.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>토스페이, 유튜브·구글플레이서 결제 가능</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000781452?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>토스의 페이테크(Paytech) 계열사 토스페이먼츠는 구글과의 제휴로 유튜브·구글플레이에서 토스페이 결제가 가능하게 됐다고 20일 밝혔다. 토스페이는 올해 타다, 스포티파이 등에 이어 글로벌 IT 기업 구글과도 손을 잡았다.토스페이는 토스 애플리케이션(앱)만 있으면 누구나 쉽고 안전하게 결제할 수 있는 간편결제 서비스다. 토스 앱에 결제수단으로 등록된 계좌 혹은 카드 등을 통해 토스페이 가맹점에서 이용할 수 있다.토스페이 제공        구글플레이의 경우 결제 수단 화면에서 ‘Toss 추가’를 클릭한 후, 토스 앱을 통한 본인 인증을 거치면 등록이 완료돼 유료 콘텐츠 결제 시 이용할 수 있다. 유튜브는 결제 수단으로 토스페이를 선택하면, 유튜브 프리미엄 정기 결제·유튜브 영화·채널 멤버십·슈퍼챗 등 유료 서비스 결제 시 사용할 수 있다.이번 제휴를 기념해 캐시백 이벤트도 진행한다. 오는 31일까지 구글플레이 혹은 유튜브에서 토스페이로 결제 시 최대 5000원 한도 내에서 결제 금액의 50%를 토스포인트로 돌려준다. 예산이 소진되면 조기 마감될 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2021.12.16.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>케이뱅크, 최대 3억원까지 연 1% 예금금리 적용...'토스와 차별화'</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000072113?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>케이뱅크가 최대 3억원까지 연 1% 금리를 제공한다. (케이뱅크 제공) 인터넷 전문은행 케이뱅크가 최대 3억원까지 연 1%의 금리를 적용한다고 밝혔다. '조건 없는 2% 예금'을 내년부터 축소하는 토스뱅크와는 차별화된 전략으로 풀이된다.12월 16일 케이뱅크는 파킹통장 '플러스박스'의 금리를 기존의 연 0.8%(세전 기준)에서 0.2%포인트 오른 연 1.0%(세전 기준)의 금리로 인상한다고 밝혔다. 파킹통장은 짧은 기간 돈을 맡기고 언제든 자유롭게 찾을 수 있으나 수시입출식 통장보다 금리가 훨씬 높은 것이 특징이다. 이번에 인상된 금리는 보유한 플러스박스 계좌 잔액을 모두 합산해 최대 3억원까지 적용된다. 이는 은행업계 최고 수준 한도다. 더불어 자금을 단 하루만 맡겨도 예치 금액에 따른 이자를 받을 수 있다. 케이뱅크의 설명에 따르면 플러스박스는 용도에 따라 통장 쪼개기를 한 뒤 연결계좌에서 입출금이 가능하다. 쪼개기를 통해 '용돈 계좌'나 '비상금 계좌' 등 고객이 정한 용도에 따라 최대 10개의 플러스박스를 만들어 자금 관리를 할 수 있다. 연결계좌에서 플러스박스 계좌로 최소 1원부터 최대 3억원까지 자동이체도 신청할 수 있다.앞서 케이뱅크는 예금과 적금 등 수신상품 금리도 일제히 올린 바 있다. '코드K 정기예금' 상품의 금리는 가입 기간별로 1년 이상은 연 1.5%에서 2.0%, 2년 이상은 연 1.55%에서 2.1%, 3년 이상은 1.6%에서 2.2%로 인상됐다. '코드K 자유적금' 금리 역시 인상 이후 연 2.1~2.3%로 적용된다.케이뱅크 관계자는 "고객 혜택 확대를 위해 플러스박스의 금리를 인상했다"며 "케이뱅크는 지속적으로 경쟁력을 갖춘 상품을 발굴해 고객 혜택을 강화할 것"이라고 말했다.한편 같은 인터넷 전문은행인 토스뱅크는 대출 중단 이후 예금 이자 지급으로 손실이 커지자, 지난 12월 3일 내년부터 예금금리를 기존의 '조건 없는 연 2.0%'에서 연 0.1%로 축소한다고 발표했다. 이에 따라 내년 1월 5일부터 토스뱅크 통장과 토스뱅크 모으기 상품의 최종 잔액이 1억원을 초과하는 경우에 대해서는 0.1%의 금리가 적용된다.이에 대해 토스 측은 "예금 가입자의 99%가 금리 변동의 영향을 받지 않고 기존의 혜택을 누릴 수 있을 것"이라고 밝혔다. 다만 케이뱅크가 최고 수준 한도까지 연 1.0%의 단일 금리를 적용함에 따라 기존 고객들이 이탈할 가능성도 점쳐지고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2021.12.23.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>한발 앞서… 비상장株 투자나선 선학개미들</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003401449?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>MZ세대 위주로 상장前 투자 확산… 한국장외시장 시총 1년새 84% 급증공모주 열풍 타고 내년에도 주목… 성장 가능성 높지만 변동성 유의해야직장인 김모 씨(36)는 지난해 5월 장외시장에서 국내 바이오 벤처기업인 A사에 3억 원을 투자했다. 이 회사가 개발 중인 치매 치료제 소식을 듣고 결단을 내린 것. 당시 1만4500원이었던 주가는 70% 넘게 뛰었다. 그는 “이 회사가 내년 상반기(1∼6월) 코스닥시장에 상장하면 주가는 더 크게 뛸 것”이라며 기대하고 있다.  올해 공모주 시장이 뜨겁게 달아오르면서 김 씨처럼 한발 앞서 비상장 주식에 투자하는 ‘선(先)학개미’들이 늘고 있다. 잠재력 있는 종목이 상장되기 전에 발 빠르게 사들여 상장 뒤 큰 수익을 거두려는 이들이다. 하지만 비상장 기업은 공시 정보가 부족한 만큼 투자 위험도 크다는 점을 고려해야 한다는 지적이 나온다. ○ MZ세대가 밀어올린 비상장주 시장  22일 금융투자협회에 따르면 이날 한국장외거래시장(K-OTC)의 시가총액은 31조2732억 원으로 지난해 말(17조438억 원)에 비해 83.5% 급증했다. 비상장 주식거래 플랫폼인 ‘증권플러스 비상장’의 경우 이용자 수가 11월 말 현재 지난해 말(약 30만 명)의 3배 정도인 약 90만 명으로 불어났다.   연초부터 이어진 공모주 열풍에 비상장주 시장이 주목받고 있다는 분석이 나온다. 올해 SK아이이테크놀로지(SKIET), 카카오뱅크 등 기업공개(IPO) 대어들이 잇따라 상장하며 공모주 투자가 활발해졌다. 이에 아예 상장 전에 유망한 종목을 찾아 투자해두려는 선학개미들이 늘어난 것이다. 최근 가상화폐 거래소 업비트의 운영사인 두나무 비상장 주식에 투자한 김모 씨(34)는 “개인투자자가 IPO 일반 공모 청약을 통해 배정받는 주식은 너무 적기 때문에 일찌감치 유망한 비상장 주식에 투자하는 게 낫다”고 말했다.  특히 MZ세대(밀레니얼+Z세대)의 비상장주 투자가 활발하다. 10월 기준 증권플러스 비상장 이용자의 43.8%가 20, 30대로 나타났다. 이들은 두나무나 토스의 운영사 비바리퍼블리카, 케이뱅크 등 빅테크 관련주나 온페이스게임즈 등 메타버스 관련주에 주로 투자하고 있다. 모바일 플랫폼 등을 통한 비상장 거래에 주식시장 큰손인 중장년층의 관심도 커지고 있다. 이민아 증권플러스 비상장 매니저는 “중장년층이 모바일 거래에 취약하다는 통념과 달리 50대 고객 비율이 21%를 넘었다”고 설명했다. ○ “성장 가능성 높지만 변동성도 커” 내년에도 사상 최대 규모 공모주로 꼽히는 LG에너지솔루션이 상장하는 등 ‘IPO 풍년’이 이어질 것이란 관측이 나온다. 이에 따라 비상장주 시장의 성장세가 당분간 지속될 것으로 전망된다.  금투업계도 선학개미 유치 경쟁에 나서고 있다. 하나금융투자는 지난달 홈트레이딩시스템(HTS)을 통해 미국 장외주식에 투자하는 서비스를 내놨다. KB증권 역시 최근 비상장 기업 분석을 위해 신성장기업솔루션팀을 신설했다. 비상장주 투자 과열에 대한 우려도 나온다. 장외시장의 거래가격이 상장 이후의 주가로 이어지는 것은 아니기 때문에 투자자들의 주의가 필요하다는 지적이다. 올해 8월 카카오뱅크 주식은 상장 직전 장외시장에서 주당 9만 원대에 거래됐지만 현재 6만 원 수준이다. 황세운 자본시장연구원 선임연구위원은 “비상장 주식은 금융감독원 전자공시시스템 같은 공시가 활발하지 않고 대부분의 플랫폼이 상한가가 없어 변동성이 크다”며 “투자할 때 주의할 필요가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2021.12.29.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>토스증권, 청소년 대상 비대면 계좌개설 서비스 잠정 중단</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001930491?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>[헤럴드경제=박이담 기자] 토스증권이 선보인 '미성년자 대상 비대면 계좌 개설 서비스'가 잠정 중단됐다.29일 토스증권에 따르면 만 14세 이상 만 19세 미만의 청소년이라면 보호자 동의를 거쳐 토스 앱에서 토스증권 계좌를 개설할 수 있는 서비스를 28일부로 잠정 중단했다. 지난 24일 서비스를 출시한지 나흘만이다. 금융당국이 현행 제도상 문제가 없는지 들여다보겠다고 밝힌 데 따른 것이다.토스증권은 금융당국에 서비스 개요 등의 자료를 제출한 뒤 답변을 기다리고 있다. 토스증권 관계자는 "금융위원회 검토 의견이 나오면 서비스 재개 여부를 결정할 예정이다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2021.12.21.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>[르포]식당 이용도 쩔쩔매는 고령층…코로나 '디지털 디바이드' 심화</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003588034?sid=102</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>'디지털 디바이드'…예방접종 종이 들고 다니는 노인들전자기기 사용 서툴러…기계 설치했지만 와이파이 연결할 줄 몰라비대면 업무 탓에 은행 줄어…"노인들, 은행 이용할 권리 박탈"스마트폰 이용 서투른 노인들…은행 '비대면' 전환에도 울상정부가 '방역패스'(접종증명서·음성확인서)를 확대한 가운데 전자 기기 사용에 미숙한 노인들이 카페, 식당 등을 이용하는 데 어려움을 겪고 있습니다. 인터넷 이용이 어렵거나 스마트폰을 사용하지 않는 디지털 소외계층이 사회와 단절되는 '디지털 디바이드(정보 격차)' 현상이 심화하는 상황입니다.서울 종로구 탑골공원에서 만난 유모(77) 할아버지는 백신을 3차까지 접종했다는 걸 증명하기 위해 '종이 증명서'를 들고 다닌다.  임민정 기자"휴대폰으로 하는 건 모르겠고 병원에서 준 종이가 있어요. 젊은 사람들이 자주 가는 식당은 잘 안 가요."20일 서울 종로구 탑골공원에서 CBS노컷뉴스와 만난 유모(77)씨는 백신을 3차까지 접종했다는 사실을 증명하기 위해 종이 증명서를 들고 다닌다고 밝혔다. 유씨의 가방엔 마스크 5장과 '예방 접종 증명서'가 들어있었다. 식당에 갈 때마다 펼치지만 스마트폰 QR코드가 주로 쓰이는 음식점은 왠지 가기가 꺼려진다.정부가 '방역패스'(접종증명서·음성확인서)를 확대한 가운데 전자 기기 사용에 미숙한 노인들이 카페, 식당 등을 이용하는 데 어려움을 겪고 있다. 인터넷 이용이 어렵거나 스마트폰을 사용하지 않는 디지털 소외계층이 사회와 단절되는 '디지털 디바이드(정보 격차)' 현상이 심화하고 있다.방역당국에 따르면 방역패스로 사용이 가능한 것은 질병관리청 COOV(쿠브)앱이나 전자출입명부(네이버, 카카오, 토스)의 전자 증명서, 신분증에 붙인 예방접종 스티커, 접종기관에서 받은 종이 접종증명서 등이다. 정부는 백신접종 이력과 마찬가지로 PCR 검사 음성확인서도 '방역패스'로 인정한다.하지만 대부분 업장에서 백신패스 증명 방법으로 스마트폰 QR코드를 사용하는 탓에 스마트폰 이용이 서툰 노인들은 백신을 접종 여부를 증명할 방법이 막막한 실정이다.QR코드 접근성이 떨어지는 노인들은 주민센터나 병원의 도움을 받지 않고는 방역패스 이용이 어려운 경우가 많다고 토로했다.서울 종로구 낙원상가 인근 식당에서 만난 서모(71)씨는 "식당 들어올 때 QR코드를 보여줬다"면서도 "(종이)증명서를 들고 핸드폰 대리점을 가니 직원이 (전자 증명서 발급을) 도와줬다"고 말했다.곁에 있던 일행은 "나도 전자증명서 등록은 딸이 해줬다"며 "3차까지 백신을 맞았으면 질병관리본부에서 자동으로 다 발급해주는 줄 알았는데, 알아서 해야 하니 쉽지 않다"라고 토로했다.종로3가역에서 만난 60대 A씨는 "휴대폰으로 하는 게 있다는데 오늘 주민센터에 신청하러 간다"며 "백신 접종을 한 병원에도 부탁해볼까 했지만, 간호사가 1명 뿐이라 바빠 보여 부탁을 못 했다"고 밝혔다.전자기기 사용이 서툰 자영업자들도 방역패스가 골칫거리다. 종로구 탑골공원 인근의 한 음식점. 점심시간이 되자 하나둘씩 손님이 들어왔지만, QR코드를 찍는 이들은 없었다. 가게 한켠에 자리한 기기는 와이파이 연결이 되지 않아 먹통인 상태였다.사장 김모(74)씨는 "아들이 와서 기계 설치를 해줬는데 나는 전혀 사용할 줄 모른다"며 "나이 먹은 사람은 아무것도 모른다"라고 말했다.이어 "주로 한명씩 오는 손님이 많아 방역패스 확인은 넘어간다"며 "손님들이 두세명 오면 접종 확인서 종이나 주민등록증 뒷면을 확인한다"고 했다.종로 3가에서 밥집을 운영하는 전모(74)씨는 스마트폰을 이용한 방역패스 확인에 어려움을 겪고 있었다. "노인들 중엔 휴대전화도 없는 사람도 많다"며 "QR코드 찍는다고 우리가 핸드폰 구해다 줄 것도 아니지 않나"고 되물었다. 임민정 기자종로3가에서 식당을 운영하는 전모(74)씨 역시 스마트폰을 이용한 방역패스 확인에 어려움을 겪고 있었다. "노인들 중엔 휴대전화도 없는 사람도 많다"며 "QR코드 찍는다고 우리가 핸드폰 구해다 줄 것도 아니지 않나"고 되물었다.그는 또 "노인들은 QR코드 찍을 줄도 모른다"며 "우리가 QR코드 찍는 거 알려 주느니 차라리 밥 한 그릇 더 팔고 그 사람은 안 받는 게 낫다"라고 답답해했다.그러면서 "방역패스 전에는 수기 명부를 작성했는데 손님 중에 휴대전화 없는 사람도 있어 애를 먹었다"며 "백신을 맞았는데 명부를 뭐하러 쓰냐고 성질을 내는 사람도 더러 있었다"고 말했다.'비대면'으로 줄어드는 은행 점포…디지털 소외계층 또 양산코로나19로 인한 디지털 소외 현상은 이뿐만이 아니다. 비대면 업무량이 늘면서 은행 각 지점이 점포 수를 줄여나가고 있어 인터넷 뱅킹 등 휴대전화를 활용한 금융에 익숙지 않은 계층은 불편을 호소하고 있는 상황이다.실제로 신한은행은 내년 2월 서울 노원구 월계동 지점을 폐쇄할 계획인데, 최근 주민들이 집단으로 영업점 폐쇄에 반대하고 나섰다. 특히 노인들은 은행을 이용할 권리를 박탈당했다며 '금융 소외'를 호소했다.16일 오전 서울 중구 신한은행 본점 앞에서 열린 '신한은행 월계동지점 폐쇄 규탄 주민 기자회견' 참석자들이 규탄발언을 하고 있다. 황진환 기자월계동 신한은행을 자주 이용한다는 80대 노인 A씨는 "우리는 은행이 없어지면 안된다. 노인들은 디지털 기기를 다루지도 못한다"며 "특히 여기 주변 상가에 국민은행도 없어진다는 소식을 들었다. 동네에 있는 은행이 거의 없어지는 격이라 걱정이 많다"고 말했다.그는 "특히 이곳 주변 아파트 주민들 절반이 다 노인이다"며 "현금자동입출금기(ATM)를 사용할 줄 아는 사람도 있지만 사용에 어려운 노인도 많아서 직원들 도움을 많이 받는 상황이었다"고 덧붙였다.주민대책위원회 김진숙 간사는 통화에서 "폐지 예정 점포는 특히 어르신 비중이 높은 지역이고 어르신 중 많은 분이 아직도 종이 통장이나 현금 갖고 다닌다"며 "세금이나 공과금도 직접 은행 가서 처리하기 때문에 점포 폐쇄가 어르신들에겐 치명적"이라고 지적했다.이어 "특히 ATM기를 이용 못 하는 어르신들이 많아 청원경찰에 늘 도움 요청을 한다"며 "그런 상황에서 키오스크와 같은 기기들은 더 이용에 어려움을 겪을 것이고 시간이 오래 걸릴 텐데 노인분들은 더욱 위촉되고 소외될 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2021.12.22.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>은행이 배달앱?… 빅테크 도전에 이종격투기로 맞서는 은행들</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003661339?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>[Biz 톡]							신한은행이 22일 배달 앱 ‘땡겨요’를 출시했습니다. ‘혜택을 당긴다’ ‘단골 고객을 끌어당긴다’는 뜻을 담았다고 합니다. 은행이 여신·수신·외환 등 금융업과는 거리가 먼 음식 주문 중개 플랫폼 사업에 뛰어든 것인데요. 신한은행은 “배달 플랫폼에서 수집한 빅데이터를 분석해 가맹점주와 배달 라이더에게 특화된 금융 상품을 개발하기 위한 시도”라고 말합니다. 지난해 금융위원회로부터 혁신 금융 서비스로 지정받았습니다.										땡겨요 앱은 수익 추구가 목적이 아닌 만큼, 가맹점주에게 파격적인 혜택을 제공합니다. 중개 수수료가 2%로 배달의민족 등 다른 배달 앱 평균 수수료(11.4%)의 5분의 1 수준입니다. 가맹점으로부터 입점 수수료나 광고비도 받지 않습니다. 이용자에게는 첫 주문 시 즉시 사용 가능한 5000원 할인 쿠폰을 주고, 첫 배달이 완료되면 5000원 쿠폰을 추가로 준다고 합니다. 당분간은 서울 광진구와 관악구, 마포구, 강남구, 서초구, 송파구 등 6개 지역에서만 사용이 가능하고 다음 달 14일부터 정식 서비스가 오픈됩니다.요즘 은행들은 비금융업에 적극적으로 진출하고 있습니다. 은행 앱에 각종 생활 서비스 기능을 추가하는 것이죠. 꽃 배달, 중고차 매매, 실손보험료 청구, 미술품 구입, 반려동물 관리 등 그 영역이 빠르게 확장되고 있습니다.카카오, 네이버, 토스, 핀다 등 테크 기업의 도전에 맞서 생활을 파고드는 밀착 서비스로 고객을 끄는 반격에 나선 것이지요. 고객의 비금융 데이터를 확보하면 맞춤형 금융 상품 개발에도 도움이 된다는 이점도 있습니다. 다만 이종 업종 서비스를 계속 덧붙이는 방식이 되다 보니 일각에서는 “은행 앱이 예전보다 더 복잡하고 보기 불편해진 것 같다”는 등의 불만도 들립니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2021.12.31.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>전자출입명부 통해 3차 접종력 확인 가능…1월 3일부터 방역패스 유효기간제 실시</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/448/0000347856?sid=102</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>카카오, 네이버 등 전자출입명부 앱에서 3차 접종력을 확인할 수 있다.질병관리청은 31일 백브리핑에서 "어제부로 전자증명서·출입명부 시스템을 개선함에 따라서 COOV앱 및 카카오, 네이버, 토스 등을 통해 전자출입명부 앱을 업데이트하면 3차 접종력 및 2차 접종 후 경과일을 확인할 수 있다"고 밝혔다. 또 "당초 종이로만 발급되던 코로나19 완치확인서 및 방역패스 예외확인서 등을 전자적 형태로도 발급받을 수 있다"고 설명했다. 앞서 정부는 다음 주 월요일인 1월 3일부터 방역패스 유효기간제를 도입하기로 했다. 2차 접종 후 180일이 지나면 다중이용시설 출입이 제한된다. 다만 3차 접종에는 별다른 유효기간이 설정되지 않는다. 접종완료자의 경우, QR코드 스캔 시 "접종완료자입니다"라는 음성안내가, 경과일이 지나거나 미접종자는 "딩동" 소리만 나오게 된다.  시설 운영자는 1월 3일 0시 기준, KI-PASS앱이 자동 업데이트 되나 불편이 없도록 미리 확인해줄 것을 당부했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2021.12.23.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>"미니보험 출시로 MZ세대 공략"···메리츠화재-카카오페이 MOU</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004000235?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>[서울경제] 보험사와 빅테크의 동맹이 가속화하고 있다. 교보생명과 삼성생명이 각각 카카오뱅크, 토스와 양해각서(MOU)를 체결한 가운데 메리츠화재도 카카오페이와 손잡고 미니 보험 출시 등 MZ세대(밀레니얼+Z세대) 공략에 나선다.23일 메리츠화재는 카카오페이와 플랫폼 보험 시장 활성화를 위해 신규 사업 모델 개발 등과 관련한 MOU를 체결했다고 밝혔다. 이번 MOU를 통해 양사는 신상품 개발, 신규 사업 모델 개발은 물론 보상 프로세스 혁신으로 차별화된 고객 서비스를 제공할 계획이다. 특히 MZ세대를 포함한 전 세대의 보험 소비 과정에서 디지털 경험 확산을 위한 전방위적 협업을 시행할 예정이다.우선 메리츠화재는 비대면 환경에서 일상 위험을 커버해주는 소액보험(미니 보험) 상품 개발에 협업을 집중할 계획이다. 첫 번째 프로젝트로 3050 직장인을 타깃으로 한 신상품을 내년 1월 출시한다. 메리츠화재 관계자는 “당사의 상품 시스템과 카카오페이의 차별화된 디지털 기술력을 결합해 사용자 편의성을 다양하게 반영한 보험 서비스를 제공할 수 있을 것으로 기대된다”고 말했다.생보사의 경우 다른 금융 업권에 비해 복잡한 가입과 청구 프로세스, 난해한 상품 구조 등이 판매 확대의 걸림돌로 지적된다. 이 때문에 빅테크와의 협업이 상품 접근성을 높이기 위한 차원이었다면 이번 메리츠화재 협업의 경우 상품 개발에 초점을 맞췄다. 기존과 비교했을 때 확실한 상품 차별화를 통한 카카오페이 보험 서비스 고객 경험을 확대하고 활성화할 수 있을 것이라는 것이 메리츠화재의 관측이다.앞서 삼성생명은 토스 운영사 비바리퍼블리카와 MOU를 체결하며 주목받았다. 삼성생명은 고객이 토스의 애플리케이션을 통해 보험 상담, 상품 가입, 보험금 청구까지 모두 할 수 있게 한다는 계획이었다. 삼성생명 관계자는 “주 고객층이 2030세대인 토스 앱을 활용해 젊은 고객 확보 가능성이 더욱 커질 것”이라고 기대했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2021.12.28.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>[취업문 여는 한경 TESAT] 베어 마켓</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004646085?sid=102</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>1월 15일(토) 테샛, 홈페이지(www.tesat.or.kr) 접수 중![문제1] 찬우는 자동차 사고에 대비해 1억원의 자동차 보험에 가입했다. 그 결과 찬우는 자동차 운전 시 이전보다 주의를 기울이지 않게 됐다. 이것은 어떤 현상에 해당하는가?(1) 분수효과(2) 테일러 준칙(3) 도덕적 해이(4) 코즈의 정리(5) 밴드왜건 효과[문제2] 경제문제가 발생하는 근본적인 이유로 옳은 것은?(1) 자원이 희소하기 때문이다.(2) 인간의 행동은 이타적이기 때문이다.(3) 인간의 소비 패턴이 일정하기 때문이다.(4) 기회가 불평등하게 주어지기 때문이다.(5) 인구의 증가 속도가 매우 빠르기 때문이다.[문제3] 아마존, 네이버 등의 사례처럼 정보기술(IT) 사업으로 출발한 기업이 주도하는 혁신적인 금융 서비스를 가리키는 말은?(1) 테크핀(2) 마이스(3) 프롭테크(4) 오픈소스(5) 멀티유저[문제4] 규모의 경제가 발생할 가능성이 가장 큰 경우는?(1) 기업의 규모가 작을 경우(2) 생산요소의 가격이 증가할 경우(3) 시장에 다수의 생산자가 존재할 경우(4) 생산량이 증가함에 따라 장기평균비용이 감소하는 경우(5) 생산요소의 투입량이 두 배 증가할 때 생산량이 변하지 않을 경우▶ 12월 1일 수요일자 테샛 문제 정답 [문제1] ①[문제2] ②[문제3] ⑤[문제4] ④▶베어 마켓(bear market)·불 마켓(bull market) 베어 마켓은 주가를 비롯한 자산 가격이 하락하고 있거나 하락할 것으로 예상하는 약세장을 뜻하는 말로 하락장을 곰에 비유한 말이다. 즉, 베어 마켓은 곰처럼 매우 느린 거래가 부진한 약세 시장을 의미한다. 반대로 장기간에 걸친 주가 상승이나 강세장은 불 마켓이라고 하며 황소에 비유한다.▶네오뱅크(neo bank) 오프라인 지점 없이 비대면 방식인 모바일이나 인터넷만으로 금융 서비스를 제공하는 은행을 의미한다. 일상적 은행 업무에 혁신적인 접근 방식 등을 도입한 것이 네오뱅크다. 디지털이나 소셜네트워크 등을 기반으로 고객과의 접근 방식을 넓힌 인터넷 은행이라고 볼 수 있다. 한국에서는 카카오뱅크, 케이뱅크, 토스뱅크가 대표적이다. 이들은 점포 없이 비대면 채널 위주로 영업을 확대했고 로보어드바이저를 활용한 자산 관리, 빅데이터를 활용한 대출 상품 등을 선보이고 있다.▶선벨트(sun belt) 미국의 텍사스·테네시·앨라배마·조지아·노스캐롤라이나주(州)로 이어지는 남동부 지역이다. 삼성전자가 미국 파운드리(반도체 수탁생산) 제2공장 부지로 텍사스주 테일러시를 낙점하면서 선벨트 지역이 글로벌 전자·자동차 기업의 생산기지로 주목받고 있다. 선벨트는 기업에 낮은 전기요금과 파격적인 세금 감면, 비교적 싼 인건비, 유연한 고용환경 등으로 입지 1순위로 꼽힌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2021.12.20.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>토스페이, 유튜브·구글플레이 결제 가능</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002262544?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>◆…토스페이먼츠 제공     토스페이먼츠는 구글과의 제휴로 유튜브, 구글플레이에서 토스페이 결제를 할 수 있게 됐다고 20일 밝혔다.   토스페이는 토스 앱에 결제수단으로 등록된 계좌나 카드를 통해 토스페이 가맹점에서 이용할 수 있는 간편결제 서비스다. 올 한해 토스페이를 도입한 가맹점은 이달 기준 약 2500개에 달한다.   유튜브에서 결제수단으로 토스페이를 선택하면 유튜브 프리미엄 정기 결제, 유튜브 영화, 채널 멤버십, 슈퍼챗 등 다양한 유료 서비스 결제 시 이용할 수 있다. 구글플레이의 경우 토스 앱을 통해 본인인증을 거쳐 결제수단에 등록한 뒤 유료 콘텐츠를 결제할 수 있다.   이달 31일까지 구글플레이나 유튜브에서 토스페이로 결제 시, 최대 5000원 한도 내에서 결제 금액의 50%를 토스포인트로 돌려준다.   김민표 토스페이먼츠 대표는 “편리한 간편결제 서비스에 대한 고객 선호도가 높아지며, 토스페이를 도입하는 기업이 꾸준히 늘어나는 추세”라며 “더 많은 가맹점에서 토스페이의 간편하고 안전한 결제를 경험할 수 있도록 지원하겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2021.12.31.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>시중은행, 기대반 우려반 새해 대출정상화...‘가수요’ 변수</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002562620?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>주담대 재개...우대금리 확대내년 하반기 신용대출 제한도 해제증가율 4~5%·DSR 강화 ‘촉각’서울의 한 시중은행에 부착돼 있는 대출 상품 안내 모습. ⓒ 뉴시스[데일리안 = 이호연 기자] 은행권이 새해 굳게 닫혔던 대출문을 활짝 연다. 연간 단위로 설정되는 은행별 가계 대출 총량 목표치가 새해부터 재설정되기 때문이다. 주요 은행들은 주택담보대출 정상화에 나서고, 신용대출 연소득 이내 제한 조치도 해제한다. 속속들이 우대금리도 복원하는 중이다. 카카오 등의 인터넷전문은행도 내년 대출 상품을 준비중이다. 다만 내년에도 금융당국의 고강도 가계대출 총량관리가 이어지며 상황은 녹록지 않을 전망이다.◆ 시중은행, 대출경쟁 준비 잰걸음31일 금융권에 따르면 NH농협은행은 내달 1일부터 무주택자에 한해 신규 주택담보대출을 재개한데 이어 내년에는 주택 관련 대출을 모두 정상화한다. 최대 2000만원으로 낮춰던 신용대출 한도도 다시 1억원을 높인다. 모기지신용보험(MCI)와 모기지신용보증(MCG) 대출도 다시 운영한다.SC제일은행도 지난 8월부터 판매를 잠정 중단했던 신규 주담대 상품을 다시 선보인다. SC제일은행은 지난 20일부터 주력 상품인 ‘퍼스트홈론’ 사전 신청 접수를 받고 있다. 대출 실행일은 내년 1월 3일부터다. 앞서 하나은행도 지난달 23일부터 비대면 대출상품 하나원큐 신용대출 등 대부분의 신용대출과 하나원큐 아파트론 판매를 재개했다. 이달 1일부터는 상가, 오피스텔 등 부동산 담보 구입대출도 재개했다.인터넷 은행들도 대출 상품 준비에 한창이다. 출범 9일만에 대출 한도를 소진했던 토스뱅크는 내달 1일부터 대출 영업을 재개한다. 대출 전면 중단 이후 3개월 만으로 대출 상품 최저금리는 연 3% 초반이고 최고한도는 2억7000만원이다. 카카오뱅크도 내달 신(新)잔액기준 자금조달비용지수(COFIX·코픽스)를 기준금리로 연동하는 주택담보대출 상품을 출시할 예정이다.내년 7월부터는 시중은행들이 지난 9월부터 연소득 수준으로 줄었던 신용대출 한도 제한이 풀린다. 우대 금리 혜택도 부활했다. 우리은행은 내년 1월3일부터 신용대출, 주택담보대출, 전세대출 상품 상당수의 우대금리를 연 최대 0.6%p 확대하기로 했다. KB국민은행도 같은날부터 전세대출과 부동산담보대출 우대금리를 연 최대 0.2~0.3%p 인상한다. 다른 시중은행들도 동참할 것으로 보인다.이같은 은행권의 조치는 가계대출 관리가 어느정도 안정 범위에 들어왔다는 판단에서다. 현재(15일 기준) 5대 은행의 지난해 대비 가계대출 증가율은 각각 ▲신한은행 7.05% ▲농협은행 6.56% ▲우리은행 6.01% ▲국민은행은 5.32% ▲하나은행 4.20% 등으로 전세대출을 제외하면 금융당국 권고 기준인 5~6% 이내 수준이다.주요 시중은행의 대출 정상화 내용 표 ⓒ 데일리안 이호연 기자◆ 연초 가수요 몰릴라...대출금리 ‘비상’이에 따라 실수요자들의 숨통도 어느정도 트일 것으로 기대된다. 다만 ‘대출 패닉’에 직면할 가능성이 여전히 존재한다. 내년 금융당국의 가계대출 총량관리 목표는 4~5%로 올해보다 업격하다. 이를 적용하면 5대 은행의 내년 가계대출 한도는 35조6000억원으로, 올해(42조)보다 6조원 이상 줄어든다. 또 차주단위 총부채원리금상환비율(DSR) 적용 대상도 가계대출 총액 2억원 초과, 7월부턴 1억원 초과 차주로 확대된다. 규제 대상에 편입되는 차주만 약 600만명이다.특히 대출이 중단됐다 다시 풀린 만큼 차주들이 학습효과로 인해 1월 초 가수요가 쏠릴 수 있다는 우려가 나오고 있다. 가수요가 몰려 대출이 조기 소진되고 대출문이 다시 닫히면 대출금리 역시 오를 수 밖에 없다.이미 한은이 올해 하반기 두차례 기준금리를 연 1.0%까지 인상하면서 대출금리는 고공행진중이다. 내년에도 통화정책 정상화 기조에 따라 최소 2번 이상의 기준금리 인상이 예상된다. 기준금리가 올라가면 코픽스를 지표로 삼는 은행 주담대 금리도 올라간다. 내년 주담대 금리 상단이 최대 6%를 돌파할 것이라는 관측이 나오는 이유다.DSR규제에서 제외된 전세대출도 최대 변수다. 내년 7월 말 새 임대차법 시행 2년을 맞이하면서 지난해 계약갱신청구권을 이미 행사한 세입자가 내년에 전세보증금을 올려줘야 하는 상황에 직면하며, 전세대출규모가 급증할 수 있다. 올해 8월 농협과 우리은행 등 일부 은행이 전세대출을 중단하는 사태가 다시 돌아올 수 있다. 신한은행의 경우 타행의 전세대출 수요까지 떠 안으며 가계대출 증가율이 한때 3%대에서 7%대까지 치솟은 바 있다.은행 관계자는 “내년부터 분기별로 대출관리가 이뤄지는만큼 우려하는 선착순 대출 현상이 재현될 가능성은 낮을 것”이라면서도 “대출 시장이 부동산 등의 영향을 크게 받아 언제든 가수요가 몰릴 수도 있기 때문에 모니터링을 강화하고 있다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2021.12.31.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>위메프, 새해 첫 대규모 특가 행사 연다</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002243696?sid=105</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>'11특가'서 511원부터 시작하는 초특가 상품 공개위메프가 풍성한 쇼핑 행사로 새해 포문을 연다.위메프는 내년 1월1일부터 6일까지 '11특가&amp;위메프데이'를 열고, 할인 행사를 진행한다.먼저 내달 1일 '11특가'에서는 상품 가격 끝자리를 '1원', '11원' 등에 맞춘 초특가 상품을 선보인다. 특히 0시부터 하루 6번 타임세일에서 시간별 5개씩 총 30개 파격 할인 상품을 공개한다. 11특가 타임세일 상품은 검색 최저가 대비 최대 30% 저렴하게 판매한다.1월 위메프데이주요 상품은 ▲허닭 닭가슴살 스테이크 1천111원 ▲좋은느낌 순수소프트 슬림날개 (대형 7매, 2팩) 2천111원 ▲베베숲 소프트 20매 (휴대캡 12팩) 6천211원 ▲구룡포 햇 과메기 (5마리, 10쪽) 7천911원 ▲언더아머 남성 벨로시티 윈드 러닝화 5만1천111원 등이다.2~6일에는 '위메프데이'를 진행한다. 5일간 ▲패션/뷰티 ▲디지털/가전 ▲리빙/가구/E쿠폰 ▲푸드 ▲유아동 등 카테고리를 총 망라한 혜택을 선보인다.행사 기간 모든 고객에게 구매 금액별 쿠폰(최대 20%, 최대 6만원 할인)과 결제 수단별 쿠폰(최대 10%, 국민·농협·신한·비씨·하나·전북은행·카카오페이·토스·차이) 등 특별 쿠폰팩을 지급한다. 무료 멤버십 VIP클럽 회원은 추가 할인과 최대 5% 적립 혜택도 받을 수 있다.위메프데이 대표 행사인 '타임세일'도 진행된다. 매일 6번(0시, 9시, 12시, 15시, 18시, 21시) 시간마다 10개씩 오픈해 하루 60개, 행사 기간 총 300개 타임세일 상품을 선보인다.위메프 관계자는 "2022년 첫 행사는 더욱 풍성한 혜택으로 준비했다"며 "새해에도 트렌드를 반영한 큐레이션과 다양한 행사로 위메프만의 특별한 쇼핑 행사를 선보일 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2021.12.29.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>미성년자 '비대면' 증권 계좌 개설, 괜찮을까? [어떻게 생각하십니까]</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003119334?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>[경향신문] 법률행위에 제한이 있는 미성년자가 본인의 주식 계좌를 ‘비대면’으로 만들어도 괜찮을까. 토스증권이 10대 청소년을 대상으로 한 ‘비대면 계좌 개설’ 서비스를 출시 나흘 만에 잠정 중단했다. 미성년자 증권 계좌를 비대면으로 개설하는 것이 허용돼 있지 않은 현행 규정에 따라, 금융당국이 법적인 검토에 들어갔기 때문이다. 주식 투자에 대한 관심도가 높아지고, 금융의 디지털화가 빠르게 진행하면서 생긴 변화인데 당국이 어떤 판단을 내릴 것인지 주목된다. 예금과 달리 주식투자는 손실 가능성이 있고, 자칫 탈세에 이용될 수 있다는 우려와 각종 절차를 마련한 만큼 문제될 게 없다는 토스 측의 입장이 엇갈린다.금융위원회 관계자는 29일 “토스증권의 미성년자 비대면 계좌 개설 서비스가 법령상 문제가 없는지를 확인 중”이라고 말했다. 토스증권은 금융당국의 요청을 받고 관련 자료를 제출하고 출시 나흘 만인 지난 28일 서비스를 중단했다. 해당 서비스는 토스증권 앱에 접속해 여권·주민등록증 등 신분증과 본인 명의 계좌를 통한 본인 인증 후 보호자 동의 절차가 완료되면, 토스증권 계좌 개설이 가능해지는 방식이다.현재 민법은 만 19세가 된 성년자(피성년후견인 등 제외)에게 법률행위를 단독으로 할 수 있는 능력, 즉 행위능력을 부여하고 있다. 미성년자는 법정대리인의 동의를 얻어야 법률행위를 할 수 있고 이를 위반하면 취소가 가능하다. 다만 미성년자도 단순히 권리만을 얻거나 의무를 면하는 행위는 법정대리인의 대리나 동의없이 단독으로 할 수 있다. 법정대리인이 범위를 정하여 허락한 재산도 임의로 처분할 수 있다.금융당국은 은행 계좌의 경우 “단순히 권리만을 얻는”, 즉 미성년자에게 ‘혜택’만 주는 용도로서 일정 한도 내에서 스스로 처분 가능하다고 보고 있다. 실제 만 14세 이상 미성년자는 70만~100원 한도로 은행계좌(대면·비대면)를 부모 등의 동의를 받지 않고 만들 수 있다. 14세는 개인정보보호법상 개인정보처리자(공공기관, 법인 등)가 법정대리인의 동의 없이도 개인정보를 처리할 수 있는 최소 연령이다. 일부 은행은 주민등록증을 발급받은 17세부터 직접 계좌를 개설할 수 있도록 하고 있다.문제는 주식 계좌도 은행 계좌와 동일한 성격이 있다고 볼 수 있냐는 점이다. 원금 손실 가능성이 있는 주식 투자용 계좌를 미성년자가 비대면으로 간단히 개설할 수 있도록 하는것이 조심스러울 수밖에 없다. 특히 토스에서 가능해질 경우, 증권업계 전반으로 같은 서비스가 확산될 가능성도 높다. 금융위 관계자는 “미성년자는 ‘부담’이 발생하는 행위를 단독으로 할 수 없고 법정대리인의 동의를 비대면으로 받는 것은 대면 방식과 차이가 있을 수 있다”면서 “토스증권의 인증 방식이 민법, 금융실명법 등에 저촉되는지를 살펴봐야 한다”고 말했다.반면 토스증권은 모바일증권 특성상 비대면으로 계좌를 개설할 수밖에 없고 미성년자 본인의 신분증과 금융사 계좌의 ‘1원 인증’ 절차에 법정대리인의 동의 절차까지 포함한만큼 문제가 없다는 입장이다. 토스증권 관계자는 “과거에 문제가 됐던 금융투자사의 미성년자 주식 계좌는 연령대가 특정되지 않았고 개설 주체도 사실상 미성년자 개인이 아닌 법정대리인이었던만큼 이번 사례와는 다르다”고 말했다.이상현 법무법인 태율 변호사는 “미성년자의 비대면 주식 계좌 개설이 법적으로는 문제가 되지 않을 것으로 보인다”면서도 “레버리지 투자는 하지 못하도록 규제하고 계좌 개설 시 사전교육 등의 절차를 마련할 필요가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2021.12.26.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>"내년 1월에 대출 바짝 땡기자"…은행 내년초 가계대출 본격 재개</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004899472?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>시중은행들 우대금리 복원대출금리 사실상 인하 효과SC제일銀 사전신청 받기도토스뱅크도 대출 전면 재개카뱅, 비대면 주담대 출시 우리은행을 시작으로 시중은행과 인터넷은행들이 내년 초에 속속 대출을 시작하면서 꽉 막혔던 가계대출에 숨통이 트일 전망이다. 특히 실수요자는 내년 1월을 노리는 것이 좋다. 26일 금융권에 따르면 올해 하반기 금융당국의 가계부채 관리 강화로 대출 문턱을 높이거나 아예 대출을 중단해야 했던 은행권이 대출 재개 준비에 한창이다. 연간 단위로 설정되는 은행별 대출 총량 목표치가 내년 1월 1일자로 '리셋(재설정)'되기 때문이다.한동안 가계대출 총량 관리를 위해 우대금리를 축소하는 방식으로 수요를 관리했던 은행권에서는 우대금리를 일부 복원하고 있다. 우리은행은 다음달 3일부터 10개 신용대출 상품과 4개 주택담보대출의 우대금리를 최대 0.6%포인트 올린다.NH농협은행은 다음달부터 신규 주담대 판매를 정상화한다. 농협은행은 지난 8월 주담대를 중단한 뒤 이달부터 무주택자에게만 부분적으로 신규 주담대 판매를 재개한 상태였다. 지난 11월 최대 2000만원으로 낮췄던 신용대출 한도도 다음달부터 다시 1억원으로 확대한다.신규 주담대 판매를 잠정 중단했던 SC제일은행은 내년 대출 재개에 앞서 이달 20일부터 사전 신규 신청을 받으며 재판매 준비에 들어갔다.   올해 출범 9일 만에 대출 한도를 소진해 신규 대출을 중단해야 했던 인터넷전문은행 토스뱅크도 다음달 1일 신규 대출을 재개한다고 공시했다. 카카오뱅크는 내년 초 비대면 주담대 상품 출시를 앞두고 있다.시중은행 관계자는 "연초에는 실수요자가 체감하는 대출 여건이 올해 하반기보다 나아질 것"이라면서도 "다만 대출이 일시적으로 몰려 규제 기준을 넘어가면 은행별로 대출이 다시 막힐 수 있어 대출이 필요하다면 서두를 필요가 있다"고 말했다. 실제 당국이 제시한 차주별 총부채원리금상환비율(DSR) 등 은행권 규제는 올해보다 내년에 더욱 강화된다. DSR 규제는 대출자의 연간 원리금 상환액을 연 소득의 일정 비율 이내로 제한하는 제도를 말한다. 은행에서 돈을 빌릴 때 이 비율은 40%를 넘을 수 없다. 연봉이 4000만원인 대출자가 DSR 40% 규제를 적용받으면 연간 원리금 합계 1600만원까지만 은행 대출을 받을 수 있다는 뜻이다. 내년 1월부터는 앞서 공지한 대로 DSR 2단계가 시행돼 총대출액이 2억원을 초과하는 대출자에게 차주별 DSR 규제가 적용된다. 3단계가 시행되는 7월부터는 1억원 초과 대출자까지 적용 대상이 확대된다.여기에 가계대출 총량 관리 기준점이 낮아졌기 때문에 올해와 마찬가지로 내년에도 하반기로 갈수록 돈을 빌리기 어려워진다. 올해는 은행별로 전년 대비 가계대출 증가율이 5%대였는데 내년에는 4%대로 설정된 것이다. 다만 실수요자에게는 이 같은 규제를 적용하지 않고, 최대 1억원의 추가 대출 한도를 부여할 전망이다. 당국은 지난 10월 26일 '가계부채 관리 강화 방안'을 발표하면서 "실수요가 인정되는 신용대출은 한도를 연 소득 대비 1배로 제한하는 조치에서 일시 예외를 적용하기로 했다"고 밝혔다.이에 따라 주요 시중은행은 최근 협의를 거쳐 결혼, 장례, 상속세, 출산, 수술, 입원 등의 실수요자에게 신용대출 특별한도를 부여하기로 했다. 한도는 '연 소득의 0.5배 이내, 최대 1억원까지' 범위에서 추가 적용하기로 의견을 모은 것으로 알려졌다. 당국과 협의를 마치면 다음달부터 시행될 예정이다.중·저신용자 대출에도 예외가 적용될 것으로 보인다. 고승범 금융위원장은 "중·저신용자 대출, 정책서민금융 상품에 대해 최대한 인센티브를 부여하고, 대출 중단이 없도록 체계적으로 관리하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2021.12.27.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>꽉 막혔던 대출 풀린다…내년 1월부터 주담대 재개·우대금리 복원</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000269282?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>[앵커]그동안 꽉 막혔던 대출이 내년 1월부터는 속속 풀릴 것으로 보입니다.가계대출 조이기에 나섰던 은행들이 주택담보대출을 재개하고 우대금리도 복원하는데, 다만 DSR 규제에 따라 대출 문턱은 높아질 것으로 보입니다.윤지혜 기자입니다.[기자]내년 1월부터 시중은행들이 주택담보대출을 재개하고 우대금리도 복원하는 등 대출길이 열립니다.연간 단위로 설정되는 은행별 대출 여력이 내년 1월1일자로 다시 채워지기 때문입니다.NH농협은행은 다음 달부터 신규 주담대 판매를 재개하고, 지난달 2천만 원까지로 낮췄던 신용대출 한도도 다시 1억 원으로 확대합니다.우리은행은 다음 달 3일부터 일부 신용대출과 주담대의 우대금리를 0.3∼0.6%포인트 인상합니다.인터넷 전문은행도 대출 재개에 나섭니다.토스뱅크는 다음달 1일 신규 대출을 재개하고, 카카오뱅크는 내년 초 비대면 주담대 상품 출시를 앞두고 있습니다.다만 은행권 대출 문턱은 더 높아질 전망입니다.다음 달부터는 대출받는 사람의 연간 원리금 상환액이 연 소득의 40%를 넘지 못하도록 대출 한도를 제한하는 총부채원리금상환비율(DSR)규제가 적용되기 때문입니다.7월부터는 DSR 대상 대출금 기준이 기존 2억 원에서 1억 원 초과로 강화되기 때문에 대출을 받으려면 하반기보다 상반기가 다소 유리할 것으로 보입니다.시중은행 관계자 "가계대출 총량에 대한 규제는 계속될 것으로 예상되면서 하반기로 갈수록 점점 대출을 받기 어려워지는 양상이 다시 한 번 나타날 수 있겠다는 예상을 할 수 있습니다" 단 결혼과 장례, 출산, 수술 등으로 급전이 필요한 경우 최대 1억원의 신용대출 한도가 부여될 방침입니다.SBS Biz 윤지혜입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2021.12.31.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>[데스크 시각] 2022년 앞둔 세밑, 행복하십니까/김미경 경제부장</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003241523?sid=110</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>김미경 경제부장최근 주변 사람들로부터 들은 이야기들이다. 이들 가운데 몇 개나 해당되는지 체크해 보자.“코로나19 여파로 사업이 힘들어 접어야 하나 고민 중입니다.” “영끌·빚투로 겨우 집 한 채 장만했는데 대출금리가 막 오르니 어떡하죠.” “아이들 때문에 강남 대치동으로 전세 왔는데 집은 못 사고 전셋값만 엄청 오르네요.” “용산의 오랜 1주택자인데 집값이 너무 올라 재산세와 종부세 폭탄에 한숨만 나옵니다.” “채소에 달걀에 빵에 치킨에 값이 안 오른 게 없는데 월급만 제자리걸음이에요.” “주식 동학개미 하다가 손해를 많이 봐서 코인(암호화폐)에 투자했는데 더 손해 봤어요.” “토스뱅크가 연 2% 금리 준다길래 갈아탔는데 한도가 줄어들어 또 갈아타야 하나요.” “실손 보험료가 내년에 15%나 오른다는데 탈퇴해야 하나요. 거의 쓰지도 않았는데요.”코로나19가 변이를 거듭하며 2년째 이어지는 가운데 우리 삶은 더욱더 팍팍해지고 있다. 만나는 사람마다 경제적 문제가 없는 경우는 거의 없다. 자영업도, 부동산도, 은행도, 주식도, 코인도 높아지는 세금과 금리, 각종 제재로 휘청거려 고민만 쌓인다. 이 글을 쓰고 있는 순간에도 한 자영업자 지인이 연락 와 “코로나19 방역지원금 100만원을 받아도 버티기 힘들다”며 조만간 폐업신고를 한다고 전했다.이들의 소망은 한 가지로 모아진다. 경제적으로 안정을 추구하며 행복하게 살고 싶은 것이다. 경제적 안정은 육체적·정신적 안정으로 이어진다. 2022년을 코앞에 둔 세밑, 우리 모두는 행복을 추구하고 싶지만 코로나19의 끈질긴 방해 속 현실은 녹록지 않다. 그럼 2022년에는 좀 나아질까. 내년 3월 대선을 앞두고 정국은 혼란스럽기만 하고 이재명 더불어민주당 대선후보와 윤석열 국민의힘 대선후보의 경제 관련 공약들은 표심잡기용 장밋빛에 널뛰기만 한다.모두가 코로나19로 힘들었던 올해, 우리나라는 적지 않은 수확을 거뒀다. 유엔무역개발회의(UNCTAD)가 지난 7월 한국의 지위를 개발도상국에서 선진국 그룹으로 격상했다. UNCTAD 57년 역사상 개도국의 선진국 격상은 한국이 처음이다. 최근 유엔총회에서 확정된 유엔 정규 예산 및 평화유지활동(PKO) 예산 순위에서도 우리나라는 처음으로 9위에 올라 주요 7개국(G7) 및 중국과 어깨를 나란히 하게 됐다. 1991년 유엔 가입 후 30년 만에 분담률이 3.7배 이상 늘어나 주요 기여국으로 자리매김한 것이다. 국제통화기금(IMF)은 최근 세계경제 자료에서 한국의 경제 규모가 올해에 이어 내년에도 전 세계 191개국 중 10위를 차지할 것이라고 전망했다.하지만 IMF와 경제협력개발기구(OECD)는 한국의 나랏빚 증가폭이 35개 선진국 중 1등인데 잠재성장률은 OECD 회원국 중 꼴찌로 곤두박질할 것이라는 암울한 전망을 내놓았다. 게다가 IMF의 지난 10월 기준 통계에 따르면 우리나라의 코로나19 대응 추가 재정 지출이 주요 20개국(G20) 소속 선진국의 절반 수준이었다. 정부는 소상공인 등 지원 강화에 나섰지만 통계청과 중소벤처기업부의 최근 조사 결과에 따르면 소상공인의 지난해 빚은 1년 새 48조원이나 늘었지만 지원금은 7조 8000억원에 그쳤다.내년에도 코로나19 종식은 요원하고 주머니 상황은 나아질 기미가 보이지 않으니 과연 행복은 어디서 찾아야 할까. 이렇게 허무하게 글을 맺으려는 순간, 봉사단체에서 일하는 친구의 전화를 받았다. “너 올해도 교회에 헌금 많이 했지? 다른 곳에도 기부 좀 했니? 올해 한시적으로 기부금 세액공제율이 현행 15~30%에서 20~35%로 늘어난다더라.” 갑자기 ‘소확행’이라는 단어가 생각났다. 어려운 상황에서도 기부의 끈은 놓지 않았는데 내년에는 이에 대한 보상이 더 커진다고 한다. 내년 3월 대선 결과가 이 같은 소확행을 더 큰 행복으로 키워 줄 수 있을까.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2021.12.17.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>쿠콘, BC카드에 ATM 스마트 출금 서비스 제공</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002115535?sid=105</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 쿠콘(대표 김종현)은 BC카드의 결제 플랫폼 ‘페이북’에 COATM (ATM 입출금 API)을 제공한다고 밝혔다.12월 16일 오픈한 페이북머니 ATM 인출 서비스는 페이북 앱만 있으면 별도 과정 없이 ATM에서 현금을 바로 출금할 수 있도록 지원해 페이북 이용자의 편의성을 높인다.BC카드의 스마트 출금 기능에 탑재된 쿠콘 COATM은 모바일 OTP 인증만으로 ATM 출금을 가능하게 하는 서비스다. △ATM 입출금 API △이용 안내 API △위치 찾기 API로 구성된 COATM은 전국 3만여개 ATM과 연동돼 있으며, 여러 ATM 업체별 크게 다른 정산 방식을 표준화해 제공해 빠른 서비스 구현이 가능하다.COATM 서비스는 하나카드, 교보생명, 카카오페이, 토스 등이 대표적으로 도입했으며 현재 카드, 보험, 핀테크 등 다양한 업권에서 쓰이고 있다.김종현 쿠콘 대표는 “쿠콘 COATM과 BC카드의 연계를 통해 페이북 이용자의 편의성이 강화될 수 있길 기대한다”고 말했다. 이어 “금융 서비스부터 생활 편의 서비스까지 모바일로 이용하는 시대에서 많은 기업이 혁신 서비스를 구현하기 위해 쿠콘의 다양한 API를 활용 중”이라며 “쿠콘은 고객사가 다양한 편의 기능을 제공하는 데 필요한 데이터, 서비스를 제공할 수 있도록 최선을 다하겠다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2021.12.16.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>돈버는 게임 '무한돌파 삼국지'…쿠브앱 이어 12월 신규 설치 순위 2위</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005787536?sid=105</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>(모바일인덱스 제공) © 뉴스1(서울=뉴스1) 김근욱 기자 = 올 한해 한국인이 가장 많이 신규 설치한 앱은 질병관리청의 백신 접종 확인 앱 '쿠브'였다.최근 게임업계 뜨거운 감자로 떠오른 돈 버는 게임 '무한돌파 삼국지 리버스'는 쿠브에 이어 12월 신규 설치 앱 순위 2위를 기록했다. 16일 모바일 데이터 분석 플랫폼 모바일인덱스에 따르면 질병관리청의 '쿠브' 앱이 1679만2224건의 설치 건수를 기록하며 올해 전체 신규 설치 건수 1위 앱으로 나타났다. 중고거래 플랫폼 당근마켓이 1227만4185건으로 2위를 기록했고, Δ 쿠팡이츠 1135만9838건 Δ배달의민족 1083만7335건 Δ업비트 957만220건으로 뒤를 이었다. 구체적인 월별 신규 앱 설치 순위를 살펴보면 지난 6월부터 12월까지는 질병관리청 '쿠브' 앱이 모두 1위를 차지했다.12월엔 'P2E'(Play to Earn·돈 버는 게임)으로 화제의 중심에 선 '무한돌파 삼국지 리버스'가 41만9363건의 신규 설치 건수를 기록하며 2위로 떠올랐다. 1월부터 5월까지는 다양한 앱들이 신규 설치건수 1위를 차지했다. Δ1월 국세청 홈텍스(189만632건) Δ2월 모바일 게임 '쿠키런: 킹덤'(193만3222건) Δ3월 내비게이션앱 '티맵'(198만81건) Δ4월 암호화폐 거래앱 '업비트'(272만8132건) Δ5월 모바일 금융플랫폼 '토스'(171만786건)가 각각 1위를 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2021.12.19.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>‘국민비서 구삐’는 나한테 맞춤형 행정정보를 알려줘서 편리해요!</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004895841?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>국민이 선정한 올해의 행정안전부 정책은 ‘국민비서 구삐' 올해 국민이 선택한 행정안전부 좋은 정책으로는 ‘국민비서 구삐’가 선정됐다. 행정안전부(장관 전해철)는 ‘2021 행정안전부 좋은 정책’을 주제로 대국민 온라인 설문조사를 실시했다. 이중 국민이 선정한 좋은 정책 1위에는 928표(10.1%)를 받은 ‘국민비서 구삐’가 선정됐다.  2021년 3월에 개통한 ‘국민비서’ 서비스는 국민생활에 꼭 필요한 교통‧건강·교육 등의 생활정보를 편리하게 제공하는 개인 맞춤형 행정정보 알림 서비스이다.  코로나19 백신접종 안내부터 생활 범칙금 알림까지 각종 생활형 서비스를 네이버‧카카오톡‧토스 등 민간 앱과 연계하여 알려준다.대표적인 행정서비스 혁신 사례로 꼽히는 ‘국민비서 구삐’는 개통 6개월 만에 가입자 1,300만 명을 돌파하는 등 큰 호응을 얻었다.2위는 837표를 받은 ’어린이 보호구역 안전 강화(9.1%)‘가 뽑혔다. 행안부는 어린이 교통사고를 줄이기 위해 2020년 1월부터 단계적으로 ’어린이보호구역 교통안전 강화대책‘을 시행하고 있다.  특히, 올해는 보도신설 및 안전시설 설치, 과속·주정차 단속장비 설치 등 다양한 사업을 추진하여 어린이 보호구역의 안전을 강화했다. 또한, 내년까지 전국 어린이보호구역내 필요한 무인교통 단속장비 (’19년 952대 → ’22년 11,877대)를 단계적으로 확충하여 안전한 통학로 조성을 추진할 계획이다.  3위로는 ‘코로나 극복 상생 국민지원금 11조 지급’,  4위는 ‘정부 보조금 알아서 찾아주는 보조금24 개통(7.1%)’, 5위는 ‘OECD 정부 신뢰도 20위, 역대 최고(5.6%)’ 등이 선정됐다. ‘국민이 뽑은 2021년 행정안전부 주요 정책 뉴스’ 결과는 행정안전부 누리집(www.mois.go.kr) 및 페이스북 등 행안부 SNS 채널에서 확인할 수 있다. 고규창 행정안전부 차관은 “이번 좋은 정책 선정 투표를 통해 국민이 원하는 행정의 모습을 엿 볼 수 있었다.” 라며 “내년에도 다양한 정책을 추진하여 국민의 삶을 변화시킬 수 있도록 최선을 다하겠다.”고 밝혔다.  [최은화 매경비즈 연구원]</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2021.12.22.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>[2021 하반기 인기상품]브랜드우수-지티원/자금세탁방지 솔루션/AML익스프레스</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002989517?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>지티원이 출시한 AML익스프레스(AMLXpress) v6.0은 자금세탁방지법에 유연하고 신속하게 대응할 수 있는 자금세탁방지 솔루션이다.거버넌스 및 컴플라이언스 솔루션 전문기업인 지티원은 최근 3년간 삼성증권, 키움증권, 한국투자증권, 하나금융투자 등 다수 증권사의 자금세탁방지 시스템 구축 프로젝트를 수행했다.신한은행, 카카오뱅크, 토스뱅크, 부산은행, 제주은행 등 제1금융권을 포함해 저축은행, 카드사, 보험사, 암호화폐 거래소 등 국내·외 100여곳 이상의 금융권 자금세탁방지 솔루션 고객사를 확대하고 있다. 일본, 베트남 등 해외 은행도 고객사로 확보하고 있다.AML익스프레스는 100% 순수 국산 자금세탁방지 솔루션으로 10년 이상 자체 연구개발(R&amp;D)팀을 통해 꾸준히 발전해왔다. 은행, 보험, 증권, 카드 등 여러 업종에서 다수의 글로벌 컨설팅 업체들과 협업을 통해 축적한 풍부한 AML 시나리오를 보유하고 있어 프로젝트 효율성 및 완성도를 높일 수 있다.또 상용 룰 엔진이 내재돼 효율성을 극대화한다. 대용량의 거래 데이터 배치(Batch) 작업 등 고성능이 요구되는 업무 처리가 용이하며 컴플라이언스 룰 버전 및 이력 관리를 통한 체계적인 관리가 가능하다.AML익스프레스 로고지티원은 중소 규모의 핀테크 기업들이 상대적으로 적은 비용에 이용할 수 있는 서비스형소프트웨어(SaaS) 기반의 AML 클라우드 서비스를 제공한다. 고객은 지티원의 AML 클라우드 상에서 워치 리스트 필터링, 위험 평가, 트랜잭션 모니터링 시나리오 관리 등 서비스를 활용할 수 있다. 이는 기업들이 자금세탁방지 시스템을 사내에 구축하지 않고서도 서비스 사용료 기반으로 자금세탁방지 규정을 준수할 수 있게 해준다.국내 소프트웨어 업체로 SaaS 형태의 자금세탁방지 서비스를 제공하는 곳은 지티원이 유일하다. 지티원은 이외에도 Watch List Filtering 솔루션(WatchXpress), 해외 금융 계좌 신고솔루션(FATCAXpress) 등 금융 컴플라이언스 실현을 위한 제품을 보유하고 있으며 제1금융권에 레퍼런스를 확보해 나가고 있다. 또 향후 복잡하고 난해한 컴플라이언스 이슈에 효과적으로 대응하기 위한 인공지능(AI) 기반의 자금세탁방지 솔루션으로의 발전을 위해 R&amp;D 투자를 계속하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2021.12.31.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>[투데이 窓]왜 유럽은 플랫폼을 규제하려 할까</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004690209?sid=110</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>전성민 가천대 교수 유럽연합 집행위원회(European Commission)는 플랫폼을 규제하기 위해 디지털시장법(Digital Markets Act, DMA) 및 디지털서비스법(Digital Services Act, DSA)을 입법 중에 있다. DMA는 플랫폼회사가 독점적 지위를 가지고 자사 서비스를 우대할 수 없도록 한다. 플랫폼회사가 이를 어기면 매출 10%를 벌금으로 내게 하거나 기업을 강제로 분할할 수 있다. DSA는 불법·유해콘텐츠, 제3자 콘텐츠에 대해 플랫폼의 책임을 부과한다. 왜 유럽연합(EU)은 이런 법안을 추진 중일까. 유럽의회 온라인플랫폼 보고서는 온라인플랫폼을 '둘 이상 이용자 사이에서 인터넷을 통해 상호작용을 촉진하는 디지털 서비스'로 정의했다. 유럽 자체 플랫폼 수는 매우 적고 구글, 아마존, 페이스북 등과 같이 미국에서 시작된 글로벌 플랫폼을 지칭한다. 플랫폼인덱스 발표에 따르면 플랫폼 중 유럽 플랫폼은 전세계 플랫폼의 3% 수준으로 미국 68%, 아시아 27%에 비해 현저히 낮은 수준이다. 우리나라에 이름을 알린 유럽 플랫폼은 배달의민족을 인수한 딜리버리히어로, 음악서비스 스포티파이, 러시아 검색엔진 얀덱스 정도다.     플랫폼 보고서를 작성한 서레이대학 가워 교수와 킹스칼리지의 서르닉 교수는 글로벌 플랫폼이 온라인 거래와 혁신을 촉진하고 구직에 어려움을 겪는 사람들에게 일자리를 쉽게 구할 수 있도록 한다는 장점은 인정했다. 그러나 글로벌 플랫폼이 유럽에서 서비스하면서 취득한 상당규모의 데이터를 계속 축적한다는 점을 우려했다. 특히 유럽 청소년들이 온라인에서 어떤 행동을 하는지에 대해 글로벌 플랫폼이 많은 정보를 취득하게 돼 알고리즘을 이용하는 것을 막아야 한다고 주장한다. 유럽 청소년들이 유해콘텐츠에 노출되고 미국식 사고방식이나 소비패턴을 갖게 되지 않도록 규제해야 한다는 것이다.   경쟁 관점에서도 유럽 플랫폼이 성장하지 못하도록 글로벌 플랫폼이 독점적 지위를 남용해 자사 서비스를 우선적으로 소개하는 등 불공정 위험이 있다는 점을 지적했다. 실제로 2017년 구글이 시장지배력을 남용했다는 이유로 유럽연합은 24억유로의 벌금을 부과했다. 구글은 유럽의 여러 소규모 쇼핑비교 사이트들보다 구글 쇼핑서비스를 우선적으로 표시했다. EU는 구글의 이런 행위가 유럽 내 온라인플랫폼 출현 및 성장을 저해한다고 보고 규제정책을 추진한 것으로 이해할 수 있다.   노동문제에 대해서도 글로벌 플랫폼은 유럽 노동조합과 마찰을 빚고 있다. 유럽에서는 노동자, 기업간 갈등에 대해 표준고용계약 등과 같은 장치를 통해 정부가 적극적으로 개입한다. 하지만 글로벌 플랫폼은 노동문제를 미국식으로 접근해 보통 비정규 고용관계를 맺고 상황에 따라 쉽게 해고한다. 글로벌 플랫폼은 첨단기술을 활용해 노동자들의 업무를 모니터링하고 사업변화의  위험을 거의 개별 근로자에게 전가한다. 게다가 플랫폼은 한곳에 모여 작업하지 않기 때문에 노동자간 단체 의사소통이 어려워 노동조합을 조직화하기도 어렵다.   최근 우리나라에서도 플랫폼 규제가 논의되면서 유럽에서 추진 중인 플랫폼 규제정책을 많이 참조한다. 그런데 위에서 본 바와 같이 유럽의 플랫폼 규제정책은 글로벌 플랫폼이 유럽에 미치는 경제·사회적 영향을 조절하기 위한 목적에서 추진되는 것이다. 우리나라는 국내 대표 플랫폼 '네카라쿠배당토'(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스)와 스타트업들이 시장과 혁신을 주도한다. 플랫폼에 대해 섣부른 규제를 실행하기 전에 국내와 글로벌 플랫폼이 미치는 경제·사회적 영향에 대한 연구가 절실하다. 무엇보다 플랫폼산업을 어떻게 키울 것인가에 대해 국가적 관점에서 생각해볼 필요가 있다. 지금도 우리나라의 앱마켓, 동영상 유통 및 검색은 글로벌 플랫폼이 대부분 시장점유율을 확보했다. 유럽처럼 글로벌 플랫폼들이 모든 시장을 장악하는 시나리오 등에 대비한 계획이 있어야 하지 않을까. 유럽은 부킹닷컴과  같은 유럽 플랫폼에 대해 당분간 규제없이 성장하도록 육성해야 한다는 이야기가 나올 정도다. 플랫폼의 경제·사회적 효과를 고려해 우리나라 소비자를 보호하는 동시에 방탄소년단(BTS) 같은 스타 플랫폼을 육성하는 정책이 만들어지길 기대해본다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2021.12.24.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>토스증권, 10대 청소년 대상 비대면 계좌 개설 서비스</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005113189?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>만 14세 이상 만 19세 미만 청소년 대상공동인증서와 부모 동의만 거치면 토스 앱에서 개설[이데일리 유준하 기자] 토스증권은 10대 청소년 고객들의 비대면 계좌 개설 서비스를 시작한다고 24일 밝혔다. 만 14세 이상 만 19세 미만의 청소년이라면 보호자 동의를 거쳐 토스 앱에서 토스증권 계좌를 개설할 수 있다.청소년 고객은 토스증권에 접속해 신분증과 본인 명의 계좌를 통한 간단한 본인 인증 후 보호자 동의 절차가 완료되면 계좌를 개설할 수 있다. 본인 인증을 위해서는 나이에 따라 여권, 주민등록증, 운전면허증, 원동기면허증을 사용할 수 있다. 계좌 개설을 신청하면 보호자의 휴대폰으로 알림이 전송되며, 보호자는 자녀의 계좌 개설 동의 및 공동인증서를 통한 가족관계 확인 절차를 진행하게 된다. 보호자가 먼저 청소년 자녀의 계좌 개설을 신청할 수도 있다. 보호자가 신청 및 동의 절차를 완료하면 자녀에게 알림이 전송되고, 이후 자녀가 직접 토스증권에 접속해 계좌를 개설하면 된다.토스증권은 10대 청소년들에게 조기에 쉽고 직관적인 투자 경험을 선보이고, 투자가 하나의 문화로 정착될 수 있는 저변을 확대해 나간다는 계획이다.토스증권 관계자는 “저성장, 고령화 등 뉴노멀로 불리는 투자환경에서 금융에 대한 교육과 앞선 경험은 더욱 중요해지고 있다”며 “부모와 함께 10대 청소년 스스로 투자를 경험하고 공부하는데 있어 이번 비대면 서비스가 도움이 되길 기대한다”고 밝혔다.미성년자들의 주식 계좌 수는 매년 급격한 증가세를 보이고 있으며, 이같은 추세는 계속될 것으로 보인다. 금융감독원에 따르면 지난해(2020년) 기준 신규 개설된 미성년자 주식 계좌는 47만5399개로 전년(2019년) 대비 5배 이상 상승했다. 한편, 토스증권은 이달 말까지 신규 계좌 개설 고객을 대상으로 ’해외주식 1주 선물 받기’ 이벤트를 진행한다. 이벤트 기간 내 생애 최초 토스증권 계좌를 개설하는 10대 청소년 고객들은 미국주식 1주를 지급받고 투자를 시작할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2021.12.20.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>[단독]정부, '구삐(국민비서)'에 은행·이통사 대거 흡수</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002988879?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>네이버 국민비서 구삐 홍보 이미지.새해 코로나19 백신 접종이나 교통 과태료 등을 알려주는 '국민비서' 구삐 서비스가 은행·카드·이통사 등 민간 플랫폼으로 확대된다. 지금까지는 네이버, 카카오, 토스 등 3개 대형 빅테크에서만 제공됐다. 민간 사업자가 구삐를 통해 대국민 서비스를 크게 늘릴 것으로 기대된다.행정안전부는 20일 국민비서 서비스 제공을 희망하는 플랫폼 기업을 다음 주 접수한다고 밝혔다.참여 의향을 밝힌 곳은 10여개사다. 국민은행, 신한은행, 농협은행, 하나은행 등 시중은행은 대부분 손을 들었다. 신한카드·국민카드 등 카드사뿐만 아니라 SK텔레콤·뱅크샐러드·코나아이 등도 뛰어들었다.행안부는 국민비서 참여 기업 평가 기준으로 플랫폼 영향력, 높은 보안 수준 등을 꼽았다. 애플리케이션(앱) 다운로드 수, 이용자 수 등을 고려해 대중이 많이 사용하는 플랫폼을 우선 채택할 것으로 전망된다. 보안력, 개발 능력 등도 살펴볼 예정이다.특히 금융사 등 다양한 플랫폼이 참여할 수 있도록 국민비서 알림 제공을 표준 응용프로그램개발환경(API) 형식으로 전환한다. 표준 API를 통한 데이터 전송의 경우 신규 플랫폼 진입이 용이해진다는 장점이 있다. 기존 네이버, 카카오, 토스 등은 행안부와 정보 송·수신 환경 개발을 각각 진행했다. 백신 접종일 변경 등 급변하는 정부 알림도 신속하게 국민비서 서비스에 반영되도록 유관 부서·기관과 협의한다. 과거 백신 2차 접종일이 앞당겨지는 등 정부에서 사전 협의되지 않은 알림 내용이 추가된 경우 알림이 지연되던 불편함 등을 개선하기 위한 조치다.국민비서 알림 서비스는 총 10종이다. 백신접종부터 재난지원금, 교통범칙금, 운전면허 갱신, 국가장학금, 운전면허 적성검사, 어린이 통학버스, 건강검진일까지 자주 사용하는 앱을 통해 알림 서비스를 받을 수 있다. 인공지능(AI) 챗봇 서비스를 통해서는 경찰민원과 사이버범죄 등의 상담도 가능하다.행안부는 내년 상반기에 30종 서비스를 추가할 계획이다. 국민비서 알림 서비스를 전기요금과 휴면예금 등으로 확대한다. 국민비서 서비스는 올해 3월 개통됐다. 생활에 필요한 교통, 건강, 교육 등 생활정보를 플랫폼을 통해 편리하게 제공하는 개인 맞춤형 행정정보 알림 서비스다. 코로나19 확산으로 백신 접종 등 관련 정보 필요성이 커지면서 서비스 이용이 크게 증가했다. 현재 국민비서 가입자는 1400만명에 이른다.[표] 국민비서 알림서비스 10종</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2021.12.23.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>7월 6일 이전 2차접종자, 내년 1월 3일 백신패스 만료…음성 확인 문자 1월말까지 사용</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011181347?sid=102</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>7월 6일(화) 이전에 2차 접종을 한 경우, 내년 1월 3일 방역패스 유효기간이 만료됩니다. 중앙방역대책본부는 내년 1월 3일(월)부터 접종 증명 유효기간이 적용됨에 따라, 7월 6일(화) 이전 2차 접종을 한 경우, 1월 3일 0시 기준 유효기간이 일괄 만료된다고 안내했습니다. 접종 증명 유효기간은 2차 접종 후 14일~180일입니다. 예를 들어 올해 11월 1일에 2차 접종했다면 접종 증명 효력은 11월 16일 0시부터 내년 4월 30일 24시까지 인정됩니다. 내년 1월 3일부터는 네이버와 카카오, 토스, 패스(PASS)앱(SKT, KT, LG) 등 전자출입명부 플랫폼에서도 2차 접종 후 경과일을 확인할 수 있습니다.  방역 당국은 또 "다중이용시설을 이용하기 위해 QR코드 스캔 시, 유효한 증명서에 한해 '접종 완료자입니다'라는 음성 안내가 된다"고 설명했습니다. 이외에도 "유효 기간이 만료됐다면 별도의 효과음을 통해 시설관리자나 운영자가 접종 상태를 확인할 수 있도록 개편"될 예정입니다. 연말까지 한시적으로 인정하기로 했던 PCR 음성 확인문자의 방역 패스 효력은 내년 1월 말까지로 연장됩니다.  방대본은 "PCR 음성확인 전자증명서 도입 일정이 1월 말로 조정됨에 따라 도입 전까지 현행 PCR 음성확인 문자의 효력이 인정된다"고 설명했습니다.[사진 출처 : 연합뉴스]■ 제보하기▷ 카카오톡 : 'KBS제보' 검색▷ 전화 : 02-781-1234▷ 이메일 : kbs1234@kbs.co.kr▷ 뉴스홈페이지 : https://goo.gl/4bWbkG</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2021.12.24.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>미리 보기에 세액 지원까지… 연말정산 돕는 서비스, 뭐 써볼까?</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000767834?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>[머니S리포트-13월의 보너스 노려볼까②] 토스, 뱅크샐러드 예상 결과 등 다양[편집자주]월급쟁이의 최대 연중행사인 연말정산 시즌이 올해도 어김없이 다가온다. 연말정산 결과를 받아 든 근로자의 얼굴엔 희비가 엇갈린다. 자신의 계획적인 소비를 뿌듯해하는 직원이 있는 반면 세금을 더 내기 위해 지갑을 여는 직원의 표정에선 안타까움이 묻어 나온다. 연말정산 절세전략만 세밀하게 짜도 그동안 낸 세금에서 많게는 수백만원까지 돌려받을 수 있다. 연말정산 공식은 해마다 바뀌므로 한해를 성공적으로 마무리 짓기 위해선 이를 세심하게 따져보는 지혜가 필요하다.사진=이미지투데이◆기사 게재 순서(1) 알아두면 ‘공돈’이 내 손에… 올 연말정산, 환급액 많이 받으려면(2) 연말정산 돕는 서비스, 뭐 써볼까?(3) ‘국민 절세상품’ IRP, 수수료까지 면제 받으려면 #. 직장인 김민지씨(30)는 매년 이맘때가 되면 골머리를 앓는다. 직장생활만 5년째, 연례행사로 연말정산을 꼬박꼬박하는데도 할 때마다 새로운 기분을 느끼기 때문이다. 주위에선 “신용·체크카드를 적절한 비율로 사용하는 게 환급을 더 받을 수 있다”며 나름의 ‘꿀팁’들을 전수해주곤 하지만 정작 어느 정도의 비율로 각 카드를 사용했는지 가늠할 수도 없고 번거로운 절차에 미루고 미뤄 신청 막바지에 정신없이 신청한 경우가 대다수였다. 연말정산을 할 때 뭐부터 챙기면 좋은지 어떻게 하면 더 많은 환급을 받을 수 있는지는 늘 고민거리다. 김 씨는 “주변 지인들이 올해 연말정산으로 ‘13월의 월급’을 받았을 때 나는 홀로 세금을 더 토해 ‘13월의 벌금’을 맛봤기 때문에 내년에는 남은 시간 전략을 잘 짜 한 푼이라도 더 돌려받고 싶다”고 말했다.본격적인 연말정산 기간이 찾아오면서 연말정산 신청, 절세 방법 등에 대한 직장인들의 관심이 높아지고 있다. 하지만 복잡하고 어려운 절차에 신청 전부터 한숨이 나온다면 은행·핀테크 서비스를 주목해보자. 급여와 소비액 등을 토대로 연말정산 환급액을 가늠할 수 있는 ‘미리보기’ 서비스는 물론 세액 지원 이벤트까지 진행하고 있어 남은 연말 알뜰살뜰 절세 전략을 고민 중이라면 눈여겨볼 만하다. ━알쏭달쏭 어려운 연말정산 … “미리 보고 전략 짜자”━뭐부터 해야할지 모르겠다면 남은 시간 절세 전략을 짤 수 있는 국세청 홈택스 서비스를 눈여겨보자. 국세청 홈택스는 지난 10월 말부터 연말정산 결과를 미리 알려주는 ‘연말정산 미리보기’ 서비스를 제공하고 있다. 근로자의 연말정산 절세 계획수립에 도움이 될 수 있는 공제항목별 절세팁과 개인별 신용카드 등 사용 내역을 사전에 제공한다.올해 9월까지의 신용카드 등 사용내역을 공개하며 10월 이후의 지출내역에 따라 달라지는 소득공제액을 확인할 수 있다. 여기에 지난해 연말정산한 금액으로 미리 채워진 각 항목의 공제금액을 수정하면 올해 예상세액을 계산해 볼 수 있다. 개인별 3개년 세액 증감 추이와 실효세율에 대한 데이터도 확인할 수 있다.━한눈에 쏙, 세액 지원 이벤트도 있네━은행·핀테크 역시 앱을 통해 연말정산에 도움이 되는 서비스를 내놨다. 연말정산 환급액을 가늠해볼 수 있는 서비스는 물론 예상되는 환급·납부 세액을 지원하는 이벤트까지 진행한다.우리은행은 ‘연말정산 준비하기’를 선보이고 있다. 신용·체크카드의 올해 사용 액수와 비율을 보여주며 예상 공제액, 최대 가능 공제 한도 등을 제공한다. 카드, 연금계좌, 주택청약종합저축, 보장성 보험 등과 나의 연소득을 비교 후 예상 공제액을 알려주는 방식이다. 농협은행은 ‘연말정산 컨설팅’을 통해 연말정산 시뮬레이션을 살펴 볼 수 있도록 했다. 세액예측과 소득수준과 금융거래 성향을 고려한 절세 전략을 제공하니 눈여겨 보자.핀테크 중에선 토스, 뱅크샐러드가 적극적이다. 토스는 국세청 홈택스의 ‘연말정산 미리보기’ 서비스를 연동해 토스 회원이 본인의 연말정산 예상 결과를 확인할 수 있도록 했다. 다만 10~12월의 신용카드 등의 예상 금액은 홈택스에서 확인 가능한 이용자의 1~9월의 평균값을 임의로 적용한 것으로 국세청의 결과나 실제 연말정산 시 적용되는 금액과는 차이가 있을 수 있다.토스는 아울러 예상 환급·납부 세액을 지원하는 이벤트를 이달 27일까지 진행한다. 토스 인증서를 발급한 사용자 중 추첨을 통해 예상되는 환급·납부 세액을 토스가 대신 내주는 방식이다. 1인 당 최대 지원금만 200만원이다.뱅크샐러드는 ‘카드 소득공제 환급액’ 서비스를 제공하고 있다. 뱅크샐러드 앱에 올해 총 급여를 입력하고 신용·체크카드, 현금영수증 등을 연동하면 사용내역을 분석해 카드 소득공제 환급액을 알려주는 방식이다. 또한 뱅크샐러드는 ‘전년도 환급 리포트’를 제공하고 있다. 환급 리포트를 활용해 전년 대비 환급액을 비교하거나 한 해 소비액과 지출 수단 등을 한눈에 파악할 수 있다.사진=이미지투데이━유튜브· 가이드로 ‘족집게 강의’도 눈길━여전히 연말정산이 어렵게 느껴진다면 콘텐츠를 통해 ‘족집게 강의’를 들어보는 건 어떨까. 카카오뱅크는 카카오뱅크 앱 ‘이야기’ 항목에 ‘연말정산 초보자를 위한 필수 가이드’를 내놨다. 연말정산의 뜻, 신청 방법, 근로소득공제·종합소득공제 등 직장인들이 헷갈리기 쉬운 개념들을 한눈에 정리했다. 금융 전문가들이 설명하는 연말정산 노하우도 눈여겨볼만 하다. 국세청, KB금융그룹, 신한은행은 공식 유튜브 계정에 연말정산 전 준비할 사항, 주의할 점을 담은 영상을 소개했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2021.12.30.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>고승범 "내년 가계부채 총량관리, 인터넷은행 여건 반영"</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004002613?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>토스뱅크 등 대출총량 한도 확대 시사은행 가계부채증가율은 4~5% 제시고승범 금융위원회 위원장이 30일 오후 정부서울청사 금융위 기자실을 방문해 기자들의 질문에 답하고 있다./연합뉴스[서울경제] 고승범 금융위원장이 내년도 가계 부채 증가율을 4~5%로 제시한 가운데 토스뱅크 등 새로 출범한 인터넷 전문은행의 여건을 고려하겠다고 밝혔다. 내년에는 인터넷은행의 대출 총량 한도가 올해보다 늘어날 것으로 전망된다. 토스뱅크의 경우 지난 10월 출범하자마자 9일 만에 올해 대출 한도를 모두 소진해 대출 영업 중단 사태를 겪었다.고 위원장은 30일 서울 종로구 정부서울청사에서 출입 기자단과 송년 인사를 나누고 “내년도 가계 부채 증가율을 4~5% 수준으로 관리할 계획이며 은행들과 협의를 하고 있다”며 이같이 말했다. 고 위원장은 “새로 출범한 토스뱅크 등 인터넷 전문은행들은 여건이 다르다는 부분을 고려해 정할 예정”이라며 “중·저신용자 대출은 (가계 대출 규제 예외로) 충분히 반영되도록 할 것”이라고 언급했다.고 위원장은 이날 자리에서도 거듭 가계 부채 관리 강화를 강조했다. 내년 업무 계획에서도 첫 번째 과제로 가계 부채 관리 강화를 꼽았다. 그는 “비이성적 과열에 의한 버블과 과도한 신용 공급에 의한 버블은 나눠봐야 한다고 생각한다”며 “비이성적 버블은 사전 대응을 못하지만 과도한 신용 부채에 의한 버블은 금융 당국이 사전에 대응해야 한다”고 설명했다.특히 가계 부채 관리와 실수요자·서민층의 보호를 각각 ‘차가운 머리, 따뜻한 가슴’에 비유했다. 그는 “‘차가운 머리, 따뜻한 가슴’은 금융·경제정책을 하는 사람들에게 해당되는 말”이라며 “차가운 머리를 갖고 법과 원칙에 맞는 경제정책을 하면서 따뜻한 가슴으로 코로나19 상황 등으로 어려운 경제적 약자를 배려해야 하겠다”고 덧붙였다.실손의료보험의 보험료 인상률과 관련해서는 “내일 발표할 수 있을지 며칠 늦어질지 모르겠다”며 “금명간 발표하려고 한다”고 답했다. 고 위원장은 “실손보험의 지속 가능성, 소비자 보호 측면을 종합적으로 고려하고 있다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2021.12.16.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>폭발하는 모빌리티 시장… 자율주행·UAM이 미래 경쟁 ‘쌍두마차’</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004894807?sid=004</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>최근 모빌리티 시장에서 전방위적 경쟁이 벌어지고 있다. 카카오모빌리티, 우버-SK텔레콤 연합, 토스-쏘카 연합의 삼파전은 택시 호출 애플리케이션(앱)을 중심으로 자율주행, 도심항공교통(UAM) 같은 미래 이동 수요를 겨냥한 기술까지 이어지며 어느 때보다 달아오르고 있다. 최근 택시 호출 시장에 2, 3위 사업자가 공격적으로 확장을 시작한 데다 단계적 일상회복(위드 코로나)으로 이동량이 많아지면서 플랫폼 간 경쟁은 더욱 치열해질 것으로 전망된다.  ▶우티 “올해 가맹택시 1만 대, 내년 2만 대” 공격적 확장 시작가장 격전지는 택시 호출 앱 시장이다. 카카오모빌리티가 택시업계와 갈등으로 주춤한 사이 우티와 타다가 공격적인 확장을 예고하며 2, 3위 경쟁이 치열해지고 있다.SK텔레콤 자회사 티맵모빌리티와 우버의 합자회사(조인트벤처) 우티는 11월부터 우버와 티맵택시를 통합한 ‘우티’ 앱을 공식 출시했다. 이와 함께 일반 호출뿐 아니라 우티 브랜드를 활용한 가맹택시 ‘우티택시’도 공격적으로 확장하고 있다. 톰 화이트 우티 대표는 매일경제와 만나 “연내 가맹택시를 최소 1만 대로 늘리고, 내년까지 2만 대 이상으로 늘리겠다”고 선언했다. 카카오모빌리티의 가맹택시가 올해 3분기 기준 3만 대인 것을 감안하면, 현재 1위 사업자와 견줄 수 있는 규모로 사업을 늘리려는 전략으로 풀이된다.우티는 우버와 SK텔레콤의 모빌리티 자회사 티맵모빌리티의 합작회사로, 지난 4월 출범 뒤 택시 호출 앱 티맵택시 이름을 우티로 바꿔 서비스를 제공했다. 이와 별도로 우버 앱도 있었지만, 11월부터 두 앱을 통합해 우티 앱으로 서비스를 제공하고 있다.우티는 이를 위해 공격적 마케팅으로 이용자 확보에 속도를 내고 있다. 우티는 탑승 이력이 있는 고객에게 1만원 할인 쿠폰을 제공하고, 모든 고객에게 11월 한 달간 20% 상시 할인 혜택을 제공했다. 11월 18일부터 31일까지 통합된 신규 우티 앱을 내려받고 회원 가입을 한 고객을 대상으로 LG 스타일러, 갤럭시Z 플립3, 다이슨 에어랩, 스타벅스 1만원권, 우티 택시 요금 50% 할인 쿠폰 등 경품을 증정하는 행사도 실시했다. 모바일 빅데이터 분석 솔루션 ‘모바일인덱스’에 따르면 11월 1~2일 이틀간 우티 앱 신규 설치 건수는 3만6642건이었다. 전월 동기 2667건의 13배가 넘는 수치다. 이날 우티의 일간 사용자 수(DAU)도 총 10만986명으로 전월보다 6배 이상 늘었다.우티는 단순히 이용자 혜택뿐 아니라 다양한 방식으로 이용자 편의성과 택시기사들의 수익을 올리는 방안을 제시하며 시장을 공략한다는 전략을 세웠다. 통합 우티 앱을 사용하면 우버의 기술과 노하우가 담긴 호출 서비스를 한국에서도 그대로 누릴 수 있다. 예를 들어 사전 확정 요금제의 경우 승객이 택시를 타기 전에 안내 받은 요금을 지불하면 돼 기사와 승객 간 운임 다툼이 근절된다. 해외에 나가도 우티 앱으로 우버 서비스를 활용할 수 있는 것도 단계별 일상회복(위드 코로나) 이후 이용자 기반을 다질 수 있는 잠재력으로 꼽힌다.우티는 내년 상반기 중에 합승 서비스인 ‘우티 풀’도 선보인다. 합승으로 승객의 이동 비용을 절감하고, 기사에게 새 수익 기회를 제공하겠다는 것이다. 화이트 대표는 “우티 풀은 한국 모빌리티 시장의 게임 체인저가 될 것”이라고 강조했다. 이 외에도 수요와 공급에 따라 요금이 달라지는 탄력요금제와 빠른 배차 서비스 ‘우티 플래시’도 도입할 계획이다. 톰 화이트 우티 대표	 ▶쏘카에 타다 인수한 토스, ‘타다 넥스트’로 시동 걸어모바일 금융 서비스 토스 운영사인 비바리퍼블리카는 지난 10월 쏘카로부터 모빌리티 플랫폼 타다를 운영하는 자회사 브이씨엔씨(VCNC)의 지분 60%를 사들이며 모빌리티 플랫폼 경쟁에 가세했다. 타다 앱으로 대형 차량을 호출하는 서비스 ‘타다 넥스트’로 지난달 25일부터 시범 운행을 시작하며, ‘타다 베이직’의 인기를 계승하는 작업에 나섰다. 타다 넥스트는 택시 면허 기반이나, 렌터카 기반 차량 호출 서비스 타다 베이직과 유사한 대형 차량을 중개하는 서비스다. 택시 면허를 보유한 기사와 7인승 이상 차량을 기반으로 운영된다. 현대자동차 ‘스타리아’를 비롯해 모빌리티 서비스에 최적화된 모델을 활용한다. 타다 베이직은 2018년 10월 출시된 지 1년도 안 돼 1500대의 차량과 이용자 170만 명을 확보한 바 있다. 현재 시범 서비스는 서울 지역을 대상으로 이뤄지고 있다. 차량 규모는 수백 대 수준으로 알려졌다. 타다 넥스트는 시범 서비스를 통해 안정화 작업과 토스의 결제 서비스 연동을 거쳐 내년 초에 정식 출시된다.브이씨엔씨는 기사 확보에 공을 들이고 있다. 타다 넥스트 1기 기사 모집이 성황리에 마감됨에 따라, 2기 기사도 기존 계획보다 빠르게 모집하기로 했다. 기사에겐 최대 1000만원의 홍보비를 일시 지급하고, 일정 운행 조건 충족 시 12개월 동안 매월 50만원의 활동비도 제공한다. 계약 기간 플랫폼 수수료 50% 할인 혜택도 제공된다. 기존 가맹택시 ‘타다 라이트’나 준고급택시 ‘타다 플러스’를 운행 중인 기사가 타다 넥스트로 전환할 경우, 타다 서비스 참여 기간에 따라 최대 200만원을 추가로 준다.이정행 브이씨엔씨 대표는 “타다 넥스트 기사 모집에 많은 관심이 이어지고 있어 조기에 2기 기사도 모집하게 됐다”며 “이용자와 기사 모두 만족할 수 있도록 충분한 시범 서비스 운영 기간을 거쳐 타다 넥스트를 선보일 것”이라고 말했다. 서울 김포비즈니스항공센터(SGBAC)에서 열린 ‘도심항공교통(UAM) 비행 시연 행사’에서 멀티콥터형 2인승 기체인 독일의 볼로콥터가 시험 비행 준비를 하고 있다. 쏘카가 그동안 타다를 100% 지분으로 운영하다 절반 이상의 지분을 넘기며 토스를 끌어들인 것은 모빌리티 시장이 택시 호출 중심으로 굳어지면서 막대한 비용 투자가 필수가 됐기 때문이다. 쏘카는 지난해 3월 타다금지법(여객자동차운수사업법 개정안) 통과 뒤 렌터카 기반 차량 호출 서비스 ‘타다 베이직’을 접었다. 그 뒤 가맹택시 ‘타다 라이트’를 선보였지만, 플랫폼 영향력 확대에 고전하고 있었다.타다의 새 주인이 된 토스는 2대 주주인 쏘카와 함께 대규모 이용자를 확보한 각사 플랫폼과 타다의 시너지 효과를 추진해 이용자를 대폭 늘리겠다는 전략이다. 브이씨엔씨는 토스와 공동 생태계를 확장하기 위한 여러 방안을 다각도로 추진 중인 것으로 알려졌다.금융 앱 토스는 이용자가 2000만 명, 차량 공유 앱 쏘카는 이용자가 900만 명에 달하며 각 분야에서 선두 플랫폼이 됐다. 특히 모빌리티 서비스는 핀테크와 궁합이 잘 맞는 사업이다. 그랩이나 고젝 같은 해외 모빌리티 서비스가 이미 성공 사례를 도출한 바 있다. 차량 공유 서비스인 쏘카도 마찬가지다. 타다와 결합한 다양한 구독상품은 서로 이용자를 늘리는 시너지 효과를 낼 수 있다. 실제로 쏘카와 타다 이용 시 할인과 적립을 받을 수 있는 월정액 기반 멤버십 ‘패스포트’는 지난 6월 출시된 지 이틀 만에 가입자 1만 명을 돌파하고, 지난달 가입자 8만 명을 달성하기도 했다.  ▶“위드 코로나로 시장 공략 최적 기회”의미 있는 2위, 3위 되기 위한 경쟁 치열국내 모빌리티 업계는 타다를 내세운 토스-쏘카 연합과 우티를 내세운 우버-SK텔레콤 연합이 카카오모빌리티가 독주해 온 국내 택시 호출 플랫폼 시장에서 의미 있는 2, 3위 사업자가 될 수 있을지 주목하고 있다. 카카오모빌리티는 최근 택시 업계와의 갈등으로 주춤하긴 했지만, 택시 호출 영역에선 여전히 압도적인 선두다. ‘카카오 T 블루’를 포함한 카카오모빌리티의 가맹택시 수는 3만 대에 달한다. 모바일인덱스에 따르면 카카오모빌리티의 플랫폼 ‘카카오 T’의 월간 이용자는 지난 8월 1016만 명으로, 86만 명 수준인 우티, 9만 명인 타다와 비교해 크게 앞서고 있다.하지만 2, 3위 사업자가 동맹을 끌어들이며 본격적인 ‘쩐의 전쟁’을 시작하면서 내년부터 국내 모빌리티 시장이 지각변동을 겪을 가능성이 클 것으로 전망된다. 업계에서는 국내 모빌리티 시장 전체의 규모를 놓고 보면, 1위 사업자뿐 아니라 의미 있는 규모로 성장한 후발 주자도 충분히 사업 성과를 낼 수 있다고 보고 있다.모빌리티업계에서는 특히 11월부터 단계적 일상회복이 시작됨에 따라 이동량이 늘어나는 만큼, 그동안 움츠러들었던 모빌리티 서비스 이용자를 잡기 위한 최적의 시기가 왔다는 분석도 나오고 있다. 실제로 11월 1일부터 택시 호출뿐 아니라 내비게이션, 승차공유 같은 모빌리티 플랫폼 전반에서 이용자가 급증했다.카카오모빌리티에 따르면 카카오 T 택시의 일 호출 수는 지난 11월 6일 384만 건으로 늘며 역대 최고치에 도달했다. 그 다음 주말인 11월 13일도 이에 육박하며 이용자 증가세를 톡톡히 누리고 있다. 일평균 호출 수도 289만 건으로 단계적 일상 회복 시행 직전 2주와 비교해 35% 늘었다. 코로나19가 발생하지 않았던 2019년 11월 1일부터 2주간 일평균 호출 수 131만 건보다도 120% 증가했다. 쏘카도 11월 첫째 주와 둘째 주 2주 동안 차량 공유 서비스 이용시간이 전년 동기 대비 39.69% 증가했으며, 이용 건수도 27.64% 늘었다. 매출도 1년 전보다 35.1% 증가했다. 티맵모빌리티도 11월 초 내비게이션 서비스 티맵(TMAP)의 일 활성 사용자 수(DAU)가 484만 명을 기록하며, 작년 최대치인 448만 명보다 8% 이상 늘었다고 밝힌 바 있다.차두원 차두원모빌리티연구소 소장은 “국내 택시 시장 규모는 연간 12조원으로 이미 상당한 규모고, 핀테크·차량공유 등 유관 서비스와 결합하며 더 커질 것으로 보여 시장에서 2위 사업자의 존재 가치와 역할이 상당할 것”이라며 “자금력을 앞세운 경쟁뿐 아니라 다른 플랫폼과 연계해 이용자를 유입시키는 이용자 확보 경쟁까지 2, 3위 경쟁이 치열해질 것”이라고 내다봤다.  ▶UAM, 2025년 상용화 목표현재 택시 호출 시장의 경쟁이 가장 두드러지긴 하지만, 차량 공유 플랫폼이나 내비게이션 같은 플랫폼을 통해 모빌리티 시장을 공략하기 위한 경쟁도 만만치 않다. 특히 자율주행이나 도심항공교통(UAM) 같은 미래 모빌리티 시장을 공략하기 위한 경쟁은 점점 더 치열해질 전망이다.타다 지분 절반 이상을 넘긴 쏘카는 향후 차량 공유 플랫폼 쏘카를 통해 택시 호출을 제외한 다양한 교통수단을 제공하는 종합 모빌리티 플랫폼으로 육성하겠다는 전략이다. 박재욱 쏘카 대표는 지난 10월 매일경제와 만나 “쏘카가 다양한 이동수단을 담는 플랫폼이 되고 타다는 승차 공유(라이드 헤일링)에 집중한다”며 향후 방향성을 제시한 바 있다.자율주행 분야에선 카카오모빌리티와 쏘카가 경쟁 구도를 형성했다. 쏘카가 투자한 자율주행 스타트업 라이드플럭스는 10월부터 제주 서귀포 제주혁신도시에서 승객이 자유롭게 출발지와 도착지를 선택하는 자유 노선 자율주행 서비스를 시작했다. 기존에는 정해진 정류장에서 탑승하고 하차하는 형태로 운영됐다. 여기서 한 발 더 나가기 위해 라이드플럭스는 제주공항과 쏘카스테이션 제주 구간(왕복 5㎞)에서 승객들을 대상으로 운행하며 기술과 노하우를 쌓고 안전성을 검증해왔다.카카오모빌리티는 자율주행 솔루션 개발 기업 ‘오토노머스에이투지’와 손잡고 지난해 12월부터 세종시에서 자율주행 유상 서비스를 운영하고 있다. 지난 7월에는 고정밀지도(HD맵) 시스템 개발 스타트업 ‘스트리스’를 인수했다. HD맵은 도로정보를 센티미터(㎝) 단위의 3차원 입체영상으로 구축한 지도다. 자율주행 같은 미래 모빌리티를 위해 꼭 필요한 핵심 기술로 꼽힌다.미래 모빌리티 시장을 선점하기 위한 경쟁은 지상에서 하늘까지 옮겨가고 있다. UAM이 그 주인공이다. UAM은 수직이착륙하는 비행체를 통해 도심의 혼잡한 지상 교통을 보완할 수 있는 교통수단으로 주목받고 있으며, 한국에선 2025년 상용화될 전망이다. 티맵모빌리티는 지난달 국토교통부가 주관한 ‘2021 UAM 비행시연 행사’에서 예약 및 탑승 수속을 체험해볼 수 있는 가상 UAM 플랫폼과 우티 택시를 전시했다. 카카오모빌리티는 최근 독일 UAM 제조사 ‘볼로콥터’와 손잡고 국내 UAM 생태계를 함께 조성하기로 했다. 카카오모빌리티의 빅데이터를 활용해 최적의 장소와 경로로 UAM 서비스를 제공하고, 택시·기차·항공까지 끊김 없이 이어지는 이동 서비스를 제공하는 것이 목표다. [본 기사는 매경LUXMEN 제135호 (2021년 12월) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2021.12.20.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>‘파킹통장의 힘’ 예금 1년새 69조 급증</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003160011?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>은행권 수시입출금식 예금의 잔액이 1년 전보다 크게 불어났다. 이 중 상당 부분은 ‘파킹통장’에 맡긴 돈이라고 금융권에서 보고 있다. 파킹통장은 하루만 맡겨도 연 1~2.5%의 금리를 제공하는 금융상품이다. 잠시 차를 주차하듯이 언제든지 돈을 넣었다가 뺄 수 있다는 의미에서 ‘파킹’이란 말이 붙었다.      은행·저축은행 수신고 얼마나 늘었나. 그래픽=차준홍 기자 cha.junhong@joongang.co.kr           19일 한국은행에 따르면 지난 10월 말 은행 수시입출금 예금의 잔액은 354조8780억원을 기록했다. 지난해 10월(286조790억원)과 비교하면 1년 만에 68조7990억원(24%) 증가했다. 은행권에서 대표적인 파킹통장은 토스뱅크 예금이다. 토스뱅크는 지난 10월 출범하면서 ‘조건 없는 2%’를 내세웠다. 하지만 내년 1월 5일부터는 예금 잔액 1억원까지만 연 2%의 이자를 제공하기로 했다. 잔액 1억원 초과분에는 연 0.1%의 금리를 적용한다.      저축은행에서도 경쟁적으로 비슷한 상품을 출시하고 있다. 지난 10월 저축은행의 수신 잔액은 97조4180억원이었다. 지난해 10월(74조1830억원)과 비교하면 23조2350억원(31%) 늘었다. OK저축은행은 ‘중도해지OK정기예금 369’에 가입한 고객에게 연 2.2%의 이자를 제공한다. 이 상품은 만기 36개월의 정기예금이다. 하지만 중도에 예금을 해지해도 불이익이 없다. 이 상품에는 최고 30억원까지 맡길 수 있다.      상상인저축은행은 ‘뱅뱅뱅파킹통장 369정기예금’을 내놨다. 예치 기간이 길어질수록 높은 금리를 적용한다. 한 달 이상 맡기면 연 2.01%, 3개월 이상은 연 2.11%이다. 6개월 이상은 연 2.21%, 9개월 이상은 연 2.31%의 이자를 제공한다. 가입 한도는 없고 중도에 해지하면 예치 기간별 약정 금리를 적용한다.      만일 일정한 자금을 6개월 이상 묶어둘 계획이라면 파킹통장보다 정기예금에 가입하는 게 유리할 수 있다. 모아저축은행은 지난달 10일 연 3%의 금리를 주는 ‘모아삼프로’ 특판 정기예금 상품을 내놨다. 1인당 최고 1000만원까지 맡길 수 있다. 계약 기간은 6개월이다. 다만 중도에 해지하면 예치 기간에 따라 연 0.2~1.5%의 금리를 적용한다. 파킹통장을 고를 때는 금리뿐 아니라 가입 한도와 우대조건 등을 꼼꼼히 따져야 한다. 금리가 높을수록 복잡한 조건을 내건 경우가 있어서다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2021.12.26.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>은행 내년초 가계대출 본격 재개…우대금리 복원·사전신청 접수</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012804138?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>연초 은행 대출한도 재설정에 실수요자 '숨통' 예상차주별 DSR 규제 강화…결혼·장례 등 실수요자엔 추가 한도 부여토스뱅크, 내달 1일 신규 대출 재개…카카오뱅크, 비대면 주담대 출시주택담보대출. [연합뉴스 자료사진]    (서울=연합뉴스) 오주현 기자 = 새해에는 가계대출 총량 한도가 재설정되면서 총량 규제에 막혀 닫혔던 은행권의 대출 문이 속속 열릴 예정이다.    결혼·장례 등 특수한 상황에 있는 경우 신용대출 한도를 추가로 받을 수 있게 돼 실수요자들의 숨통이 어느 정도 트일 전망이다.    다만 정부가 내년 가계부채 증가율을 올해보다 낮은 4∼5%대에서 관리하겠다고 밝힌데다, 차주(대출자)별 총부채원리금상환비율(DSR) 2·3단계 시행으로 대출 조건은 더욱 까다로워진다.  연초 대출 총량 목표 '리셋'…은행권 대출 재개 준비    26일 금융권에 따르면 올해 하반기 금융당국의 가계부채 관리 강화로 대출 문턱을 높이거나, 아예 대출을 중단해야 했던 은행권이 대출 재개 준비에 한창이다.    연간 단위로 설정되는 은행별 대출 총량 목표치가 내년 1월 1일자로 재설정되기 때문이다.    한동안 가계대출 총량 관리를 위해 우대금리를 축소, 대출금리를 높이는 방식으로 수요를 관리했던 은행권에서는 우대금리를 일부 복원시키고 있다.    우리은행은 다음 달 3일부터 10개 신용대출 상품의 4개 주택담보대출의 우대금리를 기존 대비 최대 0.6%포인트까지 올리기로 했다. 우대금리를 확대하면 사실상 대출 금리를 낮추는 효과가 있다.    NH농협은행은 내달부터 신규 주택담보대출 판매를 정상화한다. 농협은행은 지난 8월 주택담보대출을 중단한 뒤, 이달부터는 무주택자에만 부분적으로 신규 주담대 판매를 재개한 상태였다. 11월부터 최대 2천만원까지로 낮췄던 신용대출 한도도 다시 1억원으로 확대한다.     신규 주담대 판매를 잠정 중단했던 SC제일은행은 내년 대출 재개에 앞서 이달 20일부터 사전 신규 신청을 받으며 준비에 착수했다.    인터넷 전문은행도 대출 재개 준비에 한창이다.     올해 출범 9일 만에 대출 한도를 소진해 신규 대출을 중단해야 했던 인터넷전문은행 토스뱅크도 내달 1일 신규 대출을 재개한다고 공지했다. 카카오뱅크는 내년 초 비대면 주택담보대출 상품 출시를 앞두고 있다.    은행권 관계자는 "연초에는 실수요자들이 체감하는 대출 여건이 올해 하반기보다 나아질 것"이라고 말했다.DSR 규제 (PG)[제작 최자윤] 일러스트 차주별 DSR로 대출 까다로워지지만…실수요자엔 추가 한도     다만 내년부터 차주별 DSR 규제가 강화되면서 대출 조건은 더욱 까다로워진다.    DSR 규제는 대출자의 연간 원리금 상환액을 연 소득의 일정 비율 이내로 제한하는 제도를 말한다. 은행에서 돈을 빌릴 경우 이 비율이 40%를 넘을 수 없다.    예를 들어, 연봉이 4천만원인 차주가 DSR 40% 규제를 적용받으면 연간 원리금 합계 1천600만원까지만 은행 대출을 받을 수 있다.    내년 1월부터는 DSR 2단계가 시행돼 총대출액이 2억원을 초과하는 대출자에게 차주별 DSR 규제가 적용된다. 3단계가 시행되는 7월부터는 1억원 초과 대출자까지 적용 대상이 확대된다.    게다가 금융당국의 가계대출 총량 관리 기조가 지속될 예정이라 내년에도 은행에서 돈을 빌리기가 쉽지 않을 전망이다.    내년 가계대출 총량 관리 목표치는 4∼5%대로 올해보다 낮게 설정됐다.    다만 실수요자에게는 최대 1억원의 추가 대출 한도가 부여될 전망이다.    금융당국은 10월 26일 '가계부채 관리 강화 방안'을 발표하면서 "실수요가 인정되는 신용대출의 경우 한도를 연 소득 대비 1배로 제한하는 조치에서 일시 예외를 적용하기로 했다"고 밝혔다.    이에 주요 시중은행은 최근 협의를 거쳐 결혼·장례·상속세·출산·수술·입원 등에 필요한 신용대출의 특별한도를 '연 소득의 0.5배 이내, 최대 1억원까지' 범위에서 추가 적용하기로 의견을 모았다. 당국과의 협의를 마치면 내달부터 시행될 예정이다.    중·저신용자 대출에도 상대적으로 숨통이 트이겠다.    고승범 금융위원장은 지난 3일 기자간담회에서 "중·저신용자에 대한 대출, 정책서민금융 상품에 대해서 최대한 인센티브를 부여하고, 대출 중단이 없도록 체계적으로 관리하겠다"고 말했다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2021.12.23.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 국제표준 정보보호 인증 ‘ISO/IEC 27001’ 취득</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004000049?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>[서울경제] 토스페이먼츠가 국제표준 정보보호 인증인 ‘ISO/IEC 27001’을 취득했다고 23일 밝혔다.앞서 지불 카드 산업 데이터 보안 표준(PCI-DSS) 및 정보보안 경영시스템(ISMS) 인증을 취득한 토스페이먼츠는 이번 ‘ISO/IEC 27001’까지 국내외 주요 정보보호 인증을 받으며, 정보보호 관리 체계 운영 능력을 인정받게 됐다. ‘ISO/IEC 27001’은 국제표준화기구(ISO) 및 국제전기기술위원회(IEC)에서 운영하는 가장 권위 있는 국제 표준 정보보호 인증이다. 정보보호 정책, 물리적 보안, 정보 접근 통제 등 총 14개 분야 114개 관리 기준에 따른 엄격한 심사를 통과해야 인증이 부여된다. 토스페이먼츠는 외부 컨설팅 없이 독자적으로 이번 인증을 취득했다. 토스페이먼츠는 안전한 결제 서비스 환경을 구축하기 위해 정보보호 부문에 적극 투자하고 있다. 2020년 8월 출범 당시 2명이었던 정보보호 관련 인력 규모는 올 12월 현재 8명으로 4배 증가했다. 올해 책정된 정보보호 예산은 전체 IT 예산의 18% 수준인 약 24억 원으로, 국내 금융권 대비 높은 편에 속한다.김승현 토스페이먼츠 정보보호 최고 책임자(CISO)는 “토스페이먼츠는 가맹점과 소비자 모두에게 안전한 결제 서비스 제공을 위해 물적, 인적 투자를 지속하고 있다”며 “2022년에는 개인정보보호 부문에 대한 인증을 추가 획득할 계획”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2021.12.30.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>‘받을 수 있을때 받자’…내년도 결국 ‘선착순 대출?’</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000269719?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>[앵커]규제에 막혔던 대출이 조금씩 열리고 있습니다.하지만 내년에는 올해보다 더 강도 높은 규제가 예고돼 있는데요.그러다 보니 금융소비자들 사이에서는 '대출을 받을 수 있을 때 받아 놓자'는 심리가 생기고 있습니다.결국 내년에도 먼저 대출을 받지 않으면 나중엔 대출이 힘들어지는 이른바, '선착순 대출'이 재현될 것으로 우려됩니다.이한승 기자 연결해 들어보겠습니다.그래도 내년에는 막혔던 대출이 다시 열리긴 하는 거죠?[기자]내년 1월1일부터 새롭게 대출 총량을 따지기 때문인데요.지난 10월 출범한 지 9일 만에 대출을 중단했던 토스뱅크도 1월 1일 오전 11시부터 신용대출 영업을 재개할 계획이고요.지난 8월 주담대 판매를 중단했던 농협은행도 내년 1월부터 다시 판매를 시작할 계획입니다.이 밖에도 다른 은행들도 속속 대출 재개에 나섭니다.여기에 우리은행과 국민은행은 1월3일부터 일부 대출 상품의 우대금리를 올리기로 했습니다.대출 총량 관리 차원에서 축소했던 우대금리를 복원하면서 실질 대출금리가 낮아지는 효과가 기대됩니다.[앵커]그러면 내년에는 일단 대출에 숨통이 트이지 않을까요?[기자]연초에는 그럴 수 있지만, 결국은 먼저 받지 않으면 안 되는 '선착순 대출'이 재현될 수 있습니다.아무래도 올 한해 대출 중단을 경험한 소비자들에게 '필요할 때' 대출을 받기보다는 대출을 '받을 수 있을 때' 받자는 학습효과가 생겼기 때문인데요.특히 금융당국이 분기 등 기간별로 대출을 관리할 계획이어서 분기 초나 월초에 대출 수요가 집중될 것으로 예상됩니다.SBS Biz 이한승입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2021.12.30.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>[뉴스 줌인]마이데이터 전면 시행 앞두고 불안감 확산</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002991027?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>지난 10일 하나은행 정보유출 사고 이어토스, 가이드라인 미준수 의혹 대두정보제공기관 지연 오류도 잦아새해 5일 34개사 본격 서비스 시작'마이데이터'가 연이은 사고로 급제동이 걸렸다. 전면 시행이 코앞으로 다가왔지만 은행에 이어 빅테크 플랫폼 기업까지 개인정보 유출 사고를 일으키며 소비자 불안이 가중되고 있다. 30일 네이버파이낸셜은 고객정보 유출을 인지한 지난 28일 금융감독원에 관련 사실을 최초 보고한 것으로 나타났다. 현재까지 파악된 피해자는 100명이다. 이후 추가 정보 유출을 막기 위해 시스템 수정 등 즉시 보안 조치를 했지만 여론의 뭇매를 맞고 있다. 마이데이터 응용프로그램개발환경(API) 의무화 전면 시행일은 오는 5일이다. 준비를 마친 기업은 서비스를 선제적으로 시작했다.네이버페이 운영사 네이버파이낸셜은 마이데이터 기대주로 꼽혔다. 네이버파이낸셜은 네이버 데이터베이스(DB)와 마이데이터를 연결해서 새로운 금융 경험을 선보이겠다며 자신감을 드러냈다. 경쟁사 대비 빠른 속도도 차별화 전략으로 내세웠지만 이번 정보유출 사고로 서비스 안정성에 대한 불신이 커지고 있다.마이데이터 개인정보 유출 사고는 이번이 처음 아니다. 이보다 앞서 하나은행 고객정보가 불특정 다수에 그대로 노출되는 사고가 발생했다. &lt;본지 12월 12일 '마이데이터, 정보유출 터졌다…타인 정보 노출 사고 발생' 참조&gt;이달 10일 하나은행, 하나금융투자, 하나카드 등 하나금융 계열사의 서비스를 한데 모은 마이데이터 서비스 '하나 합'에서 본인 정보가 아니라 타인 개인정보가 조회되는 사고가 났다. 피해자의 카드 사용 내역, 투자정보, 대출내역, 입출금 내역, 전화번호 등이 타인에게 노출됐다. 하나은행 측은 이를 인지하고 10~20분 뒤 정보조회를 차단하는 등 사고를 수습했다.마이데이터 본 서비스가 시작도 하기 전에 각종 보안사고가 제기되자 정부와 업계 모두 비상이 걸렸다. 일부 마이데이터 사업자는 현행 마이데이터 시스템에서 정보 제공기관이 데이터를 주고받는 과정에서 오류가 잦다는 점을 지적했다. 응답이 지연되는 기관도 상당수인 것으로 알려졌다.일부 은행과 증권사에서는 마이데이터 서비스 오류가 하루 넘게 지속되는 등 잡음이 끊이지 않고 있다. 토스 운영사 비바리퍼블리카는 마이데이터 가이드라인 미준수 의혹을 받고 있다. 개인신용정보 제공 오남용 방지를 위한 필수 규정을 지키지 않았다는 것이다. 금융위원회 관계자는 “모든 마이데이터 사업자의 보안 강화와 가이드라인 준수 여부 등 마지막 점검을 하고 있다”면서 “과도한 트래픽 발생 등 서비스 제공에서 발생하는 문제도 살펴볼 예정”이라고 밝혔다.금융위에 따르면 현재까지 마이데이터 본허가를 받은 사업자는 53개사다. 새해 1월 5일 마이데이터 서비스를 시작하는 곳은 34개사다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2021.12.16.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>케이뱅크, '파킹통장' 플러스박스 금리 인상…연 1.0%</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010892314?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>기사내용 요약0.2%p 인상…연 0.8→1.0%최고 한도 3억원 단일 금리[서울=뉴시스] 박은비 기자 = 케이뱅크는 파킹통장 '플러스박스' 금리를 0.2%포인트 인상했다고 16일 밝혔다. 이에 따라 기존 연 0.8%에서 연 1.0%로 올라간다.단 하루만 맡겨도 이자를 받을 수 있는 파킹통장으로 한도 3억원까지 단일 금리를 제공한다. 최근 연 2.0% 금리로 주목받았던 토스뱅크가 내년 1월5일부터 1억원 초과시 0.1% 금리를 적용하겠다고 한 것과 비교하면 높은 수준이다.특히 플러스박스는 목적에 따라 통장 쪼개기를 한 뒤 연결 입출금계좌에서 이체가 가능하다. 쪼개기를 통해 용돈 계좌, 비상금 계좌 등 고객 목적에 따라 여러 플러스박스를 만들어 자금을 관리할 수 있다.케이뱅크 관계자는 "고객 혜택 확대를 위해 플러스박스 금리를 인상했다"며 "지속적으로 경쟁력을 갖춘 상품을 발굴해 고객 혜택을 강화할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2021.12.28.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>은행권 대출 문 열리지만… DSR 규제에 여전히 높은 문턱</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000768857?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>그동안 가계대출을 조여왔던 은행들이 주택담보대출 취급을 재개하고 대출 우대금리를 복원한다. 다음주부터 가계대출 총량규제가 리셋(재설정)되는만큼 대출 빗장을 풀기 시작하는 것이다. 사진은 지난 27일 서울 시내 한 은행 영업점 대출창구 모습./사진=뉴스1그동안 가계대출을 조여왔던 은행들이 다음주부터 주택담보대출 취급을 재개하고 대출 우대금리를 복원한다. 새해 가계대출 총량규제가 리셋(재설정)되는만큼 대출 빗장을 풀기 시작하는 것이다.다만 금융당국이 내년 가계부채 증가율을 올해(5~6%)보다 낮은 4~5%대에서 관리한다고 밝힌데다 차주별 DSR(총부채원리금상환비율) 규제가 강화돼 실수요자들이 체감하는 대출 문턱은 예상보다 크게 낮아지지 않을 것으로 보인다.28일 은행권에 따르면 농협은행은 내년 1월 3일부터 전체 가계대출을 재개한다. 다만 주택담보대출과 전세자금대출 등 주택 관련 대출과 주택 이외의 대출, 신용대출 등 각각 한도를 부여해 철저한 총량관리를 진행한다는 방침이다.특히 주담대의 경우 가급적 무주택자(1주택자의 기존주택 처분 조건 등)를 중심으로 대출자금을 운용할 계획이다.농협은행은 올 11월 최대 2000만원으로 낮췄던 신용대출 한도도 다시 1억원으로 확대한다.농협은행은 올 6월부터 중단했던 모기지신용보험(MCI)·모기지신용보증(MCG) 대출 판매도 재개한다. MCI는 주로 아파트, MCG는 다세대·연립 등에 적용되는데 MCI·MCG 대출이 재개되면 서울 지역의 경우 대출 가능 금액이 5000만원 증가한다. 수도권 과밀억제권역 4300만원, 광역시 2300만원, 이외 지역은 2000만원씩 대출 한도가 늘어난다.농협은행 관계자는 "실수요자의 권익을 보호하기 위해 MCI·MCG 판매를 재개한다"며 "우대금리도 일부 확대하고 집단대출은 기 승인건에 한해서는 정상적 운영하며 최소 물량으로 운영할 예정"이라고 설명했다.앞서 농협은행은 이달부터 무주택자만 한정해 신규 주택담보대출을 취급하기 시작했다.━우대금리 높이고 주담대 사전 신청까지━우리은행은 내년 1월 3일부터 10개 신용대출 상품의 우대금리를 최대 0.6%포인트 인상한다. 대출금리는 준거(기준)금리와 가산금리를 합산한 뒤 우대금리를 제외해 산출되는만큼 우대금리가 높아지면 대출금리는 낮아진다.올 8월부터 신규 주담대 취급을 중단해온 SC제일은행은 내년 대출을 재개하기에 앞서 지난 20일부터 신규 주담대(퍼스트홈론) 고객을 대상으로 사전 접수를 받기 시작했다. 이에 실제 대출 실행일은 내년 1월 3일부터다.━인터넷은행도 대출 재개 기지개 켠다━올 1월 출범했지만 9일만에 대출 한도를 소진해 신규대출을 중단했던 인터넷전문은행 토스뱅크도 다음달 1일부터 모든 대출을 전면 재개한다.카카오뱅크는 내년 초 비대면 주담대 상품을 출시할 계획이다. 이처럼 은행들이 내년 대출상품의 판매를 재개하기 위해 준비 중인 가운데 금융당국이 내년 은행권 가계대출 증가율을 4~5%대로 올해(5~6%)보다 낮춰 은행권에선 실수요자들의 대출 수요가 내년 1월 몰릴 것으로 보고 있다.여기에 차주별 DSR 규제가 내년에 더욱 강화된다. DSR 규제는 대출자의 연간 원리금 상환액을 연 소득의 일정 비율 이내로 제한하는 제도다.내년 1월부터는 총대출액이 2억원을 초과하는 대출자, 같은 해 7월부터는 1억원 초과 대출자에게 차주별 DSR 규제가 적용된다. DSR은 은행권이 40%, 2금융권이 60%를 적용하는데 내년 1월부터 2금융권의 DSR은 50%로 줄어든다.시중은행 관계자는 "내년 초에는 총량관리가 초기화되면서 대출 여건이 올 하반기보다 나아질 수 있지만 대출이 한꺼번에 몰릴 가능성도 있어 대출이 꼭 필요한 실수요자는 서둘러야 할 것으로 보인다"며 "다만 실수요자 대출 일부를 완화하는 만큼 이에 해당되는지 확인할 필요가 있다"고 말했다.한편 은행들은 내년 1월부터 결혼이나 장례, 출산, 수술 등의 사유가 있을 경우 연소득의 50%를 추가로 내주기로 했다. 추가 한도는 최대 1억원까지다.'신용대출 연소득 이내' 제외가 가능한 사유는 ▲본인의 결혼 ▲배우자와 직계가족의 장례·상속세 ▲본인 또는 배우자의 출산 ▲본인·배우자·직계가족의 수술·입원 등 네가지다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2021.12.31.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>"3차 접종력·경과일 확인하려면 쿠브앱 미리 업데이트하세요"(종합)</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012890691?sid=102</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>전자증명서 사용 어려우면 종이증명서나 접종스티커 활용 가능백신 패스를 위한 QR코드 인증(광주=연합뉴스) 천정인 기자 = 14일 오후 광주 서구 한 식당에서 백신패스를 위한 QR 코드 인증이 되지 않고 있다. 2021.12.14 iny@yna.co.kr    (서울=연합뉴스) 박규리 기자 = 다음 달 3일 '방역패스'(접종증명·음성확인) 유효기간 적용을 앞두고 애플리케이션으로 3차 접종력이나 2차 접종 이후 경과일을 확인할 수 있도록 방역 당국이 전자증명서·출입명부 시스템을 개선했다.    중앙방역대책본부(방대본)는 31일 백브리핑에서 "어제 전자증명서와 출입명부 시스템을 개선했다"며 "유효기간이 적용되는 내년 1월 3일 동시접속으로 인한 혼란을 방지하기 위해 쿠브앱이나 주로 사용하는 민간 전자출입명부 앱을 미리 업데이트해달라"고 당부했다.    쿠브앱이나 사용 중인 카카오, 네이버, 토스, PASS앱 등의 전자출입명부 앱을 업데이트하고, 이어서 접종 정보를 업데이트하면 3차 접종력과 2차 접종 후 며칠이 경과했는지를 쉽게 확인할 수 있다.    3차 접종자는 앱을 업데이트한 후에 접종 정보도 꼭 업데이트해야 한다. 그렇지 않으면 3차 접종력이 입력되지 않아 기본접종 이후 유효기간 6개월이 만료된 것으로 잘못 인식될 수 있다.    중증장애인 시설이나 치매시설 등 장애인·취약계층시설도 방역패스 적용 대상에 포함되는 만큼 장애인들도 미리 QR코드 사용방법을 숙지해 두는 것이 좋다.    전자 증명서 사용이 어려운 장애인의 경우에는 종이로 된 접종증명서나 예방접종스티커를 사용할 수 있다.    종이로 된 증명서는 보건소에 신청해 발급받을 수 있으며, 예방접종스티커는 장애인등록증이나 주민등록증, 운전면허증 등 신분증에 부착해 사용하면 된다.업데이트 이후 전자접종증명 화면 예시중앙방역대책 본부 제공. 재판매 및 DB 금지    또한 방역 당국은 시설 운영자들에게 KI-PASS 앱이 업데이트됐는지 내년 1월 3일 이전에 확인하라고 요청했다.    앞서 방대본은 시설 운영자가 이용자들의 접종상태를 쉽게 알 수 있도록 전자증명서 인증시스템에서 접종 상태를 소리로 안내하도록 시스템을 바꿨다.    업데이트된 KI-PASS에서는 유효한 접종증명서일 경우 '접종완료자입니다'라는 안내 음성이, 기간이 만료된 접종증명서에는 '딩동' 소리가 나온다.    KI-PASS 앱은 내년 1월 3일 0시 기준으로 자동 업데이트될 예정이다.    고재영 질병관리청 대변인은 "일반 국민에 대한 3차 접종이 내년부터 본격적으로 시작된다"며 "기업 등에서는 근로자들이 안심하고 접종에 참여할 수 있도록 별도의 유급 휴가나 병가 등 충분한 휴식 기간을 보장해달라"고 당부했다.    curious@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2021.12.21.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>"점수높다고 대출 안된다니"…고신용자, 대출 역차별에 '설움'(종합)</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005018870?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>금융당국 내년 대출 총량 규제시 고신용자 문턱 높일 예정은행들도 저소득·저신용자 중심 대출 문 열고 고신용자는 옥죄기신용점수 관리 꼼꼼히 한 고신용자들 역차별…시장기본원칙 위배 논란[이미지출처=연합뉴스]대기업에 재직 중인 정우철씨(42·가명)는 내년 집안의 여러 행사를 앞두고 대출을 받으려다 충격을 받았다. 주거래은행인 인터넷전문은행에서 신용도가 높다는 이유로 대출이 거절됐기 때문이다. 다른 은행에서도 1등급의 신용도를 문제삼아 요청한 대출 한도에 훨씬 못 미치는 액수를 책정했다. 정씨는 "연체 등을 신경 써 신용점수를 꼼꼼하게 관리해왔는데 등급이 높은 게 오히려 독이 되니 이해가 안된다”며 “점수가 낮은 중·저신용자보다 갚을 능력이 있는 1등급이 왜 역차별을 받아야 되냐”고 하소연했다.금융당국이 내년 강도높은 가계부채 관리를 예고한 가운데 고신용자들의 불만이 극에 달하고 있다. 신용평가사 신용점수가 900점을 초과하는 고신용자들의 대출 총량은 내년에도 더욱 옥죄는 반면 실수요자 구제책을 명분삼아 중·저신용자 대출은 느슨하게 풀어줄 예정에서다. 일각에서는 금융 시장의 상식을 역행하는 데다 건전성 차원에서도 규제의 방향성이 맞지 않다는 지적이 나온다.고신용자, 대출 문턱 높아지고 카드론 금리 급등21일 금융권에 따르면 금융당국의 강력한 대출 규제에 인터넷전문은행들이 고신용자 대출을 대폭 축소하고 중·저신용자 대출 혜택을 확대하고 있다. 고신용자 대상 신규 대출, 마이너스통장 가입을 제한하거나 대출금리를 올리는 식으로 문턱을 높인 것이다. 케이뱅크, 카카오뱅크, 토스뱅크는 각각 20.8%, 21.5%, 34.9% 중·저신용자 올해 대출 목표치를 세웠지만, 이를 충족하기 어려워지면서 내년에도 같은 기조를 유지할 것으로 관측된다.시중은행들 역시 고소득·고신용자의 대출 총량을 줄이는 대신 중·저신용자에 대한 대출을 대폭 늘리기로 했다. 신용도가 높을수록 금리가 싼 은행에서 돈을 빌리기가 어려워질 것이라는 얘기다.신용카드사의 장기카드대출(카드론) 역시 고신용자 중심으로 금리가 오르는 추세다. 최근 3개월간 표준등급 1~2등급에 속하는 고신용자의 카드론 금리는 최대 2%포인트 가까이 높아졌다. 지난달 7개 전업카드사(신한·삼성·KB국민·현대·롯데·우리·하나카드)의 표준등급 기준 1~2등급 카드론 평균금리(운영가격)는 8.11~13.48%를 기록했다. 7개 전업카드사 중 4곳이 지난 9월보다 1~2등급 카드론 평균금리가 올랐다.삼성카드가 지난 9월 9.86%에서 지난달 11.94%로 2.08%포인트 급등했다. 같은 기간 현대카드 역시 10.38%에서 11.36%로 0.98%포인트 올랐다. 이는 우대금리, 특판금리할인 등 기준가격에서 조정하는 조정금리 인하폭이 줄어든 결과다. 즉 카드사들이 대출관리를 강화하면서 금리할인 등 마케팅을 줄였다는 얘기다. 특히 지난해 말(6.64~12.44%)과 비교하면 하단은 1.47%포인트, 상단은 1.04%포인트 금리가 올랐다. 지난해만해도 1~2등급 고신용자에게는 최대 5% 가까운 금리할인이 있었다.카드업계 관계자는 "금융당국의 가계대출 규제 강화로 고신용자의 카드론 금리를 올릴 수 밖에 없는 상황"며 "규제 강화에다 기준금리 인상 등의 영향으로 내년 카드론 금리도 계속 오를 것”이라고 전망했다.일각에서는 ‘집값 잡기’나 빚투를 막기 위한 수단으로 고신용자를 옥죄고 있다는 지적이 나온다. 대출 실수요자를 신용도와 소득에 따라 나눠 시장 질서에 맞지 않게 대출 시장이 왜곡되고 있다는 것이다.[이미지출처=연합뉴스]금융당국 "고신용자 불리하지 않을 것"…전문가들은 '우려'금융당국은 ‘체감’일 뿐 실제로 내년에 이어질 가계대출 총량 관리나 차주별 총부채원리금상환비율(DSR) 제도 자체가 고신용자에게 불리하게 적용되지는 않을 것이라는 입장이다. 금융당국 관계자는 "신용등급만 따져 1∼5등급은 대출을 내주지 않고 6등급부터 내준다면 역차별이겠지만, 중·저신용자 대출은 금리도 상대적으로 높고 한도도 낮은 편이라 고신용·고소득자에게 불리할 것은 없다"고 설명했다.전문가들은 우려의 목소리를 내고 있다. 성태윤 연세대 경제학 교수는 "기본적으로 능력과 신용도에 따라 소득과 상환능력이 있는 차주에게 대출을 내주는 게 맞다"며 "역차별 논란이 나오는 것은 서민들의 경우 재정 지원으로 풀어야하는데, 모든 것을 금융 지원으로 접근하기 때문"이라고 지적했다.한편 한 자영업자 커뮤니티에서는 정부 지원 대출을 받기 위해 신용점수를 일부러 떨어뜨리는 방법이 유행처럼 번지고 있다. 특히 최근 총량규제 풍선효과로 은행에서 밀려난 1~2등급 고신용자들이 2금융권 문을 두드리고 나서는 기현상도 벌어지고 있다.금융권 관계자는 "능력이 충분한 사람에게는 돈을 빌려주지 말고 어려운 이들에게만 대출을 내주라는 것은 금융의 기본논리로 설명이 안 되는 일"이라며 "금융사 입장에서는 부실대출 비율이 크게 올라갈 우려가 있다"고 꼬집었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2021.12.16.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>"빅테크 금융업 진출로 소비자 피해 발생 우려"</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002711385?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>'빅테크 금융진출의 리스크 요인 점검'"디지털 소외현상 가속...불완전판매 가능성""선불충전금 보호제도 미흡...미국 FDIC 사례 참고해야"금융당국 "중장기적 소비자 혜택 지속 의문"'빅테크발 금융리스크 및 금융소비자 보호 이슈 점검' 발표 자료 일부    네이버, 카카오, 토스 등 빅테크의 금융권 진출로 금융소비자보호 이슈가 부각될 수 있다는 지적이 나왔다. 고령층과 장애인의 디지털 소외현상이 가속화하고 상품 정보가 제대로 전달되지 않아 불완전판매가 늘어날 수 있다는 제언이다. 16일 한국금융연구원이 주최한 '빅테크 금융진출의 리스크 요인 점검' 온라인 세미나에서는 이같은 지적이 나왔다. 유형철 예금보험공사 은행관리부장은 '빅테크발 금융리스크 및 금융소비자 보호 이슈 점검' 발표에서 "비대면 환경에서 금융상품에 대한 구두설명 등이 제한되므로 소비자에게 충분한 정보가 전달되지 않아 불완전판매로 이어질 수 있다"고 말했다.장애인과 고령층의 디지털 소외 현상이 가속화할 수 있다는 우려도 나왔다. 온라인 기반 금융거래가 늘고 오프라인 영업망이 축소돼 지점 이용 비중이 높고 온라인이 익숙하지 않은 디지털 소외계층의 접근성이 제한된다는 뜻이다. 금융위원회에 따르면 80세이상 고령층의 온라인 예금거래 비중은 2.7%로, 전 연령대 평균(47.1%)에 턱없이 못 미친다.소비자가 간편송금·결제를 위해 미리 쌓아둔 선불충전금 문제도 언급됐다. 유 부장은 "선불충전금 규모가 급증하고 있으나 관련 입법 지연 등으로 보호체계가 미흡하다"며 "빅테크 도산 시 이용자 예탁금 보호를 위해 관련 법규 등의 개정이 필요하다"고 말했다. 빅테크의 선불충전금 규모는 2018년 1조2500억원에서 지난해 9월 1조9900억원으로 급증했다. 게다가 국회 계류 중인 전자금융거래법(전금법) 개정안이 통과되더라도 금융회사 부실 발생 시 이용자 보호 방안은 미흡할 실정이다. 예금명의자인 전자금융업자 기준으로 5000만원까지 보호한도가 적용돼 선불충전금 이용자인 실질 예금자 보호가 충분히 이뤄지지 않기 때문이다. 각 고객별로 보험금을 지급하는 미국 연방예금보험공사(FDIC)의 사례를 참고해야 한다고도 언급됐다. 수취인을 잘못 선택해 보내는 착오송금 문제도 사각지대에 있다. 현재 예금보험공사는 '착오송금 반환 제도'를 통해 착오송금 발생 시 금융기관 협의·소송 등으로 피해액을 돌려주고 있다. 하지만 간편송금 수취인이 은행이 아닌 빅테크의 선불충전금을 통해 돈을 받는 경우 수취인의 실지명의를 알 수 없어 제도 자체가 불가능하다.빅테크의 상품 추천 서비스가 사업자 위주로 운영돼 선택권을 제한할 수 있다는 지적도 나왔다. 또 금융플랫폼이 중개적 역할만 수행해 소비자 문제 발생 시 책임 회피, 피해 구제 절차 미흡 등이 이슈도 제기됐다.이와 달리 빅데이터를 활용해 디지털 금융혁신을 북돋을 수 있다는 긍정적 시각도 제시됐다. 사용자가 많아질수록 더 많은 사용자가 유입되는 '네트워크 효과'를 통해 디지털 금융혁신에 촉매제 역할을 수행할 수 있다는 의미다. 금융당국도 빅테크의 지속가능성에 의문을 표했다. 이후 패널토론에서 김병칠 금융감독원 디지털금융감독국장은 "중장기적으로 빅테크가 지금과 같은 (소비자) 혜택을 줄 수 있는지 의문"이라며 "금융자금이 빅테크 내부에 쌓이면서 실물경제로 공급되지 않는 점도 리스크 요인"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2021.12.23.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>[르포] “7000만원 로마네꽁띠 팝니다”...400평 롯데 ‘보틀벙커’ 가보니</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000782471?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>롯데마트 잠실점, 제타플렉스로 재탄생1층 70%가 와인매장...400평 ‘보틀벙커’와인 시음 가능...식품매장도 확 바꿔        와인은 소비자들에게 여전히 어려운 술이다. 맛과 가격대가 천차만별이고 마셔보기 전까지 내 취향에 맞을지 알 수 없다. 가성비 와인으로 입문한 소비자들이 중·고가 와인을 추천 받아 샀다가 실패하는 경우도 적지 않다. 롯데마트의 와인 전담 조직 프로젝트W팀이 올해 초 와인 애호가 200명을 대상으로 한 심층 인터뷰에서도 “대형마트에서 와인을 가장 많이 사지만, 와인에 대한 정보가 미흡하고 맛을 연상하기 어렵다”는 의견이 많았다.23일 서울 송파구에 문 연 제타플렉스 1층 와인 전문매장 ‘보틀벙커’에는 와인을 조금씩 마셔볼 수 있는 테이스팅 랩이 설치 됐다. 전용 팔찌에 돈을 미리 충전하면 80여종의 와인 중에서 원하는 것을 50ml씩 시음할 수 있다. 50ml는 종이컵 절반 정도 되는 양이다. 한잔 가격은 1000~8000원이고 시음 가능한 와인은 1만원대부터 30만원대까지 다양하다. 프로젝트W팀이 꼽은 제철 와인을 시음할 수 있으며 트렌드에 맞춰 계속 조금씩 교체된다.        지난 5월 프로젝트W팀 리더로 롯데마트에 입사해 보틀벙커를 총괄한 강혜원 상무는 “여전히 와인을 어려워하는 고객들이 많다”며 “보틀벙커가 그 문턱을 낮추고, 와인 애호가들도 만족할 만한 장소가 될 수 있도록 노력했다”고 했다. 테이스팅 랩을 둘러보던 한 60대 주부는 “10만원이 넘는 와인은 시음도 안 해보고 덜컥 사기 어렵다”며 “괜찮은 아이디어 인 것 같다”고 말했다.보틀벙커는 롯데마트의 야심작 제타플렉스의 핵심이다. 롯데마트는 기존 잠실점을 대대적으로 재단장(리뉴얼)하면서 점포명을 제타플렉스로 바꿨다. 10의 21제곱을 뜻하는 제타(ZETTA)와 결합된 공간을 뜻하는 플렉스(PLEX)의 합성어다. 이곳은 전체 영업면적이 1만4214㎡(4300평)로 롯데마트 매장 중 가장 크다. 온라인 업체가 판매할 수 없는 와인이나, 소비자들이 직접 보고 사기를 원하는 신선식품, 리빙, 반려동물 용품에 특화한 대표 매장으로 키운다는 포부다.서울 송파구 잠실 제타플렉스 1층 보틀벙커 내부 모습. / 이현승 기자        제타플렉스에 들어서자 마자 보틀벙커 매장이 가장 먼저 보였다. 대형마트가 와인 전문매장을 입구에 바로 배치한 건 이번이 처음이다. 매장 규모도 400평으로 1층 전체 면적의 70%에 달한다. 로마네꽁띠부터 가성비 와인까지 4000여종을 판다. 이곳에서 가장 비싼 와인은 2014년산 도멘 드 라(DRC) 로마네꽁띠다. 1병 가격이 7000만원으로 다른 와인 5병과 함께 구성한 세트는 8900만원에 판매 중이다.이승우 보틀벙커 점장이 매장 최고가 와인인 2014년산 도멘 드 라(DRC) 로마네꽁띠를 들어보이고 있다. 한병 가격은 7000만원대다./ 이현승 기자        생산국가별, 종류별(레드·화이트·샴페인·스파클링 등)로 와인이 진열돼 있고 특정 상황에 맞는 와인을 추천하는 코너도 곳곳에 마련돼 있다. 예를 들어 ‘배달 음식과 함께 먹기 좋은 와인’, ‘제철음식에 제격인 와인’ 등을 추천해준다.와인의 맛이나 어울리는 음식이 궁금하다면 가격표에 붙은 QR코드를 찍어보면 된다. 스마트폰을 갖다대면 데이터 기반 와인 추천 스타트업 와인그래프가 제공하는 정보 페이지로 연결된다. 롯데마트는 향후 보틀벙커 전용 모바일 애플리케이션(앱)을 선보일 예정이다. 스마트폰 QR코드 이용이 불편하다면, 현장에 상주하는 이승우 점장에게 직접 문의할 수 있다. 이 점장은 인천 파라다이스시티 출신으로 와인 소믈리에 자격증(WSET)을 보유하고 있다.보틀벙커의 콘셉트는 ‘와인의 모든 것’이다. 와인을 모르는 사람도 일단 이 매장에 들어오면 자연스럽게 와인과 관련한 정보를 얻을 수 있도록 한다는 계획이다. 프로젝트W팀 직원들이 직접 작성한 와인 산지별 특징이나 추천 이유를 곳곳에서 읽어볼 수 있다. 와인 뿐 아니라 와인과 어울리는 치즈, 햄 등 안주류와 와인잔 등 관련 액세서리도 판다. 와인을 주제로 쓰여진 책도 비치돼 있다. 매장 한켠에는 50만원 이상 고가 와인을 보관해두는 코너와 위스키 특화 코너가 마련돼 있다.보틀벙커 한켠에 마련된 와인 페어링 코너. 곁들이기 좋은 음식을 진열해 놨다. / 이현승 기자        확 바뀐 지하 1층 식품 전문매장에는 평일 오전임에도 불구하고 사람들이 몰렸다. 소비자의 요구에 맞춰 제품을 카테고리별로 진열하는 게 아니라 주제별로 배치했다. 일례로 과일은 맛별로 나눴다. 스위트(단맛) 코너에는 바나나, 메론, 수박을 시트러스(신맛) 코너에는 오렌지, 파인애플, 토마토 등을 놓는 식이다. 과일 당도 뿐 아니라 산도, 수분, 경도도 표시했다. 찾는 사람이 많은 샐러드와 밀키트, 치즈 전용 코너를 대폭 확대했고 축산 매장에는 양고기 전문 코너를 선보였다.제타플렉스 지하 1층 과일 코너. / 롯데쇼핑 제공        상품기획자(MD)의 손길이 들어간 제품 설명도 새로웠다. 토마토 미트볼 리조또를 판매하는 곳에는 ‘함께 곁들여 먹으면 좋은 와인’을 추천하는 설명글이 붙어 있었다. 샐러드 진열대에는 롯데그룹 통합 온라인몰 롯데온 고객이 “양도 많고 푸짐하고 넉넉해요”라고 쓴 후기가 붙어있었다. 기존에 마트에서 팔지 않던 타조알이나 이베리토스, 델리시우스 등 프리미엄 통조림 브랜드 제품들도 새롭게 선보였다.이날 제타플렉스를 방문한 강성현 롯데쇼핑 마트사업부 대표는 향후 기존 점포 10여개를 제타플렉스로 개편하겠다는 뜻을 밝혔다. 그는 “역대 가장 공격적인 목표를 잡았다”며 “다만 매출을 올리기 위해 밀어팔고 할인하는 싸구려 점포로는 만들지 않을 것”이라고 말했다. 1970년생인 강 대표는 글로벌 컨설팅 기업 보스턴컨설팅그룹(BCG) 출신으로 2009년 롯데그룹에 입사했다. 마트 체질 개선을 이끈 성과를 인정 받아 지난달 인사에서 전무에서 부사장으로 승진했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2021.12.31.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>방역당국 “3차 접종력·경과일 확인 위해 쿠브앱 미리 업데이트 당부”</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011186599?sid=102</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>다음 달 3일 ‘방역패스’(접종증명·음성확인) 유효기간 적용을 앞두고 애플리케이션으로 3차 접종력이나 2차 접종 이후 경과일을 확인할 수 있도록 방역 당국이 전자증명서·출입명부 시스템을 개선했습니다. 중앙방역대책본부는 오늘(31일) 백브리핑에서 “어제 전자증명서와 출입명부 시스템을 개선했다”며 “유효기간이 적용되는 내년 1월 3일 동시접속으로 인한 혼란을 방지하기 위해 쿠브앱이나 주로 사용하는 민간 전자출입명부 앱을 미리 업데이트해달라”고 당부했습니다.  쿠브앱이나 사용 중인 카카오, 네이버, 토스, PASS앱 등의 전자출입명부 앱을 업데이트하고, 이어서 접종 정보를 업데이트하면 3차 접종력과 2차 접종 후 며칠이 경과했는지를 쉽게 확인할 수 있습니다.  3차 접종자는 앱을 업데이트한 후에 접종 정보도 꼭 업데이트해야 합니다. 그렇지 않으면 3차 접종력이 입력되지 않아 기본접종 이후 유효기간 6개월이 만료된 것으로 잘못 인식될 수 있습니다.  중증장애인 시설이나 치매시설 등 장애인·취약계층시설도 방역패스 적용 대상에 포함되는 만큼 장애인들도 미리 QR코드 사용방법을 숙지해 두는 것이 좋습니다.  전자 증명서 사용이 어려운 장애인의 경우에는 종이로 된 접종증명서나 예방접종스티커를 사용할 수 있습니다.  종이로 된 증명서는 보건소에 신청해 발급받을 수 있으며, 예방접종스티커는 장애인등록증이나 주민등록증, 운전면허증 등 신분증에 부착해 사용하면 됩니다. 또한 방역 당국은 시설 운영자들에게 KI-PASS 앱이 업데이트됐는지 내년 1월 3일 이전에 확인하라고 요청했습니다.  앞서 방대본은 시설 운영자가 이용자들의 접종상태를 쉽게 알 수 있도록 전자증명서 인증시스템에서 접종 상태를 소리로 안내하도록 시스템을 바꿨습니다.  업데이트된 KI-PASS에서는 유효한 접종증명서일 경우 ‘접종완료자입니다’라는 안내 음성이, 기간이 만료된 접종증명서에는 ‘딩동’ 소리가 나옵니다.  KI-PASS 앱은 내년 1월 3일 0시 기준으로 자동 업데이트될 예정입니다.  고재영 질병관리청 대변인은 “일반 국민에 대한 3차 접종이 내년부터 본격적으로 시작된다”며 “기업 등에서는 근로자들이 안심하고 접종에 참여할 수 있도록 별도의 유급 휴가나 병가 등 충분한 휴식 기간을 보장해달라”고 당부했습니다.[사진 출처 : 연합뉴스]■ 제보하기▷ 카카오톡 : 'KBS제보' 검색▷ 전화 : 02-781-1234▷ 이메일 : kbs1234@kbs.co.kr▷ 뉴스홈페이지 : https://goo.gl/4bWbkG</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2021.12.21.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>[기자수첩] 방역패스부터 키오스크까지… '디지털 소외계층' 갈 길 잃었다</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000766437?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>‘디지털 소외’에서 ‘디지털 포용’으로 나아가야 신종 코로나바이러스 감염증(코로나19) 여파가 불러온 비대면 사회는 의도치 않게 디지털 격차를 더욱 늘리는 계기가 됐다. 대중에게 널리 알려지지 않았던 QR코드가 일상 속에 등장하면서다. 스마트폰 사용이 익숙하지 않으면 어딜 들어갈 때마다 일일이 수기로 명부를 작성해야 했다.이런 가운데 지난 13일부터 적용된 방역패스 확대는 디지털 소외계층의 깊은 한숨을 자아냈다. 백신 접종 여부를 알 수 없는 안심콜과 수기 명부 등 기존의 방역 확인 절차가 폐지되면서 디지털 소외계층이 갈 길을 잃었다.방역패스는 백신 접종완료일로부터 2주가 지났다는 증명서나 음성확인서를 말한다. 코로나19 확진자 폭증으로 방역패스 의무적용 시설이 기존 일부 고위험시설에서 식당, 카페, 학원, PC방 등 16개 시설로 확대됐다.공식적으로 방역패스로 사용이 가능한 것은 ▲질병관리청 쿠브(COOV) 앱 ▲전자출입명부(네이버·카카오·토스)의 전자 증명서 ▲신분증에 붙인 예방접종 스티커 ▲2차 접종 후 접종기관에서 받은 종이 접종 증명서 등이다.하지만 현실적으로 매장에서의 방역패스 확인은 대부분 QR코드 인식을 통해 이뤄지고 있다. 방문 등록과 접종 이력이 한 번에 증명되기 때문이다. 어떤 확인서가 방역패스로 사용할 수 있는지 정확히 인지하지 못한 경우도 적지 않다. 이번 방역패스 확대는 식당, 카페 등 일상적으로 이용하는 시설까지 적용됐다는 점에서 불편함이 크다. 스마트폰을 사용하지 않거나 사용에 어려움이 있는 노인 등 디지털 소외계층을 고려하지 않았다는 지적이 나온다.정부는 이들을 위해 PCR 음성 확인서 등으로 증명이 가능하다고 발표했지만 절차도 번거로운 데다가 현실적으로 외출할 때마다 확인서를 챙기는 것은 쉽지 않다. 스마트폰 없이는 밖에서 밥 한 끼 먹기 어려워진 것이다.여기에 최근 전국적으로 늘어나는 키오스크(무인 자동화기기)의 존재도 디지털 소외계층에게 또 다른 벽으로 작용하고 있다. 키오스크는 음식점부터 병원, 영화관 등 다양한 곳에서 인건비 절약 등을 위해 사용되고 있다. 국내 키오스크 시장 규모는 2017년 65억원에서 2019년 150억원, 2020년에는 220억원까지 빠르게 성장했다.키오스크에 익숙하지 않은 고령소비자 등 디지털 소외계층은 키오스크 이용 시 용어 이해, 기기 조작 등에서 어려움을 겪고 있다. 한국소비자원에 따르면 고령소비자들은 업종별로는 유통점포의 키오스크를 가장 어려워했다. 불편한 점으로는 ▲복잡한 단계 ▲뒷사람 눈치가 보임 ▲그림·글씨가 잘 안 보임 등을 꼽았다.특히 빠르게 키오스크가 퍼지고 있는 패스트푸드점에서는 영문으로 표기된 메뉴명 등으로 어려움이 배가 된다. 키오스크 전담 직원이 상주하고 있는 곳도 흔치 않아 이용에 불편함을 겪어도 도움을 받기가 쉽지 않다. 시각장애인의 경우는 주문 자체가 불가능한 경우도 많다.IT기술은 우리에게 편리함을 가져다주지만 이 가운데 사회적 약자들이 소외되는 경우가 많다. 효율성은 높이면서도 부정적인 영향을 최소화할 수 있는 정책 마련이 필요하다. 요즘 더욱 중요한 가치로 떠오른 ‘포용’의 시대로 가려면 디지털 격차가 사회적 소외로 이어지지 않도록 세심한 제도적인 보완과 지속적인 교육이 마련돼야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2021.12.28.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>"포인트 경제 커진다"…엔비티 '애디슨오퍼월', 2년새 유통액 258%↑</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004762882?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>올해 포인트 유통액 560억원 돌파 전망...전년比 98.4%↑운영사 엔비티 최대실적 랠리 엔비티 CI  [파이낸셜뉴스] 국내 포인트 경제가 성장가도를 달리고 있다. 포인트 시장은 게임 시장을 비롯한 전자결제, 쇼핑몰 등 소비가 일어나는 모든 영역에서 적용이 가능해 잠재 성장 수요가 높은 시장으로 손꼽힌다.   국내 오퍼월 네트워크 1위 플랫폼 애디슨오퍼월은 올해 포인트 유통액이 560억원을 돌파, 지난해 283억원 대비 98.4% 가량 성장할 것으로 28일 전망했다. 지난 2019년 157억원 수준이었던 애디슨오퍼월의 포인트 유통액은 불과 2년새 258% 가량 대폭 성장했다.   애디슨오퍼월은 제휴사들을 통해 포인트 네트워크를 제공하는 엔비티의 B2B(기업간 거래) 포인트 신사업 플랫폼이다. 주요 제휴 매체사는 약 30여곳으로 알려져 있다. 네이버페이, 네이버웹툰, 카카오모빌리티, 토스, 비씨카드 페이북 등 업종별 국내 선두 플랫폼 대다수가 애디슨오퍼월 제휴를 통해 포인트 유통 활성화에 나서고 있다.   통계청과 한국소비자원 등에 따르면 지난 2019년 국내 포인트 시장 규모는 약 20조원 규모로 연평균 10%의 성장세를 기록 중이다. 올해에만 약 24조원 가량의 포인트가 지급된 것으로 추정되며 글로벌 포인트 시장 규모는 약 2000조원에 이른다.   포인트 유통액 증가가 곧 매출 증대로 이어지는 사업모델 특성상 애디슨오퍼월 운영사 엔비티는 올해 최대 실적 랠리를 기록 중이다. 지난 3·4분기 연결기준 엔비티의 누적 매출액은 562억9000만원으로 전년 동기 대비 90.1% 증가했다. 이는 지난해 연간 매출액 규모를 뛰어넘은 수치이자 창사 이래 최대 실적이다. 같은 기간 누적 영업이익 역시 13억7000만원을 기록하며 흑자전환에 성공했다.   엔비티 관계자는 “국내 포인트 시장은 항공 마일리지에 국한돼 취급돼 왔던 과거와 달리 스마트폰의 보급 이후 일상 소비 전반에 걸쳐 적용되는 보편적인 적립 수단으로 자리매김하고 있다”며 “기업과 소비자간 상호 이점을 취할 수 있는 포인트 경제가 일상 전반에서 더 보편적으로 확대될 수 있도록 업종 확대를 비롯해 성장여력이 높은 서비스들을 지속 발굴해 나가는데 초점을 두고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2021.12.16.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>코스닥 데뷔한 KTB네트워크...11% 급락 마감</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003997809?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>[서울경제] 국내 1세대 벤처캐피탈(VC) 케이티비네트워크(298870)(KTB네트워크)가 코스닥 입성 첫날 공모가를 밑도는 종가를 기록했다. 앞서 공모가가 예상보다 낮게 측정되면서 상장 후 주가 상승에 대한 기대가 커졌지만, 기관들의 대규모 매도세에 힘을 받지 못한 것으로 분석된다.16일 한국거래소에 따르면 KTB네트워크는 시초가보다 11.28% 하락한 5,350원에 거래를 마쳤다. 시초가는 공모가(5,800원) 대비 3.97% 오른 6,030원에 형성됐지만, 장중 낙폭을 더해가며 결국 공모가 아래서 마감했다.KTB네트워크의 기업공개(IPO)는 지난 달 29~30일 실시된 기관 수요예측에서부터 삐걱댔다. 당시 코스피가 연중 최저치까지 내려앉자 기관 투심이 위축되며 공모가가 희망 밴드의 최하단인 5,800원에 결정됐다. 공모가가 예상보다 낮아진 덕분에 이후 진행된 일반 공모주 청약은 흥행에 성공했다. 상장 후 주가 상승을 기대한 개인들이 공모주에 4조 7,500억 원을 쏟은 덕분이었지만, 투자자들은 이날 실망스러운 성적표를 받아들었다.최근 코로나19 확산세 등에 따라 국내 증시에 대한 투심이 위축된 상황에서, 기관 확약물량이 적었던 점 역시 주가에 부담으로 작용한 것으로 분석된다. KTB네트워크에 대해 일정 기간 주식을 팔지 않겠다고 확약한 기관 물량은 75만 주 정도에 불과하기 때문이다. 실제로 이날 기관은 KTB네트워크를 343억 원가량 순매도한 것으로 나타났다.한편 KTB네트워크의 주가수익비율(PER)이 동종업계 대비 저평가돼있어 상승 여력이 충분하다는 의견도 나온다. 공모가 기준 KTB네트워크의 PER은 6.52배 수준으로 동종업계 평균 PER(11.19배) 대비 낮은 상태다. KTB네트워크가 우아한형제들(배달의민족), 토스 등 연이은 투자 성공으로 최근 좋은 성적을 내고 있는 점 역시 긍정적으로 평가된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2021.12.20.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>토스페이, 구글 제휴로 간편결제 영역 확장</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000122521?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>토스페이먼츠가 간편결제 영역을 확장하고 있다. /토스 제공올해 약 2500여개 가맹점 토스페이 도입 완료 토스의 페이테크 계열사 토스페이먼츠는 구글과의 제휴로 유튜브, 구글플레이에서 토스페이 결제가 가능하게 됐다고 20일 밝혔다.토스페이는 올해 타다, 스포티파이 등에 이어 글로벌 IT 기업 구글과 손을 잡으며 성장을 가속화하는 계기를 마련했다.토스페이는 토스 앱만 있으면 누구나 쉽고 안전하게 결제할 수 있는 간편결제 서비스다. 토스 앱에 결제수단으로 등록된 계좌 혹은 카드 등을 통해 토스페이 가맹점에서 편리하게 이용할 수 있다.구글플레이, 유튜브에서 토스페이로 결제하는 방법은 간단하다. 구글플레이의 경우 결제 수단 화면에서 'Toss 추가'를 클릭한 후, 토스 앱을 통한 간단한 본인 인증을 거치면 등록이 완료되어 유료 콘텐츠 결제 시 이용할 수 있다. 유튜브는 결제 수단으로 토스페이를 선택하면, 유튜브 프리미엄 정기 결제, 유튜브 영화, 채널 멤버십, 슈퍼챗 등 다양한 유료 서비스 결제 시 사용할 수 있다. 구글플레이와 유튜브 모두 웹과 앱에서 토스페이를 통한 결제가 가능하다.토스페이는 토스의 2100만 사용자 규모와 쉽고 편리한 결제 경험을 내세워 빠르게 성장하고 있다. 올해 토스페이를 도입한 가맹점은 12월 현재 기준 약 2500여개에 달하며, 넥슨, 라이엇, 스팀 등 MZ세대에게 인기가 높은 게임 및 콘텐츠 가맹점의 전체 결제 중 토스페이를 통한 결제 비중도 크게 증가했다.김민표 토스페이먼츠 대표는 "편리한 간편결제 서비스에 대한 고객 선호도가 높아지며, 토스페이를 도입하는 기업이 꾸준히 늘어나는 추세"라며 "더 많은 가맹점에서 토스페이의 간편하고 안전한 결제를 경험할 수 있도록 최선을 다해 지원해 나가겠다"고 말했다.더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2021.12.31.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>카카오뱅크 “가계대출 총량 관리 계획 준수”… 새해에도 고신용자 신규대출 중단</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003652882?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>인터넷 전문은행인 토스뱅크가 내년 신규 신용대출을 전면 재개하기로 한 것과 달리 카카오뱅크(카뱅)는 고신용자를 대상으로 하는 신규대출은 재개하지 않기로 했다.   카뱅은 내년에도 고신용자 대상 신용대출과 마이너스 대출의 신규 판매 중단 조치를 이어가기로 했다고 30일 밝혔다.   카뱅은 “신규 판매 중단 기간은 미정이며 재개 여부는 금융시장의 여건을 고려해 결정하겠다”고 밝혔다. 또 “2022년에도 카뱅은 금융시장 안정을 위한 가계대출 총량 관리 계획을 준수하며 고신용 고객 대상 신용대출보다는 중저신용 고객 대상 대출 확대에 최우선 순위를 두기로 했다”고 이번 결정의 배경을 설명했다.   앞서 카뱅은 지난 10월부터 고신용자에 대한 신규대출을 중단하고 중신용 대출 등에 매진해왔다.   내년에도 카뱅의 중신용 대출, 중신용 플러스대출, 사잇돌대출, 햇살론15 등은 올해와 동일하게 신청할 수 있다.   카뱅은 대출 상품 다변화를 위해 내년 1분기 비대면 주택담보대출 상품을 선보일 예정이며, 개인사업자 등을 대상으로 한 기업 대출 시장에도 진출할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2021.12.22.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>불붙은 '해외주식 소수점 거래' 경쟁… 증권사별 혜택은?</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000766909?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>[머니S리포트-서학개미 '해외주식 소수점투자' 열풍②] 한투·신금투 양분체제에서 삼성·KB증권·NH투자 합류[편집자주]최근 해외 주식 1주를 쪼개서 투자할 수 있는 소수단위 매매 바람이 거세다.  이는 국내증시가 주춤한 모습을 보이면서 해외주식으로 넘어간 투자자들이 증가한 영향과 무관치 않다. 여기에 금융당국이 해외에 이어 국내주식에 대한 소수단위 매매 허용을 추진키로 하면서 증시에 미칠 영향에도 관심이다. 소액 개인투자자들의 주식시장 유입을 유도해 시장 활성화에 긍정적으로 작용할 것이라는 평가도 나온다. 이에 증권사들도 관련 서비스를 잇따라 선보이며 각축전을 벌이고 있다. 국내외 소액주식 투자에 대한 관심이 많은 MZ세대를 주식거래 고객으로 유치하기 위해서다.MZ세대 사이에서 해외 주식에 투자하는 이른바 ‘서학개미’ 열풍이 불면서 증권사들이 잇따라 해외주식 소수점 매매 서비스 시장에 진출하고 있다./사진=이미지투데이◆기사 게재 순서①"테슬라 주식 0.1주 주세요" 소액으로 미국주식 투자하는 방법②'해외주식 소수점 거래' 경쟁 본격화… 증권사별 혜택은?③해외주식 소수점 거래 시대 개막… 투자자 유의사항은?MZ세대 사이에서 해외 주식에 투자하는 이른바 ‘서학개미’ 열풍이 불면서 증권사들이 잇따라 해외주식 소수점 매매 서비스 시장에 진출하고 있다. 올해 삼성증권, KB증권, NH투자증권이 서비스를 출시한 가운데 증권사들의 고객 유치 경쟁도 치열해질 전망이다.━올들어 증권사 3곳 서비스 시작… 내년 상반기까지 20여곳 합류 예정━금융투자업계에 따르면 현재 해외주식 소수점 거래가 가능한 증권사는 한국투자증권, 신한금융투자, 삼성증권, KB증권, NH투자증권 등 5곳이다. 가장 먼저 포문을 연 건 신한금융투자다. 신한금융투자는 2018년 10월 국내 증권사 최초로 미국 주식 소수점 투자 서비스를 선보였다. 당시 소수점 거래가 가능한 종목은 총 37개에 불과했지만 현재 395종목으로 늘었다. 뒤를 이어 한국투자증권이 지난해 8월 해외주식 소수점 거래 서비스를 시작했다. 신한금융투자와 한국투자증권의 양분체제 속에서 지난달 금융위원회가 증권사 20곳의 해외주식 소수점 거래 서비스를 혁신금융서비스로 신규 지정하면서 경쟁이 본격화되고 있다. 삼성증권은 지난달 29일 해외주식 소수점 주식 거래 서비스를 시작했다. 현재 간편투자앱 오투에서 해외주식 소수단위 거래서비스를 서비스 중이다. 내년 1분기에는 모바일앱 ‘엠팝(mPOP)’과 홈트레이딩시스팀(HTS)에도 본격적으로 적용할 예정이다. 지난 6일 KB증권에 이어 지난 13일에는 NH투자증권도 서비스를 오픈했다. 내년 상반기까지 DB금융투자, KTB투자증권, 교보증권, 대신증권, 메리츠증권, 미래에셋증권, 삼성증권, 신영증권, 신한금융투자, 유안타증권, 유진투자증권, 키움증권, 카카오페이증권, 토스증권, 하나금융투자, 하이투자증권, 한국투자증권, 한화투자증권 등 증권사가 순차적으로 해외주식 소수점 거래 서비스를 선보일 예정이다.━지원금·해외주식 증정부터 수수료 무료 혜택까지… 고객 유치 경쟁 치열━증권사들은 해외주식 소액 투자자를 신규 유치하기 위해 투자지원금 지급, 수수료 무료 혜택 등 다양한 이벤트로 고객잡기에 나서고 있다. 삼성증권은 해외주식 소수점 주식 매매 서비스 오픈에 맞춰 간편투자 앱 ‘오늘의 투자(오투)’에서 최대 12달러를 지원하는 이벤트를 내놨다. 해외주식소수점 매매 신청하는 고객을 대상으로 선착순 15만명에게 거래지원금을 지급한다. 신규고객은 10달러, 기존 고객은 2달러 받을 수 있다. 신규 고객이 오는 31일까지 이벤트 신청을 할 경우 1개월 동안 미국 주식 매수시 0%(매도시 0.00051%) 수수료를 적용받을 수 있다. 1개월이 지난 후부터는 11개월 동안 0.045% 수수료를 내면 된다. 환율도 신청일로부터 12개월 동안 최대 95%까지 우대 적용된다. KB증권은 해외주식 소수점거래 오픈에 앞서 예약 신청 이벤트를 진행하며 고객 몰이에 적극적으로 나섰다. 사전 예약한 고객을 대상으로 미국 우량 주식 MAGAT(마이크로소프트·애플·구글·아마존·테슬라) 5가지 종목의 소수점 주식 포트폴리오를 최소 5000원에서 최대 50만원까지 추첨을 통해 전원에게 지급했다. 사전 신청 이벤트에는 2주 동안 7만명이 넘는 신청자들이 몰리며 투자자들의 뜨거운 관심을 받았다. 특히 KB증권은 적립식 구매에 특화해 장기적인 투자를 지원하는 기능을 앞세워 주목을 받고 있다. 한 번에 10종목을 동시에 선택해 각 종목별 비중(금액)을 조정해 정기 구매를 할 수 있는 포트폴리오 조정기능이다. KB증권은 오는 31일까지 5000원이상 소수점매매 매수 고객에게 5000원에서 100만원까지 100% 당첨이 보장된 소수점주식 랜덤박스 추첨 기회도 제공하고 있다. 내년 2월 28일까지 10만원 이하 해외주식 소수점 매수시 수수료도 무료다. 여러 종목을 주문할 경우 10만원 이하 종목에 적용되며 종목 개수는 제한이 없다. 당일 매수주문 금액이 10만원을 넘을 경우 해당종목 전체 거래금액에 0.25%의 수수료가 적용된다. NH투자증권은 미국시장에 상장된 287종목과 ETF 22종 등 총 309종목에 소수점 주식 투자가 가능하다. 한발 앞서 출발한 삼성증권(100여종목)과 KB증권(300종목) 보다 선택의 폭이 넓다는 점이 매력 포인트다. 워런 버핏이 최고경영자(CEO)로 있는 세계에서 가장 비싼 주식인 버크셔 해서웨이(클래스A)를 최소 1000원에 거래할 수 있다. 이는 소수점 거래가 가능한 증권사 중 NH투자증권이 유일하다. 미국 주식시장 정규장(오후 11시30분~오전 6시)에 맞춰 주문할 필요없이 24시간 주문이 가능해 투자자의 편의성을 높였다. 원화 기준으로 주문하기 때문에 환전에 대한 불편도 해소했다. 별도의 어플리케이션(앱) 설치 없이 QV와 NAMUH(나무)의 주식 매매 계좌만 있으면 서비스 신청 후 매매할 수 있다.새로운 경쟁자들의 등장에 기존에 해외주식 소수점거래 서비스를 운영하던 증권사들도 고객잡기에 나서고 있다. 신한금융투자는 해외주식 거래 수수료 온라인 무료 이벤트를 통해 소수점 거래 고객들에게도 혜택을 제공하고 있다. 비대면 신규 및 휴면 고객 중 이벤트 신청 고객에게 90일 동안 해외주식 온라인 거래 가능 국가의 매매수수료를 무료로 적용한다. 수수료 무료 혜택이 종료된 이후에도 업계 최저 수준의 수수료 혜택을 제공한다는 점에서 차별화된다. 평생 온라인 수수료 미국 0.05%, 중국, 홍콩, 일본 0.07%가 적용된다. 이벤트 신청 다음 날부터 1년간 달러, 위안화, 엔화, 홍콩달러의 환전 수수료 95% 우대 혜택도 제공한다. 이벤트 대상 고객 모두에게 최대 5만원 상당의 해외주식상품권을 증정한다.한국투자증권은 소수점 거래 가능 주식이 550여종목으로 가장 많다는 점이 눈에 띈다. 소수점  주식 매수·매도 주문금액이 1만원 이하인 경우 월 10건 무료 수수료를 적용하고 있다. 또한 해외거래를 처음으로 신청하고 거래한 고객들을 대상으로 추첨을 통해 유명 해외주식 10월 순매수 상위 톱50 종목 주식을 지급하는 이벤트를 진행 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2021.12.26.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>연말 막혔던 은행 '대출빗장' 새해부터 풀리지만... "높은 문턱은 여전할 듯"</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000648971?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>1월부터 가계대출 총량  재설정우리銀 내년부터 우대금리 올리기로DSR 강화로 대출조건은 까다로워져11월 서울의 한 시중은행에 부착돼 있는 대출 안내판. 뉴시스은행권의 대출 빗장이 내년 1월부터 다소 풀릴 전망이다. 정부가 내건 내년도 가계대출 증가액 총량 한도가 1월부터 재설정되는 데다, 연초 대출 수요를 선점하려는 은행권의 경쟁도 치열해질 수 있어서다. 이미 시중은행 중에는 올해 사실상 폐지했던 우대금리 부활을 공언한 곳도 나왔다.하지만 내년부터는 상환 능력에 맞게 대출 한도를 결정하는 총부채원리금상환비율(DSR) 규제에 따라 대출 조건 자체가 더 까다로워지는 만큼, 내년에도 올해 못지않은 '대출 한파'가 지속될 것이란 전망이 나온다.26일 금융권에 따르면, 올해 정부의 고강도 가계부채 관리 기조에 따라 대출 문턱을 높였던 은행권은 내년 연초부터 대출을 재개할 준비에 한창이다. 시중은행들은 가계대출 총량 관리를 위해 올 하반기부터 우대금리를 깎거나 아예 신규 대출을 중단해왔는데, 새해부터 이를 되살리기 위한 작업을 시작한 것이다. 내년에 재설정되는 당국의 가계대출 증가율 관리 목표는 4~5%대다. 실제 우리은행은 최근 상품 공시를 통해 내달 3일부터 신용대출  10개와 주택담보대출 4개 상품의 우대금리를 기존 대비 최대 0.6%포인트까지 올린다고 밝혔다. 가령 신용대출 상품인 '우리 주거래직장인대출'의 경우 현재 우대금리는 최대 0.3%포인트지만, 1월 3일부터 최대 0.9%포인트로 늘어난다. 단 시행일 이후 해당 상품에 새로 가입하거나 연장(재연장 포함)하는 대출에만 적용된다. SC제일은행은 지난 10월 말 이후 중단된 주담대 상품 '퍼스트홈론'의 내년 1월 판매 재개를 앞두고 지난 20일부터 사전 신규 접수를 받고 있다. 지난 10월, 출범 9일 만에 대출 한도를 소진해 신규 대출을 중단했던 인터넷전문은행 토스뱅크도 내달 초 신규 신용대출 등을 재개한다고 공지한 상태다.다만 개별 소비자의 대출 조건은 더 까다로워질 전망이다. 금융당국이 차주별 대출 한도를 연소득에 따라 제한하는 DSR 규제를 내년부터 대폭 강화하기 때문이다. 내년부터는 모든 대출금(원금+이자)이 연소득의 40%를 넘을 수 없다. 1월부터는 총 대출액이 2억 원이 넘으면 규제 대상이 되고, 7월부터는 1억 원 초과 대출로 적용 대상이 더 확대된다. 이미 억대 대출이 있거나 소득이 적은 경우 내년부터는 사실상 은행에서 추가로 돈을 빌리기 쉽지 않아진다는 뜻이다. 여기에 최근 가파른 금리 상승세로 인해 실질적인 대출 문턱은 더 높아질 가능성이 높다. 시중은행 관계자는 "DSR 규제가 세질수록 빌릴 수 있는 대출금 자체는 줄어들 수밖에 없다"며 "특히 금리 인상까지 겹치면 내년 대출 문턱은 사실상 올해보다 더 높아질 수도 있다"고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2021.12.26.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>은행 가계대출 재개 준비…조건은 더 까다로워질 듯</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002560818?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>5대 은행 본점 로고.ⓒ연합뉴스[데일리안 = 부광우 기자] 은행권이 새해 가계부채 총량 한도 재설정을 앞두고 대출 재개 준비에 속도를 내고 있다. 다만 금융당국이 내년 가계부채 증가율을 올해보다 낮은 수준에서 관리할 계획인데다, 차주별 총부채원리금상환비율(DSR) 조기 시행으로 대출 조건은 더 까다로워질 것으로 보인다.26일 금융권에 따르면 연간 단위로 설정되는 은행별 대출 총량 목표치가 다음 달 1일자로 재설정된다. 이에 맞춰 금융당국의 가계부채 관리 강화로 대출 문턱을 높이거나 아예 대출을 중단해야 했던 은행권은 대출 재개 준비에 들어갔다.우선 가계대출 총량 관리를 위해 우대금리를 축소하는 방식으로 수요를 관리했던 은행들은 이를 일부 복원시키고 있다. 우리은행은 다음 달 3일부터 10개 신용대출 상품과 4개 주택담보대출의 우대금리를 기존 대비 최대 0.6%p까지 올리기로 했다. 이처럼 우대금리를 확대하면 사실상 대출 금리가 낮아지는 효과가 있다.NH농협은행은 다음 달부터 신규 주택담보대출 판매를 정상화한다. 지난 8월 주택담보대출을 중단했던 농협은행은 이번 달부터 무주택자에만 부분적으로 신규 주택담보대출 판매를 재개한 상태였다. 지난 달 최대 2000만원까지 축소했던 신용대출 한도도 다시 1억원으로 확대한다.이밖에 SC제일은행은 내년 주택담보대출 재개에 앞서 이본 달 20일부터 사전 신규 신청을 받고 있다. 또 올해 출범 직후부터 한도 소진으로 신규 대출을 중단해야 했던 인터넷전문은행 토스뱅크도 다음 달 1일 신규 대출을 재개한다. 카카오뱅크는 내년 초 비대면 주택담보대출 상품 출시를 앞두고 있다.은행권의 막혔던 대출 창구가 속속 열리지만 내년부터 강화되는 차주별 DSR 규제로 대출 조건은 까다로워진다. DSR은 대출을 받으려는 사람의 소득 대비 갚아야 할 원리금의 비율 뜻하는 지표로, 주택담보대출 한도만 계산하는 담보인정비율과 달리 신용대출과 카드론 등 모든 금융권 대출의 원리금 부담을 포함한다. 이 때문에 DSR을 엄격하게 적용하면 대출 한도가 줄어드는 효과가 난다.금융위원회가 지난 10월 말 발표한 가계부채 관리 강화 방안에 따라 내년 1월부터는 총대출액이 2억원을 초과하는 대출자에게 차주단위 DSR 규제가 적용되고, 같은 해 7월부터는 1억원 초과 대출자까지 확대된다.또 금융당국 가계부채 총량 관리 기조도 한층 강화된다. 금융당국은 내년 가계대출 총량 증가율 목표치를 4~5%대로 올해보다 낮게 설정했다. 금융당국은 올해 연간 가계부채 증가율을 5~6%대로 묶겠다는 가계부채 관리 방침을 지난 4월부터 시행해 왔다.다만 실수요자에게는 추가 대출 한도가 부여될 전망이다. 시중은행들은 결혼·장례·상속세·출산·수술·입원 등에 필요한 신용대출의 특별한도를 연 소득의 0.5배 이내, 최대 1억원까지 추가 적용하기로 의견을 모았다. 당국과의 협의를 마치면 다음 달부터 시행될 예정이다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2021.12.16~2021.12.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2021.12.16~2021.12.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1706,1256 +1706,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2021.12.17.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>美, '선구매 후결제' BNPL 기업 조사…"소비자 피해 잠재"</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010895515?sid=104</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>기사내용 요약소비자금융보호국, 어펌 등 5개 업체 정보 수집"상품 즉시 구입 가능하지만 빚도 즉시 생겨"[서울=뉴시스] 임종명 기자 = 미국에서 신용카드 없이도 물품을 우선 구매한 뒤 나중에 결제할 수 있는 이른바 '선구매 후결제'(Buy Now Pay Later·BNPL) 업체에 대한 조사가 시작된다.CNN비즈니스에 따르면 16일(현지시간) 미 소비자금융보호국(CFPB) 대표기업인 어펌(Affirm)과 호주 애프터페이, 스웨덴 핀테크 기업 클라나, 마이크로소프트가 도입한 BNPL 집(Zip) 등 5개 업체로부터 "급증하는 대출의 위험과 이익에 대한 정보를 수집한다"고 밝혔다.CFPB은 "선구매 후결제는 기존 레이어웨이(상품 값 일부만 먼저 지불한 뒤 연말 쇼핑시즌에 완불하고 상품 수령하는 예약 구입 프로그램)의 새로운 버전"이라며 "소비자는 즉시 상품을 구입할 수 있지만 빚도 즉시 생기는 것"이라고 지적했다.그러면서 "특히 소비자가 BNPL 서비스를 이용해 얼마나 빨리 부채를 축적할 수 있는지, BNPL 업체들이 고객에 대한 데이터를 어떻게 수집할 지 등이 우려된다"며 이번 조사는 호주, 스웨덴, 독일, 영국의 국제 파트너들과 함께 진행하고 있다고 했다.이번 조사 계획 발표는 엘리자베스 워런(메사추세츠) 의원을 포함한 민주당 상원의원 6명이 CFPB에 서한을 보내 업계에서 악용될 수 있는 관행을 조사해달라고 촉구한 지 하루만에 나온 것이다.상원의원들은 서한을 통해 "업체를 통해 소액결제를 대행하는 것은 더 많은 비용의 결제 대행으로 이어질 수 있고, 이것은 소비자에게 해를 끼칠 가능성도 있다"고 강조했다.BNPL은 올해 금융서비스업계의 큰 흐름으로 꼽힌다. 어펌의 주가는 이날 하락폭을 감안하더라도 공모가보다 두 배 가까이 올랐다. 이 업체는 지난 8월 아마존과의 계약을 발표한 바 있다.업계에서는 CFPB과 의회의 입장에 환영의사를 밝히며 협력할 것이라고 전했다.어펌 관계자는 CNN비즈니스에 "소비자들에게 이익을 주고 우리 산업 내 투명성을 증진시키는 규제 노력을 검토하고 지원하는 CFPB의 노력을 환영한다"고 말했다.그러면서 "회사가 지불금이나 숨겨진 수수료를 부과한 적이 없다. 우리는 우리 임무를 진척시키는 노력을 지원하기 위해 감독 당국을 포함한 모든 이해관계자들과 지속적으로 관여할 것"이라고 보탰다.클라나 측은 "우리는우리 서비스가 어떻게 구조화되고, 사용되고, 소비자와 소매상 모두에게 이익이 되는지를 알리기 위해 규제 당국과 계속 협력할 것"이라고 했다.애프터페이 관계자는 "다양한 BNPL산업에서 소비자들을 위한 적절한 규제적 보호책이 마련되도록 하는 노력을 환영한다"며 "애프터페이는 소비자들에게 데이터를 보호하면서 높은 기준을 충족시키고 긍정적인 소비 결과를 제공하고 있다"고 말했다.이어 "기존의 신용카드 지불에 비해 투명성이 향상되고 비용이 줄고, 더 나은 예산을 세울 수 있고, 책임있는 지출을 촉진한다"고 덧붙였다.BNPL은 국내에서도 '후불결제', '나중결제' 등의 이름으로 시장이 급부상하고 있다.네이버파이낸셜은 네이버페이 후불결제, 쿠팡은 쿠페이 나중결제로 시장에 뛰어들었고 토스 운영사인 비비리 퍼블리카와 카카오페이도 준비 중이라 내년이 상반기 4파전이 예상된다. 비슷한 용도로 사용되는 신용카드에 비해 무이자인 점 등을 감안했을 때 시장에 위협 요인이 될 수 있어 내년 결제 시장에 큰 파장을 부를 것으로 보인다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2021.12.27.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>다음주 은행 대출 재개… “한도 동날라” 패닉대출 우려</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001494237?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>은행들 금리 낮추고 대출정상화우리은행 우대금리 0.6%P 인상연별 총량규제 월별 규제로 강화30대 직장인 A씨는 지난 10월 토스뱅크 출범과 동시에 한도 2000만원의 마이너스통장(마통)을 개설했다. 당장 필요한 건 아니었지만 다가올 ‘대출 절벽’에 대한 우려 때문이었다. 내년부터는 기간별로 은행 대출한도가 제한된다는 소식에 A씨는 다음 주 은행 대출이 재개되자마자 마통 한도를 최대한으로 늘려 받아놓을 생각이다.금융당국의 강력한 가계대출 규제 정책으로 막혔던 대출길이 내년부터 다시 트인다. 연 단위로 적용되는 총량규제가 오는 31일 끝나고 1월3일부터 리셋되기 때문이다. 그럼에도 내년부터는 더 강화된 월별 총량규제가 시작되는 만큼 한도 소진 전에 미리 대출을 받아 놓으려는  사람들이 몰리면서 ‘패닉대출’ 현상이 재현될 우려가 일고 있다.26일 금융권에 따르면 주요 시중은행은 대출금리를 낮추고 중단했던 대출 상품 판매를 재개하는 등 대출 정상화에 속속 나서고 있다.우리은행은 다음 달 3일부터 신용대출 10개 상품과 주택담보대출 4개 상품의 우대금리를 최대 0.6%포인트 인상한다. 사실상의 대출금리 인하 조치다. NH농협은행은 지난 8월 이후 4개월여간 중단했던 ‘NH주택담보대출’ 등 주담대 상품의 판매를 정상화한다. 지난달부터 최대 2000만원까지로 낮췄던 신용대출 한도도 1억원으로 복구한다. SC제일은행도 지난 20일부터 신규 주담대 신청을 받고 있다.총량규제에 가로막혀 대출 자체를 중단했던 인터넷전문은행도 분주한 분위기다. 카카오뱅크는 지난 10월부터 중단했던 신용대출·마이너스통장 대출을 1월부터 재개할 계획이다. 출범 9일 만에 대출을 중단했던 토스뱅크도 대출 사업을 재개한다.막혔던 대출길이 열리며 실수요자들은 다소나마 숨통이 트이게 됐다. 문제는 금융당국이 내년부터 도입하기로 한 기간별 총량규제다. 당국은 이제까지 금융회사가 대출 수요자들에게 내줄 수 있는 대출의 총량을 사실상 연 단위로 규제해왔다. 하지만 당국은 내년부터는 특정 기간에 대출수요가 몰리는 일이 없도록 기간별 총량을 다르게 설정하겠다고 밝혔다. 금융당국 관계자는 “은행이 제출한 월별 대출 실행 계획을 바탕으로 협의해 총량을 설정할 것”이라고 밝혔다.이에 따라 내년부터는 은행이 자체 설정한 기간별 한도가 바닥날 것을 우려한 대출 수요자들의 패닉대출 행렬이 나타날 가능성도 제기된다. 올해는 각 은행의 연간 총량한도 내에만 들면 대출을 받을 수 있었지만, 내년부터는 해당 기간에 부여된 총량이 바닥날 때까지 대출을 신청하지 않으면 대출길이 막히는 셈이기 때문이다. 직전해 대비 가계대출 증가율도 올해 5~6%대에서 내년엔 4~5%대로 줄어든다.김소영 서울대 경제학과 교수는 “올해보다 가계대출 총량규제가 강화될 것이라는 사실이 명확해진 만큼 대출 수요자들이 연초부터 대출 한도를 확보하려 들 유인은 충분하다”며 “기간별 총량규제를 실시하면 특정 기간에 대출이 극단적으로 쏠리는 것은 막을 수 있겠지만, 대출절벽 현상에 대한 근본적인 해법은 될 수 없다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2021.12.23.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>"콜당 7500원 쏩니다" 우티 프로모션…택시·승객은 '시큰둥'</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004687027?sid=105</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>모빌리티발 '쩐의 전쟁'이 연말 거리두기 강화 국면에서도 이어지고 있다. 택시 업계와 갈등으로 카카오가 움츠린 틈새를 우티(UT)가 파고든다. 우티는 지난달 통합앱 출시 이후 적극적인 프로모션에 나서고 있다. 다만 이용자는 좀처럼 불어나지 않는 모양새다. 22일 택시 업계에 따르면 우티는 지난 20일부터 오는 26일까지 운행 완료 건당 기본요금(3800원)의 2배에 가까운 7500원을 별도로 지급하는 프로모션을 진행 중이다.  해당 프로모션은 특정 지역과 시간대에 출발하는 택시만을 대상으로 한다. 콜(호출)이 몰리는 출근시간대와 퇴근시간대 피크타임에 택시를 집중해 모객 효과를 극대화하려는 의도다. 우티는 직장인이 많은 서울 종로구와 강남구 등을 비롯해 △중구 △용산구 △마포구 △영등포구 △서초구 △송파구 등 주요 혼잡지역을 프로모션 지역으로 설정했다. 프로모션 적용 시간은 오전 7시부터 10시(3시간), 오후 5시부터 11시(6시간)까지다. 이번 우티 프로모션의 경우 최대 130건까지 신청할 수 있어 일주일 사이 택시 1대당 97만5000원의 추가 수익을 올릴 수 있다. 일부 택시기사들은 사회적 거리두기 강화로 연말 특수가 사라진 상황에서 우티의 프로모션을 긍정적으로 평가하는 분위기다. 한 업계 관계자는 "최대한 많은 택시를 확보해 승객이 자연스럽게 우티를 이용하게 만들려고 파격적인 프로모션을 꺼내든 것 같다"고 말했다.그러나 이같은 시도에도 불구하고 우티는 여전히 시장 안착에 어려움을 겪는 것으로 알려졌다. 승객 입장에서는 예상 요금을 미리 결제하는 방식과 부정확한 위치 정보 등에서 불만이 나온다. 이에 일일 이용자 수가 지난달 초 7만3000명까지 올랐으나 이달 초에는 4만명대까지 떨어졌다. 택시기사 입장에선 목적지를 보여주지 않아 쓰기 꺼려진다는 반응이다. 앞서 진행했던 프로모션 대금도 제때 지급되지 않아 일부 법인택시에서는 아예 우티를 쓰지 말라는 지침을 내리기도 했다. 금융 플랫폼 토스가 인수한 VCNC도 우티와 마찬가지로 물량전에 한창이다. 지난달부터 과거 '타다 베이직'을 재현한 대형 택시 서비스 '타다 넥스트'를 선보였다. 연말까지 모든 승객에 이용 요금의 50%를 할인해주는 행사도 진행한다.  한편 업계에서는 예상치 못한 '위드코로나'(단계적 일상회복) 중단에 이들 후발주자의 기세가 꺾였다는 말이 나온다. 실제 코로나가 한창이던 올해 8월 기준 지난해보다 2만4000명정도의 택시기사가 줄어드는 등 이동 수요가 크게 떨어지기도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2021.12.20.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>한국솔가, 연말 굿바이 프로모션 진행</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/382/0000951999?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>비타민 전문기업 한국솔가(대표 박미숙)는 31일까지 공식몰과 백화점에서 연말 프로모션 ‘Good bye, Good buy’를 진행한다. 솔가 베스트셀러 제품 14종을 합리적인 가격으로 구성했다. 솔가몰 인기제품 남성용·여성용 멀티비타민&amp;미네랄과 비타민 D3 2200IU, 엽산 400 등을 단일과 복합제품 세트로 만나볼 수 있다. 토스 만보기 쿠폰으로 백화점 매장서 제품 구매 시 소버스 ‘몽모랑시 타트체리 7포’ 증정과 할인 이벤트 등 다양한 제휴 서비스도 실시한다. 공식몰 구매 고객을 대상으로 크리스마스 양말을 증정하는 이벤트도 있다.스포츠동아 김재범 기자 oldfield@donga.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2021.12.28.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>토스 운영사 비바리퍼블리카 내년 상반기 8번째 투자 유치 나선다</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000783183?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>영업손실에도 기업 가치 최대 23조원 일각에서는 고평가 논란도 있어토스 제공        핀테크 플랫폼 ‘토스’ 운영사인 비바리퍼블리카가 내년 상반기 추가 투자금 유치에 나선다. 시장에서는 사실상 상장 전 마지막 투자 유치인 프리 IPO가 개시된 것으로 보고 있다.28일 금융투자업계에 따르면 비바리퍼블리카 재무 총괄 부서 ‘코퍼레이트 디벨롭먼트(Corporate Development)팀’은 토스의 8차 투자 유치에 나서기 위한 계획을 수립 중이다. 정확한 투자 유치 규모는 정해진 바 없다.지난 2013년 8월 법인을 설립한 비바리퍼블리카는 누적 투자금액 1조원을 달성했다. 앞서 비바리퍼블리카는 4600억원 규모 시리즈G 투자를 유치한 바 있다. 주요 투자자로는 한국산업은행, 미국계 사모펀드 알키온캐피탈매니지먼트, 미국계 벤처캐피탈 알토스벤처스, 세쿼이아캐피탈차이나, 영국계 벤처캐피탈 그레이하운드캐피탈, 케이티비네트워크, 홍콩계 벤처캐피탈 애스펙스매니지먼트, 싱가포르투자청 등이 참여했다.회사는 시리즈 A부터 G까지 총 7번의 투자 유치에 이어 8번째 투자 자금 유치에 나서면서 기업 가치를 높일 것으로 보인다. 토스 관계자는 “내부에서 내년 투자 자금 유치를 위한 검토를 진행 중인 것은 맞다”고 했다.업계는 비바리퍼블리카가 상장 전 최종 자금 조달을 통해 최소 16조에서 최대 23조원의 기업가치를 인정받을 것이란 전망도 나온다. 지난 6월 마지막 투자 유치 당시 약 8조원으로 평가됐던 기업가치가 1년도 채 지나지 않아 약 2.5배가량 뛰어오르는 셈이다.장외 시장에서는 최근 5개월 새 주가가 급등했다. 비상장 주식 거래 플랫폼 ‘서울거래 비상장’에 따르면 올 7월 초 8만원대이던 비바리퍼블리카의 주가는 이달 14만원까지 뛰었다. 기업가치도 23조1010억원에 달했다.업계 일각에서는 아직 상장도 하기 전인 비바리퍼블리카의 몸값이 급등한 이유가 지분 매각 과정 시도에 따른 것이라는 의견도 있다. 지분을 보유하고 있던 기존 주주가 80만주 가량을 매각하려고 추진 중인데 주당 10만원 수준의 가격을 제시하면서 전체 기업가치가 높아졌다는 의미다. 매도자는 지난해 투자에 참여한 영국 그레이하운드캐피탈 등 해외 투자자며 매도를 위해 국내·외 주요 벤처캐피탈(VC)과 사모펀드(PEF) 운용사, 증권사 등과 접촉 중이다. 해외 투자자가 이렇게 장외 시장에서 고가의 매도 물량을 내놓으면서 일시적으로 기업가치와 주가가 올라갔다는 얘기가 금융투자업계 일각에서 나오고 있다.한편 기존 투자자들의 비바리퍼블리카에 투자한 자금을 회수하는 기간이 최소 3년은 더 걸릴 것이란 관측도 나온다. 또 손익분기점(BEP) 달성까진 최소 3년 이상 걸릴 것이라는 분석도 있다.토스는 지난 5년간 매년 매출액을 2배 이상 늘렸다. 사업 규모가 확대된 최근 3년 기준으로 놓고 보면 매출액의 연평균 성장률(CAGR)은 167% 수준이다. 매출의 83%를 은행, 카드, 보험 등 제휴 금융회사로부터 받는 기업 대 기업(B2B) 사업 모델을 통해 얻고 있다. 다만 여전히 영업이익은 마이너스다. 토스는 지난해 기준 매출액 3839억원(2020년 기준)을 달성했지만, 영업 손실은 725억에 달한다.금융투자업계 관계자는 “금융 디지털화는 이미 거스를 수 없는 대세이며, 토스의 경쟁력은 지속적으로 높아질 것만은 분명하다”면서도 “하지만 장외 거래에서 현재의 기업가치인 약 23조를 받을 만큼의 밸류에이션(기업가치)이 적당한 지에 대해선 평가가 엇갈릴 수 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2021.12.30.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>은행 개발자 몸값 더 높아진다...부서 넘나들며 플랫폼 특명 완수</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004689708?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>KB국민·신한·하나·우리 4대 은행 본점/사진=각 은행내년 은행권에서 개발자 등 디지털 인재의 몸값이 좀더 높아질 전망이다. 주요 은행이 플랫폼 강화에 방점을 찍고 조직 개편을 단행하면서다. 직무간 경계를 허물고 주력 사업별로 팀을 짰는데 개발자 등 디지털 인재가 주요 조직에 전진 배치되면서 영향력이 커졌다.29일 은행권에 따르면 KB국민·신한·하나·우리 등 주요 은행은 플랫폼 강화를 당면 과제로 삼고 내년 조직을 정비했다. 조직 개편의 방향은 '데브옵스(DevOps)', '애자일(Agile)' 등으로 설명했다. 데브옵스는 개발, 운영의 합성어로 개발자와 운영자가 함께 일하는 방법을 뜻한다. 민첩하다는 의미를 지닌 애자일은 부서간, 직무간 경계 없이 유연하게 일하는 방식을 가리킨다. 국민은행은 디지털신사업, 펀드서비스, 기업뱅킹 등 모두 8개 부문을 데브옵스 조직으로 꾸렸다. 아울러 KB스타뱅킹을 슈퍼앱(애플리케이션)으로 키우기 위해 금융플랫폼본부 등을 신설했다. 플랫폼 성장을 위해 디지털신사업본부도 새로 만들었다.  신한은행은 특정 과제를 중심으로 움직이는 애자일 조직인 트라이브(Tribe)를 6개를 구축했는데 은행의 핵심과제를 엿볼 수 있다. 리(re)플랫폼트라이브에서 '뉴(new) 앱' 개발을 진행하는 식이다. 신한은행은 195억원 상당을 투입해 앱을 전면 개편하는 '뉴 앱 프로젝트'를 추진 중이다. 리플랫폼트라이브와 함께 플랫폼개발트라이브도 별도를 꾸려 플랫폼 강화에 만전을 기했다. 하나은행은 디지털리테일그룹 안에 DT(디지털전환)혁신본부를 신설하면서 하나금융그룹의 중점과제 '디지털 퍼스트(First)'를 실현하기 위한 조치라고 설명했다. 우리은행은 조직 개편을 실시하면서 '금융플랫폼 기업 도약'을 선언했다. 이처럼 개발자 등 디지털 인재가 부서를 넘나들며 은행의 주력 사업을 맡게 되면서 인력 면에서도 '디지털 퍼스트'인 구조가 굳어질 것으로 보인다. 실제 주요 은행은 올해 일반 공개채용보다 디지털 인재 수시채용에 더 열을 올렸다. 신한은행은 올해 디지털·ICT(정보통신기술) 부문 수시채용 등으로 200여명의 디지털 인력을 보강했다. 그런가하면 일반직 공채에서도 디지털 평가를 도입했다. 우리은행은 올해 입행한 디지털·IT(정보기술) 신입행원에게 주요 대학 디지털금융 MBA 과정을 밟게 하는 등 혜택을 준 반면, 올해 일반 공채는 진행하지 않았다.  이미 카카오뱅크, 토스뱅크 등 인터넷전문은행에서는 개발 인력의 비중이 30~40%로 높은데 기존 은행도 점차 비중을 늘려갈 방침이다. 채용과 맞물려 영업 인력 위주의 대규모 희망퇴직도 진행되고 있다. 디지털 인재의 영향력이 커지면서 은행의 순혈주의도 깨지는 분위기다. 디지털 수장으로 외부 인재가 속속 영입되면서다. 최근 신한금융지주는 그룹의 디지털 사령탑인 CDO(최고디지털책임자)에 외부 인사인 김명희 부사장을 선임했다. 시중은행 관계자는 "은행 안에서 디지털 인재를 구분해 비중을 나누기 어려운 면이 있는데, 어떤 측면으로 보면 누구나 디지털 인재가 되는 방향으로 가려하는 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2021.12.25.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>토스증권, 10대 청소년 대상 비대면 계좌 개설 서비스</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003651104?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>토스증권은 10대 청소년 고객들의 비대면 계좌 개설 서비스를 시작한다고 24일 밝혔다. 만 14세 이상 만 19세 미만의 청소년이라면 보호자 동의를 거쳐 토스 앱에서 토스증권 계좌를 개설할 수 있다.   청소년 고객은 토스증권에 접속해 신분증과 본인 명의 계좌를 통한 간단한 본인 인증 후 보호자 동의 절차가 완료되면 계좌를 개설할 수 있다. 본인 인증을 위해서는 나이에 따라 여권, 주민등록증, 운전면허증, 원동기면허증을 사용할 수 있다. 계좌 개설을 신청하면 보호자의 휴대폰으로 알림이 전송되며, 보호자는 자녀의 계좌 개설 동의 및 공동인증서를 통한 가족관계 확인 절차를 진행하게 된다.   보호자가 먼저 청소년 자녀의 계좌 개설을 신청할 수도 있다. 보호자가 신청 및 동의 절차를 완료하면 자녀에게 알림이 전송되고, 이후 자녀가 직접 토스증권에 접속해 계좌를 개설하면 된다.   토스증권은 10대 청소년들에게 조기에 쉽고 직관적인 투자 경험을 선보이고, 투자가 하나의 문화로 정착될 수 있는 저변을 확대해 나갈 계획이다.   토스증권 관계자는 “저성장, 고령화 등 뉴노멀로 불리는 투자환경에서 금융에 대한 교육과 앞선 경험은 더욱 중요해지고 있다”며 “부모와 함께 10대 청소년 스스로 투자를 경험하고 공부하는 데 있어 이번 비대면 서비스가 도움이 되길 기대한다”고 밝혔다.   미성년자들의 주식 계좌 수는 매년 급격한 증가세를 보이고 있으며, 이같은 추세는 계속될 전망이다. 금융감독원에 따르면 지난해 기준 신규 개설된 미성년자 주식 계좌는 47만5399개로 전년 대비 5배 이상 상승했다.    한편, 토스증권은 이달 말까지 신규 계좌 개설 고객을 대상으로 ’해외주식 1주 선물받기’ 이벤트를 진행한다. 이벤트 기간 내 생애 최초 토스증권 계좌를 개설하는 10대 청소년 고객들은 미국주식 1주를 지급받고 투자를 시작할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2021.12.28.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>문턱 살짝 낮춘 은행권… 연말연시 가계대출 ‘숨통’</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002497797?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>새해부터 총량규제 해제되면서 농협, 신용대출 한도 1억까지 카뱅 등 인터넷은행도 대출 재개 DSR에 고신용자도 더 어려워져은행들이 연말·연시를 기점으로 대출 영업을 정상화하고 있다. 일부 은행이 가계대출 총량규제에 따라 단단히 빗장을 걸어 잠근 결과 12월 대출 여력이 생긴 데다가 새해부터는 총량규제가 리셋(재설정)되면서 대출에 물꼬가 트일 것으로 예상된다. 일각에서는 내년 3월 9일 대통령 선거를 앞두고 서민들의 불만을 달래기 위해 정치권을 중심으로 선심성 완화 기조를 보이고 있다는 분석도 제기된다.28일 은행권에 따르면 시중은행과 인터넷전문은행은 내년 가계대출 총량 증가율 목표에 맞춰 월별·분기별 관리 방식의 대출 영업을 시작한다. 농협은행은 다음달 3일부터 신규 주택담보대출을 재개하고 지난달 2000만 원까지 낮아졌던 신용대출 한도를 다시 1억 원으로 확대한다. 우리은행도 일부 신용대출과 주담대 우대금리를 0.3~0.6%포인트 인상한다. 대표적인 신용대출 상품인 직장인대출(비대면 포함)은 최대 우대금리폭이 0.9%까지 오른다. 우대금리 인상은 사실상 대출금리 인하에 해당한다.인터넷전문은행들도 대출 재개에 나서고 있다. 카카오뱅크는 내년 초 비대면 주담대 상품을 출시할 계획이고, 토스뱅크는 다음 달 1일부터 모든 대출을 전면 재개한다. 앞서 KB국민은행은 모기지신용보험(보증)대출 등 기존에 적용했던 일시적 대출 제한조치를 이달 초 전부 해제했다. 하나은행도 지난달 비대면 대출인 하나원큐 신용대출과 아파트론 판매를 재개했다. 하반기 가계대출 증가율이 금융당국 권고치(연 5~6%)에 근접해 일제히 조이기에 나섰지만 내년 초 총량 한도가 재설정돼 대출 여력이 생겼기 때문이다.총량규제 ‘리셋’ 영향도 크지만 금융권에서는 대선을 앞두고 은행권이 대출을 올 하반기처럼 마냥 옭아매기는 어려울 것으로 전망하고 있다. 전세·집단대출 규제로 서민·실수요자들이 금융당국의 행보에 큰 반감을 보였기 때문에 이탈하는 민심을 수습할 필요가 있다는 해석이다. 이달 초 SGI서울보증이 고가 전세대출 보증을 제공하지 않는 방안을 검토했다가 실수요자의 피해를 고려해 실행에 옮기지 않기도 했다. 금융권 관계자는 “대선과 지방선거를 앞두고 정치권에서는 대출 관련 압박 수위를 높이는 데 부담을 가질 수밖에 없을 것”이라고 진단했다.대출이 일부 재개된다고 해도 중·저신용자와 달리 고신용자들은 내년에도 돈 빌리기가 어려울 전망이다. 주요 은행은 금융당국에 내년 가계대출 증가율 목표치를 올해보다 1%포인트 낮은 4~5%대로 제시했다. 개인별 총부채원리금상환비율(DSR)도 기존보다 6개월 앞당겨 다음 달부터 본격 시행된다. 내년 1월부터는 총대출액이 2억 원이 넘는 모든 대출에 대해 연간 대출 원리금 상환액이 연소득의 40%를 넘을 수 없다. 이어 7월부터는 총대출액이 1억 원이 넘는 모든 대출에 같은 규제가 적용된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2021.12.29.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>은행권, 음식배달·편의점주문 서비스 통한 '생활금융 플랫폼' 변신 예고…기대와 우려는 반반</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003816864?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>주요 시중은행들이 전통적인 금융업에서 벗어나 배달과 같은 생활 서비스 시장에 앞다퉈 뛰어들고 있다. 빅테크(대형 IT업체)가 금융업 영역에 먼저 침범한 만큼, 이제는 은행권이 주요 빅테크 산업에 진출해 궁극적으로 '생활금융 플랫폼'을 완성하겠다는 목표를 내세우고 있다.금융위원회 역시 기존 금융권에 대해 업무범위 확대 등 신사업 진출을 지원하겠다고 예고한 만큼 은행권의 다양한 생활 서비스를 비롯해 금융·비금융 융합 서비스 추진 속도가 한층 빨라질 것으로 전망된다.최근 금융권에 따르면 신한은행은 독자적 음식배달 서비스 앱 '땡겨요'를 공개하고 베타 서비스에 돌입했다. 서울 강남·서초·송파·관악 등 6개 구를 시작으로 내년 말까지 서울 전역과 경기도 등에 약 8만개 가맹점을 확보한다는 계획이다.'땡겨요'는 신한은행의 기존 금융 플랫폼인 '쏠(SOL)'의 부대 서비스로 추가되는 것이 아닌, 독립된 별도의 앱으로 운영되는 것이 특징이다. 배달의민족이나 쿠팡이츠처럼 신한은행 고객이 아니어도 편하게 이용할 수 있는 것이 장점이며, 신한은행이 본격적으로 음식배달 서비스 시장 진출에 나섰다는 데 의미가 있다.신한은행 관계자는 "가맹점 입점 수수료와 광고비용이 없고 중개 수수료도 공공 배달앱 수준으로 저렴하다는 게 강점"이라며 "신한은행의 마케팅 지원금을 통해 단골을 관리하고 영업을 촉진할 수도 있다"고 설명했다.우리은행도 모바일뱅킹 앱 '우리WON뱅킹'에서 편의점 상품을 주문·배달받을 수 있는 서비스인 '마이 편의점'을 출시했다. 앱 이용률을 높이기 위해 출시된 이 서비스는 오전 11시부터 오후 11시까지 세븐일레븐 상품 1만5000원 이상을 주문하면 고객이 원하는 장소로 배달이 가능하다.하나은행은 모바일뱅킹 '하나원큐'에서 '신차 견적 서비스'를 시작했다. 하나은행 관계자는 "복잡하고 번거로운 신차 구매 절차를 개선하고 합리적인 자동차 소비 생활을 지원하기 위해 마련됐다"고 해당 서비스에 대해 설명했다.국민은행 역시 자사 앱인 'KB스타뱅킹'에 배달앱 '요기요' 배너를 탑재했다. NH농협은행의 경우 지난 8월부터 모바일뱅킹 앱 '올원뱅크'에서 꽃배달 결제 서비스 '올원플라워'를 제공하고 있다. 이용자들은 한국화훼농협의 꽃다발과 화환, 난 등 화훼 상품을 등록된 농협 계좌와 카드로 구매하고 선물할 수 있다.은행권이 앞다퉈 신사업 진출에 공격적으로 나선 배경에는 금융업에서 점차 영향력을 높이고 있는 네이버, 카카오, 토스와 같은 빅테크 업체에 자칫하면 종속될 수 있다는 위기감이 작용했기 때문으로 보인다.금융위 역시 은행권의 이 같은 우려에 주목, 금융사가 다양한 사업모델을 영위할 수 있도록 업무범위를 확대하는 등 경쟁력 강화를 제도적으로 뒷받침하겠다고 공언하기도 했다. 금융위는 이러한 기조 아래 은행의 원활한 신사업 진출, 종합재산관리자 역할 강화 등을 위해 플랫폼사업 등 부수업무 범위 확대 검토, 신사업 규제샌드박스 활용 등을 지원한다. 금융 부문 디지털 전환과 플랫폼화 촉진을 위한 인공지능 데이터 활용 촉진, 금융플랫폼 구축, 새로운 서비스 제공 등을 가능하게끔 하는 전략들을 수립하고 관련 제도 개선에도 힘쓸 계획이다.이와 관련, 고승범 금융위원장은 "기존 금융회사들의 디지털 금융 전환과 생활형 금융서비스 제공 노력을 적극 지원하기 위해 정보공유, 업무 위·수탁, 부수·겸영 업무, 핀테크 기업과 제휴, 슈퍼 원앱(Super One-app) 전략 등 이슈에 대한 합리적 대안을 적극 모색하겠다"고 언급하기도 했다.다만 은행권의 이 같은 움직임이 얼마나 유의미한 성과를 낼 수 있을지는 미지수다. 이미 빅테크 기업들이 대거 포진한 생활금융 서비스 시장에 후발주자로 나선 데다가, 이들이 제공하는 서비스가 기존과 별반 다르지 않기 때문에 핀테크 업체들의 뒤만 좇는 것 아니냐는 지적도 있다.특히 대기업이 독과점한 배달 앱 시장의 경우 기존 앱에 이미 익숙한 소비자에게 어필이 될 만한 매력적인 유인 요소가 없다면 이른바 '지자체 공공 앱'과 같은 신세로 전락하는 것은 시간문제란 우려의 시각도 존재한다.한 자본시장 전문가는 "디지털 전환이 가속화된 것에 비해 은행권의 대응 속도는 비교적 느려 이들이 내놓는 서비스에 소비자들은 기시감을 느낄 수 밖에 없다"고 말했다. 금융업 관계자도 "은행의 배달 사업 진출의 경우 가맹점이나 라이더 관리 등에 어려움을 겪을 것으로 예상되기 때문에 노하우가 쌓이기까지 최소 수 년이 필요할 것"이라고 전망했다. ▶2022 임인년 신년운세 보러가기- Copyrightsⓒ 스포츠조선(http://sports.chosun.com/), 무단 전재 및 재배포 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2021.12.20.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>방역패스 유효기간 6개월…내년 1월 3일부터</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001492802?sid=102</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>내년 1월 3일부터 9일까지 일주일 계도기간국민 비서 알림, 유효기간 만료 전 3차례 안내17일 오후 서울 성동구청에서 열린 2022학년도 대입 정시 설명회에서 참석자가 입장 전 방역패스를 확인받고 있다. 연합뉴스내년 1월 3일부터 코로나19 ‘방역패스’에 6개월의 유효기간이 생긴다. 위반 시 과태료 부과나 행정처분은 일주일간의 계도기간이 종료된 이후부터 시행된다.이상원 중앙방역대책본부(방대본) 역학조사분석단장은 20일 정례브리핑에서 “당초 오늘 시행하기로 했던 접종증명 유효기간 적용 시점을 내년 1월 3일로 조정한다”고 밝혔다.이어 “방역패스 유효기간 적용 시점인 내년 1월 3일부터 9일까지를 계도기간으로 정하고, 시설 이용자와 사업자에게 접종증명 유효기간에 대해 안내하고 지도점검할 것”이라고 덧붙였다.이 같은 조치로 인해 내년 1월 3일부터는 기본접종을 완료하더라도 완료 시점으로부터 6개월 이후 추가접종을 받지 않을 시 방역패스가 적용되는 다중이용시설이나 감염 취약시설을 이용할 수 없게 된다. 3차 접종은 1,2차 접종과 달리 14일을 기다리지 않고접종 당일부터 바로 접종력이 인정된다.방역당국은 최근 논란이 된, 일부 중고거래 플랫폼에 접종 증명서를 사고파는 행위 등을 언급하며 강력한 형사처벌이 가능하다고 경고했다.방대본은 “예방접종증명서를 위∙변조할 경우 형법 225조, 229조에 따라 10년 이하의 징역 등 위중한 처벌을 받을 수 있다”며 “사적 모임에 위∙변조한 방역패스를 사용했을 때도 관련법에 따라 징역이나 벌금, 과태료가 추가될 수 있다”고 설명했다.기본접종 완료자가 2차 접종 후 시간이 얼마나 지났는지는 질병청의 쿠브(COOV∙전자예방접종증명서) 앱에서 확인할 수 있다. 내년 1월 3일 이후부터는 쿠브앱, 카카오, 토스, PASS 등 전자출입명부 플랫폼을 통해서도 유효기간 만료 여부를 확인할 수 있다.또 국민 비서 알림은 유효기간 만료 14일, 7일, 1일 전 잔여기간과 3차 접종 방법에 대한 정보를 전달한다. 종이 예방접종증명서나 예방접종스티커 사용자는 질병관리청 코로나19 예방접종 홈페이지에서 남은 기간 등을 확인할 수 있다.이 단장은 “접종 증명 유효기간 시행 전 잔여 유효기간을 확인해 신속히 3차 접종을 받을 수 있도록 해달라”고 당부했다.앞서 정부는 3차 접종률을 높이기 위해 방역패스에 6개월의 유효기간을 설정하고 이날부터 시행하기로 했다. 하지만 충분한 3차 접종 기회를 제공하기 위해 2주 뒤인 내년 1월 3일부터 적용하기로 결정했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2021.12.20.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>[단독] 토스 기업가치 벌써 16조?...일부 투자자 지분 매각 추진</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003998839?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>800억 규모 매물 나와...6개월 전 몸값 8조원 비해 급등IPO 장기화에 매각 나선듯...이달 장외 거래선 22조 평가[서울경제] 핀테크 플랫폼 ‘토스(Toss)’를 운영하는 비바리퍼블리카의 기존 주주들이 800억 원 규모의 지분 매각을 추진 중인 것으로 알려졌다. 이번 지분 매각 과정에서 비바리퍼블리카의 기업 가치는 16조원 수준으로 거론되고 있다.20일 투자은행(IB) 업계에 따르면, 비바리퍼블리카의 기존 주주들이 80만주의 주식을 매각하기 위해 국내·외 주요 벤처캐피탈(VC)과 사모펀드(PEF) 운용사, 증권사 등과 접촉 중인 것으로 파악됐다. 비바리퍼블리카 전체 지분의 약 0.5%로 매도자는 지난해 투자에 참여한 영국 그레이하운드캐피탈을 비롯한 해외 투자자 물량인 것으로 알려졌다.지분 매각을 추진 중인 해외 투자자는 주당 10만 원 수준의 가격을 희망해 현재 비바리퍼블리카의 기업가치를 16조 원 가량으로 평가했다. 이는 지난 6월 기업가치 평가 당시보다 2배 가까이 증가한 것이다.비바리퍼블리카는 지난 6월 산업은행(1,000억원)과 미국 사모펀드 알키온캐피탈(840억원), 알토스벤처스, 그레이하운드 등에서 4,600억원의 투자를 받을 때 기업가치가 74억달러(약 8조2,000억원)로 평가됐다고 밝혔다.투자은행 업계에서는 비상장 주식 거래 시장에서 최근 급등한 비바리퍼블리카의 몸값이 이번 지분 매각 과정에서 상당 부분 반영된 것으로 분석했다. 비상장 주식 거래 플랫폼 ‘증권플러스 비상장’에 따르면, 올 초 4만 5,000원 수준이던 비바리퍼블리카의 주가는 이달 13만~14만 원대에 거래됐다. 이달 거래된 가격을 기반으로 평가한 회사 가치는 22조원을 넘어선다. 이는 신한지주(19조 원)의 시가총액을 가볍게 넘어 KB금융(24조 원)과 맞먹는 규모다.일부 투자자들은 최근 장외 시장에서 비바리퍼블리카 주가가 급등하자 부분 회수를 시도하는 것으로 분석된다. 토스의 기업공개(IPO) 계획이 가시화하지 않으면서 기존 투자자들의 자금 회수 기간이 향후 2~5년은 더 걸릴 것으로 관측되기 때문이다.2015년부터 토스를 운영해온 비바리퍼블리카는 알토스벤처스와 굿워터캐피탈, 베세머벤처파트너스, 에스펙스매니지먼트, 세콰이어차이나, 싱가포르투자청, 리빗 캐피탈, KTB네트워크 등에서 그동안 총 1조 원 이상의 외부 자금을 유치한 바 있다.간편 송금 서비스를 기반으로 고객 기반을 넓혀온 토스는 전용앱에서 2,000만명의 이용객을 확보하고 있고, 지난 3월 토스증권과 지난 10월 국내 세번째 인터넷은행인 토스뱅크 등을 각각 오픈하며 대규모 금융 플랫폼으로 성장했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2021.12.16.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>케이티비네트워크, 코스닥 상장 첫날 약세…공모가 하회</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004894516?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>[사진 제공 = 케이티비네트워크] 코스닥에 첫 발을 들인 국내 1세대 벤처캐피털(VC) 케이티비네트워크가 상장 첫 날 내림세를 보이고 있다. 낮은 가격으로 투자자들의 기대를 모았던 케이티비네트워크 주가는 공모가를 하회하고 있다.16일 오전 9시 59분 케이티비네트워크는 시초가 대비 360원(4.64%) 내린 5670원에 거래중이다. 시초가는 공모가(5800원) 대비 3.96% 높은 6030원으로 결정돼 공모가를 살짝 웃돌았다. 하지만 이내 5670원까지 밀리면서 공모가를 밑돌고 있다.앞서 케이티비네트워크는 지난달 이뤄진 기관 수요예측에서 저조한 성적을 기록했다. 케이티비네트워크 기관수요예측엔 총 405개 기관이 참여한 가운데 50.19대 1의 경쟁률을 기록했다. 공모가 희망밴드는 5800~7200원에 설정했고 최종 공모가는 5800원으로 확정했다. 의무보유확약비율은 6.94%에 그쳤다.하지만 일반 공모 청약에서 흥행에 성공하면서 기대감을 모았다. 케이티비네트워크는 지난 6일부터 7일까지 진행된 일반 공모 청약에서는 경쟁률 327대 1을 기록했고 증거금으로 약 4조7500억원을 끌어모으기도 했다.한편 케이티비네트워크는 우아한형제들(배달의민족)과 토스(비바리퍼블리카)에 대한 투자 대박 신화를 이룬 것으로 유명하다. 케이티비네트워크는 우아한형제들에 총 23억원을 투자해 629억원을 회수하며 27배의 수익을 거뒀다. 토스 역시 기업가치가 250억원일 때 최초로 투자해 현재까지 지분을 보유한 국내 유일 VC다. 토스의 현재 기업가치는 8조원으로 추산된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2021.12.22.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>방역패스 6개월 지나면 QR 찍을 때 ‘경고음’</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003401370?sid=102</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>자료사진. 동아일보DB신종 코로나바이러스 감염증(코로나19) 방역패스(접종증명·음성확인제)의 유효기간 6개월 적용이 내년 1월 3일부터 시행된다. 방역패스의 유효기간이 지났을 경우에는 경고음이 들리게 된다.고재영 중앙방역대책본부(방대본) 위기소통팀장은 22일 온라인기자단 설명회에서 “방역패스 관련 지적이 있는데 유효기간은 6개월이고, 시행은 1월 3일부터 된다”라고 밝혔다.또한 고 팀장은 “이때부터 일반인들이 주로 이용하는 네이버·카카오·토스 등 통신사의 애플리케이션(앱)에서도 경과일을 확인할 수 있도록 민간 플랫폼사와 합의 중”이라고 말했다.그간 방역패스 유효기간은 쿠브(COOV) 앱에서만 확인할 수 있었다. 네이버·카카오 등의 앱에서는 만료 14일, 7일, 1일 전 잔여 유효기간에 대한 국민비서 알림 서비스만 받을 수 있었다.고 팀장은 “QR코드 스캔 시 유효기간 내에 한해 접종 완료자라는 음성 안내가 나갈 것”이라며 “유효기간 만료 후엔 경고음이 나와서 시설 관리자가 음성 안내로도 유효기간 만료를 알 수 있어 일일이 확인하는 수고를 덜 수 있을 것으로 본다”고 했다.방역당국은 내년 1월 3일 방역패스를 시행하고 일주일간의 계도기간을 거친 뒤 과태료 부과 등 행정처분을 내릴 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2021.12.25.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>마이데이터 전면시행 D-5…빅테크는 뒤늦게 참여, 서비스 담금질 한창</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002989940?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>서울 중구 신한은행 본점 영업부에서 고객이 신한은행 마이데이터 서비스 머니버스에 대한 설명을 보며 금융업무를 보고 있다. (사진=전자신문DB)표준API를 전면 적용하는 마이데이터 본시행을 닷새 앞두고 주요 빅테크 기업인 네이버파이낸셜, 카카오페이, 토스가 뒤늦게 시범서비스에 참여한다. 앞서 시범서비스를 제공해온 마이데이터 본허가 사업자와 정보제공자는 원활한 서비스 제공을 위한 막판 서비스 담금질에 총력을 기울이고 있다.26일 금융·핀테크 업계와 금융당국에 따르면 지금까지 마이데이터 시범서비스에 참여하지 않았거나 일부 서비스만 개방한 빅테크 사업자들이 마이데이터 전면 시행을 한 주 앞두고 뒤늦게 시범서비스에 뛰어든다.네이버파이낸셜은 오는 28일부터 API를 적용한 마이데이터 서비스를 선보이기로 했다. 지금까지 마이데이터 API를 적용하지 않고 스크래핑 기반 서비스만 해왔다.네이버파이낸셜은 전체 자산을 통합 조회하는 기능에 초점을 맞췄다. 현재 제공하는 서비스 외에 마이데이터에 특화한 새로운 기능은 아직 염두하고 있지 않다.카카오페이는 지난 15일부터 마이데이터 자산관리 서비스를 카카오톡 기반으로 선보였다. 카카오페이 앱에서 API 기반 자산관리로 전환하는 시기를 오는 28일로 확정했다.토스는 일부 서비스에만 표준API를 적용했으나 1월 1일 전면 시행을 앞두고 전체 서비스로 표준API를 확대한다.은행, 카드, 증권, 보험 등 기존 시범서비스 참여사들은 서비스 완성도를 높이기 위해 막판 담금질에 한창이다. 마이데이터 참여사 모두 사용자 정보 데이터 송·수신 과정에서 발생하는 오류를 발견해 수정·검증하며 전체 데이터 흐름 완성도를 높이는 과정에 동참해왔다. 기관 간 연결을 최대치로 끌어올리고 서비스 오류를 최소화해야만 대고객 서비스가 가능하기 때문에 전체 업권에 걸쳐 협력하고 있다.특히 마이데이터 본시행에 따라 자산분석·관리, 개인화한 상품 추천 등 마이데이터 서비스간 진검승부가 불가피하다. 12월 시범서비스 기간 동안 부족한 기관 연결과 정보제공으로 서비스가 불완전할 수밖에 없었기 때문에 본 서비스 완성도를 높여 사용자 만족도를 제고해야 한다는 부담도 크다.한 은행권 관계자는 “본 서비스가 시작되면 주요 사업자마다 본격적으로 마이데이터 브랜드와 서비스를 알리는 마케팅 경쟁이 시작될 것으로 보인다”며 “당분간 서비스 안정화에 주력하면서 기능을 점진적으로 고도화해 고객에게 유용한 서비스라는 인식을 심어주는 것이 숙제”라고 말했다.핀테크 업계 관계자는 “시간이 지날수록 데이터가 축적되는 만큼 사업자가 얼마나 데이터 분석력을 높이고 그 결과를 서비스에 녹여내는지가 마이데이터 서비스 성패를 가를 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2021.12.24.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>'10대 주린이 모여라' 토스증권, 청소년 비대면계좌 서비스</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000005469?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>만 14~19세 미만 대상…인증서· 부모 동의 거치면 가능지난해부터 거세게 불기 시작한 주식 투자 붐과 더불어 주식 투자에 나서는 연령층이 갈수록 낮아지고 있다. 이런 가운데 올해 출범과 동시에 공격적인 마케팅을 펼치고 있는 토스증권이 10대 청소년을 대상으로 한 비대면 계좌 개설 서비스에 나섰다. 미래의 주요 고객이 될 10대 주린이(주식+어린이) 공략을 위한 선제적인 움직임으로 해석된다./사진=토스증권 제공토스증권은 24일 10대 청소년 고객들의 비대면 계좌 개설 서비스를 시작한다고 밝혔다. 만 14세 이상 만 19세 미만의 청소년이라면 보호자 동의를 거쳐 토스 앱에서 토스증권 계좌를 개설할 수 있다.우선 토스증권에 접속해 신분증과 본인 명의 계좌를 통한 간단한 본인 인증 후 보호자 동의 절차를 완료하면 계좌가 만들어진다. 본인 인증을 위해서는 나이에 따라 여권, 주민등록증, 운전면허증, 원동기면허증을 사용할 수 있다. 계좌 개설을 신청하면 보호자의 휴대폰으로 알림이 전송되며 보호자는 자녀의 계좌 개설 동의와 공동인증서를 통한 가족관계 확인 절차를 진행하게 된다. 보호자가 먼저 청소년 자녀의 계좌 개설을 신청할 수도 있다. 보호자가 신청 및 동의 절차를 완료하면 자녀에게 알림이 전송되고 이후 자녀가 직접 토스증권에 접속해 계좌를 개설하는 식이다.토스증권은 10대 청소년들에게 조기에 쉽고 직관적인 투자 경험을 선보이는 한편 투자가 하나의 문화로 정착될 수 있는 저변을 확대해 나간다는 계획이다.미성년자들의 주식 계좌 수는 매년 급격한 증가세를 보이고 있으며 이 같은 추세는 앞으로 계속될 것으로 보인다. 금융감독원에 따르면 지난해 신규 개설된 미성년자 주식 계좌는 47만5399개로 전년 대비 5배 이상 상승했다. 토스증권 관계자는 "저성장과 고령화 등 뉴노멀로 불리는 투자환경에서 금융에 대한 교육과 앞선 경험은 더욱 중요해지고 있다"며 "부모와 함께 10대 청소년 스스로 투자를 경험하고 공부하는 데 있어 이번 비대면 서비스가 도움이 되길 기대한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2021.12.30.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>카뱅, 새해에도 고신용자 대출 안한다…케뱅·토뱅은 전면 재개</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004646863?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>사진=연합뉴스인터넷전문은행 카카오뱅크가 새해에도 고신용자에게는 신규 대출을 내주지 않기로 했다. 정부 정책에 부응하는 취지에서 중신용자 대출 확대에 최우선 순위를 두기로 했다는 설명이다.카카오뱅크는 30일 "내년에도 고신용자 대상 신용대출과 마이너스통장의 신규 판매 중단 조치를 이어가기로 했다"며 "재개 시점은 미정이며 금융시장 여건을 고려해 결정할 것"이라고 밝혔다. 고신용자는 신용점수가 KCB 기준 820점을 넘는 사람으로, 옛 신용등급으로는 1~3등급에 해당한다.카카오뱅크는 지난 10월 금융당국의 가계대출 총량규제를 지키기 위해 고신용자에 대한 신규 대출을 중단했다. 중신용자를 겨냥한 '중신용대출' '중신용플러스대출' '사잇돌대출' '햇살론15' 등의 상품만 정상적으로 판매하고 있다. 카카오뱅크는 내년 1분기 비대면 주택담보대출 상품을 선보이고, 개인사업자를 포함한 기업 대출 시장에도 진출한다는 계획이다.또 다른 인터넷전문은행인 케이뱅크는 내년 1월 1일부터 모든 신규 대출을 재개하기로 했다. 케이뱅크는 지난달 6일부터 고신용자의 마이너스통장 신규·증액 신청을 받지 않고 있다.토스뱅크도 내년 1월 1일 오전 11시부터 신용대출, 마이너스통장 등 모든 대출 상품 판매를 정상화한다. 금리는 최저 연 3%대 초반, 한도는 최대 2억7000만원으로 매겨질 전망이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2021.12.28.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>[단신]우리금융, 자동차금융 플랫폼 ‘우리원카’ 출시 外</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003402356?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>우리금융그룹이 자동차금융 통합 플랫폼 ‘우리원(WON)카’를 선보였다. 이 플랫폼의 ‘나의 대출한도’를 통해 우리은행, 우리카드, 우리금융캐피탈의 신차대출, 신용대출 등의 금융 상품을 한 번에 확인할 수 있다. 또 ‘우리차고’ 메뉴에서 본인 명의의 차량 번호를 등록하면 차량 시세, 정기 검사 일정 등 차량 관리 서비스를 이용할 수 있다. 우리금융은 앞으로 자동차 정비, 주차 등 생활밀착형 차량 서비스를 확대해 나갈 예정이다.■ 삼성화재, 아이나비 블랙박스 달면 보험료 할인 삼성화재가 블랙박스를 장착하면 자동차보험료를 할인해 주는 ‘커넥티드 블랙박스 특약’을 선보였다. 이 특약은 아이나비의 통신 기능을 탑재한 블랙박스를 장착하면 최대 6%까지 차보험료를 할인해 준다. 다만 차량 연식이 12년 미만인 승용차만 가입할 수 있다. ‘아이나비 커넥티드 블랙박스’를 달고 인증하면 가입이 가능하며, 내년 2월 1일부터 보험 기간이 시작된다. 이 블랙박스는 운전 습관을 분석해 안전운전 리포트를 제공하고 충격이 감지되면 실시간으로 운전자에게 영상을 전송해 준다.■ 토스證, 청소년 대상 비대면 계좌 개설 서비스 시작 토스증권이 10대 청소년을 대상으로 비대면 계좌 개설 서비스를 시작했다. 만 14세 이상, 19세 미만의 청소년이 토스증권 애플리케이션(앱)에 접속해 본인 인증을 마친 뒤 보호자 동의 절차를 거치면 증권 계좌를 만들 수 있다. 본인 인증을 위해선 여권, 주민등록증 등이 필요하다. 부모가 먼저 자녀의 계좌 개설을 신청할 수도 있다. 보호자가 신청 및 동의 절차를 끝내면 자녀에게 알림이 전송되고, 이후 자녀가 직접 앱에 접속해 계좌를 만들면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2021.12.20.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>국민이 선정한 올해의 행정안전부 정책은 '국민비서 구삐'</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002988667?sid=105</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>올해 국민이 선택한 행정안전부 좋은 정책으로 '국민비서 구삐'가 선정됐다.행정안전부는 12월 6일부터 12일까지 '2021 행정안전부 좋은 정책'을 주제로 대국민 온라인 설문조사를 실시하고 결과를 발표했다.투표는 2021에 시행된 행정안전부의 6개 분야 21개 주요정책을 대상으로 시행됐다. 9192명의 국민이 참여했으며, 참여한 국민은 1인당 가장 만족했던 정책 3개를 선택하는 방식으로 진행돼 총 투표수는 2만7576표로 집계됐다.국민이 선정한 좋은 정책 1위에는 928표(10.1%) 받은 '국민비서 구삐'가 선정됐다.2021년 3월에 개통한 '국민비서' 서비스는 국민생활에 꼭 필요한 교통, 건강, 교육 등의 생활정보를 편리하게 제공하는 개인 맞춤형 행정정보 알림 서비스이다.코로나19 백신접종 안내부터 생활 범칙금 알림까지 각종 생활형 서비스를 네이버, 카카오, 토스 등 민간 앱과 연계하여 알려준다.대표적인 행정서비스 혁신 사례 꼽히는 '국민비서 구삐'는 개통 6개월 만에 가입자 1300만 명을 돌파하는 등 큰 호응을 얻고 있다.2위는 837표를 받은 '어린이 보호구역 안전 강화(9.1%)'가 뽑혔다.행안부는 어린이 교통사고를 줄이기 위해 2020년 1월부터 단계적으로 '어린이보호구역 교통안전 강화대책'을 시행하고 있다. 올해는 보도신설 및 안전시설 설치, 과속·주정차 단속장비 설치 등 다양한 사업을 추진하여 어린이 보호구역의 안전을 강화했다.3위는 '코로나 극복 상생 국민지원금 11조 지급'으로 749표(8.2%)를 받았다. 4위는 '정부 보조금 알아서 찾아주는 보조금24 개통(7.1%)', 5위는 'OECD 정부 신뢰도 20위, 역대 최고(5.6%)' 등이 주요 정책으로 선정됐다.고규창 행정안전부 차관은 “좋은 정책 선정 투표를 통해 국민이 원하는 행정의 모습을 엿 볼 수 있었다”면서 “내년에도 다양한 정책을 추진해 국민의 삶을 변화시킬 수 있도록 최선을 다하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2021.12.16.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>KTB네트워크, 시총 5300억원 증시 데뷔</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004641540?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>1세대 벤처캐피털(VC) KTB네트워크가 코스닥시장에 상장한 첫날인 16일 공모가를 밑돌며 장을 마쳤다.KTB네트워크는 이날 코스닥시장에서 시초가 대비 11.28% 내린 5350원에 장을 마쳤다. 시초가는 공모가(5800원) 대비 3.96% 높은 6030원에 형성됐다. 장 초반 6280원까지 올라 거래되기도 했지만 이후 매물이 늘면서 상승분을 반납했다. 이날 종가 기준 시가총액은 5350억원으로, 코스닥시장 시총 순위 160위에 올랐다.KTB네트워크는 KTB금융그룹 주력 계열사로 1981년 설립된 국내 1세대 VC다. 국내외 증시에서 총 300여 건의 기업공개(IPO) 실적을 냈고, 비바리퍼블리카(토스), 우아한형제들(배달의민족) 등 스타트업에 투자했다.앞서 지난달 29~30일 국내외 기관투자가를 대상으로 진행된 수요예측에서 50.19 대 1의 저조한 경쟁률을 기록해 주가 부진 우려가 나왔다. 이 때문에 공모가도 희망 밴드(5800~7200원) 최하단인 5800원으로 결정됐다. 수요예측에 이어 일반투자자 청약에서는 예상보다 높은 경쟁률(327 대 1)에 증거금도 4조7500억원을 모아 주가 상승 기대에 다시 불을 지폈다. 그러나 상장 첫날 성적은 기대에 미치지 못했다는 평가다.지난해 KTB네트워크는 순이익 358억원을 기록해 VC업계 순이익 1위를 차지했다. 올해도 3분기까지 누적 순이익이 631억원으로 사상 최대 실적을 이어가고 있어 향후 주가 추이에 긍정적으로 작용할 것이란 분석이 나온다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2021.12.23.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>한국기업평판연구소, 12월 간편결제 브랜드평판 발표</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002262931?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>1위 카카오페이, 2위 네이버페이, 3위 토스페이 선정 ◆…사진=한국기업평판연구소 제공한국기업평판연구소는 국내 20개 간편결제 브랜드의 평판을 측정하기 위해 빅데이터를 기반으로 분석한 결과 카카오페이가 1위를 차지했다고 23일 밝혔다. 2위는 네이버페이, 3위는 토스페이가 차지했다.   한국기업평판연구소는 11월 23일부터 12월 23일까지의 간편결제 브랜드에 대한 국내 소비자 빅데이터 2946만9561개를 분석하여 브랜드평판지수를 파악했다. 이번 분석에 사용된 빅데이터의 개수는 11월 브랜드 평판 측정 당시 활용됐던 빅데이터 2646만9297개와 비교했을 때 11.33% 증가한 수치이다.   한국은행에 따르면 결제액 기준 국내 간편결제시장 규모는 2016년 11조7810억원에서 2020년 120조원을 돌파했다. 삼성전자·LG전자 등 디바이스 사업자, 네이버·카카오·NHN·SK플래닛 등 플랫폼 사업자, PG사, 신세계·롯데 등 유통사들이 페이 서비스를 하고 있다. 또한 정부에서 주도하는 제로페이도 있다.   페이 서비스 경쟁이 치열한 이유는 결제 기능이 갖는 중요성 때문이다. 한 번이라도 결제 서비스를 이용한 고객들은 다음번에도 같은 서비스를 이용할 확률이 높다. 특히 O2O(온&amp;오프 연계사업) 사업 확대에 있어 페이 서비스는 필수적이다.   2021년 12월 국내 간편결제 브랜드평판 순위는 ▲카카오페이 ▲네이버페이 ▲토스페이 ▲페이팔 ▲삼성페이 ▲페이코 ▲제로페이 ▲스마일페이 ▲SK페이 ▲LG페이 ▲우리페이 ▲알리페이 ▲페이나우 ▲SSG페이 ▲쿠페이 ▲T페이 ▲케이페이 ▲티몬페이 ▲엘페이 ▲원큐페이 순으로 나타났다.   한국기업평판연구소 구창환 소장은 "12월 국내 간편결제 브랜드평판 분석 결과 카카오페이 브랜드가 1위로 분석됐다. 간편결제 브랜드 카테고리를 분석해보면 11월 브랜드 빅데이터 2646만9297개와 비교했을 때 11.33% 증가했다. 세부분석을 보면 브랜드소비 43.52% 상승, 브랜드이슈 12.10% 상승, 브랜드소통 3.53% 하락, 브랜드확산 16.06% 상승했다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2021.12.24.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>훨훨 난 PG업계의 고민…답은 바다 건너에</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000005463?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>PG업계 코로나19 특수타고 매출 증가세국내는 이미 포화시장…업체간 '땅따먹기'답은 해외로…해외 가맹점 확보에 총력코로나19로 인한 비대면 전자상거래 사용 비중이 늘어나면서 PG업계 역시 높은 매출 성장세를 보이고 있다.국내 PG업계의 시장 점유율을 삼분하고 있는 KG이니시스, NHN한국사이버결제, 토스페이먼츠는 올해 역대급 실적을 기록하며 연간 최대 순익을 거둘 것으로 전망된다.하지만 위기감도 여전하다. PG업계가 새롭게 사업영역을 진출할 수 있는 국내시장이 사실상 포화상태라는 이유에서다.이미 하나의 국내 전자상거래 가맹점에 단독으로 서비스를 제공하는 것은 사실상 꿈에 가까운 일이 됐다. 남이 하면 나도 해야하는, 그렇게 하지 않으면 경쟁에서 도태될 수 밖에 없는 시장 구조가 됐다는 것이 업계 관계자들의 설명이다. 상황이 이렇다보니 PG업계는 해외 사업자들에게 눈을 돌리고 있다. 국내 소비자들이 해외 직구 사이트 등에서의 소비가 늘어나면서 해외 가맹점 확보에 적극 나서는가 하면, 우리나라를 새로운 가능성의 시장으로 보고 진출하는 해외기업에게 단독으로 서비스를 제공하기 위해 공을 들이는 모습이다. PG업계 3사 올해 훨훨 날았다PG업계는 중간에서 결제 서비스를 연결해주는 대행회사다. 신용카드사와 직접 가맹계약을 맺기가 쉽지 못하는 온라인 쇼핑몰 등과 같은 회사를 대신해 대표 가맹점 계약을 맺은 이후 카드 결제, 지불 등을 대행하며 이를 통해 수수료 수익을 얻는다.몇년전만하더라도 신용카드사의 결제 계약체결에 주로 나섰지만 최근에는 간편결제 등 결제방식이 다양해 지면서 PG회사의 역할이 더욱 확대됐다.특히 올해의 경우 코로나19로 인한 비대면 소비가 확대되면서 PG업계의 성장세도 도드라진 모습이다. PG업계 점유율을 대부분 차지하고 있는 KG이니시스, NHN한국사이버결제, 토스페이먼츠 등 3사는 올해 역대급 실적을 쓸 것으로 전망된다.한국은행에 따르면 올해 상반기 기준 스마트폰, 모바일기기 등 비대면결제 규모는 지난해 상반기에 비해 23.4%늘어난 일평균 1조원으로 집계됐다. PG업계가 온라인 결제를 통해 가맹점으로부터 수수료를 받는 것이 핵심수익이라는 점을 고려하면 코로나19로 인한 수혜를 입은 셈이다.실제 올해 3분기까지 KG이니시스의 3분기 누적 영업 매출은 2507억1000만원으로 집계됐다. 역대 최대수준이다. NHN한국사이버결제의 누적 영업 매출도 1943억원으로 집계되며 모기업인 NHN이 올해 3분기 누적기준 매출 4725억원을 달성하는데 큰 기여를 했다는 평가다. 상장사가 아니라 매출 실적을 공시하고 있지 않은 토스페이먼츠 역시 모기업 토스의 순손실 규모를 줄이는데 적지 않은 역할을 했을 것이란 분석이다. 국내는 이미 포화 상태…땅따먹기 형국실적은 좋았지만 고민은 있다. 국내시장은 이미 포화상태이기 때문이다. 특정 전자상거래업자를 활용하는 고객이 늘면 자연스럽게 그 기업과 계약을 맺는 것이 생존을 위한 필수요소가 됐다. 모든 PG사가 전자상거래업자에 '러브콜'을 보내다보니 단독으로 계약하는 것은 사실상 '하늘의 별 따기'라는 말이 나온다. PG업계 관계자는 "통상 쿠팡 등 하나의 전자상거래 업체에서 물건을 구매한다 하더라도 이니시스, 토스페이먼츠, NHN한국사이버결제 등의 결제창이 무작위로 나오게 된다"며 "이는 그 전자상거래업체와 그 하위 업체가 PG 계약을 여러곳과 맺었기 때문"이라고 설명했다.이어 "전자상거래 업자는 결제가 발생하게 되면 무작위로 PG업체를 선정해 결제를 하도록 하는 방식"이라며 "매달 계약 규모에 따른 결제 건수만 넘겨주면 되기 때문에 이러한 형태를 보이고 있다"고 덧붙였다.최근에는 워낙 전자상거래업체가 많아졌고 사용자들도 다양한 회사를 사용하고 있다. 따라서 PG회사들도 최대한 많은 전자상거래 업체와 계약을 체결해야 한다. 단독으로 PG업무를 따내는 시기는 지났다는 의미다.상황이 이렇다보니 PG업계 사이에서는 사실상 국내시장에서는 서로간의 '땅따먹기'가 됐다고 설명한다. 하나의 업체가 새로운 가맹점을 발굴하면 다른 업체도 합류해 하나의 파이를 나눠먹어야 하는 상황이 이어지고 있다는 얘기다.다른 PG업계 영업담당 관계자는 "국내 영업의 경우 한계가 분명하다. 기존 가맹업체의 경우 우리가 더 많은 결제 건수를 따올 수 있도록 노력하는 것이 최우선"이라며 "새로운 가맹점을 찾기는 쉽지 않다"고 말했다.그는 "결국 대형 3사간 땅따먹기 형국"이라며 "비대면 전자상거래 규모가 워낙 커져 PG업계도 매출규모가 커지고 있지만 새로운 먹거리를 찾아야 한다는 것이 PG업계의 새로운 과제"라고 덧붙였다.정답은 해외…해외 사업자를 노려라상황이 이렇다 보니 PG업계가 눈을 돌리는 곳은 해외다. 해외 사업자중 국내 카드를 활용해 결제를 하는, 즉 직구족들이 많이 찾는 곳과 PG계약을 맺거나 국내에 진출하려는 해외 사업자중 시장 영향력이 클 것으로 전망되는 곳과 단독 계약을 맺는 것이 최근 PG업계가 새로운 활로를 찾는 방식이다.가장 적극적으로 나서고 있는 곳은 NHN한국사이버결제다. NHN한국사이벌결제는 가장 적극적으로 해외가맹점을 늘리기 위해 발품을 팔아왔다. 영양제 등을 해외에서 직구하는 직구족을 겨냥해 영양제 전자상거래 업체인 아이허브에 2017년부터 PG서비스를 제공하고 있다. 뒤이어 애플, 테슬라, 루이비통 등과도 협력했다.특히 세계최대 전자상거래업체인 아마존에 PG서비스를 제공하기 위해 수년간 공을 들여온 끝에 지난 16일 결제서비스사로 선정됐다. NHN한국사이버결제는 지난해부터 아마존의 클라우드 서비스인 AWS에 PG서비스를 제공한 바 있다.토스페이먼츠는 중간 매개자인 PG업자의 역할에 집중하기 보다 토스가 내세우는 토스페이의 활용처를 해외로 넓히는 데에 주력하고 있는 모습이다.올해 국내에 진출한 음원 스트리밍 서비스 스포티파이에 이어 최근에는 구글, 유튜브 등에서 토스페이로 결제가 가능하도록 했다. 이전에는 '리그 오브 레전드'로 유명한 라이엇 게임즈와 협력을 맺는 등 해외 가맹사업 확대에 공을 들여왔다.전통의 강자 KG이니시스는 역발상을 택했다. 국내 가맹사의 해외 진출을 돕는 방식이다. 경쟁사들이 해외 가맹점을 끌어모은다면 KG이니시스는 역으로 국내 가맹사를 해외로 내보내는 전략을 추구하고 있다.실제 KG이니시스는 국내 가맹점이 해외시장에 판로를 개척하기 위한 방안을 가맹사들과 꾸준히 논의해오고 있다. 최근에는 삼성물산 상사부문과 협력을 맺고 일본 해외 전자상거래 시장 진출을 꾀하는 한국기업 지원을 위해 일본내 합작법인을 설립하기로 한 바 있다. 업계 관계자는 "국내 시장이 포화됐다고는 하지만 소비자 입장에서는 시장이 해외로 점차 넓어지고 있다"며 "해외 가맹점 공략이 PG업계가 앞으로 가장 공을 들일 부분 중 하나일 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2021.12.19.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>“‘테크’ 싫어하시는지…” 금융당국 눈치 보는 핀테크社들</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001492519?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>고승범 금융위원장이 15일 서울 마포구에서 열린 '금융플랫폼 혁신 활성화를 위한 간담회'에 참석해 발언하고 있다. 연합뉴스핀테크 업계를 향한 금융당국의 시선이 미묘하게 달라지고 있다. 그간 핀테크는 금융 혁신을 이끄는 총아로 여겨졌다. 그런데 지난 8월 고승범 금융위원장이 취임한 이후 핀테크에 관한 언급은 ‘혁신 주체’에서 ‘규제 대상’으로 방점이 옮겨가고 있다. 작은 규제에도 크게 휘둘리는 핀테크 기업들은 금융당국의 메시지 변화에 전전긍긍하는 모습이다.19일 핀테크 업계에 따르면 테크사들은 금융당국의 메시지 변화에 촉각을 기울이고 있다. 지난해 7월 금융위원회는 ‘디지털금융 종합혁신방안’을 발표하며 빅테크의 금융업 진입을 주요 과제로 꼽았다. 기존 금융 규제가 오래되고 복잡해 혁신사업자의 진입이 곤란하다며 진입장벽을 낮추겠다고 했다. 당시 보도자료에는 “핀테크 시대의 도래로 포용금융의 패러다임 자체가 변화한다”는 문구도 담겼다.손병두 전 금융위 부위원장은 지난해 9월 ‘디지털금융 협의회’를 창설하며 규제 완화를 강조했다. 손 부위원장은 “국내 금융회사 보호만을 위해 디지털금융 혁신의 발목을 잡는 퇴행적 규제 강화는 더 이상 가능하지 않다”고 말했다. 은행·카드사들이 핀테크 업계에만 유리한 기울어진 운동장이라고 반발할 정도로 신산업 육성에 신경을 썼다.하지만 고 위원장 취임 이후 금융위의 메시지는 달라졌다. 고 위원장은 지난 15일 금융플랫폼 혁신 활성화 간담회에서 “대형 플랫폼에서 나타날 수 있는 데이터 독점·편향적 서비스 제공 등에 대해 감독하겠다”고 밝혔다.지난 9월에는 카카오페이, 토스 등에서 제공하던 금융상품 추천·권유 서비스가 전면 중단·축소됐다. 금융위가 이를 ‘단순 광고’가 아니라 금융소비자보호법상 ‘중개 행위’로 규정하면서였다. 디지털금융 혁신을 촉진하기 위해 구성된 협의회는 지난 4월 7차 회의를 마지막으로 잠정 중단됐다.금융당국의 기류 변화에 민감한 핀테크 업계에선 우려의 목소리가 커졌다. 한 중소형 핀테크사 관계자는 “고 위원장이 ‘테크’를 안 좋아하는 거 같다. 규제에 큰 영향을 받는 (테크)기업들은 눈치를 살필 수밖에 없다”고 말했다. 카카오페이 대표이사인 류영준 한국핀테크산업협회 회장은 지난달 “핀테크 후진국으로 전락할 수 있다는 위기감이 드는 상황”이라고도 했다.금융당국은 업권별로 동일한 영업 행위를 똑같이 규제하는 ‘동일 기능·동일 규제’를 일관되게 추진해왔다고 강조한다. 테크사에 유독 엄격한 게 아니라는 뜻이지만 ‘핀테크에 역차별 받는다’는 기존 금융권의 주장을 사실상 받아들이는 모양새다. 고 위원장은 지난 17일 “디지털 혁신과 빅테크·핀테크 침투로 금융 산업의 새 판 짜기가 진행되고 있다”면서 균형 잡힌 대응을 강조했다.디지털금융 협의회에 참석했던 김용진 서강대 경영대 교수는 “규모가 큰 빅테크는 독점 등으로 시장 전체를 흔들 가능성이 매우 높다. 은행보다 훨씬 영향력이 큰데 규제를 받지 않으면 모순이라는 것이 금융위의 생각”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2021.12.16.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>질병청 ‘쿠브’, 올해 가장 많이 설치된 앱</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/144/0000781347?sid=105</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>[스포츠경향] 질병관리청의 ‘코로나19’ 예방접종 인증앱 ‘쿠브’(COOV)가 올해 가장 많이 설치된 앱으로 조사됐다. 16일 모바일 빅데이터 플랫폼 기업 아이지에이웍스의 모바일인덱스에 따르면 쿠브는 올해 1679만2224건 설치돼 신규 설치 건수 1위를 기록했다. 이어 지역생활 커뮤니티 앱 당근마켓이 1227만4185건으로 2위를 차지했다. 쿠팡이츠(1135만9838건), 배달의민족(1083만7335건), 업비트(957만220건)가 뒤를 이었다.이밖에 인스타그램(942만6379건), 토스(925만6944건), 틱톡(903만3144건), T맵(896만829건), 쿠팡(896만801건) 등도 10위권에 들었다.이충진 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2021.12.16.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>올해 가장 많이 설치된 앱 2위 ‘당근마켓’…1위는?</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001491917?sid=103</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>자료 모바일인덱스질병관리청 전자예방접종증명서 애플리케이션(앱) 쿠브(COOV·전자예방접종증명서)가 올해 가장 많이 설치된 앱으로 나타났다.16일 모바일 빅데이터 플랫폼 기업 아이지에이웍스의 모바일인덱스에 따르면 쿠브는 올해 1679만2224건 설치돼 신규 설치 건수 1위를 기록했다.지역생활 커뮤니티 앱 당근마켓이 1227만4185건으로 2위를 차지했고 쿠팡이츠(1135만9838건), 배달의민족(1083만7335건), 업비트(957만220건)가 뒤를 이었다. 인스타그램(942만6379건), 토스(925만6944건), 틱톡(903만3144건), T맵(896만829건), 쿠팡(896만801건) 등도 상위권에 포진했다.쿠브는 지난 6월 이후 7개월 연속 1위를 차지하고 있다. 코로나19 확진자가 늘어나며 정부가 자영업체 현장에 방역패스(접종증명·음성확인)의 철저한 시행을 주문했기 때문으로 보인다. 월별로 보면 1~5월에는 ‘국세청 홈택스’, ‘쿠키런: 킹덤’, ‘T맵’, ‘업비트’, ‘토스’ 등 다양한 분야의 앱들이 1위를 기록했었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2021.12.23.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>[사설]상생경영 업그레이드, 이재용의 SSAFY에 답 있다</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005112174?sid=110</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>삼성그룹의 사회공헌(CSR) 프로그램인 ‘삼성청년SW아카데미(SSAFY)’가 그제 5기 수료식을 갖고 300여명의 소프트웨어 인재들을 배출했다. 1~4기를 포함하면 전체 수료생은 2785명에 이른다. 이들 중 현재 2075명이 국내외 기업에 취업해 취업률이 75%를 기록하고 있다. 교육부가 지난해 공시한 전국 4년제 대학의 평균 취업률(63.3%)보다 월등히 높다. SSAFY는 삼성이 주관하고 고용부가 후원하는 민관협력 교육사업이다. IT산업 분야의 다양한 실무 교육이 이뤄져 IT업계에서는 ‘소프트웨어 사관학교’로 불리고 있다. 청년들에게 최첨단 교육 프로그램을 통해 질 좋은 취업 기회를 제공하며 기업들에는 인력난이 극심한 SW분야의 우수 인재를 공급한다. IT업계는 코로나19 출현으로 예상치 못한 호황을 맞으며 소프트웨어 개발자 모셔가기 경쟁이 치열하다. ‘네카라쿠배당토’(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스)로 불리는 대형 IT기업들이 개발자를 싹쓸이하는 바람에 스타트업(신생 벤처기업)들은 일손을 구하지 못해 아우성이다.    SSAFY는 취업난에 시달리는 청년들과 인력난을 겪고 있는 기업들을 함께 지원하는 상생협력 사업이다. 매년 2회 취업을 준비하는 전국 29세 이하 4년제 대학 졸업자 및 졸업예정자를 선발해 최장 1년 2학기, 총 1600시간의 소프트웨어 교육을 무료로 해준다. 수료생들은 취업 후 따로 실무 교육을 할 필요가 없어 선호하는 기업들이 많다. 채용 전형에서 코딩 테스트 면제 등 혜택을 주는 기업들도 적지 않다. SSAFY는 내년에는 모집 인원을 1150명으로 대폭 늘릴 계획이다.SSAFY는 기업의 사회적 역할 확대를 강조해 온 이재용 삼성전자 부회장의 ‘상생 의지’가 담긴 프로그램이다. 이 부회장은 한국이 IT강국의 자리를 지키려면 무엇보다 IT생태계 저변 확대가 시급하며 이를 위해 소프트웨어 인재 양성이 필수라고 보고 있다. 소프트웨어 인재 양성은 청년들의 취업을 돕고, 기업에 우수 인력을 공급하며, 삼성에도 IT생태계 저변 확대를 통해 지속가능한 성장의 토대를 다지는 1석3조의 사업이다. 이런 상생경영이 업계 전체로 확산되기를 기대한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2021.12.30.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>이제 'QR'에서도 3차 접종력·2차 접종 후 경과일 확인</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005116943?sid=102</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>앞서 COOV앱에서만 확인 가능1월 3일부터 2차 후 180일 내, 3차 접종자 "완료자" 안내감염력있는 2차 접종자, 유효기간 만료일 없어"미리 카카오, 네이버 앱 주말 중 업데이트 해달라"[이데일리 박경훈 기자] 이제 기존 COOV(쿠브)앱에서만 확인할 수 있던 3차 접종력 및 2차 접종 후 경과일을 전자출입명부(QR) 플랫폼에서도 확인할 수 있다.14일 인천의 한 음식점에서 쿠브 앱이 정상 작동되는 가운데 시민들이 식사를 기다리고 있다. (사진=연합뉴스)중앙방역대책본부는 내년 1월 3일부터 시행되는 코로나19 예방접종 증명 유효기간 적용에 맞춰 이같이 전자증명서·출입명부 시스템을 개선했다고 30일 밝혔다. 이용자는 카카오, 네이버, 토스, PASS앱(SKT, KT, LG)을 통해, 시설운영·관리자는 KI-PASS앱을 통해 확인가능하다.당초 종이 증명서로만 발급 가능했던 완치확인서와 예외확인서도 COOV앱과 전자출입명부에서 전자적 형태로 발급받을 수 있다.(자료=중앙방역대책본부)접종증명 유효기간이 적용되는 1월 3일부터는 2차 접종 후 180일 이내 또는 3차 접종(부스터)을 받은 경우, 시설 이용을 위해 QR스캔 시, ‘접종완료자입니다’라고 음성 안내된다. 코로나19 감염력이 있는 2차 접종자(얀센은 1차 접종자)는 유효기간 만료일이 없다. 접종 후 180일이 지나도 “접종완료자입니다”는 음성이 안내된다.미접종자(또는 1차 접종자) 2차 접종 후 180일이 지난 경우, ‘딩동’ 소리가 나온다.  이 경우, 시설관리자는 이용자의 PCR 음성(陰性·negative)결과 또는 코로나19 완치, 18세 이하, 의학적 사유로 인한 적용 예외 여부를 확인해야 한다방대본은 “이번 방역패스 시스템 보완에 따라, 국민 여러분들의 접종정보 갱신 등 협조를 요청하며 카카오, 네이버 등 주로 사용하시는 전자출입명부 플랫폼 앱을 주말 중 미리 업데이트해 주면 1월 3일 동시간대 접속 혼란 방지에 큰 도움이 될 것”이라고 전했다.더불어 “시설운영자는 내년 1월 3일 0시 기준, KI-PASS앱이 자동 업데이트될 예정이나, 이용에 불편이 없도록 당일 영업 전 업데이트 여부를 확인해 주시기 바란다”고 요청하였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2021.12.29.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>미성년 증권 계좌 ‘비대면 개설’ 괜찮나</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003119459?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>토스증권, 서비스 시작 나흘 만에 잠정 중단…당국 판단 주목[경향신문] 금융위 “토스의 인증 방식관련 법령 저촉 여부 살펴봐야”토스 “각종 절차 마련, 문제없어”‘혜택’만 주는 은행 계좌와 달리투자 손실·탈세 악용 가능성엄격한 ‘빚투 차단’장치도 필요법률행위에 제한이 있는 미성년자가 본인의 주식 계좌를 ‘비대면’으로 만들어도 괜찮을까. 토스증권이 10대 청소년을 대상으로 한 ‘비대면 계좌 개설’ 서비스(사진)를 출시 나흘 만에 잠정 중단했다. 미성년자 증권 계좌를 비대면으로 개설하는 것이 허용돼 있지 않은 현행 규정에 따라, 금융당국이 법적인 검토에 들어갔기 때문이다. 주식 투자에 대한 관심도가 높아지고, 금융의 디지털화가 빠르게 진행하면서 생긴 변화인데 당국이 어떤 판단을 내릴 것인지 주목된다. 예금과 달리 주식투자는 손실 가능성이 있고, 자칫 탈세에 이용될 수 있다는 우려와 각종 절차를 마련한 만큼 문제될 게 없다는 토스 측의 입장이 엇갈린다.금융위원회 관계자는 29일 “토스증권의 미성년자 비대면 계좌 개설 서비스가 법령상 문제가 없는지를 확인 중”이라고 말했다. 토스증권은 금융당국의 요청을 받고 관련 자료를 제출하고 출시 나흘 만인 지난 28일 서비스를 중단했다. 해당 서비스는 토스증권 앱에 접속해 여권·주민등록증 등 신분증과 본인 명의 계좌를 통한 본인 인증 후 보호자 동의 절차가 완료되면, 토스증권 계좌 개설이 가능해지는 방식이다.현재 민법은 만 19세가 된 성년자(피성년후견인 등 제외)에게 법률행위를 단독으로 할 수 있는 능력, 즉 행위능력을 부여하고 있다. 미성년자는 법정대리인의 동의를 얻어야 법률행위를 할 수 있고 이를 위반하면 취소가 가능하다. 다만 미성년자도 단순히 권리만을 얻거나 의무를 면하는 행위는 법정대리인의 대리나 동의 없이 단독으로 할 수 있다. 법정대리인이 범위를 정하여 허락한 재산도 임의로 처분할 수 있다.금융당국은 은행 계좌의 경우 “단순히 권리만을 얻는”, 즉 미성년자에게 ‘혜택’만 주는 용도로서 일정 한도 내에서 스스로 처분 가능하다고 보고 있다. 실제 만 14세 이상 미성년자는 70만~100원 한도로 은행계좌(대면·비대면)를 부모 등의 동의를 받지 않고 만들 수 있다. 14세는 개인정보보호법상 개인정보처리자(공공기관, 법인 등)가 법정대리인의 동의 없이도 개인정보를 처리할 수 있는 최소 연령이다. 일부 은행은 주민등록증을 발급받은 17세부터 직접 계좌를 개설할 수 있도록 하고 있다.문제는 주식 계좌도 은행 계좌와 동일한 성격이 있다고 볼 수 있냐는 점이다. 원금 손실 가능성이 있는 주식 투자용 계좌를 미성년자가 비대면으로 간단히 개설할 수 있도록 하는 것이 조심스러울 수밖에 없다. 특히 토스에서 가능해질 경우, 증권업계 전반으로 같은 서비스가 확산될 가능성도 높다. 금융위 관계자는 “미성년자는 ‘부담’이 발생하는 행위를 단독으로 할 수 없고 법정대리인의 동의를 비대면으로 받는 것은 대면 방식과 차이가 있을 수 있다”면서 “토스증권의 인증 방식이 민법, 금융실명법 등에 저촉되는지를 살펴봐야 한다”고 말했다.반면 토스증권은 모바일증권 특성상 비대면으로 계좌를 개설할 수밖에 없고 미성년자 본인의 신분증과 금융사 계좌의 ‘1원 인증’ 절차에 법정대리인의 동의 절차까지 포함한 만큼 문제가 없다는 입장이다. 토스증권 관계자는 “과거에 문제가 됐던 금융투자사의 미성년자 주식 계좌는 연령대가 특정되지 않았고 개설 주체도 사실상 미성년자 개인이 아닌 법정대리인이었던 만큼 이번 사례와는 다르다”고 말했다.이상현 법무법인 태율 변호사는 “미성년자의 비대면 주식 계좌 개설이 법적으로는 문제가 되지 않을 것으로 보인다”면서도 “레버리지 투자는 못하도록 규제하고 계좌 개설 시 사전교육 등의 절차를 마련할 필요가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2021.12.28.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>[MK TECH REVIEW] 2021년은 MBN의 해…"2022년은 AR·헬스케어가 달구죠"</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004900138?sid=105</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>아듀 2021, 매경 테크기자 5인이 뭉쳤다테크인재 구인경쟁 치열해질 것- 우수민 기자가상기술 현실로 급격히 흡수- 이동인 팀장올해 NFT 빅뱅·새해 폭발적 팽창- 오대석 기자새해 전기차 충전시장 기대돼- 김대은 기자메타버스·애플기기 결합 주목- 황순민 기자 "코로나19는 우리를 힘들게 했지만, 디지털은 늘 우리에게 짜릿한 즐거움을 선사했다."지난해에 이어 코로나19 그림자가 2021년 한국 경제를 덮쳤습니다. 전파력을 키운 새로운 변이가 출몰하는 악순환이 반복되는 가운데 디지털 테크 시장만큼은 새 변이보다 더 빠른 속도로 진화하며 현실에 구현될 채비를 했습니다. 대표적으로 메타버스가 급부상하며 금융·정보기술(IT)·게임·예술 업계가 일제히 탐색전에 들어갔습니다. 블록체인을 기반으로 한 대체불가토큰(NFT) 역시 관련 시장 수요와 공급이 형성돼 깜짝 아이디어로 무장한 새로운 서비스가 속출하고 있습니다. 이른바 MBN(메타버스·블록체인·대체불가토큰) 돌풍이 시장을 휩쓸었다고 해도 과언이 아닐 것입니다. 늘 시장 기대를 능가하는 파격 성장을 주도해온 디지털테크 시장의 주인공인 혁신 스타트업들의 '촉'도 더욱 날렵해진 것 같습니다. 매일경제 디지털테크부는 이동인 기자(팀장·사회)를 중심으로 MZ세대인 오대석·황순민·우수민·김대은 기자 등 디지털테크부 소속 기자들을 모아 올 한 해 디지털테크 시장을 결산하고 새해 주목되는 기술과 스타트업 등을 미리 짚어봤습니다.① 2021 달군 테크 최고 뉴스? 단연 메타버스!  ▷이동인 팀장=최근 메타버스 관련 얘기를 보다 보면 지나치게 과열된 게 아닌가 하는 생각도 듭니다. 코로나19라는 특수한 상황 속에서 일시적으로 거품이 일다가 어느 순간 꺼져버리지는 않을지 걱정이 되기도 하고요. ▷황순민 기자=올해는 1년 내내 '메타버스 광풍'이 불었습니다. 김난도 서울대 교수가 펴낸 '트렌드코리아 2022' 올해의 10대 주제에도 메타버스를 뜻하는 '실재감 테크'가 올랐습니다. 메타버스가 앞으로 보편화되기 위해서는 가상현실(VR), 증강현실(AR) 기기가 많이 보급돼야 하는데요, 업계에 따르면 내년에 3000만대 정도가 보급될 것이라 합니다.▷황 기자=메타버스는 생태계가 조성되고 있는 것 같습니다. 뿌리가 반도체 회사라면 줄기는 AR, VR 기기들을 만드는 회사이고 가상 인간, 콘텐츠 이런 것들이 열매가 될 것으로 예상됩니다.▷오대석 기자=NFT가 뜨는 이유도 메타버스에서 디지털 자산이 중요해지기 때문입니다. 지난달 영국 콜린스 사전이 올해의 단어로 NFT를 선정했습니다. 실제로 NFT는 세계적으로 광풍을 일으키고 있는데요. 2020년 NFT 거래액은 792억원에 불과했지만 올해는 벌써 5조1117억원에 달한다고 합니다. ▷우수민 기자=플랫폼의 상생 문제도 이슈로 떠올랐습니다. 전반적으로 빅테크기업에 사회적 책임을 요구하는 목소리가 커졌는데요. 특히 구글·넷플릭스 등 해외 기업이 세금 납부나 고용 창출에 더 적극적으로 기여해야 한다는 요구가 거셌습니다.▷오 기자=우리나라 플랫폼 콘텐츠들이 해외에 적극 진출하기도 했는데요. 네이버는 웹소설 플랫폼 왓패드를 인수해 미국에 본사를 차리는 한편, 카카오는 웹툰·웹소설 플랫폼 '타파스·래디쉬' 인수해 해외 공략을 본격화하는 추세입니다.② 대한민국 '개발자 전성시대' 신호탄 쐈다▷이 팀장=작년 말 인공지능(AI) 챗봇 서비스 '이루다'가 출시되면서 올 초 내내 AI 윤리가 이슈가 됐습니다. 올해 초만 하더라도 이런 가상 인간에 대해 낯설게 느끼는 사람들이 많았지만, 가상 세계가 현실로 급격히 흡수된 느낌입니다. ▷오 기자=개발자 인력난도 화제였습니다. 잇따른 연봉 인상과 처우 개선 경쟁이 일어났습니다. '네카라쿠배(네이버·카카오·라인·쿠팡·배달의민족)' 말고도 이젠 당토(당근·토스)까지 최고의 직장으로 주목받고 있죠.▷황 기자=확실히 개발자 몸값이 높아지긴 높아졌어요. 업계 관계자에 따르면 요즘 소비자들이 스타트업에 요구하는 수준이 높아지면서 한 명의 개발자로는 그러한 요구를 다 맞추기 힘들 정도라고 합니다. 그래서 요즘 개발 인력들은 개인이 아닌 팀별로 움직인다고 하더라고요.▷이 팀장=네이버에서 40세 최고경영자(CEO)가 등장하며 화제가 되기도 했죠. ▷김대은 기자=이 밖에도 'N번방 방지법'이 크게 이슈가 됐습니다. 불법 촬영물 확산을 막겠다는 취지에 대해서는 공감하지만, 프라이버시가 침해될 수 있다는 논란이 불거졌습니다.③ 2022 달굴 시장·기술 추세는 '헬스케어'▷우 기자=내년에는 B2B 스타트업이 더욱 주목받을 것으로 예상됩니다. 개발자 몸값이 점점 높아지는 상황에서도 업계에 투자가 몰리며 점점 더 많은 사람들이 창업을 하는 추세인데요. 얼마 전 스타트업 얼라이언스의 발표에 따르면 국내 누적 투자액수가 벌써 10조원이나 된다고 합니다. ▷이 팀장=내년 중으로 애플의 AR 기기인 '애플 글라스'가 출시될 것이라는 얘기도 나옵니다. 이전에 구글 글라스가 실패했던 부분을 잘 개선해서 나올지 주목되는데요. 실생활에서 안경처럼 편리하게 끼고 다닐 수 있을지 궁금하네요.▷황 기자=애플도 주목되지만 사실  하드웨어 강자 삼성도 무시 못할 것 같다는 생각이 듭니다. 반도체·스마트폰·네트워크를 다 갖추고 있는 회사이기 때문에 콘텐츠 회사는 투자하거나 협업하면 큰 시너지를 낼 수 있지 않을까요. ▷오 기자=헬스케어도 주목을 받지 않을까 싶어요. 최근 네이버가 순천향대 중앙의료원과 업무협약(MOU)을 맺는가 하면, 카카오도 헬스케어 사내독립기업(CIC)에 의사 출신 대표를 선임했다고 합니다. 이들 기업은 국내뿐만 아니라 해외 시장도 노리고 있는 것으로 알려져 있습니다.▷김 기자=전기차 충전 시장도 볼만합니다. 지금까지는 관공서나 고속도로에 설치한 급속 충전기가 주로 사용됐지만, 앞으로는 아파트 주차장 완속 충전기도 중요한 시장이 될 것 같아서요.▷이 팀장=다보스포럼에서 뽑은 2022년 10대 유망 기술에 5G(5세대) 통신 기술을 이용한 자동차 무선충전 기술이 뽑히기도 했죠. 자율주행차도 2022년에 주목해 봐야 할 것 같습니다. ④ 새해 주목할 기업? 야놀자, 업스테이지, 크래프톤, 로톡 매일경제 디지털테크부 소속 황순민·오대석·이동인·우수민·김대은 기자(왼쪽 첫째부터)가 2021년 한 해를 돌아보고 새해 주목할 디지털테크 시장 이슈들을 얘기하고 있다. [김호영 기자] ▷이 팀장=각자 느끼는, 새해 가장 뛰어난 퍼포먼스를 이룰 것 같은 테크 기업은 어디일지 궁금합니다. ▷오 기자=저는 '야놀자'를 꼽겠습니다. 올해 2조원의 투자를 유치하기도 했고, 아직도 성장할 여지가 많이 남은 것 같아서요. 서비스형 소프트웨어(SaaS)를 필두로 한 '야놀자 클라우드' 사업도 더욱 의미 있는 성과가 나오지 않을까 합니다.▷우 기자=내년에는 역시 인공지능(AI) 스타트업이 화제가 되지 않을까 싶어요. 소프트뱅크벤처스가 우리나라에서 투자를 가장 많이 한 기업도 AI 스타트업인 '보이저엑스'고, 최근 네이버 책임리더가 창업한 '업스테이지'도 많은 기대를 모으고 있습니다.▷황 기자=저는 '크래프톤'을 꼽겠습니다. 업계에 따르면 크래프톤의 현금 보유랑이 어마어마한 상태라 AI 관련 회사를 하나 인수할 수 있다는 예상이 나옵니다.▷김 기자=개인적으로는 '로톡'이 기대가 많이 됩니다. 올해에는 변호사단체와의 갈등으로 정신없는 한 해를 보냈다면, 내년에는 이슈가 마무리되고 적극적으로 사업 확장을 하지 않을까 싶어요. ▷이 팀장=네이버 스마트스토어도 성장 여지가 있지 않을까요?▷오 기자=이젠 물건을 팔려면 기본적으로 해야 하는 게 스마트스토어랑 쿠팡이죠. 다만 두 기업은 국내 한정이고, 해외에서 확장에 성공한다면 성장 가능성이 높긴 합니다.▷황 기자=인스타그램도 스마트스토어처럼 제품 판매 시장에 뛰어들고 있다고 합니다. 지금은 다들 구매자와 판매자가 개인적으로 메시지를 통해 소통하고 있지만, 만약 결제까지 가능해지면 새로운 판도가 열릴 수도 있는 거죠.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2021.12.30.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>`저평가 늪` 빠진 한국 금융사…`저배당·이자 수익 편중` 발목</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001006647?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>&lt;앵커&gt;정치경제부 문성필 기자와 보다 자세한 이야기 나눠보겠습니다.문 기자. 한국 은행들이 시장에서 이렇게 저평가를 받는 이유는 무엇입니까.&lt;기자&gt;해외 금융회사들과 비교했을 때 주주들에게 돌아가는 배당금이 적기 때문입니다.이를 살펴볼 수 있는 지표가 배당성향인데요.당기순이익 중 현금으로 지급된 배당금의 총액을 의미하는데요.다른 조건들이 비슷하다면 배당성향이 큰 기업일수록 주식 가격이 높은 경향을 보입니다.지난해를 기준으로 미국 금융회사들과 한국 은행들의 배당성향을 비교해보겠습니다.주요 미국 금융회사들의 지난해 배당성향은 40.39%에 달합니다.그렇다면 같은 기간 한국 은행들의 배당성향은 어떨까요.20.77%로 절반 정도 수준에 불과합니다.결국 주주들이 기대할 수 있는 배당수익이 해외 금융회사보다 적으니 한국 금융회사들에 대한 투자 관심이 떨어지는 셈입니다.&lt;앵커&gt;이렇게까지 배당성향이 차이나는 이유는 무엇입니까.&lt;기자&gt;지난해 코로나19 사태에 따른 불확실성에 대비하기 위해 각국 정부는 상당수 지난해 3분기부터 금융회사들의 배당을 제한했습니다.한국은 물론 미국도 마찬가지였죠.그런데 여기서 차이가 존재합니다.한국의 경우 금융당국이 배당성향을 20%이내라는 구체적인 수치로 제한했는데요.미국은 전분기 배당액 이내로만 제한했기 때문입니다.미국 금융회사들은 이미 1,2분기에 배당을 늘려놓은 상태였기 때문에 배당제한에 큰 의미가 없었던 것이죠.여기에 투자자 입장에서 보면 과거 국내 금융회사들의 배당 정책에 아쉬움이 있을 수 있습니다.일례로 과거 국내 은행들은 이익이 감소하면 배당금을 줄였지만, 인수합병 등의 이유로 이익이 늘어나도 배당금을 동결하고는 했습니다.&lt;앵커&gt;이밖에 다른 저평가 이유는 무엇이 있을까요?&lt;기자&gt;은행 이자수익에만 지나치게 의존하고 있다는 점입니다.5대 금융지주들은 올해 3분기 기준 누적 순이익 13조 원(13조6,722억 원)을 넘기며 사상 최대 실적을 기록했는데요.은행 수익에 지나치게 쏠려있었습니다.한국은행에 따르면 올해 상반기 기준 한국 은행들의 총 영업이익에서 이자이익이 차지하는 비중이 86.15%나 됩니다.비이자이익 비중은 13.85%에 불과한 것이죠.뱅크오브아메리카 약 46%, 홍콩상하이은행(HSBC)이 50% 정도인 점을 감안하면 격차가 큽니다.&lt;앵커&gt;한국 금융회사들의 저평가 이유를 분석할 때마다 빠지지 않는 게 규제가 지나치다는 점인데요.이 부분은 어떻습니까.&lt;기자&gt;최근 몇년새 금융당국이 주택담보대출 등 가계대출 규제를 강화했죠.은행들은 대출 상품을 팔아 수익을 올려야 하는데, 정부 규제로 상품을 팔지 못하게 되면 시장 기대만큼 수익을 올리기 어려워집니다.여기에 인수합병을 통해 비금융 부문까지 사업을 다각화하고 싶어도 규제로 제한을 받는 점도 논란입니다.은행의 비금융자회사 지분 소유를 은행법에서 제한하고 있기 때문인데요.은행법 37조는 `은행은 다른 회사 등의 의결권 있는 지분증권의 15%를 초과해 소유할 수 없다`고 규정하고 있습니다.금융그룹 지주사들의 비금융 자회사 지분 소유도 금융지주회사법으로 제한돼 있습니다.예를 들면 최근 금융앱인 `토스`와 토스뱅크를 운영하는 비바리퍼블리카가 모빌리티 서비스를 제공하는 `타다`를 인수해 비금융 사업을 확장했잖아요.금융회사들은 이 처럼 비금융 회사를 인수하고 싶어도 현재로선 불가능한 셈입니다.주가는 미래가치를 반영하기 때문에 당장 실적이 좋아도 성장 가능성에 의구심이 든다면 악영향을 받게 됩니다.규제로 인해 사업 진출에 제한을 받게 되면 선택할 수 있는 성장 방법이 줄어들 게 되니, 투자자들 입장에서는 한국 금융회사들의 성장 가능성에 의문을 가질 수 있는 것이죠.이와 관련해 시장 전문가 이야기 들어보겠습니다.[김재우 삼성증권 수석연구위원: 배당주라고 보시지 성장주라고 아무도 안 보시니까. 내년 배당이 올해보다 의미 있게 늘어난다면 주가도 일부 반영을 하겠죠. `당장은 돈이 되지만 5년, 10년 뒤에는 다 잡아먹혀서 배당 되겠어` 이렇게 되면 점점 디스카운트는 심해지겠죠.]&lt;앵커&gt;그렇다면 한국 금융회사들이 저평가를 벗어나기 위해선 어떤 부분들이 필요할까요.&lt;기자&gt;금융회사들의 경우 자사주매입 등 보다 적극적인 주주환원정책을 펼칠 필요가 있습니다.자사주 매입을 하면 주식 유통 물량이 줄기 때문에 일시적으로 주가가 상승하는 효과가 있고, 주식을 소각하면 이익을 환원하는 효과가 있습니다.올해만 해도 뱅크오브아메리카는 약 250억 달러 규모 자사주 매입을 발표하고, 모건스탠리는 내년 6월까지 120억 달러 규모의 자사주를 매입한다고 밝혔는데요.국내 금융회사들은 일부 임원들의 자사주 매입이 있었지만 상대적으로 규모가 미미한 수준이었거든요.이런 부분에 대한 개선이 필요해 보입니다.정부의 규제도 보다 완화될 필요가 있습니다.최근 금융회사들이 핀테크 기업에 대한 지분 취득 규제를 완화해달라고 금융당국에 건의했는데요.일단 금융당국은 법 개정이 아닌 가이드라인을 통해 금융회사들이 핀테크 기업을 인수할 수 있도록 했습니다.하지만 중장기적으로 법제도 정비를 위한 논의가 필요해 보입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2021.12.29.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>[진검승부 중금리]①카카오뱅크 "신용 500점도 대출…대안정보 수집 확대"</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005812661?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>하경태 신용리스크모델링팀장 인터뷰…"새로운 모형으로 중금리 취급액 9배 확대""카카오생태계 국한하지 않고 정보수집…도서정보·자동이체 정보 등 활용할 것"[편집자주]우리나라 대출시장의 문제점 중 하나는 중금리 시장이 비어있는 금리단층 현상이다. 그러다 보니 중신용자도 저신용자와 같은 고금리 대출에 시달리고 있다. 금융당국이 인터넷은행을 통해 중금리 대출시장을 키워 금리단층 현상을 없애려는 이유다. 내년에도 중·저신용자 대출을 총량규제에서 제외하거나 완화하는 당근책을 내놓기로 했다. 카카오뱅크와 케이뱅크에 이어 토스뱅크까지 가세한 인터넷은행 삼국지 시대를 맞아 중금리대출 진검승부가 예고되고 있다. 여기에  '1.5금융'을 표방하는 온라인투자연계금융(온투업)업계도 도전장을 내밀었다. 인터넷은행 3사와 온투업계의 내년 중금리대출 전략을 들어봤다.카카오뱅크 하경태 신용리스크모델링팀장© 뉴스1(서울=뉴스1) 송상현 기자 = "새로운 신용평가모형을 적용해 신용점수 500점대 고객으로 대출 대상을 확대했습니다. 카카오뱅크만의 차별화된 대안신용평가모형 개발을 위해 카카오 생태계에 국한하지 않고 다양한 대안 정보를 수집할 계획입니다"인터넷전문은행 카카오뱅크는 올해도 중저신용자를 대상으로 한 중금리 대출 활성화를 위해 부단히 뛰었다. 다만 10월 기준 중금리대출 비중은 14.6%로 목표치(20.8%)에 미달했다.내년엔 더 올라간 목표치(25%)를 맞추기 위해 더 세밀한 전략이 필요한 시점이다. &lt;뉴스1&gt;은 29일 하경태 카카오뱅크 신용리스크모델링팀장과 서면 인터뷰를 통해 카카오뱅크의 중금리 대출 성과와 전략에 대해 들어봤다.하 팀장은 올해 6월부터 적용된 새로운 신용평가모형(CSS)에 대해 자신감을 나타냈다. 새로운 모형은 중신용고객, 금융이력부족고객(씬파일러)에 특화한 투트랙으로 개발됐다. 하 팀장은 "금융 이력 부족 고객 특화모형 적용을 통해 중위 점수 구간에 집중됐던 금융 이력 부족 고객을 리스크 수준에 따라 보다 세분화해 신용도를 차등화할 수 있게 됐다"며 "올해 6월 이후 월평균 중신용대출 취급액은 새로운 신용평가모형 적용 전에 비해 9배 이상 증가했다"고 설명했다.이어 "그동안 취급실적이 미미했던 신용점수 500점대 고객으로까지 신규대출 취급이 확대되는 효과를 거뒀다"고 했다. 신용점수 500점이면 KCB기준 7~8등급에 해당한다. 통상 5등급 이상이 돼야 은행권에서 신용대출을 받을 수 있었고, 7등급 이하면 사실상 불가능했다.카카오뱅크는 그동안 카카오택시, 카카오 선물하기 등의 대안 정보를 가점 형태로 반영해 신용도를 평가해 왔다. 현재는 간편결제·송금정보를 보유한 카카오페이를 통한 모형개발도 진행 중이다. 이런 대안 정보들은 실제로 금융 이력 부족 고객이나 중저신용고객의 신용도를 평가하는 데 톡톡한 역할을 했다.하 팀장은 "카카오택시 이용금액과 카카오 선물하기 결제 횟수 등의 대안 정보들은 신용도와 유의미한 경향성을 나타내는 것으로 분석 결과 확인됐다"고 설명했다. 이어 "이런 결과를 바탕으로 해당 항목들을 기존 신용평가모형에 가점 형태로 반영하거나, 대안 정보들을 활용해 별도의 신용평가모형을 만들어 기존 신용평가모형의 보조지표 형태로 활용하고 있다"고 덧붙였다.카카오뱅크는 보다 정밀한 신용평가모형을 만들기 위해 카카오 생태계 밖으로 문을 넓힐 계획이다. 하 팀장은 "카카오뱅크 신용평가모형의 목표는 카카오뱅크만의 차별화된 대안신용평가모형 개발이기 때문에 카카오 생태계에 국한하지 않고 다양한 대안 정보를 수집·분석해 신용평가에 활용하고자 한다"고 설명했다. 이어 "앞으로는 최근 MOU(업무협약)를 진행한 교보문고의 도서 정보, 그 외 사용 가능한 유통정보, 자동이체 정보 등을 활용할 것"이라고 했다.하 팀장이 속한 신용리스크모델링팀은 신용평가모형 개발을 위해 빅데이터분석팀과 긴밀하게 협업하고 있다. 이 두 조직은 총 20명으로 움직인다. 하 팀장은 "빅데이터분석팀은 신용평가항목발굴과 모형개발방법론에 대한 선행연구를 진행하고 신용리스크모델링팀은 분석팀에서 새롭게 확보한 항목들과 모형개발기법을 통해 신용평가모형 성능 향상에 효과가 있는지를 분석한다"고 밝혔다.카카오뱅크는 중금리 대출을 두고 또 하나의 도전을 한다. 중금리혁신법인에 참여해 개인사업자 CB(신용평가사업)에도 뛰어든 것이다. 금융기관이 겪어온 개인사업자 신용평가에 관한 어려움을 해소하는 것을 목표로 카카오뱅크 외에도 KB국민은행, SGI서울보증, 현대캐피탈 등이 손을 잡았다. 하 팀장은 "현재 개인사업자에 대한 신용평가는 주로 사업주의 개인 신용정보에 근거하고 있어, 사업체가 가진 유무형의 경쟁 요소 등은 신용평가에 제대로 반영되지 않고 있다"며 "중금리혁신법인 참여로 개인사업자 대상 금융 혁신에도 속도를 높일 계획"이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2021.12.24.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>토스증권, 청소년 대상 비대면 게좌개설 서비스</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002262979?sid=004</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>토스증권은 10대 청소년 고객들을 대상으로 24일부터 비대면 계좌 개설 서비스를 시작했다.   14세 이상 만 19세 미만의 청소년은 토스증권에 접속해 신분증과 본인 명의 계좌를 통한 간단한 본인 인증 후 보호자 동의 절차가 완료되면 계좌를 개설할 수 있다. 본인 인증을 위해서는 나이에 따라 여권, 주민등록증, 운전면허증, 원동기면허증을 사용할 수 있다.   계좌 개설을 신청하면 보호자의 휴대폰으로 알림이 전송되며, 보호자는 자녀의 계좌 개설 동의 및 공동인증서를 통한 가족관계 확인 절차를 진행하게 된다. 보호자가 먼저 청소년 자녀의 계좌 개설을 신청할 수도 있다. 보호자가 신청 및 동의 절차를 완료하면 자녀에게 알림이 전송되고, 이후 자녀가 직접 토스증권에 접속해 계좌를 개설하면 된다.   금융감독원에 따르면 지난 해(2020년) 기준 신규 개설된 미성년자 주식 계좌는 47만5399개로 전년(2019년) 대비 5배 이상 상승했다.   한편, 토스증권은 이 달 말까지 신규 계좌 개설 고객을 대상으로 ’해외주식 1주 선물받기’ 이벤트를 진행한다. 이벤트 기간 내 생애 최초 토스증권 계좌를 개설하는 10대 청소년 고객들은 미국주식 1주를 지급받고 투자를 시작할 수 있다..</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2021.12.30.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>"대출 한파 풀리나"…은행권, 새해부터 우대금리 혜택 등 부활</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004901422?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>[매경DB] 정부 대출규제로 지난 9월부터 사라졌던 시중은행 우대금리 혜택이 새해부턴 다시 부활한다. 우대금리가 새로 생겨나면 대출 차주가 체감하는 이자 부담은 적어진다.30일 금융권에 따르면 KB국민은행은 새해 3일부터 전세자금대출(KB주택전세자금대출·KB전세금안심대출·KB플러스전세자금대출)의 우대금리를 현행 최대 0.7%에서 0.9%로 상향키로 했다. 주택담보대출(KB주택담보대출 변동금리 상품)의 경우 아예 사라졌던 우대금리가 최대 0.30%까지 다시 되살아난다.국민은행 관계자는 "가계대출 총량 관리 차원에서 한시적으로 축소했던 전세자금대출과 주택담보대출 상품의 우대금리를 다시 확대한다"며 "소비자의 수요가 많은 상품인 만큼 금리 하락 효과가 기대된다"고 설명했다.이와 함께 우리은행도 새해 3일부터 10개 신용대출과 4개 주택담보대출의 우대금리를 최대 0.6% 상향할 예정이다. 신용대출 상품인 직장인대출(비대면 포함)의 경우 우대금리 상향에 따라 최저 금리가 3.40%에서 2.80%로 낮아진다. 우리원(WON)주택대출의 경우 우대금리가 아예 없었는데 0.4%포인트까지 적용한다. 우리아파트론과 우리부동산론은 ▲급여·연금이체 ▲공과금·관리비 자동이체 ▲신용카드 사용 ▲적립식예금·청약종합저축 납입 ▲청약종합저축 신규가입 등의 우대 항목이 생겨나면서 각각 0.5%포인트, 0.30%포인트의 대출금리 우대 혜택이 생긴다.은행권 관계자는 "우대금리가 올라가면, 대출자들은 그만큼 대출금리 부담이 적어진다"면서 "올해 금융당국 규제로 대출 총량이 묶였던 은행들이 내년에 새롭게 대출 총량이 제로 베이스에서 시작하면서 본격적인 경쟁 준비에 나선 것으로 해석된다"고 말했다.우리은행과 국민은행 외에 다른 시중은행들도 우대금리 확대에 나서는 것을 적극 검토하고 있는 것으로 알려졌다.한편 전날 토스뱅크는 새해 1일부터 대출영업을 재개한다고 밝혔다. 지난 10월 15일 신규대출을 전면 중단한 이후 석 달 만이다. 최저 금리는 연 3% 초반이며 최고 한도는 2억7000만원이다. 고객은 사용한 만큼만 이자를 부담하는 '토스뱅크 마이너스 통장', 최대 300만원 한도의 '토스뱅크 비상금 대출'도 필요에 맞게 선택할 수 있다.토스뱅크 관계자는 "고객들을 신용점수에 따라 편가르지 않고, 동등한 대출기회를 제공할 계획"이라고 밝혔다. 이는 최근 '고소득=고신용자'로 통용한 나머지 고신용자가 역차별 당하고 있는 것을 의식한 것으로 풀이된다.토스뱅크는 자체 신용평가모형에 따라 고객을 맞춤형으로 분석, '실질소득'을 기반으로 신규 대출여력을 판단한다. 고신용자부터 중·저신용자까지 대출상품을 이용할 수 있는 이유다.대출이용 고객에게는 실질적인 혜택도 제공한다.대출 만기 이전에 대출금을 상환하더라도 '중도상환수수료'는 무료다. 대출금은 고객의 필요에 따라 만기에 일시상환하거나(1년 단위, 최대 10년까지 연장), 원리금을 분할해 상환할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2021.12.31.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>"3차 접종력·경과일 확인하려면 쿠브앱 미리 업데이트하세요"</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012890631?sid=102</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>백신 패스를 위한 QR코드 인증(광주=연합뉴스) 천정인 기자 = 14일 오후 광주 서구 한 식당에서 백신패스를 위한 QR 코드 인증이 되지 않고 있다. 2021.12.14 iny@yna.co.kr    (서울=연합뉴스) 박규리 기자 = 다음 달 3일 '방역패스'(접종증명·음성확인) 유효기간 적용을 앞두고 애플리케이션으로 3차 접종력이나 2차 접종 이후 경과일을 확인할 수 있도록 방역 당국이 전자증명서·출입명부 시스템을 개선했다.    중앙방역대책본부(방대본)는 31일 백브리핑에서 "어제 전자증명서와 출입명부 시스템을 개선했다"며 "유효기간이 적용되는 내년 1월 3일 동시접속으로 인한 혼란을 방지하기 위해 쿠브앱이나 주로 사용하는 민간 전자출입명부 앱을 미리 업데이트해달라"고 당부했다.    쿠브앱이나 사용 중인 카카오, 네이버, 토스, PASS앱 등의 전자출입명부 앱을 업데이트하고, 이어서 접종 정보를 업데이트하면 3차 접종력과 2차 접종 후 며칠이 경과했는지를 쉽게 확인할 수 있다.    3차 접종자는 앱을 업데이트한 후에 접종 정보도 꼭 업데이트해야 한다. 그렇지 않으면 3차 접종력이 입력되지 않아 기본접종 이후 유효기간 6개월이 만료된 것으로 잘못 인식될 수 있다.업데이트 이후 전자접종증명 화면 예시중앙방역대책 본부 제공. 재판매 및 DB 금지    또한 방역 당국은 시설 운영자들은 KI-PASS 앱이 업데이트됐는지 내년 1월 3일 이전에 확인하라고 요청했다.    앞서 방대본은 시설 운영자가 이용자들의 접종상태를 쉽게 알 수 있도록 전자증명서 인증시스템에서 접종 상태를 소리로 안내하도록 시스템을 바꿨다.    업데이트된 KI-PASS에서는 유효한 접종증명서일 경우 '접종완료자입니다'라는 안내 음성이, 기간이 만료된 접종증명서에는 '딩동' 소리가 나온다.    KI-PASS 앱은 내년 1월 3일 0시 기준으로 자동 업데이트될 예정이다.    고재영 질병관리청 대변인은 "일반 국민에 대한 3차 접종이 내년부터 본격적으로 시작된다"며 "기업 등에서는 근로자들이 안심하고 접종에 참여할 수 있도록 별도의 유급 휴가나 병가 등 충분한 휴식 기간을 보장해달라"고 당부했다.    curious@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2021.12.29.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>"편해서 넣었는데…" 토스, 마이데이터 규정 위배 논란</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002990770?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>표준API 전환 정보제공 간소화심사 땐 없었던 '일괄동의' 넣어업계 전반 "원칙 어긴 것" 반발토스 "내일까지 오류 수정 계획"토스가 기존 스크래핑 기반 서비스에 표준API를 순차적으로 확대 적용하는 가운데 개인신용정보 제공 오남용 방지를 위한 필수 규정을 준수하지 않아 업계가 반발하고 있다. 정보제공 동의 절차를 간소화한다는 취지이지만 사용자 불편을 감수하더라도 정보제공 오남용을 막기 위해 금융당국이 정한 규정을 위반한 것이어서 논란이 되고 있다.29일 금융·핀테크 업계에 따르면 토스를 서비스하는 비바리퍼블리카는 지난주부터 일부 서비스에 한해 순차적으로 마이데이터 오픈API를 적용하면서 기술·서비스 가이드라인을 준수하지 않아 반발을 사고 있다. 이미 유관기관인 신용정보원과 금융보안원이 가이드라인을 다시 설명하고 준수해줄 것을 요청했지만 제대로 받아들여지지 않은 모습이다.복수 기업 관계자와 유관기관들에 따르면 이날 오전부터 토스는 일부 사용자에 대해 스크래핑 방식 대신 마이데이터 API를 적용하면서 사용자가 일일이 선택해야 하는 연결기관 선택 기능을 일괄 연결로 제공하고 있다.마이데이터는 사용자가 '알고하는 동의'를 이용해 직접 연결기관을 선택하도록 규정돼 있다. 반면 토스는 전체 기관에 대한 선택 기능을 미리 제공해 마이데이터 규정을 위반했다.또 정보제공 시 거쳐야 하는 인증 과정에는 간편인증을 적용했다. 통상 공동인증서와 사설인증서 중 선택해 비밀번호를 입력하는 과정을 거치는데 토스는 기존 사용자에게 제공해온 간편인증 기능인 토스 핀번호 인증을 제공했다.신용정보법 감독규정 내 신설된 마이데이터 사업자에 대한 행위규칙에 따르면 '개인인 신용정보주체의 접근수단에 접근할 수 있는 권한을 확보하는 방법'을 해서는 안 된다. 접근수단인 인증서에 접근할 수 있는 권한을 토스가 확보한 것으로 해석할 수 있다.토스는 마이데이터 시범서비스 전 필수로 거쳐야 하는 기능적합성 심사에서는 현재와 같은 버전을 구현하지 않았다. 심사 통과 후 규정을 자의적으로 해석해 심사 당시에는 없었던 일괄동의 기능을 넣은 셈이다.이미 토스는 지난주부터 신용정보원과 금융보안원으로부터 가이드라인을 다시 숙지받고 기능 수정을 요구받았다. 문제는 표준API를 순차 적용하다 보니 앞서 전환한 기능은 규정에 맞게 수정했지만 추후 전환하는 기능에서 오류를 일으키고 있는 것이다. 이날 발생한 알고하는 동의 기능 문제도 금융위원회나 유관기관에 사전 공유하지 않은 버전으로 보인다.마이데이터 서비스 내 '알고하는 동의'와 기관연결 선택 기능은 사용자가 자신의 개인신용정보 제공 동의에 따른 효과와 추후 발생 가능한 문제 여파를 사전 숙지하는 핵심 기능이다. 기관 연결이 많아지면 한 번에 통합 조회해 볼 수 있는 자산이 늘어나므로 편리하지만 반대로 정보유출·보안 사고가 발생하면 걷잡을 수 없이 피해가 커질 수 있어 유의해야 한다.토스는 오픈뱅킹 서비스에서도 금융기관 연결을 사용자 개별 선택이 아닌 일괄 연결 방식을 채택했다. 사용자 편의성을 높인다는 명목으로 마이데이터에서도 같은 방식으로 구현했다가 규정을 위반하게 된 것으로 보인다.토스 서비스는 대부분 스크린 스크래핑 기반이다. 이 때문에 업계는 토스가 스크래핑 사용자를 마이데이터 표준API로 단기에 전환하기 위해 편법을 쓴 것 아니냐고 의문을 제기하고 있다.업계 한 관계자는 “시범서비스 기간이기에 일부 오류는 있을 수 있지만 불법이 용인되는 것은 아니다”라며 “사용자 불편을 감내하고 대부분 사업자가 지켜낸 기본 원칙이자 가장 중요한 원칙을 토스는 어긴 것”이라고 꼬집었다.다른 관계자는 “불법으로 스크래핑 사용자를 마이데이터 API로 전환한 것”이라며 “기 전환된 데이터는 원복하고 규정을 어긴 사업자에 대한 처벌까지 검토할 만한 사안”이라고 주장했다.이에 대해 토스 측은 “현재 마이데이터 예상 사용자 800만명 중 10%에 한해 표준API로 전환하는 과정에서 기능적합성 심사 당시 없었던 일괄동의 기능과 간편인증 기능을 사용자 편의 측면에서 반영했다”며 “문제를 인지했으며 오는 31일까지 오류를 수정해 나갈 계획”이라고 입장을 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2021.12.29.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>토스뱅크, 1월1일부터 대출영업 재개…최저 3%대</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010914712?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>기사내용 요약최저 3% 초반, 최고 한도 2.7억신용대출·마이너스·비상금 대출[서울=뉴시스] 박은비 기자 = 토스뱅크가 내년 1월1일 오전 11시부터 대출영업을 재개한다고 29일 밝혔다.회사는 그동안 정부의 가계부채 안정화 정책 준수를 위해 지난 10월15일부터 신규 대출서비스를 중단한 상태였다. 이번 대출영업 재개로 최저 금리 연 3% 초반대, 최고 한도 2억7000만원을 제공한다. 고객들은 사용한 만큼만 이자를 부담하는 토스뱅크 마이너스 통장, 최대 300만원 한도의 토스뱅크 비상금 대출도 필요에 따라 선택할 수 있다. 토스뱅크는 자영업자나 1300만 신파일러(금융이력부족자) 등 제1금융권 문턱을 넘지 못한 고객들에게 신용점수 하락에 미치는 악영향을 줄이고 향후 신용도 개선 기회도 제공하겠다는 계획이다. 대출 이용 고객에는 중도상환수수료 무료 혜택도 주어진다. 대출금은 1년 단위로 최대 10년 연장 가능하다. 고객 필요에 따라 만기에 일시상환하거나 원리금을 분할해 상환할 수 있다.토스뱅크 관계자는 "고객의 신용점수를 진입장벽으로 삼는 대신 건전한 중저신용자를 발굴해 폭넓고 합리적인 대출서비스를 제공할 것"이라며 "코로나19로 어려움을 겪은 자영업자 등 신용도 개선 효과가 나타날 것으로 기대하고 있다"고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2021.12.23.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>韓 미래 관심사 키워드 '메타'…최태원이 선택한 아이디어는?</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000644092?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>국가발전 프로젝트 오디션서 의료·환경·미래기술·창업지원 등 4개 주제 집중우리나라 국민들의 주된 미래 관심사가 'M·E·T·A(메타)'로 꼽혔다. 이는 의료복지(Medical Welfare), 환경보전(Environment Protection), 미래기술(Tech. of Future), 창업지원 플랫폼(Aids for Startups)의 머리글자다.23일 대한상공회의소가 최근 2021년 국가발전 프로젝트 오디션에서 전문가들의 서류심사를 통과한 50선을 분석한 결과, 의료복지 범주에 들어가는 아이디어가 전체의 25%, 환경보전이 25%, 미래기술이 30%, 창업지원 플랫폼이 20%로 조사됐다.아이디어리그 2회 [사진=대한상의]또 최태원 대한상의 회장, 장병규 크래프톤 의장, 이유경 포스코엔투비 사장 등이 선택한 11개의 입선작 키워드도 이 같은 경향이 뚜렷했다.의료복지 분야에서는 현직 의사가 제안한 미래형 의료서비스 오픈마켓 '넥스트 레벨 메디신(김진현)'이 꼽혔다. 환자가 현재 증상, 과거 진단 등을 업로드하면 의사는 비용을 제시하는 방식이다. 또 병원이 운영되지 않는 주말과 야간 시간에 가벼운 질병에 한해 운영되는 비대면 의료처방 플랫폼 '닥터 나이트(옥진호)'도 포함됐다.이에 대해 이승건 토스 대표는 "비대면 의료를 둘러싼 갈등을 피할 수 있도록 영리하게 잘 짰다"고 평가했다.환경 보전과 관련해서는 줄기세포 기반의 개인 맞춤형 배양육을 통해 저탄소 식단을 실천할 수 있도록 하는 '배양육'(강민준)을 비롯해 종자투자 플랫폼을 통해 식량안보를 고려한 '코스싹'(김현재) 등이 포함됐다.미래 기술과 관련된 아이디어는 증강현실(AR)을 활용해 지역 경제 활성화를 유도하는 '코리아게임(윤서영)'이 대표적이다. 700만 감정노동자들에게 쏟아지는 비속어를 걸러내는 '내 귀에 캔디(양명진)'도 최 회장이 "현실화 가능한 아이디어"라고 좋게 평가했다.창업지원 플랫폼으로는 중소기업 간 외상 거래 내역을 디지털화하는 매출채권 결제 플랫폼인 '외상값 하이패스(양명진)', 폐업자들의 거래장터인 '폐업도 창업만큼(백명기)' 등의 아이디어가 등장했다.백명기 씨는 "10명 중 9명이 폐업한다는 문닫는 골목식당을 위한 커뮤니티, 거래장터가 필요하다"며 "중고물품 묶음거래 지원, 부동산·상권 정보 제공 등을 통해 폐업이 재도전의 발판이 되도록 하겠다"는 포부를 밝혔다.대한상의는 당초 시상금을 지급하는 '입선작' 10팀을 발표하려 했으나, 아이디어의 혁신성을 감안해 10+1팀을 발표했다. 이는 최 회장의 의중이 반영됐다는 설명이다.대한상의 관계자는 "오는 26일 TV로 방송되는 '대한민국 아이디어리그'에서 '압박 질문' 라운드를 통해 톱11이 톱6로 압축되는 과정을 보여줄 것"이라며 "6개 팀은 SK, 포스코, 크래프톤, 인텔 등 기업의 멘토링을 받게 된다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2021.12.20.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>내년 1월 3일부터 방역패스 유효기간 6개월…9일까지 계도기간</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000736701?sid=102</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>12일 서대문구 연세대학교 중앙도서관 입구에서 한 학생이 백신 접종 증명서를 보여준 뒤 입장하고 있다. 연세대는 오는 13일부터 중앙도서관에서 방역패스를 시행하기로 했다. 연합뉴스방역당국이 내년 1월 3일부터 '방역패스'(접종증명·음성확인)에 6개월의 유효기간을 적용하기로 했다.중앙방역대책본부(방대본)는 20일 정례브리핑에서 "방역패스 유효기간 적용시점인 내년 1월 3일부터 9일까지를 계도기간으로 정하고, 시설 이용자와 사업자에게 접종증명 유효기간에 대해 안내하고 지도점검할 것"이라고 밝혔다.정부는 당초 이날부터 방역패스 유효기간을 시행할 계획이었으나, 충분한 3차 접종 기회를 제공하기 위해 2주 뒤인 내년 1월 3일으로 적용 시점을 늦추기로 했다.이에 따라 오는 3일부터는 기본 접종을 완료했더라도 6개월 후 추가 접종을 받지 않으면 방역패스가 의무화된 시설을 이용할 수 없다. 현재 방역패스가 적용되는 시설은 식당·카페와 학원을 포함해 모두 16종이다. 다만 위반 시 과태료 부과나 행정처분은 일주일간의 계도기간이 종료된 10일부터 적용된다.다음달 3일 이후로는 쿠브 앱이나 카카오, 네이버, 토스, PASS앱 등 전자출입명부 플랫폼을 통해 유효기간 만료 여부를 확인할 수 있다. 접종 대상자에게는 잔여 유효기간이 만료되기 전 세 차례(유효기간 만료 14일·7일·1일 전)에 걸쳐 3차 접종 방법과 관련한 국민비서 알림이 전송된다.종이 예방접종증명서나 예방접종스티커 사용자는 질병관리청 코로나19 예방접종 누리집(https://ncv.kdca.go.kr)에서 확인하면 된다.한편 방역당국은 일부 중고거래 플랫폼 등에 접종증명서를 사고파는 행위 등에 대해서는 강력한 형사처벌이 가능하다고 강조했다.방대본은 "예방접종증명서를 위·변조할 경우 형법 225조, 229조에 따라 10년 이하의 징역 등 위중한 처벌을 받을 수 있다"며 "사적 모임에 위·변조한 방역패스를 사용했을 때도 관련법에 따라 징역이나 벌금, 과태료가 추가될 수 있다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2021.12.23.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 국제표준 정보보호 인증 ‘ISO/IEC 27001’ 취득</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002115862?sid=105</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 토스의 결제 서비스 계열사 토스페이먼츠(대표 김민표)가 국제표준 정보보호 인증인 'ISO/IEC 27001'을 취득했다고 23일 밝혔다.앞서 지불 카드 산업 데이터 보안 표준(PCI-DSS) 및 정보보안 경영시스템(ISMS) 인증을 취득한 토스페이먼츠는 이번 ‘ISO/IEC 27001’까지 국내외 주요 정보보호 인증을 받으며, 정보보호 관리 체계 운영 능력을 인정받게 되었다.  ‘ISO/IEC 27001’은 국제표준화기구(ISO) 및 국제전기기술위원회(IEC)에서 운영하는 가장 권위 있는 국제 표준 정보보호 인증이다. 정보보호 정책, 물리적 보안, 정보 접근 통제 등 총 14개 분야 114개 관리 기준에 따른 엄격한 심사를 통과해야 인증이 부여된다. 토스페이먼츠는 외부 컨설팅 없이 독자적으로 이번 인증을 취득했다. 토스페이먼츠는 안전한 결제 서비스 환경을 구축하기 위해 정보보호 부문에 적극 투자하고 있다. 2020년 8월 출범 당시 2명이었던 정보보호 관련 인력 규모는 2021년 12월 현재 8명으로 4배 증가했다. 올해 책정된 정보보호 예산은 전체 IT 예산의 18% 수준인 약 24억 원으로, 국내 금융권 대비 높은 편에 속한다.김승현 토스페이먼츠 정보보호 최고 책임자(CISO)는 "토스페이먼츠는 가맹점과 소비자 모두에게 안전한 결제 서비스 제공을 위해 물적, 인적 투자를 지속하고 있다. 2022년에는 개인정보보호 부문에 대한 인증을 추가 획득할 계획이다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2021.12.26.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>내년 한도 재설정, 가계대출 숨통트인다</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002712858?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>우리銀, 우대금리 0.6%P 올려농협은 신규 주담대 판매 부활카뱅 등 비대면 대출상품 강화은행권이 내년 한도 재설정을 대비해 대출 정상화 준비에 나섰다. 사진은 한 시중은행의 주택담보대출 금리표 모습. 연합뉴스    내년도 은행권 가계대출한도가 재설정되면서 실수요자들의 대출 숨통이 트일 전망이다. 이에 맞춰 은행들은 우대금리를 제시하거나 사전신청을 받는 등 고객 유치에 박차를 가하고 있다. 인터넷은행도 비대면 주택담보대출 상품을 출시하는 등 준비에 나섰다.26일 은행권에 따르면 우리은행은 다음 달 3일부터 10개 신용대출 상품과 4개 주택담보대출의 우대금리를 기존 대비 최대 0.6%포인트까지 올린다. 우대금리를 확대하면 대출금리 혜택을 볼 수 있다.농협은행은 내달부터 신규 주택담보대출 판매를 완전히 부활시킨다. 농협은행은 지난 8월 주택담보대출을 중단한 뒤, 이달부터는 무주택자에만 부분적으로 신규 주담대 판매를 진행해왔다. 11월부터 최대 2000만원까지로 낮췄던 신용대출 한도도 다시 1억원으로 늘린다.신규 주담대 판매를 잠정 중단했던 SC제일은행은 내년 대출 정상화에 앞서 이달 20일부터 사전 신규 신청을 받으며 준비에 착수했다.인터넷 은행도 대출 재개 준비로 바쁜 모습이다. 올해 출범 9일 만에 대출 한도를 채워 신규 대출을 중단해야 했던 토스뱅크는 내달 1일 신규 대출을 재개한다고 공지했다. 카카오뱅크는 내년 초 비대면 주택담보대출 상품 출시를 앞두고 있다. 중금리 대출 공급액도 전보다 큰 폭 확대하고, 새로운 대출 상품을 다수 출시할 전망이다.다만 내년엔 차주단위 DSR 규제가 강화되면서 대출 조건은 더 까다로워진다. 1월부터 DSR 2단계가 시행돼 총 대출액 2억원 초과 대출자는 차주별 DSR 규제가 적용된다. 7월부턴 3단계가 시행돼 1억원 초과 대출자도 규제를 적용받는다. 또 내년 가계대출 총량 관리 목표치가 4~5%로 올해보다 낮게 설정되면서 은행의 사전 관리가 더 강화될 것으로 보인다.다만 결혼·장례·상속세·출산·수술·입원 등에 필요한 신용대출의 특별한도는 '연 소득의 0.5배 이내, 최대 1억원까지' 범위에서 추가 적용된다. 당국과 시중은행이 협의하는 대로 내년부터 시행될 예정이다.금융당국은 지난 10월 말 "실수요가 인정되는 신용대출의 경우 한도를 연 소득 대비 1배로 제한하는 조치에서 일시 예외를 적용하기로 했다"고 밝혔다. 당국은 총량 관리로 인한 혼란을 최소화겠단 입장이다. 고승범 금융위원장은 지난 3일 "중·저신용자에 대한 대출, 정책서민금융 상품에 대해서 최대한 인센티브를 부여하고, 대출 중단이 없도록 체계적으로 관리하겠다"고 했다.  연합뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2021.12.28.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>중·저신용자 대출 막차 탈까…인터넷은행, 최저 '3% 후반' 가능</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010912229?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>기사내용 요약인뱅, 중·저신용 목표 맞추려 주력이자 지원, 대출 안심 플랜 등 시행옥죄기 지속·규제 불확실·금리 상승"막바지 고객 유치 혜택 활용할 만"[서울=뉴시스] 박은비 기자 = 대출 막차를 타야 할 지 고민 중인 중·저신용자라면 연말 인터넷전문은행 문을 두드려볼 만하다. 올해 인터넷은행만 유일하게 중저신용대출 비중 할당량이 있어 고신용대출은 중단하더라도 중저신용자를 대상으로는 막바지 고객 유치를 위해 각종 혜택을 내놓고 있어서다. 28일 은행권에 따르면 전날 기준 카카오뱅크 중신용대출 금리는 연 4.08~9.80%고, 중신용플러스대출은 연 5.37~14.08%다. 중신용비상금대출은 연 4.73~9.60% 선이다.이들 상품 모두 올크레딧(KCB) 820점 이하 중저신용자를 대상으로 한다. 케이뱅크는 중저신용자만 대상으로 하는 상품은 따로 없다. 다만 이들이 주로 이용하는 신용대출플러스 금리가 연 3.62~9.80%다. 케이뱅크는 지난달 초 중저신용자 대상 금리를 일제히 내린 데 이어 대출이자 2개월 캐시백, 대출 안심 플랜을 연말까지 시행하고 있다. 이자 캐시백은 신용대출, 신용대출플러스, 비상금대출, 사잇돌대출 등 4개 상품을 이용하는 고객에게 3개월째, 12개월째 이자 총 두달치를 돌려준다. 대출 안심 플랜은 신용대출과 신용대출플러스를 이용 중인 고객이 갑작스러운 사고로 상환이 어려울 때 보험사가 대신 빚을 갚아주는 서비스다.카카오뱅크도 지난 6월 시작한 중저신용 고객 대상 대출 첫 달 이자 지원을 연말까지 진행 중이다. 중신용대출, 중신용플러스대출, 중신용비상금대출 등 3개 상품을 신규로 대출받는 고객이 대상이다. 지난 6월부터 10월초까지 이자 지원 금액은 약 43억원으로 총 11만9000여명이 혜택을 받았다.추가로 상환 방식을 선택할 수 있는 것도 특징이다. 두 은행 모두 대출금액과 이자금액을 합친 금액을 대출 기간 동안 매월 납부하는 원리금 균등분할상환이 있다. 케이뱅크의 경우 만기일시상환도 가능하다. 대출 기간 이자만 부담하고 만기시 대출금을 모두 갚는 방식이다. 매월 이자금액만 내면 되기 때문에 초기에 대출금을 갚는 게 부담스러울 때 선택하면 된다.반면 고신용자 대상 신용대출 금리는 소폭 인상하고, 마이너스통장도 지난달 6일부터 신규 취급을 중단한 상태다. 카카오뱅크도 지난 10월8일부터 고신용 신용대출, 직장인 사잇돌대출 신규를 연말까지 중단했다.이 모든 게 중저신용자 대상 신용대출 비중 목표치를 부여받은 영향이다. 중저신용자 비중을 올해 카카오뱅크 20.8%, 케이뱅크 21.5%까지 달성해야 한다. 하지만 지난 9월 말 기준 카카오뱅크 13.4%, 케이뱅크 13.7%에 그쳤다. 토스뱅크는 출범 9일 만에 연간 한도 5000억원을 다 소진해 대출이 중단된 상태다. 1월부터 신규 취급을 시작한다.할당량이 따로 있지 않았던 시중은행은 그동안 관심을 두지 않았던 시장이라 중저신용자 범위를 어떻게 정해야 할지부터 고심 중이다. 나름의 계획을 제출하기는 했지만 개념과 기준이 통일될 필요가 있다고 보고 있다.이런 상황에서 대출을 고민하고 있다면 정책 불확실성과 옥죄기 지속 분위기를 감안해 대출 시기를 정할 필요가 있다. 내년 은행권 가계대출 증가율 목표치는 올해 전년 대비 증가율 6%대에서 4~5%로 더 낮춰 잡았다. 특히 금리 상승기에 접어들었다. 내년 초 한국은행의 기준금리 인상이 유력하게 점쳐진다.게다가 차주 단위 총부채원리금상환비율(DSR) 확대 적용 계획이 앞당겨 시행될 예정이다. 당장 내년 1월부터 주택담보대출과 신용대출, 카드론 등을 합한 총대출액이 2억원을 넘으면 개인별 DSR 규제가 적용된다. 내년 7월부터는 총대출액 1억원 초과시에도 DSR 규제가 확대된다.은행권 관계자는 "내년에도 인터넷은행들이 중저신용자를 대상으로 내놓은 혜택이 이어질지 모르겠지만, 내년에는 가계대출 총량이 더 줄어들고 금리도 올라간다고 해서 여러모로 대출받기 쉽지 않은 상황"이라며 "중저신용자 중에 대출이 필요하면 서둘러 막차를 타는 것도 방법"이라고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2021.12.31.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>신세계 통합 행사·11번가 랜선 콘서트…이커머스 새해 이벤트는?</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002116322?sid=105</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이안나 기자] 이커머스 업계가 각종 이벤트로 포문을 열며 2022년 임인년을 맞이한다. 당장 올해 마지막 날인 12월31일 오후 11시 11번가는 ‘랜선 힙합 콘서트’를 열어 시청자들과 함께 카운트다운을 진행한다. 이마트가 이베이코리아를 인수한 이후 SSG닷컴·W컨셉과 함께하는 통합 할인전도 주목할만한 점이다. 새해 첫날에도 대규모 할인 프로모션으로 고객 잡기 경쟁은 계속된다.    ◆이마트·SSG닷컴·G마켓·옥션·W컨셉 총출동=신세계그룹은 내달 1~5일 이마트·SSG닷컴·G마켓·옥션·W컨셉에서 통합 프로모션 ‘DAY1’을 선보인다. 올해 이마트가 이베이코리아를, SSG닷컴이 W컨셉을 인수한 이후 처음 열리는 합동 행사다.    이마트는 1월1~2일 이틀간, SSG닷컴과 G마켓·옥션·W컨셉은 1월1~5일 닷새간 행사를 진행한다. 먼저 이마트는 브랜드 한우 최대 50% 할인을 포함해 일자별 1+1 상품을 선보인다. SSG닷컴은 내달 1~5일 이마트몰 상품을 8만원 이상 구매한 고객 가운데 1800명을 추첨해 최대 1만원 ‘장보기 지원금’을 준다. 신세계백화점, 신세계몰 상품에 적용할 수 있는 최대 22% 할인쿠폰 2종도 매일 1회 제공한다.   G마켓, 옥션은 같은 기간 기획전 페이지를 통해 카테고리별 인기상품을 특가에 선보인다. 고객 전원에 ▲패션·뷰티 ▲스포츠·레저 ▲마트·식품 ▲디지털·가전 ▲가구·리빙 중 매일 1가지 카테고리를 선정, 최대 12% 할인쿠폰을 준다. W컨셉은 행사 첫날 6시간 단위로 ‘타임 릴레이 쿠폰’을 지급한다. ‘나이키 덩크로우 범고래’ 드로우 행사, 신규 가입고객 대상 ’웰컴딜’ 행사도 준비했다.   ◆11번가, 팔로알토·허클베리피와 ‘랜선 힙합 콘서트’=11번가는 유명 래퍼 ‘팔로알토’, ‘허클베리피’와 함께 연말연시 특집 라이브 방송을 31일 오후 11시부터 90분간 실시한다. 2022년 새해를 맞이하는 ‘신년 카운트다운’ 행사는 물론 실시간 댓글로 참여하는 ‘새해 소원 빌기’ 이벤트, 랩으로 표현하는 ‘스피드 퀴즈’, ‘밸런스 게임’ 등 이색 콘텐츠들이 진행된다.   특히 두 래퍼가 함께 꾸린 무대를 실시간으로 볼 수 있는 랜선 힙합 콘서트가 이날 라이브 방송 백미다. ‘거북선’, ‘아마두’, ‘Good day’ 등 힙합 팬들에게 많은 사랑을 받았던 곡들을 중심으로 총 20분 가량 라이브 공연을 진행한다. ‘라이브11’ 공식 인스타그램 계정에 다이렉트 메시지(DM)를 보낸 시청자 중 추첨을 통해 두 래퍼와 실시간 통화 기회도 제공된다.   풍성한 경품 혜택도 있다. ‘애플 맥북 에어’, ‘아이폰 13(128GB)’, ‘갤럭시 Z플립3(256GB)’, ‘LG 디오스 미니 와인셀러’ 등 카테고리별 대표 전자제품과 ‘SK페이 포인트’ 등 준비된 경품만 총 1000만원 상당이다.   ◆티몬, 포춘쿠키 이벤트 등  ‘2022년 대범한 쇼핑’ 진행=티몬은 1월1일부터 9일까지 진행되는 ‘2022년 대범한쇼핑’ 프로모션을 진행한다. 1일 1회씩 포춘쿠키를 선물하는데, 슈퍼세이브 고객에겐 최대 40% 할인쿠폰이 제공된다. 4만원 상품 구매 시 최대 1만6000원 할인을 받을 수 있다. 일반 고객도 최대 30% 쿠폰이 제공된다. 이 밖에도 2022년을 기념해 선착순 2,022명에게 22% 할인 쿠폰을 지급하는 이벤트도 동시에 진행된다.     이번 프로모션에서는 MBTI별 쇼핑 유형 리스트도 선보인다. 예를 들어 ‘I’ 내향형은 차분한 연말연시를 위한 집콕놀이에 맞는 상품을, ‘J’ 계획형은 완벽한 플랜을 위한 플래너, ‘F’ 감정형에게는 새해에 감사한 사람들에게 마음을 표현할 수 있는 선물세트 등을 추천한다.     ◆ 위메프 11특가와 위메프데이를 ‘한 번에’=위메프는 1월1일부터 6일까지 ‘11특가&amp;위메프데이’ 등 대대적 할인 행사를 진행하며 새해 포문을 연다. 1월1일 ‘11특가’에서는 상품 가격 끝자리를 ‘1원’, ‘11원’ 등에 맞춘 초특가 상품을 선보인다.    특히 0시부터 하루 6번 타임세일에서 시간별 5개씩 총 30개 파격 할인 상품을 공개한다. 주요 상품은 ▲허닭 닭가슴살 스테이크 ▲좋은느낌 순수소프트 슬림날개 ▲베베숲 소프트 ▲구룡포 햇 과메기 ▲언더아머 남성 벨로시티 윈드 러닝화 등이다.    2~6일에는 ‘위메프데이’를 진행한다. 5일간 ▲패션·뷰티 ▲디지털·가전 ▲리빙·가구·e쿠폰 ▲푸드 ▲유아동 등 카테고리를 총 망라한 혜택을 선보인다. 행사 기간 모든 고객에게 구매 금액별 쿠폰(최대 20%, 최대 6만원 할인)과 결제 수단별 쿠폰(최대 10%, 국민·농협·신한·비씨·하나·전북은행·카카오페이·토스·차이) 등 특별 쿠폰팩을 지급한다. 무료 멤버십 VIP클럽 회원은 추가 할인과 최대 5% 적립 혜택도 받을 수 있다.   ◆요기요, 선물하기 이용 시 순금 이벤트 진행=배달주문이 일상화된 요즘 배달앱 상품권도 유익한 선물이 될 수 있다. 요기요가 ‘요기요 선물하기’ 고객들에게 순금을 증정하는 ‘선물하기 딱 좋은 지금’ 프로모션을 진행한다. 요기요 앱에서 이용 가능한 상품권을 선물하면 추첨을 통해 경품을 제공하는 이벤트다.    프로모션 1등 경품으로는 ‘순금 5돈’을 준비했다. 요기요 회원 가운데 추첨을 통해 2명에게 선물한다. ▲2등 순금 1돈(22명) ▲3등 요기요 3000원 쿠폰(200명)이 마련돼 새해를 시작하며  선물을 선사한다. 이번 프로모션은 요기요 앱 내 ‘요기요 선물하기’ 서비스에서 5000원권 이상 구매하면 자동으로 응모된다.    이벤트는 오는 1월7일까지 진행하며 이벤트 기간에 ID당 최초 1회만 참여로 인정된다. ‘요기요 선물하기’에선 다양한 카드 디자인도 취향에 따라 선택할 수 있다. ‘새해 인사’ 카드 여섯 종을 포함해 개성 있는 디자인 카드 60여개를 준비했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2021.12.23.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>머지포인트, 미뤘던 캐시백 지급 또 연기…“포인트 사간 적 없어”</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002989686?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>운영사 "카드사 할부항변권 절차 탓"포인트 판매처 "대금 입금시 즉시 지급"홈페이지 운영도 중단...구설만 증폭머지포인트가 지난 10월부터 고객에게 지급하지 않았던 캐시백 포인트 지급 일정을 재차 무기한 연기했다.머지포인트 운영사 머지플러스는 지난 22일 “12월 25일 예정이었던 캐시백 지급이 유예되었음을 알려드린다”며 “추후 지급일정이 확정되는 대로 다시 안내드리겠다”고 공지했다. 지급 연기 이유로는 “카드사의 할부항변권 관련 절차가 진행됨에 따라 캐시백 지급 전 카드사 확인이 불가피해졌다”고 밝혔다.할부항변권은 신용카드로 할부 거래한 계약의 약속이 제대로 이행되지 않을 경우, 카드사에 잔여 할부금 지급을 거절할 수 있는 소비자의 권리를 의미한다. 앞서 금융감독원은 머지포인트 피해자에 대해 일부 할부항변권이 인정된다는 판단을 내리고 각 카드사와 민원인 등에 관련 내용을 통보했다. 20만원 이상 머지포인트를 3개월 이상 신용카드 할부로 구매하고 금융감독원에 민원을 접수한 소비자는 남은 할부금을 내지 않아도 된다.문제가 된 상품은 연간 구독권으로, 구매자가 1년에 약 18만원을 내면 토스·NHN페이코·하나멤버스 포인트로 전액 돌려주는 형태다. 여기에 추가로 현금 인출 가능한 포인트를 5만원 지급하기 때문에 판매처 손실이 크다는 측면에서 운영구조와 지속가능성 여부에 대해 의심받아왔다.머지포인트 구독형 상품의 경우 7월과 8월에 대부분 판매가 이뤄졌다. 8월 결제처 대폭 축소 및 머지포인트 판매 중단 이후 머지플러스는 돌연 10월부터 캐시백 지급을 연기했다. 고객별로 캐시백 지급 일정이 상이해 조정이 필요하다는 점을 이유로 들었다. 이때 12월로 연기했던 캐시백 지급 일정을 다시 연기한 것이다.토스 등 포인트 판매처들은 지난 10월 캐시백 지급 유예 이후 머지플러스가 포인트 구매를 위해 대금을 지급한 적이 없다고 밝혔다.토스 관계자는 “머지플러스 측이 정상적으로 대금을 입금할 경우 즉각 처리하 할 수 있도록 준비하고 있으며, 고객들에게 정상적으로 포인트가 지급되도록 머지플러스 측에 지속 요청하고 있다”며 “다만 대금 지불이 이뤄지지 않는 상황에서 토스가 임의로 고객들에게 포인트를 지급할 경우 법적 문제가 발생할 수 있다”고 입장을 전했다.앞서 머지플러스는 이달 홈페이지 운영을 갑작스레 중단하면서 구설에 오르기도 했다. 권남희 대표가 구속된 상태에서 이와 같은 문제가 이어지자 정상적인 경영이 불가능한 상황에 처했다는 의혹이 이어졌다. 머지플러스 본사에도 사무실 출근 인원이 없어 민원 접수 등에 어려움을 겪고 있는 상황이다.머지포인트 측은 “현재 머지머니 환불은 중단 없이 이뤄지고 있으며, 코로나19 확산으로 인한 재택 근무를 진행하고 있다“며 “홈페이지의 경우 호스팅 업체 내 결제 카드를 등록해두어 정상적으로 운영되어 왔으나, 결제 카드를 교체 하는 과정에 일시적으로 결제가 진행되지 않았다”고 해명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2021.12.22.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>'방역패스' 네이버·카카오에서도 뜬다…만료땐 '경고음'</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010903776?sid=102</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>기사내용 요약QR코드 스캔하면 음성 안내…만료시 경고음1월3일부터 네이버·카카오서 2차 접종 경과일 확인[용인=뉴시스] 김종택기자 = 방역패스 의무화가 시작된 지난 13일 경기도 용인시 기흥구 한 식당 이용자들의 휴대폰에 쿠브(COOV·전자예방접종증명서)애플리케이션 오류 메시지가 나오고 있다. 2021.12.13.jtk@newsis.com[서울=뉴시스] 김진아 정성원 기자 = 내년 1월3일부터 식당·카페 등에 출입 시 네이버나 카카오 등 민간 플랫폼을 통해서도 코로나19 백신 2차 접종 후 경과일을 확인할 수 있을 것으로 보인다. 고재영 중앙방역대책본부(방대본) 위기소통팀장은 22일 온라인 기자단 설명회에서 "방역 패스 관련 지적이 있는데 유효기간은 6개월이고 시행은 1월3일부터 된다"며 "이때부터 일반인들이 주로 이용하는 네이버, 카카오, 토스 등 통신사의 애플리케이션(앱)에서도 경과일을 확인할 수 있도록 민간 플랫폼사와 합의 중"이라고 밝혔다.코로나19 방역 패스(접종증명·음성확인)는 내년 1월3일부터 6개월의 유효기간을 두고 시행된다.방역 당국은 현재 질병관리청 쿠브(COOV) 앱에서만 확인 가능한 방역 패스 유효기간을 내년부터는 민간 플랫폼사를 통해서도 이를 확인할 수 있도록 할 계획이다.이에 따라 식당·카페 등 출입 시 스마트폰 QR코드를 스캔했을 때 유효기간이 만료된 경우 경고음이 나오게 된다.고 팀장은 "QR코드 스캔 시 유효기간 내에 한해 접종 완료자라는 음성 안내 나갈 것"이라며 "유효기간 만료 후엔 경고음이 나와서 시설 관리자가 음성 안내로도 유효기간 만료 알 수 있어 일일이 확인하는 수고를 덜 수 있을 것으로 본다"고 말했다.이어 "종이로 된 예방 접종 증명서나 스티커 등에는 별도 유효기간 표시가 없지만, 질병청에서 오늘 자에 유효한 2차 접종일을 홈페이지, 보도자료 등에 명시해 안내할 수 있도록 하겠다"며 "개별 대상자에게는 유효기간 만료 14일 전, 7일 전, 하루 전 잔여 유효기간과 3차 접종 방법을 국민 비서를 통해 안내토록 할 것"이라고 말했다.방역 당국은 내년 1월3일부터 방역 패스를 시행하고 일주일간의 계도기간을 거쳐 이후부터는 위반 시 과태료 부과 등 행정처분을 내릴 예정이다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2021.12.31.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>“14세 고객 잡아라” 카뱅 미니 돌풍, 은행권 청소년 고객 귀한 몸</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001931547?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>카뱅 미니 가입자 112만명 돌파시중은행, 핀테크 10대서비스 가세가입대상 넓어지고 특화서비스 출시[헤럴드경제=박자연 기자] “자정이 지나 만 14세가 되자마자, 가입하는 고객이 34%나 된다니까요. 중학교 2학년들 사이에 ‘생일 이벤트’가 된 거죠”카카오뱅크는 최근 청소년 전용 선불전자결제지급수단 ‘미니’의 가입 시점을 분석하고 깜짝 놀랐다. 만 14세가 가입 조건인데 생일날 가입한 고객이 34%였고, 이 중 절반은 생일이 지나자마자인 0시에서 새벽2시 사이에 가입했다. 자신만의 결제지급수단을 갖는 것이 청소년들 사이에 필수 이벤트가 된 셈이다.2020년 10월 출시한 미니는 출시 1년 만에 가입자 105만명을 돌파했고, 2021년 12월 말 기준으론 가입자 112만명을 넘어섰다.카카오뱅크 관계자는 “14세 생일 이후 한달 이내 가입하는 고객도 53%고, 12월 말 기준 미니 가입 고객 64%가 14세였다”면서 “가입 대상이 되자마자 미니를 찾으며 또래문화로 자리매김한 것 같다”고 전했다.저연령층 공략은 또래문화와 주변인과의 동류의식이 중요한 미래세대 고객확보에 중요한 포인트이기도 하다.실제 MZ세대를 대상으로 진행된 하나금융경영연구소의 조사에서 카카오뱅크는 ‘가장 중요하게 여기는 금융기관’ 으로 43.8%가 지목하며 1위에 뽑혔다. 뒤로는 네이버페이 38.2%, 시중은행 37.7% 들이 자리했다.사정이 이렇자 전통 금융권도 청소년 고객 모시기에 나서고 있다. 수익성 자체로는 매력이 없지만 플랫폼에 대한 긍정적인 경험을 심어줘 미래 고객을 확보하기 위해서다.하나은행은 14세 미만까지 아우른 플랫폼인 ‘아이부자’를 내놨다. 이 서비스는 부모와 아이가 함께 사용하면서 자연스레 경제 교육을 진행할 수 있다는 점이 가장 큰 특징이다. 주요 기능인 용돈·알바비 기능을 활용해 아이가 돈을 모으고 쓰는 습관을 기르게 한다. 아이부자 서비스 주요 이용 고객은 10~15세이며 핵심 유저는 초등학교 고학년인 10~13세로 나타났다.하나은행 관계자는 “코로나 시대 돌봄공백이 발생할 수 있는 맞벌이부부가 용돈을 매개로 아이에게 숙제를 시키고, 가족단위로 합산이 된다는 점을 활용해 조부모와 소통시 해당 앱으로 조부모가 용돈을 줄 수도 있다”면서 “추후 더 다양한 미션을 추가하고, 현금을 입출금 할 수 있는 부분까지 기능을 확대할 예정”이라고 설명했다.KB국민은행도 지난 11월 10대 전용 플랫폼인 ‘리브 넥스트’를 선보이고 그 안에 선불전자지급수단인 ‘리브포켓’을 탑재했다. 신한은행도 10월 간편결제 서비스인 ‘신한밈’을 내놓고 만 14~18세를 대상으로 카드를 발급하고 있다. 핀테크 플랫폼 토스 역시 최근 가입 연령대를 다소 낮춘 선불카드 ‘토스 유스카드’를 출시했다. 만 7~16세까지 이용 가능하며 온라인쇼핑, 교통카드 이용이 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2021.12.30.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>고승범 "인터넷뱅크 대출한도 달리 적용"</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005116991?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>새로 출범…일반은행 등과 여건 달라금융당국, 자산규모 달라 같을 수 없어[이데일리 노희준 김정현 기자] 고승범(사진) 금융위원장이 카카오뱅크(323410), 토스뱅크 등 인터넷전문은행의 내년도 가계대출 한도를 일반은행과 달리 적용할 것이라고 밝혔다. 고승범 위원장은 30일 서울 정부종합청사 금융위 기자실에서 기자들과 만나 인터넷은행의 내년도 대출 한도와 관련, “새로 출범하는 인터넷은행 토스뱅크, 케이뱅크 등은 여건이 (일반은행과) 서로 다르다”며 “그런 부분에 대해서도 고려하면서 (대출 한도를) 다르게 결정할 것”이라고 말했다. 그는 “저신용자대출도 충분히 반영되도록 협의 중”이라며 “곧 협의를 마무리할 것”이라고 덧붙였다.금융당국 관계자는 이와 관련 “자산 규모가 다른 일반은행과 인터넷은행을 동일하게 취급할 수가 없다”며 “케이뱅크, 카카오뱅크, 토스뱅크가 다 해당한다”고 말했다. 자산규모가 상대적으로 작은 인터넷은행의 대출한도가 시중은행의 가계대출 증가율 4~5%보다 커질 수 있다는 의미로 풀이된다. 금융당국은 내년도 가계대출 증가율 목표치를 4~5%로 잡고 구체적인 내용을 현재 은행권과 논의 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2021.12.26.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>몸값 치솟는 K개발자···동남아서도 러브콜</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004000979?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>북미 실리콘밸리 IT기업 이어인니 이커머스 기업 인력 쟁탈전 가세한국 IT팀 통째로 채용 수소문스타트업계 인력난 심화될 듯[서울경제] 국내 대형 정보기술(IT) 기업과 유망 스타트업, 북미 실리콘밸리 IT 기업의 국내 우수 IT 인력 쟁탈전에 동남아시아 유니콘(기업가치 1조원 이상 비상장사)도 참전했다. 가뜩이나 심해지는 우수 IT 인력난이 더욱 가중되며 상위권 개발자 인력 임금 수준은 한층 더 높아질 전망이다.23일 벤처업계에 따르면 최근 인도네시아의 대형 이커머스 기업 A사는 국내 IT 개발팀 유치에 나섰다. 동남아시아에서 가장 큰 규모를 가진 이커머스 기업 중 하나인 A사는 인도네시아의 아마존으로 불리기도 한다. 지난 8월 인도네시아 증시에 상장하며 글로벌 금융 시장에서 화제가 되기도 했다. 매년 거래액이 빠르게 성장하며 외형을 키우고 있다.사진 설명하지만 동남아시아 지역 IT 인력은 회사의 성장세에 비해 다소 부족하다는 평가다. 이에 지리적으로 가까운 한국의 우수한 IT 팀을 통째로 채용하기 위해 수소문 중이다.한 글로벌 벤처캐피탈(VC) 관계자는 "글로벌 시장 관점에서 국내 시장은 작지만 창업 생태계는 잘 갖춰져 있어 훌륭한 평가를 받는다"며 "글로벌 대형 스타트업들은 국내 시장 진출보다는 개발 풀에 대해 더 관심이 많아 이를 바탕으로 한국 시장을 알아보는 편"이라고 설명했다.국내 벤처 역사가 20년이 넘은 만큼 우수한 IT 인력풀이 많고 시장에서 평가받는 가치도 매우 높다. 실제 창업한 지 1년도 안 된 이커머스 스타트업 알엑스씨(RXC)가 창업 전 투자로만 200억원을 유치한 것도 같은 맥락이다. 알엑스씨는 유한익 전 티몬 공동창업자와 카카오, 네이버, 29CM 등 개발인력이 초기 구성원에 참여했다. 성공 노하우와 아이디어, 우수한 인력만으로 200억원 가량의 뭉칫돈이 몰린 것이다.북미 실리콘밸리 IT기업의 국내 인재 유치가 이미 시작된 상황에서 동남아시아 대형 IT기업의 ‘러브콜’로 IT 인력난은 중장기적으로 더욱 심화될 전망이다.스타트업 업계 관계자는 "해외 IT기업의 국내 인력 채용뿐 아니라 구글코리아 등 국내 지사에서도 개발자 인력을 최근 대거 채용하면서 국내 서비스 개발에 필요한 IT 인력난이 꾸준히 이어지고 있다"고 설명했다. 실제 크레딧잡에 따르면 구글코리아의 2019년 11월 인력은 358명이었는데 올해 11월에는 528명으로 47% 늘었다. 아마존웹서비시즈(AWS)코리아도 같은 기간 인력이 100% 늘어난 820명을 기록했다.현재 우수 개발자 몸값은 갈수록 높아지고 있다. 올해 초 넥슨은 신입 개발직군 초봉은 5,000만원으로 올렸다. 엔씨소프트 역시 초봉 제한을 없애고 개발직군 연봉을 1,300만원 이상 높이기도 했다. 당근마켓, 토스 등 역시 업계 최고 대우를 내세우며 우수 IT 인력 유치에 공을 들이고 있다. 인공지능(AI) 분야 우수 인력의 경우 병역특례인 전문연구요원 연봉도 1억원을 넘어가는 수준인 것으로 알려졌다.벤처업계 관계자는 “모든 개발자 몸값이 높은 것은 아니지만 일부 우수 개발자를 중심으로 인력이 귀해지고 있다”며 “예상 외로 대형 기업에 있는 개발자들이 잘 움직이지 않아서 국내 스타트업 업계의 인력난은 더 심해질 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2021.12.27.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>[올해의 인물-MZ세대] 2021년 대한민국은 'MZ'로 통했다</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/586/0000032859?sid=100</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>정치·경제·문화 전반에서 '열풍의 핵'각 분야별로 선정된 인물들도 MZ 키워드가 관통시사저널이 선정한 2021 '올해의 인물'은 'MZ세대'였다. MZ세대는 1980~1994년에 태어난 밀레니얼 세대와 1995~2000년대 초 사이 태어난 X세대를 통칭한 세대를 의미한다. 지난 한 해 우리 사회 전 분야에 걸쳐 막대한 영향력을 미친 MZ세대는 현재 지지율 1·2위를 치열하게 다투고 있는 더불어민주당 이재명· 국민의힘 윤석열 대선 후보와 막판 경합을 벌이다 최종 1위로 선정됐다.분야별 올해의 인물도 역시 MZ세대가 관통했다. 올해의 정치 인물에서는 이준석 대표가 압도적 지지를 받았고, 경제 인물에 선정된 정용진 신세계 부회장 역시 50대로 MZ세대는 아니지만 기존 재벌가 총수와는 전혀 다른 방식의 젊은 소통을 이어간다는 점에서 많은 점수를 받았다. IT·의과학 인물의 가상인간 로지(22세 여성), 연예 인물의 BTS, 스포츠 인물의 김연경 또한 MZ세대 문화의 한 단면을 보여주는 스타들이다.매년 송년호에서 발표되는 시사저널 올해의 인물은 세 번의 절차를 거쳐 최종 선정된다. 먼저 시사저널 편집국 기자들이 지난 한 해 각 분야에 가장 큰 영향력을 미친 인물(또는 사건·현상 등)을 추천한다. 기자들의 추천을 바탕으로 후보군을 만든 후 시사저널 홈페이지를 방문한 독자들을 대상으로 온라인 투표를 진행한다. 해당 결과를 토대로 시사저널 편집국에서 다시 최종 선정 작업에 돌입한다.#1 "성과급 산출 방식을 공개해 달라." 2021년 1월 SK하이닉스 입사 4년 차 직원이 이석희 사장 등 구성원 전체에게 이메일을 보냈다. 경쟁사 대비 성과급이 적은 데 대한 공개적인 문제 제기였다. 최태원 회장은 곧장 연봉 반납을 선언하고, 이석희 사장은 사과를 표명했다. 투명한 성과 평가 기준이 약속됐다. 그 무렵 네이버와 카카오 창업자 역시 비슷한 문제로 사내 청문회에 소환돼 저연차 직원들의 돌직구 질문에 진땀을 쏟았다.#2"저는 상승세를 타고 있으니 기대하셔도 좋습니다.(수영선수 황선우)" 지난여름을 달군 도쿄올림픽에서 '아쉬운 은메달' '죄송한 노메달'은 없었다. 수상대 꼭대기에 서지 못하면 카메라 앞의 죄인이 됐던 선배들과 달리, 선수들은 승패나 메달 색과 상관없이 미소를 띠며 만세를 불렀다. 높이뛰기 4위 우상혁 선수는 도약 전 관중 호응을 유도하며 경기를 즐겼고, 결승전에서 패한 유도 조구함 선수는 종료 직후 상대 손을 번쩍 치켜들었다. 이들이 만들어낸 '쿨(cool)림픽'에 또래 국민들도 '졌잘싸(졌지만 잘 싸웠다)'로 호응했다. 비인기 종목 선수들을 찾아내 응원하는 흐름이 한동안 '놀이'처럼 번지기도 했다.#330대 제1야당 대표의 탄생, 이른바 '이준석 현상'은 온라인 중심의 2030세대 여론이 만들어낸 이변이었다. 2030의 기세를 목격한 정치권은 이들을 타기팅한 대선 전략을 세워나갔다. 투표하지 않는 세대, 정치에 무관심한 세대로 인식돼온 이들은 이제 선거의 '캐스팅보터'로 꼽힌다. 여전히 정치권은 청년 민심을 읽는 데 서툴다. 이준석이라는 세력화되지 못한 청년은 기성 정치 문법과 계속 부닥치며 갈등을 낳고 있다. 그러나 청년 정치는 이제 승리 공식에서 선택이 아닌 필수가 되었다.2021년 한 해, MZ세대는 우리 사회에서 당연했던 질서들에 가차 없이 돌을 던졌다. 그 파장은 곳곳의 풍경들을 바꿔놓았다. 50대 이상 기득권으로 꽉 찬 정치권에 이준석 당 대표를 탄생시켰고, 경제활동의 무게추를 상당 부분 가상공간으로 옮겨놓았다. 조직의 일방향적 보상과 희생의 요구엔 '왜'냐고 주저 없이 반문했다. 각종 현상과 열풍을 주도하는 MZ세대의 부상은 곧 구시대의 와해와 새 시대의 시작으로 해석되었다. 기성세대는 MZ세대에 대해 '공부'하기 바빴고 정치는 이들의 표를, 시장은 이들의 지갑을 얻으려 촉각을 곤두세웠다. 대한민국은 지금 MZ세대에 '적응' 중이다.▒ 트렌드 소비자 넘어 '생산 주체'로기성세대가 주도하는 시장에서 선택해 소비하던 MZ세대는 이제 소비 트렌드를 주도하고 직접 생산의 주체로까지 등장하고 있다. 오늘날 경제활동인구(약 2772만 명, 2021년 2월 통계청 기준)에서 MZ세대가 차지하는 비중은 45%에 이른다. 대기업에선 2030세대 직원 비중이 약 60%, IT 등 스타트업에선 80%에 달하기도 한다. 시장을 이끌고 있는 기업의 대표 얼굴로도 MZ세대가 속속 등장하고 있다. 최근 네이버는 새 최고책임자(CEO) 자리에 1981년생 최수연 신임 대표를 파격 임명했다. 마켓컬리·토스·직방 등 MZ세대 리더가 설립한 기업들은 변화하는 트렌드에 발맞춰 빠른 성장 속도를 보이고 있다. 국내 100대 기업 기준 MZ세대 임원은 2019년 28명에서 2021년 64명까지 증가했다.MZ세대는 경제활동조차 '재미'가 있어야 하며 또 '희소'해야 한다. 2021년 한 해 MZ세대가 주도한 이색적인 소비 트렌드 중 하나는 업종 간 경계를 넘어 '굿즈'를 제작하는 이른바 '콜라보레이션 열풍'이었다. 대표적으로 전통의 밀가루 브랜드 '곰표'의 캐릭터를 활용해 출시한 맥주·패딩·화장품 등은 한동안 품귀 현상을 빚었다. 뒤따라 여러 브랜드에서 다양한 콜라보 제품을 선보였고 MZ세대는 앞다퉈 SNS 인증을 이어나갔다. 치열한 경쟁을 뚫고 '한정판' 제품을 구한 후 웃돈을 얹어 되파는 '리셀(resell·재판매)' 시장 역시 MZ세대의 뜨거운 활동 무대가 되었다. 이용자의 40% 이상이 MZ세대인 것으로 추정되는 리셀 시장은 코로나19 국면에서도 줄곧 활황을 보이고 있다.MZ세대는 유행을 만들어내는 것을 넘어 경제 및 문화 활동의 공간을 새롭게 확장하기도 했다. 3차원의 가상공간 메타버스(metaverse) 안에서 이들은 자신을 투영한 아바타를 생성해 현실과 동일하게 '살아간다'. 이미 국내 엔터테인먼트 기업과 스타벅스·구찌 등 세계적인 브랜드들이 메타버스 플랫폼 '제페토'에 입점해 MZ세대와 접점을 만들어가고 있다. 이곳에서 MZ세대는 단순한 소비를 넘어, 아이템을 직접 제작·판매하며 수익활동에도 나서고 있다. '제페토 크리에이터'는 새로운 공간에서 탄생한 유망 직업 중 하나다. 이러한 현상은 코로나19 장기화와 디지털 문화에 익숙한 MZ세대의 관심이 맞물린 결과로 해석된다.▒ '공정' 향한 분노와 '이준석 현상'기성의 벽이 가장 견고한 정치에도 어김없이 새바람은 들이쳤다. 2021년 한 해 MZ세대는 공정이라는 가치를 두고 내내 분노했다. 부동산 정책 실패와 인천국제공항공사 비정규직 문제 등 반복되는 '불공정' 논란에 MZ세대는 정부·여당을 향한 기존의 지지를 철회했다. 특히 MZ세대의 역린을 건드린 '조국 사태'는 정권교체의 열망을 키웠고 '공정'을 대선의 주요한 시대정신으로 부상시켰다. 이러한 공정에의 깊은 분노는 이들의 적극적인 정치 참여로 이어졌다.이들은 현실을 조금도 바꿔주지 못한 기성세대를 대신해, 자신들의 목소리를 투영해줄 새로운 인물을 필요로 했다. 이내 여론은 제1야당 당 대표에 도전장을 던진 이준석으로 수렴했다. 특히 자신들의 요구가 보수와 진보 어느 쪽에도 반영되지 않는 데 불만을 가져온 남성 청년들은 온라인 커뮤니티를 중심으로 세력화를 이뤘다. 1990년대생을 분석한 책 《K를 생각하다》를 쓴 임명묵 작가는 "이 대표 선출 과정은 전통적 정치 문법으로는 설명할 수 없는 현상이었다. 이 대표의 지지층은 온라인 엔터테인먼트의 문법대로 자신들의 팬덤을 만들고자 하는 열망이 있었다. 이 대표는 이를 투영받아 빠르게 세(勢)를 얻어나갔다. 이 대표가 청년 남성들을 공략한 게 아니라, 청년 남성들이 '저 사람은 우리 말을 들어줄 것 같고, 우리를 대리해 한 방 먹여줄 것 같다'고 생각해 스타로 만들어낸 것"이라고 분석했다.이준석 현상은 아직 미완이다. 오히려 호기롭게 당 대표로 선출된 이후, 당내 기성 구성원들과 잦은 충돌을 빚고 있다. 김종인 총괄선거대책위원장 영입 과정에서부터 '윤핵관(윤석열 핵심 관계자)' 논란으로 윤석열 대선후보 등과 충돌한 이 대표는 끝내 선대위원장직을 내던지기도 했다. 이 대표식 과도한 능력주의와 젠더 갈라치기에 대한 비판도 과제로 꼽힌다. 다만 이준석 현상의 경과와 무관하게 이미 MZ세대는 정치권에서 더 이상 제외하고 논할 수 없는 존재가 되었다. 정치에 무관심한 세대로 치부돼온 MZ세대는 단숨에 대선 캐스팅보터로 부상했다. 하지만 이들의 표심은 다른 세대보다 훨씬 유동적이다. 특히 이재명-윤석열 두 후보 모두 이들로부터 적극적인 지지를 받지 못하고 있는 상황에서, 남은 기간 이 유동성은 더욱 크게 작용할 것으로 예상된다. 실제 복수의 여론조사에선 아직 표심을 결정하지 못한 2030 무당층 비율은 40% 안팎을 기록하고 있다. 기존의 진영이나 이념에 매몰되지 않고 실리에 따라 투표하는 MZ세대 표심을 잡는 것이 곧 선거 승패의 관건이 될 거란 관측이 나온다.▒ 혐오·한탕주의…MZ 열풍의 그림자한 번도 경험하지 못한 이 세대의 등장은 사회에 여러 그림자도 남기고 있다. MZ세대는 성별과 성별 사이 심리적 거리가 가장 먼 세대다. 젠더 갈등은 서로를 향한 공격적 비난과 무분별한 혐오로 분출돼 왔다. 정치권과 언론은 극심한 생존경쟁이 서로를 향한 적대감을 키웠다고 분석하면서도, 이들의 분열을 더욱 부추겼다. 여성할당제와 여성가족부 폐지 이슈로 이들을 갈라쳤고, 출처가 불분명한 각종 혐오 표현들을 확대 재생산했다.일자리 문제와 부동산 폭등으로 인한 미래의 불안은 MZ세대를 한탕주의에 빠지게 했다. '영끌(영혼까지 끌어모은) 투자'와 '빚투코인(빚+비트코인)'은 이들의 공격적인 투자 방식을 상징하는 용어다. 소득에서 부채가 차지하는 비율(LTI)에서 2030세대는 233.4%로 다른 연령층을 모두 추월했다(2021년 3월 한국은행 통계). '부모보다 못사는 최초의 세대'로 불리는 MZ세대는 코인 투자를 계층 상승의 마지막 사다리로 여겼다. '인생은 한강물 아니면 한강뷰'(임명묵 《K를 생각하다》 중)라는 자조 섞인 표현이 유행어처럼 오갔다. 그 때문에 MZ세대는 노동의 가치가 경시되고 시장을 왜곡한다며 투자를 규제하려는 기성세대를 향해 "평생 노예로 살라는 거냐"며 강하게 저항했다.한편 MZ세대를 향한 관심이 커지고, MZ세대란 말이 각 분야에서 과용되고 있는 만큼, 세대 분류에 대한 근본적인 고민이 다시 필요한 시점이 되었다는 지적도 나온다. 사실 한 세대로 분류하기에 M과 Z 사이 거리는 멀다. 인구의 3분의 1에 해당하는 10대 후반부터 40대 초반까지를 통칭한 탓에, MZ세대론에 대해 정작 당사자인 MZ세대는 무관심하며 때론 거부감을 나타내기도 한다. 물론 한 세대로 묶이면서 청년들의 목소리에 힘이 실릴 수 있었다는 의견도 있다. 그러나 젊은 세대를 거칠게 뭉뚱그려 놓은 후 이들을 쉽게 판단하려는 기성세대의 편의주의가 반영된 것이란 비판도 있다. MZ세대를 세밀화하지 않은 채 게으른 일반화가 반복된다면, '진짜 MZ세대'에 대한 이해도는 날로 떨어질 수밖에 없다는 지적이다. 어쩌면 우리 사회가 이야기하고 있는 MZ세대는, MZ세대로 묶여버린 이들로부터 이미 너무 멀어져 버렸을지도 모른다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2021.12.17.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>주35시간→주32시간 단축하는 배민...“이게 되네”</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000037335?sid=105</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>사진=배달이친구들우아한형제들이 내년부터 ‘주32시간 근무제’를 도입한다. 17일 우아한형제들은 송년행사에서 임직원들에게 “내년 1월부터 주32시간제를 시행하겠다”면서 이같이 밝혔다.주37.5시간→주35시간→주32시간 단축하는 배민...“이게 되네”앞서 우아한형제들은 지난 2015년 주37.5시간(주4.5일제) 근무제를 도입한 데 이어 2017년에는 주35시간제를 도입했다. 여기서 3시간을 추가로 단축해 내년부터는 주32시간제를 시행하기로 한 것이다. 이에 따라 임직원들은 월요일 오후 1시 출근, 오후 5시 퇴근하고 화~금요일은 오전 9시30분 출근, 오후 5시30분 퇴근하게 된다. 일별 근로시간이 최소 30분에서 최대 1시간 줄어드는 셈이다.우아한형제들 관계자는 주32시간제 도입 배경에 대해 “올해 전면 재택근무를 하면서도 업무효율에 문제가 없었다”면서 “조직 전체에 자율성과 업무 집중도를 높여 ‘일과 가정 양립’ 문화를 구현하고자 했다”고 말했다.우아한형제들뿐만 아니라 국내 스타트업·정보기술(IT)업계를 중심으로 ‘워라밸(일·삶의 균형)’ 보장을 위해 근로시간을 단축하는 사례들이 속속 등장하고 있다. 카카오게임즈는 매달 한 주씩 4일제 근무를 하다 올해 4월부터는 이를 격주로 확대했다. 게임 스타트업 엔돌핀커넥트는 지난 5월부터 월요일 휴무인 주4일 36시간 근무제를 시행 중이다. 토스 개발사 비바리퍼블리카는 지난 10월부터 금요일 오후 2시에 퇴근하는 ‘얼리 프라이데이(early Friday)’ 제도를 도입했다. 업계 관계자는 “근로시간 단축은 업무효율을 높이는 동시에 개발자 등 인재들을 확보하기 위한 유인책이 될 수 있을 것”이라고 말했다.한편 미국·유럽 등에서도 주32시간제 도입이 논의되고 있다. 미국 민주당 하원의원 13명이 공동발의한 ‘주32시간 근무법’은 주당 근무시간을 총 32시간으로 제한하고, 이를 초과하면 별도 수당을 반드시 지급해야 한다는 게 골자다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2021.12.22.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>유효기간 지난 방역패스 QR 하면 내년부터 경고음 울린다</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003160935?sid=103</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>식당에서 한 고객이 백신패스 QR코드 체크를 하고 있다. 뉴스1           내년 1월 3일부터 방역패스에 6개월의 유효기간이 적용된다. 식당이나 카페 등을 이용할 때 유효기간이 만료된 QR코드를 스캔하면 경고음이 울릴 예정이다. 또 네이버나 카카오 등 민간 플랫폼을 통해서도 코로나19 백신 2차 접종 후 경과일을 확인할 수 있을 것으로 보인다.고재영 중앙방역대책본부(방대본) 위기소통팀장은 22일 온라인 기자단 설명회에서 “방역 패스 관련 지적이 있는데 유효기간은 6개월이고 시행은 1월 3일부터 된다”며 “이때부터 일반인들이 주로 이용하는 네이버, 카카오, 토스 등 통신사의 애플리케이션(앱)에서도 경과일을 확인할 수 있도록 민간 플랫폼사와 합의 중”이라고 밝혔다.      코로나19 방역 패스(접종증명·음성확인)는 내년 1월3일부터 6개월의 유효기간을 두고 시행된다.      방역 당국은 현재 질병관리청쿠브(COOV) 앱에서만 확인 가능한 방역 패스 유효기간을 내년부터는 민간 플랫폼사를 통해서도 이를 확인할 수 있도록 할 계획이다.      이에 따라 식당·카페 등 출입 시 스마트폰 QR코드를 스캔했을 때 유효기간이 만료된 경우 경고음이 나오게 된다.      고 팀장은 “QR코드 스캔 시 유효기간 내에 한해 접종 완료자라는 음성 안내 나갈 것”이라며 “유효기간 만료 후엔 경고음이 나와서 시설 관리자가 음성 안내로도 유효기간 만료 알 수 있어 일일이 확인하는 수고를 덜 수 있을 것으로 본다”고 말했다.      이어 “종이로 된 예방 접종 증명서나 스티커 등에는 별도 유효기간 표시가 없지만, 질병청에서 오늘 자에 유효한 2차 접종일을 홈페이지, 보도자료 등에 명시해 안내할 수 있도록 하겠다”며 “개별 대상자에게는 유효기간 만료 14일 전, 7일 전, 하루 전 잔여 유효기간과 3차 접종 방법을 국민 비서를 통해 안내토록 할 것”이라고 말했다.      방역 당국은 내년 1월3일부터 방역 패스를 시행하고 일주일간의 계도기간을 거쳐 이후부터는 위반 시 과태료 부과 등 행정처분을 내릴 예정이다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2021.12.16.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>화성에서 30분을 날았다…인지뉴이티 17번째 비행 성공</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002571867?sid=105</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>무게 1.8kg 헬리콥터, 8개월간 3592미터 비행화성 헬리콥터 인지뉴이티가 지난 5일 17번째 비행중에 찍은 화성 표면에 비친 자신의 그림자 사진. 나사 제공미국 항공우주국(나사)의 화성 헬리콥터 인지뉴이티가 17번째 비행에 성공하면서 누적 비행시간 30분을 돌파했다.나사는 15일 무게 1.8kg의 인지뉴이티가 지난 5일 117초 동안 187미터를 비행했다고 밝혔다.이로써 인지뉴이티는 4월19일 첫 비행 이후 지금까지 총 비행시간 30분48초, 총 비행거리 3592미터를 기록했다. 최고 비행 고도는 12미터였으며 최고 속도는 시속 16km(초속 5미터)였다.나사는 17번째 비행이 끝나고 착륙하는 과정에서 탐사차 퍼시비런스와의 데이터 송수신이 갑자기 끊어지는 바람에 비행 기록 확인이 늦어졌다고 밝혔다. 나사는 4미터 높이의 언덕이 중간에 가로막고 있는 데다 퍼시비런스의 방향이 다른 쪽을 향해 있던 것이 둘 사이의 통신을 방해한 것으로 보인다고 설명했다.기울기 6도의 경사 지형에서 17번째 비행 대기 중인 인지뉴이티. 12월1일 탐사차 퍼시비런스가 295미터 떨어진 지점에서 촬영했다. 나사 제공8개월간 9개 이착륙장 이동…오늘 18차 비행인지뉴이티가 8개월에 걸쳐 세운 비행 기록은 나사가 애초 계획했던 ‘30일 동안 5차례’라는 시험비행 목표를 훨씬 초과하는 것이다.나사는 인지뉴이티가 1차 목표를 달성한 이후 6번째 비행부터는 시범 임무 단계로 전환해, 퍼시비런스와 연계한 공중 정찰 기능을 시험하고 있다.인지뉴이티팀을 이끌고 있는 테지 차네토스는 “인지뉴이티가 여기까지 올 것이라고는 아무도 생각하지 못했다”며 “인지뉴이티는 지난 8개월 동안 9개의 이착륙장을 옮겨다니며 혹독한 추위를 견뎌냈다”고 말했다.인지뉴이티는 이르면 15일(미국시각 기준) 18번째 비행에 나선다. 125초에 걸쳐 초당 2.5미터의 속도로 230미터를 비행한 뒤 10번째 비행장에 착륙할 계획이다.탐사차 퍼시비런스는 현재 예제로 충돌구의 ‘사우스 세이타’ 지역을 탐사하고 있다. 착륙지점 남쪽에 있는 세이타는 모래언덕이 물결처럼 이어지면서 층을 이루고 있는 지형이다</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
